--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,7 +1365,11 @@
           <t>4C14JWQL_ROG1</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>USADIROG210055</t>
+        </is>
+      </c>
       <c r="C19" t="n">
         <v>7.15</v>
       </c>
@@ -1389,10 +1393,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -3798,7 +3806,11 @@
           <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>USADIROG210057</t>
+        </is>
+      </c>
       <c r="C66" t="n">
         <v>176.4</v>
       </c>
@@ -3822,10 +3834,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>AMZN21334NB022</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -4414,7 +4430,11 @@
           <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>USADINTX220096</t>
+        </is>
+      </c>
       <c r="C78" t="n">
         <v>67.14</v>
       </c>
@@ -4438,10 +4458,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -5046,7 +5070,11 @@
           <t>5QEJNSVA_NTX1</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>USADINTX220085</t>
+        </is>
+      </c>
       <c r="C90" t="n">
         <v>5.1</v>
       </c>
@@ -5070,10 +5098,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -5528,7 +5560,11 @@
           <t>6FIO1MDJ_ROG1</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>USADIROG210054</t>
+        </is>
+      </c>
       <c r="C100" t="n">
         <v>100.1</v>
       </c>
@@ -5552,10 +5588,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -7291,6 +7331,139 @@
       </c>
       <c r="M136" t="n">
         <v>85</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>4GLARQRK_LTN</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>USADILTN220255</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>11051.2</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>121</v>
+      </c>
+      <c r="M137" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>6KSMLQ5R_NTX1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>89</v>
+      </c>
+      <c r="M138" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7JN9DTJG_NTX1</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>89</v>
+      </c>
+      <c r="M139" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" t="n">
         <v>35</v>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M3" t="n">
         <v>85</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" t="n">
         <v>55</v>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>90</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M7" t="n">
         <v>115</v>
@@ -801,53 +801,41 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5ZCEAYSH_LTR</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>USADILTR220217</t>
-        </is>
-      </c>
+          <t>2OVDJQPL_LTN1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>14268.8</v>
+        <v>13.18</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44856</v>
+        <v>44892</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44860</v>
+        <v>44893</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
         <v>85</v>
@@ -856,16 +844,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3R3F8S5K_TPF</t>
+          <t>5ZCEAYSH_LTR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADILTR220217</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>67421</v>
+        <v>14268.8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -873,17 +861,17 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44888</v>
+        <v>44856</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44889</v>
+        <v>44860</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45008</v>
+        <v>44980</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -893,7 +881,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -902,25 +890,25 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="M9" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8S6G2SDR_GDY</t>
+          <t>3R3F8S5K_TPF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USADIGDY220133</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17122</v>
+        <v>67421</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -931,20 +919,24 @@
         <v>44888</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -953,7 +945,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>115</v>
@@ -962,26 +954,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>613WD55F_LTN1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>8S6G2SDR_GDY</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>USADIGDY220133</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>43.5</v>
+        <v>17122</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -989,28 +985,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8C2X1J7G_LTR1</t>
+          <t>613WD55F_LTN1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>43.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M12" t="n">
         <v>55</v>
@@ -1048,12 +1048,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>323S6WET_LTR1</t>
+          <t>8C2X1J7G_LTR1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>44.32</v>
+        <v>76</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1061,13 +1061,13 @@
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1082,80 +1082,68 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4VF7D99P_GDY</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>USADIGDY220127</t>
-        </is>
-      </c>
+          <t>323S6WET_LTR1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>39564</v>
+        <v>44.32</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44862</v>
+        <v>44841</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44867</v>
+        <v>44841</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="M14" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8R3O7CPI_NTX</t>
+          <t>4VF7D99P_GDY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USADINTX220217</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12800.3</v>
+        <v>39564</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1163,17 +1151,17 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44886</v>
+        <v>44862</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45006</v>
+        <v>44987</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1183,7 +1171,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1192,25 +1180,25 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="M15" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1411ZR8P_GDY</t>
+          <t>8R3O7CPI_NTX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USADIGDY220134</t>
+          <t>USADINTX220217</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8729.98</v>
+        <v>12800.3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1218,23 +1206,27 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44887</v>
+        <v>44886</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1243,25 +1235,25 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M16" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4N9685MB_LTR</t>
+          <t>1411ZR8P_GDY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADIGDY220134</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13744</v>
+        <v>8729.98</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1269,27 +1261,23 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44855</v>
+        <v>44887</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44860</v>
+        <v>44890</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1298,104 +1286,96 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M17" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1BZKS31V_LTN</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>USADILTN220236</t>
-        </is>
-      </c>
+          <t>1PE1AZJP_LTN1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>25344.3</v>
+        <v>2.59</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G18" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4C14JWQL_ROG1</t>
+          <t>4N9685MB_LTR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>USADIROG210055</t>
+          <t>USADILTR220209</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.15</v>
+        <v>13744</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44833</v>
+        <v>44855</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44834</v>
+        <v>44860</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1404,25 +1384,25 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6BTNVXLF_LTR</t>
+          <t>1BZKS31V_LTN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USADILTR220212</t>
+          <t>USADILTN220236</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>718</v>
+        <v>25344.3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1430,17 +1410,17 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44876</v>
+        <v>44893</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44876</v>
+        <v>44887</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44996</v>
+        <v>45013</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1450,7 +1430,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1459,76 +1439,76 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6BTNVXLF_LTR</t>
+          <t>4C14JWQL_ROG1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>USADILTR220237</t>
+          <t>USADIROG210055</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>718</v>
+        <v>7.15</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44876</v>
+        <v>44833</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44876</v>
+        <v>44834</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8VWKPALG_ROG</t>
+          <t>6BTNVXLF_LTR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USADIROG220081</t>
+          <t>USADILTR220212</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29.74</v>
+        <v>718</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1536,17 +1516,17 @@
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44879</v>
+        <v>44876</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44879</v>
+        <v>44876</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44999</v>
+        <v>44996</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1556,7 +1536,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1565,25 +1545,25 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M22" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6YV3GFKP_GDY</t>
+          <t>6BTNVXLF_LTR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>USADIGDY220136</t>
+          <t>USADILTR220237</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>41125.8</v>
+        <v>718</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1591,50 +1571,50 @@
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44888</v>
+        <v>44876</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44890</v>
+        <v>44876</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="M23" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3G3OXYWS_LTR</t>
+          <t>8VWKPALG_ROG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>USADILTR220216</t>
+          <t>USADIROG220081</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35167.6</v>
+        <v>29.74</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1642,17 +1622,17 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44865</v>
+        <v>44879</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44867</v>
+        <v>44879</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AMZN45873SH022</t>
+          <t>AMZN46193SH022</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1662,7 +1642,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>AMZN45873SH022</t>
+          <t>AMZN46193SH022</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1671,25 +1651,25 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M24" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>86KYVG4W_LTN</t>
+          <t>6YV3GFKP_GDY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USADILTN220235</t>
+          <t>USADIGDY220136</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>26778.1</v>
+        <v>41125.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1697,27 +1677,23 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44862</v>
+        <v>44888</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>AMZN27007NB022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1726,76 +1702,68 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="M25" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2IKTHOPR_GDY1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>USADIGDY220128</t>
-        </is>
-      </c>
+          <t>2GRMROMU_LTN1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>28004.4</v>
+        <v>13.36</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44862</v>
+        <v>44892</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44871</v>
+        <v>44893</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M26" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>3G3OXYWS_LTR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>USADILTR220216</t>
+        </is>
+      </c>
       <c r="C27" t="n">
-        <v>14.57</v>
+        <v>35167.6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1803,46 +1771,54 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44860</v>
+        <v>44865</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44861</v>
+        <v>44867</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44950</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>AMZN45873SH022</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>AMZN45873SH022</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="M27" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
+          <t>86KYVG4W_LTN</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADILTN220235</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>54503</v>
+        <v>26778.1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1850,17 +1826,17 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44893</v>
+        <v>44862</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44889</v>
+        <v>44862</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45013</v>
+        <v>44982</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN27007NB022</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1870,7 +1846,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN27007NB022</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1879,25 +1855,25 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
+          <t>2IKTHOPR_GDY1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>USADILTR220230</t>
+          <t>USADIGDY220128</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>14621.9</v>
+        <v>28004.4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1905,23 +1881,27 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44888</v>
+        <v>44862</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44890</v>
+        <v>44871</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
+        <v>44991</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1930,62 +1910,50 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="M29" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>66BPSMWF_LTR</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>USADILTR220210</t>
-        </is>
-      </c>
+          <t>2YT17WGL_LTN1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>13946.3</v>
+        <v>17</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44855</v>
+        <v>44892</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44859</v>
+        <v>44893</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M30" t="n">
         <v>85</v>
@@ -1994,26 +1962,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
+          <t>3BTYRGGT_LTN1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>70</v>
+        <v>14.57</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44858</v>
+        <v>44861</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44948</v>
+        <v>44950</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -2028,7 +1996,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M31" t="n">
         <v>55</v>
@@ -2037,16 +2005,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTN</t>
+          <t>4TACGJRN_TPF</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>37975.7</v>
+        <v>54503</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2054,17 +2022,17 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44886</v>
+        <v>44889</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45008</v>
+        <v>45013</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2074,7 +2042,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2083,25 +2051,25 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M32" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_NTX</t>
+          <t>6U3SDR7C_LTR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADILTR220230</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>958.4</v>
+        <v>14621.9</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2109,27 +2077,23 @@
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2138,25 +2102,25 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M33" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6XLW9F1T_GDY</t>
+          <t>66BPSMWF_LTR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>USADIGDY220128</t>
+          <t>USADILTR220210</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19634.4</v>
+        <v>13946.3</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2164,17 +2128,17 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44862</v>
+        <v>44855</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44867</v>
+        <v>44859</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44987</v>
+        <v>44979</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2184,7 +2148,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2193,39 +2157,35 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M34" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>3DEIS4NJ_LTN1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>16134.8</v>
+        <v>70</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -2233,36 +2193,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="M35" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
+          <t>8QO31QHQ_LTN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17871.2</v>
+        <v>37975.7</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2273,20 +2229,24 @@
         <v>44888</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2295,7 +2255,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M36" t="n">
         <v>115</v>
@@ -2304,16 +2264,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2JV42YWJ_ROG</t>
+          <t>1WAWRZ1C_NTX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>USADIROG220080</t>
+          <t>USADINTX220215</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>223.05</v>
+        <v>958.4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2321,17 +2281,17 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44876</v>
+        <v>44886</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44870</v>
+        <v>44886</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44996</v>
+        <v>45006</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2341,7 +2301,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2350,35 +2310,35 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M37" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
+          <t>6HLPWWEQ_LTN2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>67.34</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44860</v>
+        <v>44892</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44861</v>
+        <v>44893</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44950</v>
+        <v>44982</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2393,25 +2353,25 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M38" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1XWGSMFB_LTN</t>
+          <t>6XLW9F1T_GDY</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>USADILTN220242</t>
+          <t>USADIGDY220128</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>828.48</v>
+        <v>19634.4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2419,17 +2379,17 @@
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44863</v>
+        <v>44862</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44862</v>
+        <v>44867</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44983</v>
+        <v>44987</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>KRUN20090SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2439,7 +2399,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>KRUN20090SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2448,7 +2408,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M39" t="n">
         <v>90</v>
@@ -2457,16 +2417,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4PPH3TEW_LTR</t>
+          <t>8QO31QHQ_LTR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10659.6</v>
+        <v>16134.8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2474,27 +2434,23 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44855</v>
+        <v>44888</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44860</v>
+        <v>44890</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2503,25 +2459,25 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="M40" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
+          <t>8ZWV2ARN_LTR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>51556</v>
+        <v>17871.2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2529,27 +2485,23 @@
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2558,25 +2510,25 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M41" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1AUSTKGK_GDY</t>
+          <t>2JV42YWJ_ROG</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>USADIGDY220131</t>
+          <t>USADIROG220080</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15295.1</v>
+        <v>223.05</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2584,17 +2536,17 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44865</v>
+        <v>44876</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44867</v>
+        <v>44870</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44985</v>
+        <v>44996</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2604,7 +2556,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2613,25 +2565,21 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M42" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6YV3GFKP_NTX</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>USADINTX220221</t>
-        </is>
-      </c>
+          <t>28NZCWFH_LTN1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>33008.8</v>
+        <v>67.34</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2639,54 +2587,46 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44886</v>
+        <v>44861</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="M43" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2JV42YWJ_LTR</t>
+          <t>1XWGSMFB_LTN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>USADILTR220215</t>
+          <t>USADILTN220242</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17850.4</v>
+        <v>828.48</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2694,17 +2634,17 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44876</v>
+        <v>44863</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44876</v>
+        <v>44862</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44996</v>
+        <v>44983</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>KRUN20090SH022</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2714,7 +2654,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>KRUN20090SH022</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2723,21 +2663,25 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>4PPH3TEW_LTR</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USADILTR220209</t>
+        </is>
+      </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>10659.6</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2745,46 +2689,54 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44858</v>
+        <v>44855</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M45" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTN</t>
+          <t>4TL4LC8Q_TPF</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>USADILTN220233</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>11024.6</v>
+        <v>51556</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2792,17 +2744,17 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44886</v>
+        <v>44889</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2812,7 +2764,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2821,68 +2773,80 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M46" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>1AUSTKGK_GDY</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>USADIGDY220131</t>
+        </is>
+      </c>
       <c r="C47" t="n">
-        <v>21.66</v>
+        <v>15295.1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44854</v>
+        <v>44865</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44854</v>
+        <v>44867</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
+          <t>6YV3GFKP_NTX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>USADILTR220229</t>
+          <t>USADINTX220221</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17593.7</v>
+        <v>33008.8</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2890,23 +2854,27 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44888</v>
+        <v>44886</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>AMZN46469SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2915,25 +2883,25 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M48" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
+          <t>2JV42YWJ_LTR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>USADILTR220225</t>
+          <t>USADILTR220215</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>28902.8</v>
+        <v>17850.4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2941,23 +2909,27 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44887</v>
+        <v>44876</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44890</v>
+        <v>44876</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2966,76 +2938,64 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M49" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2APC43NH_NTX</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>USADINTX220239</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTN1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>14504.8</v>
+        <v>42</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44889</v>
+        <v>44858</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>KRUN20549SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>KRUN20549SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="M50" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
+          <t>7GKXJ87A_LTN1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3043,13 +3003,13 @@
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44840</v>
+        <v>44892</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44930</v>
+        <v>44982</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -3064,25 +3024,25 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="M51" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
+          <t>8S6G2SDR_LTN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTN220233</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5319.56</v>
+        <v>11024.6</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3090,23 +3050,27 @@
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44888</v>
+        <v>44886</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3115,39 +3079,35 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M52" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>USADIJSN220727</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_NTX1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>3683.64</v>
+        <v>21.66</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44890</v>
+        <v>44854</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44887</v>
+        <v>44854</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45010</v>
+        <v>44944</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -3162,25 +3122,25 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="M53" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2IKTHOPR_LTR</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3881.7</v>
+        <v>17593.7</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3188,27 +3148,23 @@
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44855</v>
+        <v>44888</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44859</v>
+        <v>44890</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3217,25 +3173,25 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="M54" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4N9685MB_GDY</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>33712.6</v>
+        <v>28902.8</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3243,27 +3199,23 @@
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44862</v>
+        <v>44887</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44867</v>
+        <v>44890</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3272,25 +3224,25 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="M55" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4PPH3TEW_GDY</t>
+          <t>2APC43NH_NTX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADINTX220239</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5735.8</v>
+        <v>14504.8</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3298,17 +3250,17 @@
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44862</v>
+        <v>44886</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44867</v>
+        <v>44889</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44987</v>
+        <v>45006</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>KRUN20549SH022</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3318,7 +3270,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>KRUN20549SH022</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3327,80 +3279,68 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M56" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6U3SDR7C_NTX</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>USADINTX220222</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>4642.9</v>
+        <v>15</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44886</v>
+        <v>44840</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44886</v>
+        <v>44841</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>44930</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="M57" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTR</t>
+          <t>8VWKPALG_LTR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>USADILTR220224</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6684.9</v>
+        <v>5319.56</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3408,27 +3348,23 @@
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44879</v>
+        <v>44888</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44882</v>
+        <v>44890</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3437,25 +3373,25 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M58" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9286.879999999999</v>
+        <v>3683.64</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3484,7 +3420,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M59" t="n">
         <v>115</v>
@@ -3493,34 +3429,34 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>2IKTHOPR_LTR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADILTR220210</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.55</v>
+        <v>3881.7</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44841</v>
+        <v>44855</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44841</v>
+        <v>44859</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44931</v>
+        <v>44979</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3530,7 +3466,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3539,25 +3475,25 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M60" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTN</t>
+          <t>4N9685MB_GDY</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>61309.3</v>
+        <v>33712.6</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3565,17 +3501,17 @@
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44888</v>
+        <v>44862</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45008</v>
+        <v>44987</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3585,7 +3521,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3594,25 +3530,25 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="M61" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2XOOGD1K_LTR</t>
+          <t>4PPH3TEW_GDY</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10308.9</v>
+        <v>5735.8</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3620,17 +3556,17 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44855</v>
+        <v>44862</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44859</v>
+        <v>44867</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44979</v>
+        <v>44987</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3640,7 +3576,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3649,21 +3585,25 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M62" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>6U3SDR7C_NTX</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>USADINTX220222</t>
+        </is>
+      </c>
       <c r="C63" t="n">
-        <v>78.08</v>
+        <v>4642.9</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3671,46 +3611,54 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H63" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="M63" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5Z1M67CE_LTR</t>
+          <t>8R3O7CPI_LTR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USADILTR220217</t>
+          <t>USADILTR220224</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>22850.7</v>
+        <v>6684.9</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3718,17 +3666,17 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44856</v>
+        <v>44879</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44860</v>
+        <v>44882</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44980</v>
+        <v>44999</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46193SH022</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3738,7 +3686,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46193SH022</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3747,25 +3695,25 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="M64" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
+          <t>6YV3GFKP_JSN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADIJSN220728</t>
+          <t>USADIJSN220726</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4209</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3794,7 +3742,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M65" t="n">
         <v>115</v>
@@ -3803,16 +3751,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
+          <t>4B1AYW5I_GDY1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USADIROG210057</t>
+          <t>USADIGDY210047</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>176.4</v>
+        <v>24.55</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3820,23 +3768,27 @@
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>AMZN21334NB022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3845,25 +3797,25 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M66" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3K3ZAZ3Z_LTR</t>
+          <t>8VWKPALG_LTN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USADILTR220217</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12242.3</v>
+        <v>61309.3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3871,17 +3823,17 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44856</v>
+        <v>44888</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44860</v>
+        <v>44886</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44980</v>
+        <v>45008</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3891,7 +3843,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3900,39 +3852,35 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="M67" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>USADIJSN210500</t>
-        </is>
-      </c>
+          <t>265AQW8L_LTN1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>227.7</v>
+        <v>14.57</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44948</v>
+        <v>44982</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -3947,25 +3895,25 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="M68" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>32JYGMFX_LTR</t>
+          <t>2XOOGD1K_LTR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USADILTR220213</t>
+          <t>USADILTR220210</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>24371.5</v>
+        <v>10308.9</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3973,17 +3921,17 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44876</v>
+        <v>44855</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44876</v>
+        <v>44859</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44996</v>
+        <v>44979</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3993,7 +3941,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4002,80 +3950,64 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTN</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>USADILTN220234</t>
-        </is>
-      </c>
+          <t>6NYVMFBS_LTN1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>58964.3</v>
+        <v>22.6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44887</v>
+        <v>44892</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="M70" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTR</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>21336.6</v>
+        <v>78.08</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4083,54 +4015,46 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44865</v>
+        <v>44858</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44867</v>
+        <v>44858</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="M71" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1411ZR8P_NTX</t>
+          <t>5Z1M67CE_LTR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USADINTX220218</t>
+          <t>USADILTR220217</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>9308.780000000001</v>
+        <v>22850.7</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4138,17 +4062,17 @@
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44887</v>
+        <v>44856</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45007</v>
+        <v>44980</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4158,7 +4082,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4167,25 +4091,25 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="M72" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTN</t>
+          <t>1VVPTEPB_JSN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADIJSN220728</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7770.36</v>
+        <v>4209</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4193,36 +4117,28 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M73" t="n">
         <v>115</v>
@@ -4231,44 +4147,40 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>866DPTVE_NTX</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>USADINTX220216</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1156</v>
+        <v>176.4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44887</v>
+        <v>44833</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44886</v>
+        <v>44834</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN21334NB022</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4277,64 +4189,80 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="M74" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
+          <t>3K3ZAZ3Z_LTR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>USADILTR220217</t>
+        </is>
+      </c>
       <c r="C75" t="n">
-        <v>323.82</v>
+        <v>12242.3</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44841</v>
+        <v>44856</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44841</v>
+        <v>44860</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H75" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>AMZN45848SH022</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>AMZN45848SH022</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M75" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>3AONIT1Q_JSN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>USADIJSN210500</t>
+        </is>
+      </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>227.7</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4363,7 +4291,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M76" t="n">
         <v>55</v>
@@ -4372,16 +4300,16 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1XWGSMFB_LTR</t>
+          <t>32JYGMFX_LTR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADILTR220226</t>
+          <t>USADILTR220213</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5928</v>
+        <v>24371.5</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4389,17 +4317,17 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44859</v>
+        <v>44876</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44860</v>
+        <v>44876</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44979</v>
+        <v>44996</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>KRUN20224SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4409,7 +4337,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>KRUN20224SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4418,49 +4346,53 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M77" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
+          <t>1411ZR8P_LTN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>USADINTX220096</t>
+          <t>USADILTN220234</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>67.14</v>
+        <v>58964.3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44713</v>
+        <v>44887</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44834</v>
+        <v>44886</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>AMZN46372SH022</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>AMZN41531SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4469,25 +4401,25 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="M78" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>32JYGMFX_GDY</t>
+          <t>5LM3CJLA_LTR</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>USADIGDY220130</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>11167.6</v>
+        <v>21336.6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -4495,17 +4427,17 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44855</v>
+        <v>44865</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44860</v>
+        <v>44867</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4515,7 +4447,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4524,25 +4456,25 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M79" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTR</t>
+          <t>1411ZR8P_NTX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>USADILTR220214</t>
+          <t>USADINTX220218</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>12145.2</v>
+        <v>9308.780000000001</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4550,17 +4482,17 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44876</v>
+        <v>44887</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44876</v>
+        <v>44886</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44996</v>
+        <v>45007</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4570,7 +4502,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4579,25 +4511,25 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
+          <t>1AUSABXK_LTN</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>USADILTN220239</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6488.3</v>
+        <v>7770.36</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4605,17 +4537,17 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44887</v>
+        <v>44886</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45013</v>
+        <v>45008</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4625,7 +4557,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4634,25 +4566,25 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M81" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2YG3RNPQ_EFS</t>
+          <t>866DPTVE_NTX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>USABREFS220006</t>
+          <t>USADINTX220216</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2736</v>
+        <v>1156</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4660,17 +4592,17 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>KRUN01677VN022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4678,10 +4610,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -4694,81 +4630,69 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>USADINTX220220</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTR1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>6666.82</v>
+        <v>323.82</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="M83" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
+          <t>4MHD24HN_LTN1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>37.7</v>
+        <v>7</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -4783,25 +4707,25 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M84" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>866DPTVE_LTN</t>
+          <t>1XWGSMFB_LTR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>USADILTN220232</t>
+          <t>USADILTR220226</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32154.9</v>
+        <v>5928</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4809,17 +4733,17 @@
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44887</v>
+        <v>44859</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45007</v>
+        <v>44979</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>KRUN20224SH022</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4829,7 +4753,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>KRUN20224SH022</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4838,53 +4762,49 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="M85" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6BTNVXLF_ROG</t>
+          <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>USADIROG220079</t>
+          <t>USADINTX220096</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1561.35</v>
+        <v>67.14</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44876</v>
+        <v>44713</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44870</v>
+        <v>44834</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44924</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4893,25 +4813,25 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>8VWKPALG_NTX</t>
+          <t>32JYGMFX_GDY</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADIGDY220130</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>96.90000000000001</v>
+        <v>11167.6</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4919,17 +4839,17 @@
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44886</v>
+        <v>44855</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45006</v>
+        <v>44980</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4939,7 +4859,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -4948,25 +4868,25 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="M87" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_NTX</t>
+          <t>1AUSTKGK_LTR</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADILTR220214</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>389</v>
+        <v>12145.2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4974,17 +4894,17 @@
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45006</v>
+        <v>44996</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4994,7 +4914,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5003,25 +4923,25 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="M88" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4VF7D99P_LTR</t>
+          <t>1VVPTEPB_LTN</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADILTN220239</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>31600.8</v>
+        <v>6488.3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5029,17 +4949,17 @@
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44855</v>
+        <v>44893</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44860</v>
+        <v>44887</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44980</v>
+        <v>45013</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5049,7 +4969,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5058,72 +4978,76 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M89" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>2YG3RNPQ_EFS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USABREFS220006</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5.1</v>
+        <v>2736</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44718</v>
+        <v>44886</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44834</v>
+        <v>44886</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H90" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>KRUN01677VN022</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="M90" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
+          <t>1BZKS31V_NTX</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>USADINTX220220</t>
+        </is>
+      </c>
       <c r="C91" t="n">
-        <v>61.5</v>
+        <v>6666.82</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5131,101 +5055,97 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H91" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="M91" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTR</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>USADILTR220224</t>
-        </is>
-      </c>
+          <t>7EDOJ3SU_LTR1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>40689.7</v>
+        <v>37.7</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44879</v>
+        <v>44841</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44882</v>
+        <v>44841</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="M92" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>86KYVG4W_LTR</t>
+          <t>866DPTVE_LTN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>USADILTR220223</t>
+          <t>USADILTN220232</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>11935.4</v>
+        <v>32154.9</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5233,17 +5153,17 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44860</v>
+        <v>44887</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44860</v>
+        <v>44886</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44980</v>
+        <v>45007</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>AMZN27007NB022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5253,7 +5173,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>AMZN27007NB022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5262,68 +5182,80 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M93" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>6BTNVXLF_ROG</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>USADIROG220079</t>
+        </is>
+      </c>
       <c r="C94" t="n">
-        <v>21.26</v>
+        <v>1561.35</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44858</v>
+        <v>44876</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44858</v>
+        <v>44870</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H94" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="M94" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTN</t>
+          <t>8VWKPALG_NTX</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>USADILTN220233</t>
+          <t>USADINTX220215</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>87111.10000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5341,7 +5273,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5351,7 +5283,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5360,7 +5292,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M95" t="n">
         <v>110</v>
@@ -5369,16 +5301,16 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTN</t>
+          <t>8ZWV2ARN_NTX</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>USADILTN220230</t>
+          <t>USADINTX220215</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>25044.8</v>
+        <v>389</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5386,17 +5318,17 @@
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44865</v>
+        <v>44886</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44862</v>
+        <v>44886</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44985</v>
+        <v>45006</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5406,7 +5338,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5415,21 +5347,21 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="M96" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
+          <t>3GAXBNII_LTN1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>18.8</v>
+        <v>25.8</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5437,13 +5369,13 @@
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44854</v>
+        <v>44892</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44854</v>
+        <v>44893</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44944</v>
+        <v>44982</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -5458,25 +5390,25 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M97" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
+          <t>4VF7D99P_LTR</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>USADILTN220237</t>
+          <t>USADILTR220209</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>10848.3</v>
+        <v>31600.8</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5484,42 +5416,54 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44890</v>
+        <v>44855</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44887</v>
+        <v>44860</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H98" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="M98" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
+          <t>5QEJNSVA_NTX1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>USADINTX220085</t>
+        </is>
+      </c>
       <c r="C99" t="n">
-        <v>33</v>
+        <v>5.1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -5527,13 +5471,13 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44858</v>
+        <v>44718</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44858</v>
+        <v>44834</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44948</v>
+        <v>44924</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -5541,46 +5485,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M99" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>USADIROG210054</t>
-        </is>
-      </c>
+          <t>7GDOS76Y_LTN1</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>100.1</v>
+        <v>61.5</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44833</v>
+        <v>44858</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44834</v>
+        <v>44858</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44923</v>
+        <v>44948</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
@@ -5588,36 +5532,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="M100" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
+          <t>8S6G2SDR_LTR</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>USADILTR220220</t>
+          <t>USADILTR220224</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>23638.2</v>
+        <v>40689.7</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5625,23 +5565,27 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44887</v>
+        <v>44879</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44890</v>
+        <v>44882</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H101" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46193SH022</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -5650,68 +5594,80 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M101" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>86KYVG4W_LTR</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>USADILTR220223</t>
+        </is>
+      </c>
       <c r="C102" t="n">
-        <v>19.52</v>
+        <v>11935.4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H102" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M102" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
+          <t>2ZKZXKNR_LTR1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>72</v>
+        <v>21.26</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E103" s="2" t="n">
@@ -5736,7 +5692,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M103" t="n">
         <v>55</v>
@@ -5745,16 +5701,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1YF7U3EW_LTR</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>USADILTR220209</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>49417.6</v>
+        <v>27.6</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -5762,36 +5714,28 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44855</v>
+        <v>44892</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44860</v>
+        <v>44893</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M104" t="n">
         <v>85</v>
@@ -5800,16 +5744,16 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1VVPTEPB_NTX</t>
+          <t>8R3O7CPI_LTN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>USADINTX220223</t>
+          <t>USADILTN220233</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>18102.8</v>
+        <v>87111.10000000001</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -5817,17 +5761,17 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44887</v>
+        <v>44886</v>
       </c>
       <c r="F105" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45007</v>
+        <v>45006</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5837,7 +5781,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5846,25 +5790,25 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M105" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTN</t>
+          <t>5G88ZBBH_LTN</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADILTN220230</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>16725.5</v>
+        <v>25044.8</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -5872,17 +5816,17 @@
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44888</v>
+        <v>44865</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44886</v>
+        <v>44862</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>45008</v>
+        <v>44985</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45924SH022</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5892,7 +5836,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45924SH022</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -5901,80 +5845,68 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="M106" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>587NBAYT_LTR</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>USADILTR220217</t>
-        </is>
-      </c>
+          <t>3MUSVYHM_NTX1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>12728.9</v>
+        <v>18.8</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44856</v>
+        <v>44854</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44860</v>
+        <v>44854</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>44944</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="M107" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTN</t>
+          <t>6YV3GFKP_LTN</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADILTN220237</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>11016</v>
+        <v>10848.3</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5982,36 +5914,28 @@
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M108" t="n">
         <v>115</v>
@@ -6020,30 +5944,26 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>USADIGDY220137</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTN1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>23176.5</v>
+        <v>33</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
@@ -6051,50 +5971,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="M109" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7F2B37ZD_NTX</t>
+          <t>6FIO1MDJ_ROG1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>USADINTX220247</t>
+          <t>USADIROG210054</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>11866</v>
+        <v>100.1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44889</v>
+        <v>44833</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44890</v>
+        <v>44834</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45009</v>
+        <v>44923</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -6102,42 +6018,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="M110" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>866DPTVE_LTR</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>USADILTR220220</t>
+        </is>
+      </c>
       <c r="C111" t="n">
-        <v>51.44</v>
+        <v>23638.2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44931</v>
+        <v>45007</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -6145,28 +6069,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="M111" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
+          <t>1ZAW8MMM_LTN1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>19.64</v>
+        <v>18.38</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6174,13 +6102,13 @@
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44948</v>
+        <v>45012</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
@@ -6195,80 +6123,64 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="M112" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTR</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
+          <t>2VVHQCXN_LTN1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>8740.26</v>
+        <v>19.52</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44865</v>
+        <v>44858</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44867</v>
+        <v>44858</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="M113" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTN</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>USADILTN220230</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTN1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>29155.7</v>
+        <v>72</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -6276,54 +6188,46 @@
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44865</v>
+        <v>44858</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44862</v>
+        <v>44858</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="M114" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTN</t>
+          <t>1YF7U3EW_LTR</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>USADILTN220238</t>
+          <t>USADILTR220209</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>28549.9</v>
+        <v>49417.6</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -6331,17 +6235,17 @@
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44886</v>
+        <v>44855</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45006</v>
+        <v>44980</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6351,7 +6255,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6360,68 +6264,80 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="M115" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>1VVPTEPB_NTX</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>USADINTX220223</t>
+        </is>
+      </c>
       <c r="C116" t="n">
-        <v>31</v>
+        <v>18102.8</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="M116" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
+          <t>1WAWRZ1C_LTN</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7936.33</v>
+        <v>16725.5</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -6432,20 +6348,24 @@
         <v>44888</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -6454,7 +6374,7 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M117" t="n">
         <v>115</v>
@@ -6463,59 +6383,71 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
+          <t>587NBAYT_LTR</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>USADILTR220217</t>
+        </is>
+      </c>
       <c r="C118" t="n">
-        <v>14.6</v>
+        <v>12728.9</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44841</v>
+        <v>44856</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44841</v>
+        <v>44860</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H118" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>AMZN45848SH022</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>AMZN45848SH022</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M118" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTN</t>
+          <t>8ZWV2ARN_LTN</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>USADILTN220225</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>42605.7</v>
+        <v>11016</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -6523,17 +6455,17 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>44865</v>
+        <v>44888</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44862</v>
+        <v>44886</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44985</v>
+        <v>45008</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6543,7 +6475,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -6552,25 +6484,25 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M119" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>5HLRZJFT_LTR</t>
+          <t>6U3SDR7C_GDY</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>USADILTR220218</t>
+          <t>USADIGDY220137</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>9620.639999999999</v>
+        <v>23176.5</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -6578,27 +6510,23 @@
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44865</v>
+        <v>44888</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44867</v>
+        <v>44890</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -6607,25 +6535,25 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M120" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
+          <t>7F2B37ZD_NTX</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>USADIJSN220722</t>
+          <t>USADINTX220247</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>9451.68</v>
+        <v>11866</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -6633,13 +6561,13 @@
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44830</v>
+        <v>44889</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44838</v>
+        <v>44890</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44958</v>
+        <v>45009</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
@@ -6647,69 +6575,61 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>KRUN20623SH022</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="M121" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6XLW9F1T_LTR</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>USADILTR220210</t>
-        </is>
-      </c>
+          <t>5E5SJTOV_LTN1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>17542.1</v>
+        <v>114.45</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44855</v>
+        <v>44892</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44859</v>
+        <v>44893</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M122" t="n">
         <v>85</v>
@@ -6718,85 +6638,69 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4OBX3LAK_GDY</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>USADIGDY220127</t>
-        </is>
-      </c>
+          <t>3AKTKLAV_LTR1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>105906</v>
+        <v>51.44</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44862</v>
+        <v>44841</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44867</v>
+        <v>44841</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="M123" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>USADIJSN220725</t>
-        </is>
-      </c>
+          <t>4GBIBVRV_LTN1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>2696.08</v>
+        <v>19.64</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>45010</v>
+        <v>44948</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
@@ -6811,21 +6715,25 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="M124" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
+          <t>5G88ZBBH_LTR</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>USADILTR220218</t>
+        </is>
+      </c>
       <c r="C125" t="n">
-        <v>17</v>
+        <v>8740.26</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -6833,42 +6741,54 @@
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>44892</v>
+        <v>44865</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44893</v>
+        <v>44867</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H125" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M125" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t>5LM3CJLA_LTN</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>USADILTN220230</t>
+        </is>
+      </c>
       <c r="C126" t="n">
-        <v>114.45</v>
+        <v>29155.7</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -6876,42 +6796,54 @@
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44892</v>
+        <v>44865</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44893</v>
+        <v>44862</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H126" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M126" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>6U3SDR7C_LTN</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>USADILTN220238</t>
+        </is>
+      </c>
       <c r="C127" t="n">
-        <v>87.95999999999999</v>
+        <v>28549.9</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -6919,56 +6851,64 @@
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44892</v>
+        <v>44886</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H127" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="M127" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2GRMROMU_LTN1</t>
+          <t>6L1E3PVD_LTR1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>13.36</v>
+        <v>31</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
@@ -6983,21 +6923,25 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="M128" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1PE1AZJP_LTN1</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
+          <t>1WAWRZ1C_LTR</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C129" t="n">
-        <v>2.59</v>
+        <v>7936.33</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7005,13 +6949,13 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44982</v>
+        <v>45008</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -7019,42 +6963,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="M129" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
+          <t>3OWOSLEI_LTR1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>14.57</v>
+        <v>14.6</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44892</v>
+        <v>44841</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44982</v>
+        <v>44931</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
@@ -7069,21 +7017,25 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="M130" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2OVDJQPL_LTN1</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
+          <t>1AUSTKGK_LTN</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>USADILTN220225</t>
+        </is>
+      </c>
       <c r="C131" t="n">
-        <v>13.18</v>
+        <v>42605.7</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7091,42 +7043,54 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44892</v>
+        <v>44865</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44893</v>
+        <v>44862</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H131" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M131" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
+          <t>5HLRZJFT_LTR</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>USADILTR220218</t>
+        </is>
+      </c>
       <c r="C132" t="n">
-        <v>25.8</v>
+        <v>9620.639999999999</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -7134,42 +7098,54 @@
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>44892</v>
+        <v>44865</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44893</v>
+        <v>44867</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H132" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M132" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
+          <t>4CUW4DHC_JSN</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>USADIJSN220722</t>
+        </is>
+      </c>
       <c r="C133" t="n">
-        <v>68</v>
+        <v>9451.68</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -7177,13 +7153,13 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44892</v>
+        <v>44830</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44893</v>
+        <v>44838</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44982</v>
+        <v>44958</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
@@ -7198,21 +7174,25 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="M133" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
+          <t>6XLW9F1T_LTR</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>USADILTR220210</t>
+        </is>
+      </c>
       <c r="C134" t="n">
-        <v>22.6</v>
+        <v>17542.1</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -7220,28 +7200,36 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44892</v>
+        <v>44855</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44893</v>
+        <v>44859</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H134" t="inlineStr"/>
+        <v>44979</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M134" t="n">
         <v>85</v>
@@ -7250,12 +7238,16 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
+          <t>4OBX3LAK_GDY</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>USADIGDY220127</t>
+        </is>
+      </c>
       <c r="C135" t="n">
-        <v>27.6</v>
+        <v>105906</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -7263,42 +7255,54 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44892</v>
+        <v>44862</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44893</v>
+        <v>44867</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H135" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M135" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
+          <t>1BZKS31V_JSN</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>USADIJSN220725</t>
+        </is>
+      </c>
       <c r="C136" t="n">
-        <v>18.38</v>
+        <v>2696.08</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -7306,13 +7310,13 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44982</v>
+        <v>45010</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
@@ -7327,10 +7331,10 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="M136" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137">
@@ -7367,14 +7371,18 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M137" t="n">
         <v>120</v>
@@ -7417,7 +7425,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M138" t="n">
         <v>90</v>
@@ -7460,7 +7468,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M139" t="n">
         <v>90</v>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,6 +7474,59 @@
         <v>90</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>1XEJQHRM_LTN,1XEJQHRM_LTN1</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>USADILTN220183,USADILTN220185</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>6300</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>KRUN19472SH022</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>7</v>
+      </c>
+      <c r="M140" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,26 +507,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_LTR1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>1BZKS31V_LTR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>USADILTR220228</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>47.5</v>
+        <v>18957.2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44841</v>
+        <v>44895</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44931</v>
+        <v>45013</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -534,32 +538,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4OBX3LAK_LTR</t>
+          <t>1BZKS31V_LTR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADILTR220228</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4737</v>
+        <v>18957.2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -567,68 +575,56 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44855</v>
+        <v>44893</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44860</v>
+        <v>44895</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="M3" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6X2NPZ5N_LTN1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>USADILTN220223</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_LTR1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1368.23</v>
+        <v>47.5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44830</v>
+        <v>44841</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44837</v>
+        <v>44841</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44957</v>
+        <v>44931</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -643,68 +639,80 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3Y8RTMTK_LTN1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>4OBX3LAK_LTR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>USADILTR220209</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>12.86</v>
+        <v>4737</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44858</v>
+        <v>44855</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5HLRZJFT_LTN</t>
+          <t>6X2NPZ5N_LTN1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USADILTN220230</t>
+          <t>USADILTN220223</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22354.9</v>
+        <v>1368.23</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -712,68 +720,56 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44865</v>
+        <v>44830</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44862</v>
+        <v>44837</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="M6" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>3Y8RTMTK_LTN1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>14919.7</v>
+        <v>12.86</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -781,79 +777,87 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="M7" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2OVDJQPL_LTN1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>5HLRZJFT_LTN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>USADILTN220230</t>
+        </is>
+      </c>
       <c r="C8" t="n">
-        <v>13.18</v>
+        <v>22354.9</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44892</v>
+        <v>44865</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44893</v>
+        <v>44862</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5ZCEAYSH_LTR</t>
+          <t>1AUSABXK_LTR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USADILTR220217</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14268.8</v>
+        <v>14919.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -861,27 +865,23 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44856</v>
+        <v>44888</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44860</v>
+        <v>44890</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -890,80 +890,68 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3R3F8S5K_TPF</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>2OVDJQPL_LTN1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>67421</v>
+        <v>13.18</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44889</v>
+        <v>44893</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="M10" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8S6G2SDR_GDY</t>
+          <t>5ZCEAYSH_LTR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USADIGDY220133</t>
+          <t>USADILTR220217</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17122</v>
+        <v>14268.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -971,23 +959,27 @@
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44888</v>
+        <v>44856</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44890</v>
+        <v>44860</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AMZN45848SH022</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -996,78 +988,94 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="M11" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>613WD55F_LTN1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>3R3F8S5K_TPF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>43.5</v>
+        <v>67421</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44858</v>
+        <v>44889</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8C2X1J7G_LTR1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>8S6G2SDR_GDY</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>USADIGDY220133</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>76</v>
+        <v>17122</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1075,28 +1083,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="M13" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>323S6WET_LTR1</t>
+          <t>613WD55F_LTN1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>44.32</v>
+        <v>43.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1104,13 +1116,13 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1125,135 +1137,111 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4VF7D99P_GDY</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>USADIGDY220127</t>
-        </is>
-      </c>
+          <t>8C2X1J7G_LTR1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>39564</v>
+        <v>76</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44862</v>
+        <v>44858</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44867</v>
+        <v>44858</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="M15" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8R3O7CPI_NTX</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>USADINTX220217</t>
-        </is>
-      </c>
+          <t>323S6WET_LTR1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>12800.3</v>
+        <v>44.32</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44886</v>
+        <v>44841</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44886</v>
+        <v>44841</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="M16" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1411ZR8P_GDY</t>
+          <t>4VF7D99P_GDY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USADIGDY220134</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8729.98</v>
+        <v>39564</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1261,23 +1249,27 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44887</v>
+        <v>44862</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44890</v>
+        <v>44867</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1286,68 +1278,80 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="M17" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1PE1AZJP_LTN1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>8R3O7CPI_NTX</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>USADINTX220217</t>
+        </is>
+      </c>
       <c r="C18" t="n">
-        <v>2.59</v>
+        <v>12800.3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44892</v>
+        <v>44886</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="M18" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4N9685MB_LTR</t>
+          <t>1411ZR8P_GDY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADIGDY220134</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13744</v>
+        <v>8729.98</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1355,27 +1359,23 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44855</v>
+        <v>44887</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44860</v>
+        <v>44890</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1384,104 +1384,96 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="M19" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1BZKS31V_LTN</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>USADILTN220236</t>
-        </is>
-      </c>
+          <t>1PE1AZJP_LTN1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>25344.3</v>
+        <v>2.59</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G20" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4C14JWQL_ROG1</t>
+          <t>4N9685MB_LTR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>USADIROG210055</t>
+          <t>USADILTR220209</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.15</v>
+        <v>13744</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44833</v>
+        <v>44855</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44834</v>
+        <v>44860</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1490,25 +1482,25 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M21" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6BTNVXLF_LTR</t>
+          <t>1BZKS31V_LTN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USADILTR220212</t>
+          <t>USADILTN220236</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>718</v>
+        <v>25344.3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1516,17 +1508,17 @@
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44876</v>
+        <v>44893</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44876</v>
+        <v>44887</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44996</v>
+        <v>45013</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1536,7 +1528,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1545,76 +1537,76 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6BTNVXLF_LTR</t>
+          <t>4C14JWQL_ROG1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>USADILTR220237</t>
+          <t>USADIROG210055</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>718</v>
+        <v>7.15</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44876</v>
+        <v>44833</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44876</v>
+        <v>44834</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8VWKPALG_ROG</t>
+          <t>6BTNVXLF_LTR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>USADIROG220081</t>
+          <t>USADILTR220212</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29.74</v>
+        <v>718</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1622,17 +1614,17 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44879</v>
+        <v>44876</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44879</v>
+        <v>44876</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44999</v>
+        <v>44996</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1642,7 +1634,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1651,25 +1643,25 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M24" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6YV3GFKP_GDY</t>
+          <t>6BTNVXLF_LTR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USADIGDY220136</t>
+          <t>USADILTR220237</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>41125.8</v>
+        <v>718</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1677,93 +1669,105 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44888</v>
+        <v>44876</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44890</v>
+        <v>44876</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2GRMROMU_LTN1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>8VWKPALG_ROG</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>USADIROG220081</t>
+        </is>
+      </c>
       <c r="C26" t="n">
-        <v>13.36</v>
+        <v>29.74</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44892</v>
+        <v>44879</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44893</v>
+        <v>44879</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="M26" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3G3OXYWS_LTR</t>
+          <t>6YV3GFKP_GDY</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>USADILTR220216</t>
+          <t>USADIGDY220136</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35167.6</v>
+        <v>41125.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1771,27 +1775,23 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44865</v>
+        <v>44888</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44867</v>
+        <v>44890</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>AMZN45873SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>AMZN45873SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1800,62 +1800,50 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M27" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>86KYVG4W_LTN</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>USADILTN220235</t>
-        </is>
-      </c>
+          <t>2GRMROMU_LTN1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>26778.1</v>
+        <v>13.36</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44862</v>
+        <v>44892</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44862</v>
+        <v>44893</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>44982</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M28" t="n">
         <v>85</v>
@@ -1864,16 +1852,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2IKTHOPR_GDY1</t>
+          <t>3G3OXYWS_LTR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>USADIGDY220128</t>
+          <t>USADILTR220216</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>28004.4</v>
+        <v>35167.6</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1881,17 +1869,17 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44871</v>
+        <v>44867</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44991</v>
+        <v>44985</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45873SH022</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1901,7 +1889,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45873SH022</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1910,21 +1898,21 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M29" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
+          <t>7JN9DTJG_NTX1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1932,13 +1920,13 @@
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44892</v>
+        <v>44894</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44982</v>
+        <v>44984</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -1953,21 +1941,25 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M30" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>86KYVG4W_LTN</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>USADILTN220235</t>
+        </is>
+      </c>
       <c r="C31" t="n">
-        <v>14.57</v>
+        <v>26778.1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1975,46 +1967,54 @@
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44950</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
+        <v>44982</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="M31" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
+          <t>2IKTHOPR_GDY1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADIGDY220128</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>54503</v>
+        <v>28004.4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2022,17 +2022,17 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44893</v>
+        <v>44862</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44889</v>
+        <v>44871</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45013</v>
+        <v>44991</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2051,39 +2051,35 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="M32" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>USADILTR220230</t>
-        </is>
-      </c>
+          <t>2YT17WGL_LTN1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>14621.9</v>
+        <v>17</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45008</v>
+        <v>44982</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -2091,36 +2087,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="M33" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>66BPSMWF_LTR</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>USADILTR220210</t>
-        </is>
-      </c>
+          <t>3BTYRGGT_LTN1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>13946.3</v>
+        <v>14.57</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2128,97 +2116,101 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44855</v>
+        <v>44860</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44859</v>
+        <v>44861</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M34" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>4TACGJRN_TPF</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C35" t="n">
-        <v>70</v>
+        <v>54503</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44858</v>
+        <v>44889</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="M35" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTN</t>
+          <t>6U3SDR7C_LTR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADILTR220230</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>37975.7</v>
+        <v>14621.9</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2229,24 +2221,20 @@
         <v>44888</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2255,25 +2243,25 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M36" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_NTX</t>
+          <t>66BPSMWF_LTR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADILTR220210</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>958.4</v>
+        <v>13946.3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2281,17 +2269,17 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44886</v>
+        <v>44855</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44886</v>
+        <v>44859</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45006</v>
+        <v>44979</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2301,7 +2289,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2310,21 +2298,21 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="M37" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
+          <t>3DEIS4NJ_LTN1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>87.95999999999999</v>
+        <v>70</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2332,13 +2320,13 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2353,25 +2341,25 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="M38" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6XLW9F1T_GDY</t>
+          <t>8QO31QHQ_LTN</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>USADIGDY220128</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19634.4</v>
+        <v>37975.7</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2379,17 +2367,17 @@
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44862</v>
+        <v>44888</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44867</v>
+        <v>44886</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44987</v>
+        <v>45008</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2399,7 +2387,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2408,25 +2396,25 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="M39" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
+          <t>1WAWRZ1C_NTX</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADINTX220215</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>16134.8</v>
+        <v>958.4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2434,23 +2422,27 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44888</v>
+        <v>44886</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2459,39 +2451,35 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M40" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>6HLPWWEQ_LTN2</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>17871.2</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45008</v>
+        <v>44982</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2499,36 +2487,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="M41" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2JV42YWJ_ROG</t>
+          <t>6XLW9F1T_GDY</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>USADIROG220080</t>
+          <t>USADIGDY220128</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>223.05</v>
+        <v>19634.4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2536,17 +2520,17 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44876</v>
+        <v>44862</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44870</v>
+        <v>44867</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44996</v>
+        <v>44987</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2556,7 +2540,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2565,21 +2549,25 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>8QO31QHQ_LTR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C43" t="n">
-        <v>67.34</v>
+        <v>16134.8</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2587,13 +2575,13 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44860</v>
+        <v>44888</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44861</v>
+        <v>44890</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44950</v>
+        <v>45008</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -2601,32 +2589,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="M43" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1XWGSMFB_LTN</t>
+          <t>8ZWV2ARN_LTR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>USADILTN220242</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>828.48</v>
+        <v>17871.2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2634,27 +2626,23 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44863</v>
+        <v>44888</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44983</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>KRUN20090SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>KRUN20090SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2663,25 +2651,25 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="M44" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4PPH3TEW_LTR</t>
+          <t>2JV42YWJ_ROG</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADIROG220080</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10659.6</v>
+        <v>223.05</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2689,17 +2677,17 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44855</v>
+        <v>44876</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44860</v>
+        <v>44870</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44980</v>
+        <v>44996</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2709,7 +2697,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2718,25 +2706,21 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M45" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>28NZCWFH_LTN1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>51556</v>
+        <v>67.34</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2744,54 +2728,46 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44893</v>
+        <v>44860</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44889</v>
+        <v>44861</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="M46" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1AUSTKGK_GDY</t>
+          <t>1XWGSMFB_LTN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>USADIGDY220131</t>
+          <t>USADILTN220242</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15295.1</v>
+        <v>828.48</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2799,17 +2775,17 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44865</v>
+        <v>44863</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44867</v>
+        <v>44862</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44985</v>
+        <v>44983</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>KRUN20090SH022</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2819,7 +2795,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>KRUN20090SH022</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2828,25 +2804,25 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M47" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6YV3GFKP_NTX</t>
+          <t>4GLARQRK_LTN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>USADINTX220221</t>
+          <t>USADILTN220255</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>33008.8</v>
+        <v>11051.2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2854,27 +2830,23 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44886</v>
+        <v>44896</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44886</v>
+        <v>44894</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>45016</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>KRUN20618SH022</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2883,25 +2855,25 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M48" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2JV42YWJ_LTR</t>
+          <t>4PPH3TEW_LTR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>USADILTR220215</t>
+          <t>USADILTR220209</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17850.4</v>
+        <v>10659.6</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2909,17 +2881,17 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44876</v>
+        <v>44855</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44876</v>
+        <v>44860</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44996</v>
+        <v>44980</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2929,7 +2901,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -2938,111 +2910,135 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>4TL4LC8Q_TPF</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C50" t="n">
-        <v>42</v>
+        <v>51556</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44858</v>
+        <v>44889</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>1AUSTKGK_GDY</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>USADIGDY220131</t>
+        </is>
+      </c>
       <c r="C51" t="n">
-        <v>68</v>
+        <v>15295.1</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44892</v>
+        <v>44865</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44893</v>
+        <v>44867</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M51" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTN</t>
+          <t>6YV3GFKP_NTX</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>USADILTN220233</t>
+          <t>USADINTX220221</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11024.6</v>
+        <v>33008.8</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3060,7 +3056,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3070,7 +3066,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3079,7 +3075,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M52" t="n">
         <v>110</v>
@@ -3088,73 +3084,81 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>2JV42YWJ_LTR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>USADILTR220215</t>
+        </is>
+      </c>
       <c r="C53" t="n">
-        <v>21.66</v>
+        <v>17850.4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44854</v>
+        <v>44876</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44854</v>
+        <v>44876</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="M53" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>USADILTR220229</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTN1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>17593.7</v>
+        <v>42</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -3162,50 +3166,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="M54" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>USADILTR220225</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>28902.8</v>
+        <v>68</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44887</v>
+        <v>44892</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45007</v>
+        <v>44982</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3213,36 +3209,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M55" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2APC43NH_NTX</t>
+          <t>8S6G2SDR_LTN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>USADINTX220239</t>
+          <t>USADILTN220233</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14504.8</v>
+        <v>11024.6</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3253,14 +3245,14 @@
         <v>44886</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44889</v>
+        <v>44886</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>45006</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>KRUN20549SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3270,7 +3262,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>KRUN20549SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3279,7 +3271,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M56" t="n">
         <v>110</v>
@@ -3288,12 +3280,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
+          <t>55J7Z6TQ_NTX1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>21.66</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3301,13 +3293,13 @@
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44840</v>
+        <v>44854</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44841</v>
+        <v>44854</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44930</v>
+        <v>44944</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -3322,25 +3314,25 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M57" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5319.56</v>
+        <v>17593.7</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3364,7 +3356,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3373,25 +3365,25 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M58" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>USADIJSN220727</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3683.64</v>
+        <v>28902.8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3399,13 +3391,13 @@
         </is>
       </c>
       <c r="E59" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="F59" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="F59" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G59" s="2" t="n">
-        <v>45010</v>
+        <v>45007</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3413,32 +3405,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M59" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2IKTHOPR_LTR</t>
+          <t>2APC43NH_NTX</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADINTX220239</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3881.7</v>
+        <v>14504.8</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3446,17 +3442,17 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44855</v>
+        <v>44886</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44859</v>
+        <v>44889</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44979</v>
+        <v>45006</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>KRUN20549SH022</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3466,7 +3462,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>KRUN20549SH022</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3475,80 +3471,68 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="M60" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4N9685MB_GDY</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>USADIGDY220127</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>33712.6</v>
+        <v>15</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44862</v>
+        <v>44840</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44867</v>
+        <v>44841</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>44930</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="M61" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4PPH3TEW_GDY</t>
+          <t>8VWKPALG_LTR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5735.8</v>
+        <v>5319.56</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3556,27 +3540,23 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44862</v>
+        <v>44888</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44867</v>
+        <v>44890</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3585,25 +3565,25 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="M62" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6U3SDR7C_NTX</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>USADINTX220222</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4642.9</v>
+        <v>3683.64</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3611,54 +3591,46 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M63" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTR</t>
+          <t>2IKTHOPR_LTR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USADILTR220224</t>
+          <t>USADILTR220210</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6684.9</v>
+        <v>3881.7</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3666,17 +3638,17 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44879</v>
+        <v>44855</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44882</v>
+        <v>44859</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44999</v>
+        <v>44979</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3686,7 +3658,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3695,25 +3667,25 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="M64" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>4N9685MB_GDY</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9286.879999999999</v>
+        <v>33712.6</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3721,64 +3693,72 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44890</v>
+        <v>44862</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44887</v>
+        <v>44867</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H65" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="M65" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>4PPH3TEW_GDY</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24.55</v>
+        <v>5735.8</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44841</v>
+        <v>44862</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44841</v>
+        <v>44867</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44931</v>
+        <v>44987</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3788,7 +3768,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3797,25 +3777,25 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M66" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTN</t>
+          <t>6U3SDR7C_NTX</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADINTX220222</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>61309.3</v>
+        <v>4642.9</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3823,17 +3803,17 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44888</v>
+        <v>44886</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45008</v>
+        <v>45006</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3843,7 +3823,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3852,68 +3832,80 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M67" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>8R3O7CPI_LTR</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>USADILTR220224</t>
+        </is>
+      </c>
       <c r="C68" t="n">
-        <v>14.57</v>
+        <v>6684.9</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44892</v>
+        <v>44879</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44893</v>
+        <v>44882</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="M68" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2XOOGD1K_LTR</t>
+          <t>6YV3GFKP_JSN</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADIJSN220726</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>10308.9</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3921,50 +3913,46 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44855</v>
+        <v>44890</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44859</v>
+        <v>44887</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M69" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>4B1AYW5I_GDY1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>USADIGDY210047</t>
+        </is>
+      </c>
       <c r="C70" t="n">
-        <v>22.6</v>
+        <v>24.55</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3972,42 +3960,54 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44892</v>
+        <v>44841</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H70" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="M70" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>8VWKPALG_LTN</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>USADILTN220231</t>
+        </is>
+      </c>
       <c r="C71" t="n">
-        <v>78.08</v>
+        <v>61309.3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4015,83 +4015,79 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H71" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="M71" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5Z1M67CE_LTR</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>USADILTR220217</t>
-        </is>
-      </c>
+          <t>265AQW8L_LTN1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>22850.7</v>
+        <v>14.57</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44856</v>
+        <v>44892</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44860</v>
+        <v>44893</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M72" t="n">
         <v>85</v>
@@ -4100,16 +4096,16 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
+          <t>2XOOGD1K_LTR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>USADIJSN220728</t>
+          <t>USADILTR220210</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4209</v>
+        <v>10308.9</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4117,46 +4113,50 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44890</v>
+        <v>44855</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44887</v>
+        <v>44859</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
+        <v>44979</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="M73" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>USADIROG210057</t>
-        </is>
-      </c>
+          <t>6NYVMFBS_LTN1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>176.4</v>
+        <v>22.6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4164,13 +4164,13 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44833</v>
+        <v>44892</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44834</v>
+        <v>44893</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44923</v>
+        <v>44982</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
@@ -4178,36 +4178,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>AMZN21334NB022</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="M74" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3K3ZAZ3Z_LTR</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>USADILTR220217</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>12242.3</v>
+        <v>78.08</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4215,54 +4207,46 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="M75" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
+          <t>5Z1M67CE_LTR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>USADIJSN210500</t>
+          <t>USADILTR220217</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>227.7</v>
+        <v>22850.7</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4270,46 +4254,54 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44858</v>
+        <v>44856</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H76" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>AMZN45848SH022</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>AMZN45848SH022</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M76" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>32JYGMFX_LTR</t>
+          <t>1BZKS31V_GDY</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADILTR220213</t>
+          <t>USADIGDY220135</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24371.5</v>
+        <v>4599</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4317,27 +4309,23 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44876</v>
+        <v>44893</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44876</v>
+        <v>44895</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4346,25 +4334,25 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTN</t>
+          <t>1VVPTEPB_JSN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>USADILTN220234</t>
+          <t>USADIJSN220728</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>58964.3</v>
+        <v>4209</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4372,82 +4360,70 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="F78" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="F78" s="2" t="n">
-        <v>44886</v>
-      </c>
       <c r="G78" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M78" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTR</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>USADILTR220218</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>21336.6</v>
+        <v>176.4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44865</v>
+        <v>44833</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44867</v>
+        <v>44834</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN21334NB022</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4456,25 +4432,25 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M79" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1411ZR8P_NTX</t>
+          <t>3K3ZAZ3Z_LTR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>USADINTX220218</t>
+          <t>USADILTR220217</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9308.780000000001</v>
+        <v>12242.3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4482,17 +4458,17 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44887</v>
+        <v>44856</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45007</v>
+        <v>44980</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4502,7 +4478,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4511,25 +4487,25 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="M80" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTN</t>
+          <t>3AONIT1Q_JSN</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADIJSN210500</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7770.36</v>
+        <v>227.7</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4537,54 +4513,46 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="M81" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>866DPTVE_NTX</t>
+          <t>32JYGMFX_LTR</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>USADINTX220216</t>
+          <t>USADILTR220213</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1156</v>
+        <v>24371.5</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4592,17 +4560,17 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44887</v>
+        <v>44876</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45007</v>
+        <v>44996</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4612,7 +4580,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4621,64 +4589,80 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M82" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
+          <t>1411ZR8P_LTN</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>USADILTN220234</t>
+        </is>
+      </c>
       <c r="C83" t="n">
-        <v>323.82</v>
+        <v>58964.3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44841</v>
+        <v>44886</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H83" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>AMZN46372SH022</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>AMZN46372SH022</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="M83" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
+          <t>5LM3CJLA_LTR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>USADILTR220218</t>
+        </is>
+      </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>21336.6</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4686,46 +4670,54 @@
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44858</v>
+        <v>44867</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H84" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="M84" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1XWGSMFB_LTR</t>
+          <t>1411ZR8P_NTX</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>USADILTR220226</t>
+          <t>USADINTX220218</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5928</v>
+        <v>9308.780000000001</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4733,17 +4725,17 @@
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44859</v>
+        <v>44887</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44860</v>
+        <v>44886</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44979</v>
+        <v>45007</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>KRUN20224SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4753,7 +4745,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>KRUN20224SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4762,49 +4754,53 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="M85" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
+          <t>1AUSABXK_LTN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>USADINTX220096</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>67.14</v>
+        <v>7770.36</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44713</v>
+        <v>44888</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44834</v>
+        <v>44886</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H86" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>AMZN41531SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4813,25 +4809,25 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="M86" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>32JYGMFX_GDY</t>
+          <t>866DPTVE_NTX</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>USADIGDY220130</t>
+          <t>USADINTX220216</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>11167.6</v>
+        <v>1156</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4839,17 +4835,17 @@
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44855</v>
+        <v>44887</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44860</v>
+        <v>44886</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44980</v>
+        <v>45007</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4859,7 +4855,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -4868,80 +4864,64 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="M87" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTR</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>USADILTR220214</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTR1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>12145.2</v>
+        <v>323.82</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44876</v>
+        <v>44841</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44876</v>
+        <v>44841</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>USADILTN220239</t>
-        </is>
-      </c>
+          <t>4MHD24HN_LTN1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>6488.3</v>
+        <v>7</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4949,54 +4929,46 @@
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="M89" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2YG3RNPQ_EFS</t>
+          <t>1XWGSMFB_LTR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>USABREFS220006</t>
+          <t>USADILTR220226</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2736</v>
+        <v>5928</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5004,17 +4976,17 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44886</v>
+        <v>44859</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45006</v>
+        <v>44979</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>KRUN01677VN022</t>
+          <t>KRUN20224SH022</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5022,60 +4994,60 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>KRUN20224SH022</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="M90" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
+          <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>USADINTX220220</t>
+          <t>USADINTX220096</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6666.82</v>
+        <v>67.14</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44893</v>
+        <v>44713</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44890</v>
+        <v>44834</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44924</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5084,68 +5056,80 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="M91" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>32JYGMFX_GDY</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>USADIGDY220130</t>
+        </is>
+      </c>
       <c r="C92" t="n">
-        <v>37.7</v>
+        <v>11167.6</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44841</v>
+        <v>44855</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44841</v>
+        <v>44860</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H92" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>AMZN45848SH022</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>AMZN45848SH022</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="M92" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>866DPTVE_LTN</t>
+          <t>1AUSTKGK_LTR</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>USADILTN220232</t>
+          <t>USADILTR220214</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>32154.9</v>
+        <v>12145.2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5153,17 +5137,17 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44887</v>
+        <v>44876</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45007</v>
+        <v>44996</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5173,7 +5157,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5182,25 +5166,25 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6BTNVXLF_ROG</t>
+          <t>1VVPTEPB_LTN</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>USADIROG220079</t>
+          <t>USADILTN220239</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1561.35</v>
+        <v>6488.3</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5208,17 +5192,17 @@
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44876</v>
+        <v>44893</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44870</v>
+        <v>44887</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44996</v>
+        <v>45013</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5228,7 +5212,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5237,25 +5221,25 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="M94" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8VWKPALG_NTX</t>
+          <t>2YG3RNPQ_EFS</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USABREFS220006</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>96.90000000000001</v>
+        <v>2736</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5273,7 +5257,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>KRUN01677VN022</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5281,18 +5265,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M95" t="n">
         <v>110</v>
@@ -5301,16 +5281,16 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_NTX</t>
+          <t>1BZKS31V_NTX</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADINTX220220</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>389</v>
+        <v>6666.82</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5318,17 +5298,17 @@
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5338,7 +5318,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5347,21 +5327,21 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M96" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
+          <t>7EDOJ3SU_LTR1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>25.8</v>
+        <v>37.7</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5369,13 +5349,13 @@
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44892</v>
+        <v>44841</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44982</v>
+        <v>44931</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -5390,25 +5370,25 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="M97" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4VF7D99P_LTR</t>
+          <t>866DPTVE_LTN</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADILTN220232</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>31600.8</v>
+        <v>32154.9</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5416,17 +5396,17 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44855</v>
+        <v>44887</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44860</v>
+        <v>44886</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44980</v>
+        <v>45007</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5436,7 +5416,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5445,49 +5425,53 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="M98" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>6BTNVXLF_ROG</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USADIROG220079</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5.1</v>
+        <v>1561.35</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44718</v>
+        <v>44876</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44834</v>
+        <v>44870</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H99" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5496,21 +5480,25 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M99" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>8VWKPALG_NTX</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>USADINTX220215</t>
+        </is>
+      </c>
       <c r="C100" t="n">
-        <v>61.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -5518,46 +5506,54 @@
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H100" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M100" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTR</t>
+          <t>8ZWV2ARN_NTX</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>USADILTR220224</t>
+          <t>USADINTX220215</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>40689.7</v>
+        <v>389</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5565,17 +5561,17 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44879</v>
+        <v>44886</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44882</v>
+        <v>44886</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44999</v>
+        <v>45006</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5585,7 +5581,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -5594,62 +5590,50 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M101" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>86KYVG4W_LTR</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>USADILTR220223</t>
-        </is>
-      </c>
+          <t>3GAXBNII_LTN1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>11935.4</v>
+        <v>25.8</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44860</v>
+        <v>44892</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44860</v>
+        <v>44893</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M102" t="n">
         <v>85</v>
@@ -5658,55 +5642,71 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>4VF7D99P_LTR</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>USADILTR220209</t>
+        </is>
+      </c>
       <c r="C103" t="n">
-        <v>21.26</v>
+        <v>31600.8</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44858</v>
+        <v>44855</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M103" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
+          <t>1VVPTEPB_GDY</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>USADIGDY220138</t>
+        </is>
+      </c>
       <c r="C104" t="n">
-        <v>27.6</v>
+        <v>23683.3</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -5714,13 +5714,13 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44982</v>
+        <v>45013</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -5728,60 +5728,60 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="M104" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTN</t>
+          <t>5QEJNSVA_NTX1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>USADILTN220233</t>
+          <t>USADINTX220085</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>87111.10000000001</v>
+        <v>5.1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44886</v>
+        <v>44718</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44886</v>
+        <v>44834</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+        <v>44924</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN41741SH022</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5790,62 +5790,50 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M105" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTN</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>USADILTN220230</t>
-        </is>
-      </c>
+          <t>6KSMLQ5R_NTX1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>25044.8</v>
+        <v>24.18</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44865</v>
+        <v>44894</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44862</v>
+        <v>44894</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>44984</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M106" t="n">
         <v>90</v>
@@ -5854,26 +5842,26 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
+          <t>7GDOS76Y_LTN1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>18.8</v>
+        <v>61.5</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44854</v>
+        <v>44858</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44854</v>
+        <v>44858</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44944</v>
+        <v>44948</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
@@ -5888,7 +5876,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M107" t="n">
         <v>50</v>
@@ -5897,16 +5885,16 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
+          <t>8S6G2SDR_LTR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>USADILTN220237</t>
+          <t>USADILTR220224</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>10848.3</v>
+        <v>40689.7</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5914,89 +5902,105 @@
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44890</v>
+        <v>44879</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H108" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M108" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t>86KYVG4W_LTR</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>USADILTR220223</t>
+        </is>
+      </c>
       <c r="C109" t="n">
-        <v>33</v>
+        <v>11935.4</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M109" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>USADIROG210054</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTR1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>100.1</v>
+        <v>21.26</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6004,13 +6008,13 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44833</v>
+        <v>44858</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44834</v>
+        <v>44858</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44923</v>
+        <v>44948</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -6018,36 +6022,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="M110" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>USADILTR220220</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>23638.2</v>
+        <v>27.6</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6055,13 +6051,13 @@
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44887</v>
+        <v>44892</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45007</v>
+        <v>44982</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -6069,46 +6065,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M111" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>1VVPTEPB_LTR</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>USADILTR220231</t>
+        </is>
+      </c>
       <c r="C112" t="n">
-        <v>18.38</v>
+        <v>10924</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
@@ -6116,10 +6112,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -6132,55 +6132,71 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t>8R3O7CPI_LTN</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>USADILTN220233</t>
+        </is>
+      </c>
       <c r="C113" t="n">
-        <v>19.52</v>
+        <v>87111.10000000001</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H113" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M113" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
+          <t>5G88ZBBH_LTN</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>USADILTN220230</t>
+        </is>
+      </c>
       <c r="C114" t="n">
-        <v>72</v>
+        <v>25044.8</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -6188,101 +6204,97 @@
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44858</v>
+        <v>44862</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="M114" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1YF7U3EW_LTR</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>USADILTR220209</t>
-        </is>
-      </c>
+          <t>3MUSVYHM_NTX1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>49417.6</v>
+        <v>18.8</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44855</v>
+        <v>44854</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44860</v>
+        <v>44854</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>44944</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="M115" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1VVPTEPB_NTX</t>
+          <t>6YV3GFKP_LTN</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>USADINTX220223</t>
+          <t>USADILTN220237</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>18102.8</v>
+        <v>10848.3</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -6290,137 +6302,113 @@
         </is>
       </c>
       <c r="E116" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="F116" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="F116" s="2" t="n">
-        <v>44886</v>
-      </c>
       <c r="G116" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M116" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTN</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>USADILTN220231</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTN1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>16725.5</v>
+        <v>33</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="M117" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>587NBAYT_LTR</t>
+          <t>6FIO1MDJ_ROG1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>USADILTR220217</t>
+          <t>USADIROG210054</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>12728.9</v>
+        <v>100.1</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44856</v>
+        <v>44833</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44860</v>
+        <v>44834</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN21189NB022</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -6429,25 +6417,25 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="M118" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTN</t>
+          <t>866DPTVE_LTR</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADILTR220220</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>11016</v>
+        <v>23638.2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -6455,27 +6443,23 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -6484,39 +6468,35 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M119" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>USADIGDY220137</t>
-        </is>
-      </c>
+          <t>1ZAW8MMM_LTN1</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>23176.5</v>
+        <v>18.38</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>45008</v>
+        <v>45012</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
@@ -6524,18 +6504,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M120" t="n">
         <v>115</v>
@@ -6544,30 +6520,26 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7F2B37ZD_NTX</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>USADINTX220247</t>
-        </is>
-      </c>
+          <t>2VVHQCXN_LTN1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>11866</v>
+        <v>19.52</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44889</v>
+        <v>44858</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45009</v>
+        <v>44948</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
@@ -6575,46 +6547,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>KRUN20623SH022</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="M121" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
+          <t>2ZKZXKNR_LTN1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>114.45</v>
+        <v>72</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
@@ -6629,111 +6597,135 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="M122" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
+          <t>1YF7U3EW_LTR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>USADILTR220209</t>
+        </is>
+      </c>
       <c r="C123" t="n">
-        <v>51.44</v>
+        <v>49417.6</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44841</v>
+        <v>44855</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44841</v>
+        <v>44860</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H123" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="M123" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
+          <t>1VVPTEPB_NTX</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>USADINTX220223</t>
+        </is>
+      </c>
       <c r="C124" t="n">
-        <v>19.64</v>
+        <v>18102.8</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H124" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="M124" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTR</t>
+          <t>1WAWRZ1C_LTN</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>USADILTR220218</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8740.26</v>
+        <v>16725.5</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -6741,17 +6733,17 @@
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>44865</v>
+        <v>44888</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44867</v>
+        <v>44886</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44985</v>
+        <v>45008</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6761,7 +6753,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -6770,25 +6762,25 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M125" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTN</t>
+          <t>587NBAYT_LTR</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>USADILTN220230</t>
+          <t>USADILTR220217</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>29155.7</v>
+        <v>12728.9</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -6796,17 +6788,17 @@
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44865</v>
+        <v>44856</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44862</v>
+        <v>44860</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -6816,7 +6808,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -6825,25 +6817,25 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M126" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTN</t>
+          <t>8ZWV2ARN_LTN</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>USADILTN220238</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>28549.9</v>
+        <v>11016</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -6851,17 +6843,17 @@
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="F127" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6871,7 +6863,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -6880,7 +6872,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M127" t="n">
         <v>110</v>
@@ -6889,26 +6881,30 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>6U3SDR7C_GDY</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>USADIGDY220137</t>
+        </is>
+      </c>
       <c r="C128" t="n">
-        <v>31</v>
+        <v>23176.5</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
@@ -6916,32 +6912,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="M128" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
+          <t>7F2B37ZD_NTX</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADINTX220247</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7936.33</v>
+        <v>11866</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -6949,13 +6949,13 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="F129" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>KRUN20623SH022</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -6983,12 +6983,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
+          <t>5E5SJTOV_LTN1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>14.6</v>
+        <v>114.45</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44841</v>
+        <v>44892</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44931</v>
+        <v>44982</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
@@ -7017,135 +7017,111 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="M130" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTN</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>USADILTN220225</t>
-        </is>
-      </c>
+          <t>3AKTKLAV_LTR1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>42605.7</v>
+        <v>51.44</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44865</v>
+        <v>44841</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44862</v>
+        <v>44841</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="M131" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>5HLRZJFT_LTR</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
+          <t>4GBIBVRV_LTN1</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>9620.639999999999</v>
+        <v>19.64</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>44865</v>
+        <v>44858</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44867</v>
+        <v>44858</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="M132" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
+          <t>5G88ZBBH_LTR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>USADIJSN220722</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>9451.68</v>
+        <v>8740.26</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -7153,46 +7129,54 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44830</v>
+        <v>44865</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44838</v>
+        <v>44867</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="H133" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="M133" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6XLW9F1T_LTR</t>
+          <t>5LM3CJLA_LTN</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADILTN220230</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>17542.1</v>
+        <v>29155.7</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -7200,17 +7184,17 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44855</v>
+        <v>44865</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44859</v>
+        <v>44862</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44979</v>
+        <v>44985</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN45924SH022</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7220,7 +7204,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN45924SH022</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -7229,25 +7213,25 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M134" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>4OBX3LAK_GDY</t>
+          <t>6U3SDR7C_LTN</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADILTN220238</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>105906</v>
+        <v>28549.9</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -7255,17 +7239,17 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44862</v>
+        <v>44886</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44867</v>
+        <v>44886</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44987</v>
+        <v>45006</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7275,7 +7259,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -7284,39 +7268,35 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="M135" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>USADIJSN220725</t>
-        </is>
-      </c>
+          <t>6L1E3PVD_LTR1</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>2696.08</v>
+        <v>31</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45010</v>
+        <v>44948</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
@@ -7331,25 +7311,25 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="M136" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
+          <t>1WAWRZ1C_LTR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>USADILTN220255</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>11051.2</v>
+        <v>7936.33</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -7357,13 +7337,13 @@
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>44896</v>
+        <v>44888</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>45016</v>
+        <v>45008</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
@@ -7373,7 +7353,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>KRUN20618SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -7382,35 +7362,35 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M137" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
+          <t>3OWOSLEI_LTR1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>24.18</v>
+        <v>14.6</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>44894</v>
+        <v>44841</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44894</v>
+        <v>44841</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44984</v>
+        <v>44931</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
@@ -7425,21 +7405,25 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="M138" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7JN9DTJG_NTX1</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
+          <t>1AUSTKGK_LTN</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>USADILTN220225</t>
+        </is>
+      </c>
       <c r="C139" t="n">
-        <v>9.199999999999999</v>
+        <v>42605.7</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -7447,28 +7431,36 @@
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>44894</v>
+        <v>44865</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44894</v>
+        <v>44862</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="H139" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M139" t="n">
         <v>90</v>
@@ -7477,53 +7469,406 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>5HLRZJFT_LTR</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>USADILTR220218</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>9620.639999999999</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>89</v>
+      </c>
+      <c r="M140" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>4CUW4DHC_JSN</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>USADIJSN220722</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>9451.68</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>62</v>
+      </c>
+      <c r="M141" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>6XLW9F1T_LTR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>USADILTR220210</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>17542.1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>83</v>
+      </c>
+      <c r="M142" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4OBX3LAK_GDY</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>USADIGDY220127</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>105906</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>91</v>
+      </c>
+      <c r="M143" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1BZKS31V_JSN</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>USADIJSN220725</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2696.08</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>114</v>
+      </c>
+      <c r="M144" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>4GLARQRK_NTX</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>USADINTX220242</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>17589.33</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>116</v>
+      </c>
+      <c r="M145" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>89NLLCYP_NTX</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>USADINTX220243</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>367.9</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>116</v>
+      </c>
+      <c r="M146" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
           <t>1XEJQHRM_LTN,1XEJQHRM_LTN1</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>USADILTN220183,USADILTN220185</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="C147" t="n">
         <v>6300</v>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E147" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="G140" s="2" t="n">
+      <c r="G147" s="2" t="n">
         <v>44902</v>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
         <is>
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>KRUN19472SH022</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>7</v>
-      </c>
-      <c r="M140" t="n">
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>6</v>
+      </c>
+      <c r="M147" t="n">
         <v>5</v>
       </c>
     </row>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M2" t="n">
         <v>115</v>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M4" t="n">
         <v>80</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M5" t="n">
         <v>115</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7" t="n">
         <v>50</v>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" t="n">
         <v>85</v>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>110</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M11" t="n">
         <v>80</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M12" t="n">
         <v>110</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M13" t="n">
         <v>110</v>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M14" t="n">
         <v>50</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M15" t="n">
         <v>50</v>
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M16" t="n">
         <v>115</v>
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M17" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M19" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M20" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -1482,10 +1482,10 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M22" t="n">
         <v>80</v>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M23" t="n">
         <v>115</v>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M24" t="n">
         <v>25</v>
@@ -1698,10 +1698,10 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -1749,10 +1749,10 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M27" t="n">
         <v>100</v>
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M28" t="n">
         <v>110</v>
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M29" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M30" t="n">
         <v>85</v>
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M31" t="n">
         <v>85</v>
@@ -2051,10 +2051,10 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M33" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -2149,10 +2149,10 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M34" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M35" t="n">
         <v>50</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M36" t="n">
         <v>115</v>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M37" t="n">
         <v>110</v>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M38" t="n">
         <v>80</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M39" t="n">
         <v>50</v>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M40" t="n">
         <v>110</v>
@@ -2506,10 +2506,10 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M41" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -2549,10 +2549,10 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M42" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M43" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M44" t="n">
         <v>110</v>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M45" t="n">
         <v>110</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M47" t="n">
         <v>50</v>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M48" t="n">
         <v>85</v>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M49" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50">
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M50" t="n">
         <v>80</v>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M51" t="n">
         <v>115</v>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M52" t="n">
         <v>85</v>
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M53" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M55" t="n">
         <v>50</v>
@@ -3275,10 +3275,10 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M56" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M57" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M58" t="n">
         <v>45</v>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M59" t="n">
         <v>110</v>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M60" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
@@ -3530,10 +3530,10 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M61" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M62" t="n">
         <v>30</v>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M63" t="n">
         <v>110</v>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M64" t="n">
         <v>110</v>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M65" t="n">
         <v>80</v>
@@ -3781,10 +3781,10 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M66" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M67" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
@@ -3891,10 +3891,10 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M68" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M69" t="n">
         <v>100</v>
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M70" t="n">
         <v>110</v>
@@ -4048,10 +4048,10 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M71" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -4103,7 +4103,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M72" t="n">
         <v>110</v>
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M73" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M74" t="n">
         <v>80</v>
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M75" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M76" t="n">
         <v>50</v>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M77" t="n">
         <v>80</v>
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M78" t="n">
         <v>115</v>
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M79" t="n">
         <v>110</v>
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M80" t="n">
         <v>25</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M81" t="n">
         <v>80</v>
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M82" t="n">
         <v>50</v>
@@ -4648,10 +4648,10 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M84" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M85" t="n">
         <v>85</v>
@@ -4813,10 +4813,10 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M86" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87">
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M87" t="n">
         <v>110</v>
@@ -4923,10 +4923,10 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M88" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89">
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M89" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M90" t="n">
         <v>50</v>
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M91" t="n">
         <v>80</v>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M92" t="n">
         <v>25</v>
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M93" t="n">
         <v>80</v>
@@ -5229,10 +5229,10 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M94" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M95" t="n">
         <v>115</v>
@@ -5335,10 +5335,10 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M96" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M97" t="n">
         <v>115</v>
@@ -5433,10 +5433,10 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M98" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M99" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
@@ -5598,10 +5598,10 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M101" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M102" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
@@ -5696,10 +5696,10 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M103" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104">
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M104" t="n">
         <v>80</v>
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M105" t="n">
         <v>115</v>
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M106" t="n">
         <v>25</v>
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M107" t="n">
         <v>85</v>
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M108" t="n">
         <v>50</v>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M109" t="n">
         <v>100</v>
@@ -6053,7 +6053,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M110" t="n">
         <v>80</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M111" t="n">
         <v>50</v>
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M112" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113">
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M113" t="n">
         <v>115</v>
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M114" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M115" t="n">
         <v>85</v>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M116" t="n">
         <v>45</v>
@@ -6390,7 +6390,7 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M117" t="n">
         <v>110</v>
@@ -6433,7 +6433,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M118" t="n">
         <v>50</v>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M119" t="n">
         <v>25</v>
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M120" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121">
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M121" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M122" t="n">
         <v>50</v>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M123" t="n">
         <v>50</v>
@@ -6719,7 +6719,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M124" t="n">
         <v>80</v>
@@ -6774,10 +6774,10 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M125" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126">
@@ -6829,7 +6829,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M126" t="n">
         <v>110</v>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M127" t="n">
         <v>80</v>
@@ -6939,7 +6939,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M128" t="n">
         <v>110</v>
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M129" t="n">
         <v>110</v>
@@ -7045,7 +7045,7 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M130" t="n">
         <v>110</v>
@@ -7088,10 +7088,10 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M131" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132">
@@ -7131,10 +7131,10 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M132" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M133" t="n">
         <v>50</v>
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M134" t="n">
         <v>85</v>
@@ -7284,7 +7284,7 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M135" t="n">
         <v>85</v>
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M136" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M137" t="n">
         <v>50</v>
@@ -7433,7 +7433,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M138" t="n">
         <v>110</v>
@@ -7476,10 +7476,10 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M139" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140">
@@ -7531,7 +7531,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M140" t="n">
         <v>85</v>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M141" t="n">
         <v>85</v>
@@ -7633,7 +7633,7 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M142" t="n">
         <v>60</v>
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M143" t="n">
         <v>80</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M144" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145">
@@ -7790,7 +7790,7 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M145" t="n">
         <v>110</v>
@@ -7799,58 +7799,504 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>4GLARQRK_LTR</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>USADILTR220246</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>16644</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>116</v>
+      </c>
+      <c r="M146" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>89NLLCYP_LTR</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>USADILTR220247</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>684</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>KRUN20622SH022</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>116</v>
+      </c>
+      <c r="M147" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>613WD55F_LTR1</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="n">
+        <v>13</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>86</v>
+      </c>
+      <c r="M148" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>66LW139X_LTR1</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="n">
+        <v>66</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>86</v>
+      </c>
+      <c r="M149" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>42QQW8OE_LTR1</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="n">
+        <v>98.98</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>86</v>
+      </c>
+      <c r="M150" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2YT17WGL_LTR1</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>86</v>
+      </c>
+      <c r="M151" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>6V626OPP_LTR1</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>86</v>
+      </c>
+      <c r="M152" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="n">
+        <v>33</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>88</v>
+      </c>
+      <c r="M153" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2MBWL17N_LTR1</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>86</v>
+      </c>
+      <c r="M154" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>8OFVYIYG_JSN1</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>86</v>
+      </c>
+      <c r="M155" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
           <t>1XEJQHRM_LTN,1XEJQHRM_LTN1</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>USADILTN220183,USADILTN220185</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="C156" t="n">
         <v>6300</v>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="E156" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="G146" s="2" t="n">
+      <c r="G156" s="2" t="n">
         <v>44902</v>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>KRUN19471SH022</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>Collected</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>KRUN19472SH022</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>4</v>
-      </c>
-      <c r="M146" t="n">
-        <v>5</v>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M2" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" t="n">
         <v>30</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" t="n">
         <v>80</v>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M5" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" t="n">
         <v>55</v>
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M8" t="n">
         <v>85</v>
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M10" t="n">
         <v>80</v>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" t="n">
         <v>80</v>
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M12" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M13" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M16" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" t="n">
         <v>30</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" t="n">
         <v>85</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M19" t="n">
         <v>105</v>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M20" t="n">
         <v>105</v>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M21" t="n">
         <v>80</v>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M22" t="n">
         <v>80</v>
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M23" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -1643,10 +1643,10 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M25" t="n">
         <v>95</v>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M26" t="n">
         <v>95</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M27" t="n">
         <v>100</v>
@@ -1813,16 +1813,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6YV3GFKP_GDY</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>USADIGDY220136</t>
-        </is>
-      </c>
+          <t>2YT17WGL_LTR1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>41125.8</v>
+        <v>26.62</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1830,13 +1826,13 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44888</v>
+        <v>44897</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45008</v>
+        <v>44987</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1844,46 +1840,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="M28" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2GRMROMU_LTN1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>6YV3GFKP_GDY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>USADIGDY220136</t>
+        </is>
+      </c>
       <c r="C29" t="n">
-        <v>13.36</v>
+        <v>41125.8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44982</v>
+        <v>45008</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -1891,108 +1887,112 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3G3OXYWS_LTR</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>USADILTR220216</t>
-        </is>
-      </c>
+          <t>2GRMROMU_LTN1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>35167.6</v>
+        <v>13.36</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44865</v>
+        <v>44892</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44867</v>
+        <v>44893</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>AMZN45873SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>AMZN45873SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M30" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7JN9DTJG_NTX1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>3G3OXYWS_LTR</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>USADILTR220216</t>
+        </is>
+      </c>
       <c r="C31" t="n">
-        <v>9.199999999999999</v>
+        <v>35167.6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44894</v>
+        <v>44865</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44894</v>
+        <v>44867</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>AMZN45873SH022</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>AMZN45873SH022</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2005,71 +2005,59 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>86KYVG4W_LTN</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>USADILTN220235</t>
-        </is>
-      </c>
+          <t>7JN9DTJG_NTX1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>26778.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44862</v>
+        <v>44894</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44862</v>
+        <v>44894</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+        <v>44984</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M32" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2IKTHOPR_GDY1</t>
+          <t>86KYVG4W_LTN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>USADIGDY220128</t>
+          <t>USADILTN220235</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28004.4</v>
+        <v>26778.1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2080,14 +2068,14 @@
         <v>44862</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44871</v>
+        <v>44862</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44991</v>
+        <v>44982</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN27007NB022</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2097,7 +2085,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN27007NB022</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2106,78 +2094,90 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M33" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>2IKTHOPR_GDY1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>USADIGDY220128</t>
+        </is>
+      </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>28004.4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44892</v>
+        <v>44862</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44893</v>
+        <v>44871</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>44991</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
+          <t>2YT17WGL_LTN1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>14.57</v>
+        <v>17</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44860</v>
+        <v>44892</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44861</v>
+        <v>44893</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44950</v>
+        <v>44982</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -2192,25 +2192,21 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="M35" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>3BTYRGGT_LTN1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>54503</v>
+        <v>14.57</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2218,54 +2214,46 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44893</v>
+        <v>44860</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44889</v>
+        <v>44861</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="M36" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
+          <t>4TACGJRN_TPF</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>USADILTR220230</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>14621.9</v>
+        <v>54503</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2273,23 +2261,27 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2298,7 +2290,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M37" t="n">
         <v>110</v>
@@ -2307,16 +2299,16 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>66BPSMWF_LTR</t>
+          <t>6U3SDR7C_LTR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADILTR220230</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>13946.3</v>
+        <v>14621.9</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2324,27 +2316,23 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44855</v>
+        <v>44888</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44859</v>
+        <v>44890</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2353,123 +2341,123 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>66BPSMWF_LTR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>USADILTR220210</t>
+        </is>
+      </c>
       <c r="C39" t="n">
-        <v>70</v>
+        <v>13946.3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44858</v>
+        <v>44855</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>44979</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M39" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTN</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>USADILTN220231</t>
-        </is>
-      </c>
+          <t>3DEIS4NJ_LTN1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>37975.7</v>
+        <v>70</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="M40" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_NTX</t>
+          <t>8QO31QHQ_LTN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>958.4</v>
+        <v>37975.7</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2477,17 +2465,17 @@
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2497,7 +2485,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2506,7 +2494,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M41" t="n">
         <v>105</v>
@@ -2515,114 +2503,114 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>1WAWRZ1C_NTX</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>USADINTX220215</t>
+        </is>
+      </c>
       <c r="C42" t="n">
-        <v>87.95999999999999</v>
+        <v>958.4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44892</v>
+        <v>44886</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="M42" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6XLW9F1T_GDY</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>USADIGDY220128</t>
-        </is>
-      </c>
+          <t>6HLPWWEQ_LTN2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>19634.4</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44862</v>
+        <v>44892</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44867</v>
+        <v>44893</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M43" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
+          <t>6XLW9F1T_GDY</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADIGDY220128</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>16134.8</v>
+        <v>19634.4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2630,23 +2618,27 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44888</v>
+        <v>44862</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44890</v>
+        <v>44867</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2655,39 +2647,35 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="M44" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>17871.2</v>
+        <v>33</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44888</v>
+        <v>44899</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45008</v>
+        <v>44989</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -2695,36 +2683,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="M45" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2JV42YWJ_ROG</t>
+          <t>8QO31QHQ_LTR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>USADIROG220080</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>223.05</v>
+        <v>16134.8</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2732,27 +2716,23 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44876</v>
+        <v>44888</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44870</v>
+        <v>44890</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2761,21 +2741,25 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M46" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>8ZWV2ARN_LTR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C47" t="n">
-        <v>67.34</v>
+        <v>17871.2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2783,13 +2767,13 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44860</v>
+        <v>44888</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44861</v>
+        <v>44890</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44950</v>
+        <v>45008</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -2797,32 +2781,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1XWGSMFB_LTN</t>
+          <t>2JV42YWJ_ROG</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>USADILTN220242</t>
+          <t>USADIROG220080</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>828.48</v>
+        <v>223.05</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2830,17 +2818,17 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44863</v>
+        <v>44876</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44983</v>
+        <v>44996</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>KRUN20090SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2850,7 +2838,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>KRUN20090SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2859,25 +2847,21 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M48" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>USADILTN220255</t>
-        </is>
-      </c>
+          <t>28NZCWFH_LTN1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>11051.2</v>
+        <v>67.34</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2885,54 +2869,46 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44896</v>
+        <v>44860</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44894</v>
+        <v>44861</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="M49" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4PPH3TEW_LTR</t>
+          <t>1XWGSMFB_LTN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADILTN220242</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10659.6</v>
+        <v>828.48</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2940,17 +2916,17 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44855</v>
+        <v>44863</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44980</v>
+        <v>44983</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>KRUN20090SH022</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2960,7 +2936,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>KRUN20090SH022</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2969,7 +2945,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M50" t="n">
         <v>80</v>
@@ -2978,16 +2954,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
+          <t>4GLARQRK_LTN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADILTN220255</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>51556</v>
+        <v>11051.2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2995,17 +2971,17 @@
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44893</v>
+        <v>44896</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44889</v>
+        <v>44894</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>KRUN20618SH022</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3015,7 +2991,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>KRUN20618SH022</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3024,7 +3000,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M51" t="n">
         <v>115</v>
@@ -3033,16 +3009,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1AUSTKGK_GDY</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>USADIGDY220131</t>
-        </is>
-      </c>
+          <t>8OFVYIYG_JSN1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>15295.1</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3050,36 +3022,28 @@
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44865</v>
+        <v>44897</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44867</v>
+        <v>44900</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M52" t="n">
         <v>85</v>
@@ -3088,16 +3052,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6YV3GFKP_NTX</t>
+          <t>4PPH3TEW_LTR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>USADINTX220221</t>
+          <t>USADILTR220209</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>33008.8</v>
+        <v>10659.6</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3105,17 +3069,17 @@
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44886</v>
+        <v>44855</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45006</v>
+        <v>44980</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3125,7 +3089,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3134,166 +3098,178 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M53" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2JV42YWJ_LTR</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>USADILTR220215</t>
-        </is>
-      </c>
+          <t>613WD55F_LTR1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>17850.4</v>
+        <v>13</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44876</v>
+        <v>44897</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44876</v>
+        <v>44900</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M54" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>4TL4LC8Q_TPF</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C55" t="n">
-        <v>42</v>
+        <v>51556</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44858</v>
+        <v>44889</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="M55" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>1AUSTKGK_GDY</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>USADIGDY220131</t>
+        </is>
+      </c>
       <c r="C56" t="n">
-        <v>68</v>
+        <v>15295.1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44892</v>
+        <v>44865</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44893</v>
+        <v>44867</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTN</t>
+          <t>6YV3GFKP_NTX</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>USADILTN220233</t>
+          <t>USADINTX220221</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>11024.6</v>
+        <v>33008.8</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3311,7 +3287,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3321,7 +3297,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3330,7 +3306,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M57" t="n">
         <v>105</v>
@@ -3339,73 +3315,81 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>2JV42YWJ_LTR</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>USADILTR220215</t>
+        </is>
+      </c>
       <c r="C58" t="n">
-        <v>21.66</v>
+        <v>17850.4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44854</v>
+        <v>44876</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44854</v>
+        <v>44876</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="M58" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>USADILTR220229</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTN1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>17593.7</v>
+        <v>42</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3413,50 +3397,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="M59" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>USADILTR220225</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>28902.8</v>
+        <v>68</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44887</v>
+        <v>44892</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45007</v>
+        <v>44982</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -3464,36 +3440,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="M60" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2APC43NH_NTX</t>
+          <t>8S6G2SDR_LTN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>USADINTX220239</t>
+          <t>USADILTN220233</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>14504.8</v>
+        <v>11024.6</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3504,14 +3476,14 @@
         <v>44886</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44889</v>
+        <v>44886</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>45006</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>KRUN20549SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3521,7 +3493,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>KRUN20549SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3530,7 +3502,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M61" t="n">
         <v>105</v>
@@ -3539,12 +3511,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
+          <t>55J7Z6TQ_NTX1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>21.66</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3552,13 +3524,13 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44840</v>
+        <v>44854</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44841</v>
+        <v>44854</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44930</v>
+        <v>44944</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -3573,25 +3545,25 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M62" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5319.56</v>
+        <v>17593.7</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3615,7 +3587,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3624,25 +3596,25 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M63" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USADIJSN220727</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3683.64</v>
+        <v>28902.8</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3650,13 +3622,13 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="F64" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="F64" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G64" s="2" t="n">
-        <v>45010</v>
+        <v>45007</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -3664,32 +3636,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M64" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2IKTHOPR_LTR</t>
+          <t>2APC43NH_NTX</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADINTX220239</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3881.7</v>
+        <v>14504.8</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3697,17 +3673,17 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44855</v>
+        <v>44886</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44859</v>
+        <v>44889</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44979</v>
+        <v>45006</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>KRUN20549SH022</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3717,7 +3693,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>KRUN20549SH022</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3726,80 +3702,68 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="M65" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4N9685MB_GDY</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>USADIGDY220127</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>33712.6</v>
+        <v>15</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44862</v>
+        <v>44840</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44867</v>
+        <v>44841</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>44930</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="M66" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4PPH3TEW_GDY</t>
+          <t>8VWKPALG_LTR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5735.8</v>
+        <v>5319.56</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3807,27 +3771,23 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44862</v>
+        <v>44888</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44867</v>
+        <v>44890</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3836,25 +3796,25 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="M67" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6U3SDR7C_NTX</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>USADINTX220222</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4642.9</v>
+        <v>3683.64</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3862,54 +3822,46 @@
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M68" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTR</t>
+          <t>2IKTHOPR_LTR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USADILTR220224</t>
+          <t>USADILTR220210</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6684.9</v>
+        <v>3881.7</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3917,17 +3869,17 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44879</v>
+        <v>44855</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44882</v>
+        <v>44859</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44999</v>
+        <v>44979</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3937,7 +3889,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3946,25 +3898,25 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>4N9685MB_GDY</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9286.879999999999</v>
+        <v>33712.6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3972,64 +3924,72 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44890</v>
+        <v>44862</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44887</v>
+        <v>44867</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H70" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="M70" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>4PPH3TEW_GDY</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>24.55</v>
+        <v>5735.8</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44841</v>
+        <v>44862</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44841</v>
+        <v>44867</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44931</v>
+        <v>44987</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4039,7 +3999,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4048,25 +4008,25 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M71" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTN</t>
+          <t>6U3SDR7C_NTX</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADINTX220222</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>61309.3</v>
+        <v>4642.9</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4074,17 +4034,17 @@
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44888</v>
+        <v>44886</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45008</v>
+        <v>45006</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4094,7 +4054,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4103,35 +4063,39 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M72" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
+          <t>89NLLCYP_LTR</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>USADILTR220247</t>
+        </is>
+      </c>
       <c r="C73" t="n">
-        <v>14.57</v>
+        <v>684</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44982</v>
+        <v>45017</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -4139,32 +4103,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>KRUN20622SH022</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="M73" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2XOOGD1K_LTR</t>
+          <t>8R3O7CPI_LTR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADILTR220224</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>10308.9</v>
+        <v>6684.9</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4172,17 +4140,17 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44855</v>
+        <v>44879</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44859</v>
+        <v>44882</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44979</v>
+        <v>44999</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN46193SH022</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4192,7 +4160,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN46193SH022</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4201,35 +4169,39 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="M74" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
+          <t>4GLARQRK_LTR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>USADILTR220246</t>
+        </is>
+      </c>
       <c r="C75" t="n">
-        <v>22.6</v>
+        <v>16644</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44982</v>
+        <v>45017</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -4237,28 +4209,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="M75" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>6YV3GFKP_JSN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>USADIJSN220726</t>
+        </is>
+      </c>
       <c r="C76" t="n">
-        <v>78.08</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4266,13 +4246,13 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44948</v>
+        <v>45010</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4287,43 +4267,43 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="M76" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5Z1M67CE_LTR</t>
+          <t>4B1AYW5I_GDY1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADILTR220217</t>
+          <t>USADIGDY210047</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>22850.7</v>
+        <v>24.55</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44856</v>
+        <v>44841</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44860</v>
+        <v>44841</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44980</v>
+        <v>44931</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4333,7 +4313,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4342,25 +4322,25 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M77" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
+          <t>8VWKPALG_LTN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>USADIGDY220135</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4599</v>
+        <v>61309.3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4368,23 +4348,27 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44895</v>
+        <v>44886</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4393,39 +4377,35 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M78" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>USADIJSN220728</t>
-        </is>
-      </c>
+          <t>265AQW8L_LTN1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>4209</v>
+        <v>14.57</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45010</v>
+        <v>44982</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4440,49 +4420,53 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="M79" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
+          <t>2XOOGD1K_LTR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>USADIROG210057</t>
+          <t>USADILTR220210</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>176.4</v>
+        <v>10308.9</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44833</v>
+        <v>44855</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44834</v>
+        <v>44859</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H80" t="inlineStr"/>
+        <v>44979</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>AMZN21334NB022</t>
+          <t>AMZN45581SH022</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4491,62 +4475,50 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="M80" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3K3ZAZ3Z_LTR</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>USADILTR220217</t>
-        </is>
-      </c>
+          <t>6NYVMFBS_LTN1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>12242.3</v>
+        <v>22.6</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44856</v>
+        <v>44892</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44860</v>
+        <v>44893</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M81" t="n">
         <v>80</v>
@@ -4555,16 +4527,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>USADIJSN210500</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>227.7</v>
+        <v>78.08</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4593,25 +4561,25 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M82" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>32JYGMFX_LTR</t>
+          <t>5Z1M67CE_LTR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>USADILTR220213</t>
+          <t>USADILTR220217</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>24371.5</v>
+        <v>22850.7</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4619,17 +4587,17 @@
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44876</v>
+        <v>44856</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44876</v>
+        <v>44860</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44996</v>
+        <v>44980</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4639,7 +4607,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4648,25 +4616,25 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="M83" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTN</t>
+          <t>1BZKS31V_GDY</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>USADILTN220234</t>
+          <t>USADIGDY220135</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>58964.3</v>
+        <v>4599</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4674,27 +4642,23 @@
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44886</v>
+        <v>44895</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4703,25 +4667,25 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M84" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTR</t>
+          <t>1VVPTEPB_JSN</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>USADILTR220218</t>
+          <t>USADIJSN220728</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>21336.6</v>
+        <v>4209</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4729,82 +4693,70 @@
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44865</v>
+        <v>44890</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44867</v>
+        <v>44887</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="M85" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1411ZR8P_NTX</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>USADINTX220218</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>9308.780000000001</v>
+        <v>176.4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44887</v>
+        <v>44833</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44886</v>
+        <v>44834</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN21334NB022</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4813,25 +4765,25 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="M86" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTN</t>
+          <t>3K3ZAZ3Z_LTR</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADILTR220217</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7770.36</v>
+        <v>12242.3</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4839,17 +4791,17 @@
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44888</v>
+        <v>44856</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45008</v>
+        <v>44980</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4859,7 +4811,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -4868,25 +4820,25 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="M87" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>866DPTVE_NTX</t>
+          <t>3AONIT1Q_JSN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>USADINTX220216</t>
+          <t>USADIJSN210500</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1156</v>
+        <v>227.7</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4894,93 +4846,101 @@
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="M88" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>32JYGMFX_LTR</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>USADILTR220213</t>
+        </is>
+      </c>
       <c r="C89" t="n">
-        <v>323.82</v>
+        <v>24371.5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H89" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M89" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>1411ZR8P_LTN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>USADILTN220234</t>
+        </is>
+      </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>58964.3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4988,46 +4948,54 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H90" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>AMZN46372SH022</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>AMZN46372SH022</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="M90" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1XWGSMFB_LTR</t>
+          <t>5LM3CJLA_LTR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>USADILTR220226</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5928</v>
+        <v>21336.6</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5035,17 +5003,17 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44859</v>
+        <v>44865</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44860</v>
+        <v>44867</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44979</v>
+        <v>44985</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>KRUN20224SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5055,7 +5023,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>KRUN20224SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5064,43 +5032,43 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M91" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
+          <t>1411ZR8P_NTX</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>USADINTX220096</t>
+          <t>USADINTX220218</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>67.14</v>
+        <v>9308.780000000001</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44713</v>
+        <v>44887</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44834</v>
+        <v>44886</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44924</v>
+        <v>45007</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>AMZN41531SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5110,7 +5078,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>AMZN41531SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5119,25 +5087,25 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="M92" t="n">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>32JYGMFX_GDY</t>
+          <t>1AUSABXK_LTN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>USADIGDY220130</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>11167.6</v>
+        <v>7770.36</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5145,17 +5113,17 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44855</v>
+        <v>44888</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44860</v>
+        <v>44886</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44980</v>
+        <v>45008</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5165,7 +5133,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5174,25 +5142,25 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="M93" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTR</t>
+          <t>866DPTVE_NTX</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>USADILTR220214</t>
+          <t>USADINTX220216</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>12145.2</v>
+        <v>1156</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5200,17 +5168,17 @@
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44876</v>
+        <v>44887</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44876</v>
+        <v>44886</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44996</v>
+        <v>45007</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5220,7 +5188,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5229,80 +5197,64 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M94" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>USADILTN220239</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTR1</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>6488.3</v>
+        <v>323.82</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44887</v>
+        <v>44841</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="M95" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2YG3RNPQ_EFS</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>USABREFS220006</t>
-        </is>
-      </c>
+          <t>4MHD24HN_LTN1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>2736</v>
+        <v>7</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5310,22 +5262,18 @@
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>KRUN01677VN022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -5335,25 +5283,25 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="M96" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
+          <t>1XWGSMFB_LTR</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>USADINTX220220</t>
+          <t>USADILTR220226</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6666.82</v>
+        <v>5928</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5361,17 +5309,17 @@
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44893</v>
+        <v>44859</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44890</v>
+        <v>44860</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45013</v>
+        <v>44979</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>KRUN20224SH022</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5381,7 +5329,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>KRUN20224SH022</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5390,21 +5338,25 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="M97" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
+          <t>7N1V3UQY_NTX1</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>USADINTX220096</t>
+        </is>
+      </c>
       <c r="C98" t="n">
-        <v>37.7</v>
+        <v>67.14</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5412,46 +5364,54 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44841</v>
+        <v>44713</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44841</v>
+        <v>44834</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H98" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M98" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>866DPTVE_LTN</t>
+          <t>32JYGMFX_GDY</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>USADILTN220232</t>
+          <t>USADIGDY220130</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>32154.9</v>
+        <v>11167.6</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -5459,17 +5419,17 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44887</v>
+        <v>44855</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45007</v>
+        <v>44980</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5479,7 +5439,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5488,25 +5448,25 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="M99" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6BTNVXLF_ROG</t>
+          <t>1AUSTKGK_LTR</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>USADIROG220079</t>
+          <t>USADILTR220214</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1561.35</v>
+        <v>12145.2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -5517,7 +5477,7 @@
         <v>44876</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44870</v>
+        <v>44876</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>44996</v>
@@ -5543,7 +5503,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M100" t="n">
         <v>95</v>
@@ -5552,16 +5512,16 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8VWKPALG_NTX</t>
+          <t>1VVPTEPB_LTN</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADILTN220239</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>96.90000000000001</v>
+        <v>6488.3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5569,17 +5529,17 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5589,7 +5549,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -5598,25 +5558,25 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M101" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_NTX</t>
+          <t>2YG3RNPQ_EFS</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USABREFS220006</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>389</v>
+        <v>2736</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5634,7 +5594,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>KRUN01677VN022</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5642,18 +5602,14 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M102" t="n">
         <v>105</v>
@@ -5662,114 +5618,114 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>1BZKS31V_NTX</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>USADINTX220220</t>
+        </is>
+      </c>
       <c r="C103" t="n">
-        <v>25.8</v>
+        <v>6666.82</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="M103" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4VF7D99P_LTR</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>USADILTR220209</t>
-        </is>
-      </c>
+          <t>7EDOJ3SU_LTR1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>31600.8</v>
+        <v>37.7</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44855</v>
+        <v>44841</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44860</v>
+        <v>44841</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M104" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
+          <t>866DPTVE_LTN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>USADIGDY220138</t>
+          <t>USADILTN220232</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>23683.3</v>
+        <v>32154.9</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -5777,23 +5733,27 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44895</v>
+        <v>44886</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H105" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>AMZN46372SH022</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5802,43 +5762,43 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M105" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>6BTNVXLF_ROG</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USADIROG220079</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5.1</v>
+        <v>1561.35</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44718</v>
+        <v>44876</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44834</v>
+        <v>44870</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44924</v>
+        <v>44996</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5848,7 +5808,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -5857,64 +5817,80 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="M106" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
+          <t>8VWKPALG_NTX</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>USADINTX220215</t>
+        </is>
+      </c>
       <c r="C107" t="n">
-        <v>24.18</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44894</v>
+        <v>44886</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44894</v>
+        <v>44886</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="H107" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="M107" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>8ZWV2ARN_NTX</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>USADINTX220215</t>
+        </is>
+      </c>
       <c r="C108" t="n">
-        <v>61.5</v>
+        <v>389</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5922,101 +5898,97 @@
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H108" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="M108" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTR</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>USADILTR220224</t>
-        </is>
-      </c>
+          <t>3GAXBNII_LTN1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>40689.7</v>
+        <v>25.8</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44879</v>
+        <v>44892</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44882</v>
+        <v>44893</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>86KYVG4W_LTR</t>
+          <t>4VF7D99P_LTR</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>USADILTR220223</t>
+          <t>USADILTR220209</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>11935.4</v>
+        <v>31600.8</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6024,7 +5996,7 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44860</v>
+        <v>44855</v>
       </c>
       <c r="F110" s="2" t="n">
         <v>44860</v>
@@ -6034,7 +6006,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>AMZN27007NB022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6044,7 +6016,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>AMZN27007NB022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6053,7 +6025,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M110" t="n">
         <v>80</v>
@@ -6062,26 +6034,30 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>1VVPTEPB_GDY</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>USADIGDY220138</t>
+        </is>
+      </c>
       <c r="C111" t="n">
-        <v>21.26</v>
+        <v>23683.3</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44858</v>
+        <v>44895</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44948</v>
+        <v>45013</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -6089,89 +6065,101 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="M111" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>5QEJNSVA_NTX1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>USADINTX220085</t>
+        </is>
+      </c>
       <c r="C112" t="n">
-        <v>27.6</v>
+        <v>5.1</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44892</v>
+        <v>44718</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44893</v>
+        <v>44834</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H112" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="M112" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>USADILTR220231</t>
-        </is>
-      </c>
+          <t>6KSMLQ5R_NTX1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>10924</v>
+        <v>24.18</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45013</v>
+        <v>44984</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
@@ -6179,91 +6167,71 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="M113" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTN</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>USADILTN220233</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTR1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>87111.10000000001</v>
+        <v>27.52</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44886</v>
+        <v>44897</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44886</v>
+        <v>44900</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="M114" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTN</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>USADILTN220230</t>
-        </is>
-      </c>
+          <t>7GDOS76Y_LTN1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>25044.8</v>
+        <v>61.5</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -6271,111 +6239,111 @@
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44865</v>
+        <v>44858</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44862</v>
+        <v>44858</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="M115" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>8S6G2SDR_LTR</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>USADILTR220224</t>
+        </is>
+      </c>
       <c r="C116" t="n">
-        <v>18.8</v>
+        <v>40689.7</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44854</v>
+        <v>44879</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44854</v>
+        <v>44882</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="M116" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>USADILTN220237</t>
-        </is>
-      </c>
+          <t>2MBWL17N_LTR1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>10848.3</v>
+        <v>6.88</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44887</v>
+        <v>44900</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45010</v>
+        <v>44987</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
@@ -6390,68 +6358,76 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="M117" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
+          <t>86KYVG4W_LTR</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>USADILTR220223</t>
+        </is>
+      </c>
       <c r="C118" t="n">
-        <v>33</v>
+        <v>11935.4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H118" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="M118" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>USADIROG210054</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTR1</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>100.1</v>
+        <v>21.26</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -6459,13 +6435,13 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>44833</v>
+        <v>44858</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44834</v>
+        <v>44858</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44923</v>
+        <v>44948</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
@@ -6473,36 +6449,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M119" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>USADILTR220220</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN1</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>23638.2</v>
+        <v>27.6</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -6510,13 +6478,13 @@
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44887</v>
+        <v>44892</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>45007</v>
+        <v>44982</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
@@ -6524,46 +6492,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="M120" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
+          <t>1VVPTEPB_LTR</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>USADILTR220231</t>
+        </is>
+      </c>
       <c r="C121" t="n">
-        <v>18.38</v>
+        <v>10924</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
@@ -6571,10 +6539,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -6587,55 +6559,71 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
+          <t>8R3O7CPI_LTN</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>USADILTN220233</t>
+        </is>
+      </c>
       <c r="C122" t="n">
-        <v>19.52</v>
+        <v>87111.10000000001</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H122" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="M122" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
+          <t>5G88ZBBH_LTN</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>USADILTN220230</t>
+        </is>
+      </c>
       <c r="C123" t="n">
-        <v>72</v>
+        <v>25044.8</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -6643,101 +6631,97 @@
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44858</v>
+        <v>44862</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H123" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M123" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1YF7U3EW_LTR</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>USADILTR220209</t>
-        </is>
-      </c>
+          <t>3MUSVYHM_NTX1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>49417.6</v>
+        <v>18.8</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44855</v>
+        <v>44854</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44860</v>
+        <v>44854</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>44944</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="M124" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1VVPTEPB_NTX</t>
+          <t>6YV3GFKP_LTN</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>USADINTX220223</t>
+          <t>USADILTN220237</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>18102.8</v>
+        <v>10848.3</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -6745,192 +6729,156 @@
         </is>
       </c>
       <c r="E125" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="F125" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="F125" s="2" t="n">
-        <v>44886</v>
-      </c>
       <c r="G125" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M125" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTN</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>USADILTN220231</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTN1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>16725.5</v>
+        <v>33</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="M126" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>587NBAYT_LTR</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>USADILTR220217</t>
-        </is>
-      </c>
+          <t>66LW139X_LTR1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>12728.9</v>
+        <v>66</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44856</v>
+        <v>44897</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44860</v>
+        <v>44900</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M127" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTN</t>
+          <t>6FIO1MDJ_ROG1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADIROG210054</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>11016</v>
+        <v>100.1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44888</v>
+        <v>44833</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44886</v>
+        <v>44834</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN21189NB022</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -6939,25 +6887,25 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="M128" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
+          <t>866DPTVE_LTR</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>USADIGDY220137</t>
+          <t>USADILTR220220</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>23176.5</v>
+        <v>23638.2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -6965,13 +6913,13 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="F129" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -6981,7 +6929,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>AMZN46469SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -6990,62 +6938,50 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M129" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7F2B37ZD_NTX</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>USADINTX220247</t>
-        </is>
-      </c>
+          <t>1ZAW8MMM_LTN1</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>11866</v>
+        <v>18.38</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44889</v>
+        <v>44892</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45009</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>KRUN20623SH022</t>
-        </is>
-      </c>
+        <v>45012</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>KRUN20623SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M130" t="n">
         <v>110</v>
@@ -7054,12 +6990,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
+          <t>2VVHQCXN_LTN1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>114.45</v>
+        <v>19.52</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -7067,13 +7003,13 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
@@ -7088,35 +7024,35 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M131" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
+          <t>2ZKZXKNR_LTN1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>51.44</v>
+        <v>72</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
@@ -7131,68 +7067,80 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M132" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
+          <t>1YF7U3EW_LTR</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>USADILTR220209</t>
+        </is>
+      </c>
       <c r="C133" t="n">
-        <v>19.64</v>
+        <v>49417.6</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44858</v>
+        <v>44855</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44858</v>
+        <v>44860</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H133" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="M133" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTR</t>
+          <t>1VVPTEPB_NTX</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>USADILTR220218</t>
+          <t>USADINTX220223</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>8740.26</v>
+        <v>18102.8</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -7200,17 +7148,17 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44865</v>
+        <v>44887</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44867</v>
+        <v>44886</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>44985</v>
+        <v>45007</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7220,7 +7168,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -7229,25 +7177,25 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="M134" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTN</t>
+          <t>1WAWRZ1C_LTN</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>USADILTN220230</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>29155.7</v>
+        <v>16725.5</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -7255,17 +7203,17 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44865</v>
+        <v>44888</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44862</v>
+        <v>44886</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44985</v>
+        <v>45008</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7275,7 +7223,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -7284,25 +7232,25 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="M135" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTN</t>
+          <t>587NBAYT_LTR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>USADILTN220238</t>
+          <t>USADILTR220217</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>28549.9</v>
+        <v>12728.9</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -7310,17 +7258,17 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>44886</v>
+        <v>44856</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45006</v>
+        <v>44980</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7330,7 +7278,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN45848SH022</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -7339,68 +7287,80 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M136" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr"/>
+          <t>8ZWV2ARN_LTN</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>USADILTN220231</t>
+        </is>
+      </c>
       <c r="C137" t="n">
-        <v>31</v>
+        <v>11016</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H137" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="M137" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
+          <t>6U3SDR7C_GDY</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADIGDY220137</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7936.33</v>
+        <v>23176.5</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -7424,7 +7384,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -7433,21 +7393,21 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M138" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
+          <t>42QQW8OE_LTR1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>14.6</v>
+        <v>98.98</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -7455,13 +7415,13 @@
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>44841</v>
+        <v>44897</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44841</v>
+        <v>44900</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44931</v>
+        <v>44987</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
@@ -7476,25 +7436,25 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M139" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTN</t>
+          <t>7F2B37ZD_NTX</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>USADILTN220225</t>
+          <t>USADINTX220247</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>42605.7</v>
+        <v>11866</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -7502,17 +7462,17 @@
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>44865</v>
+        <v>44889</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44985</v>
+        <v>45009</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>KRUN20623SH022</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7522,7 +7482,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>KRUN20623SH022</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -7531,94 +7491,78 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="M140" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>5HLRZJFT_LTR</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
+          <t>5E5SJTOV_LTN1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>9620.639999999999</v>
+        <v>114.45</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>44865</v>
+        <v>44892</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>44867</v>
+        <v>44893</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M141" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>USADIJSN220722</t>
-        </is>
-      </c>
+          <t>3AKTKLAV_LTR1</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>9451.68</v>
+        <v>51.44</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>44830</v>
+        <v>44841</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44838</v>
+        <v>44841</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44958</v>
+        <v>44931</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
@@ -7633,80 +7577,68 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="M142" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>6XLW9F1T_LTR</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>USADILTR220210</t>
-        </is>
-      </c>
+          <t>4GBIBVRV_LTN1</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>17542.1</v>
+        <v>19.64</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E143" s="2" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>44859</v>
+        <v>44858</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="M143" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>4OBX3LAK_GDY</t>
+          <t>5G88ZBBH_LTR</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>105906</v>
+        <v>8740.26</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -7714,17 +7646,17 @@
         </is>
       </c>
       <c r="E144" s="2" t="n">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="F144" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>44987</v>
+        <v>44985</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7734,7 +7666,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -7743,7 +7675,7 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M144" t="n">
         <v>85</v>
@@ -7752,16 +7684,16 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
+          <t>5LM3CJLA_LTN</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>USADIJSN220725</t>
+          <t>USADILTN220230</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2696.08</v>
+        <v>29155.7</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -7769,46 +7701,54 @@
         </is>
       </c>
       <c r="E145" s="2" t="n">
-        <v>44890</v>
+        <v>44865</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>44887</v>
+        <v>44862</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H145" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="M145" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
+          <t>6U3SDR7C_LTN</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>USADILTR220246</t>
+          <t>USADILTN220238</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>16644</v>
+        <v>28549.9</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -7816,23 +7756,27 @@
         </is>
       </c>
       <c r="E146" s="2" t="n">
-        <v>44897</v>
+        <v>44886</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>44899</v>
+        <v>44886</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="H146" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>KRUN20621SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -7841,39 +7785,35 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M146" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>USADILTR220247</t>
-        </is>
-      </c>
+          <t>6L1E3PVD_LTR1</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>684</v>
+        <v>31</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E147" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>44899</v>
+        <v>44858</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>45017</v>
+        <v>44948</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
@@ -7881,32 +7821,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>KRUN20622SH022</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="M147" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>613WD55F_LTR1</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
+          <t>1WAWRZ1C_LTR</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C148" t="n">
-        <v>13</v>
+        <v>7936.33</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -7914,13 +7854,13 @@
         </is>
       </c>
       <c r="E148" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44987</v>
+        <v>45008</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
@@ -7928,42 +7868,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="M148" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
+          <t>3OWOSLEI_LTR1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>66</v>
+        <v>14.6</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E149" s="2" t="n">
-        <v>44897</v>
+        <v>44841</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>44900</v>
+        <v>44841</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>44987</v>
+        <v>44931</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
@@ -7978,21 +7922,25 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M149" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTR1</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr"/>
+          <t>1AUSTKGK_LTN</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>USADILTN220225</t>
+        </is>
+      </c>
       <c r="C150" t="n">
-        <v>98.98</v>
+        <v>42605.7</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -8000,28 +7948,36 @@
         </is>
       </c>
       <c r="E150" s="2" t="n">
-        <v>44897</v>
+        <v>44865</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>44900</v>
+        <v>44862</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H150" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M150" t="n">
         <v>85</v>
@@ -8030,12 +7986,16 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTR1</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
+          <t>5HLRZJFT_LTR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>USADILTR220218</t>
+        </is>
+      </c>
       <c r="C151" t="n">
-        <v>26.62</v>
+        <v>9620.639999999999</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -8043,28 +8003,36 @@
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>44897</v>
+        <v>44865</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>44900</v>
+        <v>44867</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H151" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M151" t="n">
         <v>85</v>
@@ -8073,12 +8041,16 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
+          <t>4CUW4DHC_JSN</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>USADIJSN220722</t>
+        </is>
+      </c>
       <c r="C152" t="n">
-        <v>27.52</v>
+        <v>9451.68</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -8086,13 +8058,13 @@
         </is>
       </c>
       <c r="E152" s="2" t="n">
-        <v>44897</v>
+        <v>44830</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>44900</v>
+        <v>44838</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>44987</v>
+        <v>44958</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
@@ -8107,21 +8079,25 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="M152" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>13V4JTZA_LTR1</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
+          <t>6XLW9F1T_LTR</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>USADILTR220210</t>
+        </is>
+      </c>
       <c r="C153" t="n">
-        <v>33</v>
+        <v>17542.1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -8129,42 +8105,54 @@
         </is>
       </c>
       <c r="E153" s="2" t="n">
-        <v>44897</v>
+        <v>44855</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>44900</v>
+        <v>44859</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H153" t="inlineStr"/>
+        <v>44979</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>AMZN45581SH022</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M153" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
+          <t>4OBX3LAK_GDY</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>USADIGDY220127</t>
+        </is>
+      </c>
       <c r="C154" t="n">
-        <v>6.88</v>
+        <v>105906</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -8172,24 +8160,32 @@
         </is>
       </c>
       <c r="E154" s="2" t="n">
-        <v>44897</v>
+        <v>44862</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>44900</v>
+        <v>44867</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>44987</v>
       </c>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -8202,12 +8198,16 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>8OFVYIYG_JSN1</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
+          <t>1BZKS31V_JSN</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>USADIJSN220725</t>
+        </is>
+      </c>
       <c r="C155" t="n">
-        <v>81.90000000000001</v>
+        <v>2696.08</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -8215,13 +8215,13 @@
         </is>
       </c>
       <c r="E155" s="2" t="n">
-        <v>44897</v>
+        <v>44890</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>44900</v>
+        <v>44887</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>44987</v>
+        <v>45010</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
@@ -8236,10 +8236,10 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="M155" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156">
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M156" t="n">
         <v>0</v>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8245,57 +8245,151 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>6YI2KAXQ_LTN</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>USADILTN220244</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>29427.72</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>122</v>
+      </c>
+      <c r="M156" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>88A48CIL_LTN</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>USADILTN220245</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>24646.04</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>45024</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>122</v>
+      </c>
+      <c r="M157" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>1XEJQHRM_LTN,1XEJQHRM_LTN1</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>USADILTN220183,USADILTN220185</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="C158" t="n">
         <v>6300</v>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="E156" s="2" t="n">
+      <c r="E158" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="G156" s="2" t="n">
+      <c r="G158" s="2" t="n">
         <v>44902</v>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>KRUN19471SH022</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>Collected</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>KRUN19472SH022</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
         <v>1</v>
       </c>
-      <c r="M156" t="n">
+      <c r="M158" t="n">
         <v>0</v>
       </c>
     </row>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M2" t="n">
         <v>110</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="n">
         <v>30</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" t="n">
         <v>80</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M5" t="n">
         <v>110</v>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6" t="n">
         <v>55</v>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" t="n">
         <v>45</v>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M8" t="n">
         <v>85</v>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>105</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" t="n">
         <v>80</v>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M11" t="n">
         <v>80</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M12" t="n">
         <v>105</v>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M13" t="n">
         <v>105</v>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" t="n">
         <v>45</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" t="n">
         <v>45</v>
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M16" t="n">
         <v>110</v>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17" t="n">
         <v>30</v>
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M18" t="n">
         <v>85</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M19" t="n">
         <v>105</v>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M20" t="n">
         <v>105</v>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M21" t="n">
         <v>80</v>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" t="n">
         <v>80</v>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M23" t="n">
         <v>110</v>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24" t="n">
         <v>20</v>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M25" t="n">
         <v>95</v>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M26" t="n">
         <v>95</v>
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M28" t="n">
         <v>85</v>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M29" t="n">
         <v>105</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M30" t="n">
         <v>80</v>
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M31" t="n">
         <v>85</v>
@@ -2039,10 +2039,10 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M33" t="n">
         <v>80</v>
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M34" t="n">
         <v>90</v>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M35" t="n">
         <v>80</v>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M36" t="n">
         <v>50</v>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M37" t="n">
         <v>110</v>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M38" t="n">
         <v>105</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M39" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M40" t="n">
         <v>45</v>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M41" t="n">
         <v>105</v>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M42" t="n">
         <v>105</v>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M43" t="n">
         <v>80</v>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M44" t="n">
         <v>85</v>
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M45" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M46" t="n">
         <v>105</v>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M47" t="n">
         <v>105</v>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M48" t="n">
         <v>95</v>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M49" t="n">
         <v>50</v>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M50" t="n">
         <v>80</v>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M51" t="n">
         <v>115</v>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M52" t="n">
         <v>85</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M53" t="n">
         <v>80</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M54" t="n">
         <v>85</v>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M55" t="n">
         <v>110</v>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M56" t="n">
         <v>85</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M57" t="n">
         <v>105</v>
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M58" t="n">
         <v>95</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M59" t="n">
         <v>45</v>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M60" t="n">
         <v>80</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M61" t="n">
         <v>105</v>
@@ -3545,10 +3545,10 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M62" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M63" t="n">
         <v>105</v>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M64" t="n">
         <v>105</v>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M65" t="n">
         <v>105</v>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M66" t="n">
         <v>30</v>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M67" t="n">
         <v>105</v>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M68" t="n">
         <v>110</v>
@@ -3898,10 +3898,10 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M69" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M70" t="n">
         <v>85</v>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M71" t="n">
         <v>85</v>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M72" t="n">
         <v>105</v>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M73" t="n">
         <v>115</v>
@@ -4169,10 +4169,10 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M75" t="n">
         <v>115</v>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M76" t="n">
         <v>110</v>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M77" t="n">
         <v>30</v>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M78" t="n">
         <v>105</v>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M79" t="n">
         <v>80</v>
@@ -4475,10 +4475,10 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M80" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M81" t="n">
         <v>80</v>
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M82" t="n">
         <v>45</v>
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M83" t="n">
         <v>80</v>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M84" t="n">
         <v>110</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M85" t="n">
         <v>110</v>
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M86" t="n">
         <v>20</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M87" t="n">
         <v>80</v>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M88" t="n">
         <v>45</v>
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M89" t="n">
         <v>95</v>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M90" t="n">
         <v>105</v>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M91" t="n">
         <v>85</v>
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M92" t="n">
         <v>105</v>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M93" t="n">
         <v>105</v>
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M94" t="n">
         <v>105</v>
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M95" t="n">
         <v>30</v>
@@ -5283,7 +5283,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M96" t="n">
         <v>45</v>
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M97" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
@@ -5393,10 +5393,10 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M98" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M99" t="n">
         <v>80</v>
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M100" t="n">
         <v>95</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M101" t="n">
         <v>110</v>
@@ -5609,7 +5609,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M102" t="n">
         <v>105</v>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M103" t="n">
         <v>110</v>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M104" t="n">
         <v>30</v>
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M105" t="n">
         <v>105</v>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M106" t="n">
         <v>95</v>
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M107" t="n">
         <v>105</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M108" t="n">
         <v>105</v>
@@ -5970,7 +5970,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M109" t="n">
         <v>80</v>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M110" t="n">
         <v>80</v>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M111" t="n">
         <v>110</v>
@@ -6131,10 +6131,10 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M112" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -6174,10 +6174,10 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M113" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114">
@@ -6217,7 +6217,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M114" t="n">
         <v>85</v>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M115" t="n">
         <v>45</v>
@@ -6315,10 +6315,10 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M116" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M117" t="n">
         <v>85</v>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M118" t="n">
         <v>80</v>
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M119" t="n">
         <v>45</v>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M120" t="n">
         <v>80</v>
@@ -6550,7 +6550,7 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M121" t="n">
         <v>110</v>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M122" t="n">
         <v>105</v>
@@ -6660,7 +6660,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M123" t="n">
         <v>85</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M124" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125">
@@ -6750,7 +6750,7 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M125" t="n">
         <v>110</v>
@@ -6793,7 +6793,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M126" t="n">
         <v>45</v>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M127" t="n">
         <v>85</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M128" t="n">
         <v>20</v>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M129" t="n">
         <v>105</v>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M130" t="n">
         <v>110</v>
@@ -7024,7 +7024,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M131" t="n">
         <v>45</v>
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M132" t="n">
         <v>45</v>
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M133" t="n">
         <v>80</v>
@@ -7177,7 +7177,7 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M134" t="n">
         <v>105</v>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M135" t="n">
         <v>105</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M136" t="n">
         <v>80</v>
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M137" t="n">
         <v>105</v>
@@ -7393,7 +7393,7 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M138" t="n">
         <v>105</v>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M139" t="n">
         <v>85</v>
@@ -7491,10 +7491,10 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M140" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141">
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M141" t="n">
         <v>80</v>
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M142" t="n">
         <v>30</v>
@@ -7620,7 +7620,7 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M143" t="n">
         <v>45</v>
@@ -7675,7 +7675,7 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M144" t="n">
         <v>85</v>
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M145" t="n">
         <v>85</v>
@@ -7785,7 +7785,7 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M146" t="n">
         <v>105</v>
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M147" t="n">
         <v>45</v>
@@ -7879,7 +7879,7 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M148" t="n">
         <v>105</v>
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M149" t="n">
         <v>30</v>
@@ -7977,7 +7977,7 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M150" t="n">
         <v>85</v>
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M151" t="n">
         <v>85</v>
@@ -8079,7 +8079,7 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M152" t="n">
         <v>55</v>
@@ -8134,10 +8134,10 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M153" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154">
@@ -8189,7 +8189,7 @@
         </is>
       </c>
       <c r="L154" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M154" t="n">
         <v>85</v>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M155" t="n">
         <v>110</v>
@@ -8283,7 +8283,7 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M156" t="n">
         <v>120</v>
@@ -8330,67 +8330,10 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M157" t="n">
         <v>120</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>1XEJQHRM_LTN,1XEJQHRM_LTN1</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>USADILTN220183,USADILTN220185</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>6300</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="n">
-        <v>44805</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="n">
-        <v>44902</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>KRUN19471SH022</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>KRUN19472SH022</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M2" t="n">
         <v>110</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" t="n">
         <v>30</v>
@@ -601,16 +601,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4OBX3LAK_LTR</t>
+          <t>89NLLCYP_NTX</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADINTX220243</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4737</v>
+        <v>367.9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -618,17 +618,17 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44855</v>
+        <v>44893</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44860</v>
+        <v>44896</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44980</v>
+        <v>45013</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>KRUN20620SH022</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -636,36 +636,32 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>89NLLCYP_NTX</t>
+          <t>6X2NPZ5N_LTN1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USADINTX220243</t>
+          <t>USADILTN220223</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>367.9</v>
+        <v>1368.23</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -673,22 +669,18 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44893</v>
+        <v>44830</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44896</v>
+        <v>44837</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>KRUN20620SH022</t>
-        </is>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -698,39 +690,35 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M5" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6X2NPZ5N_LTN1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>USADILTN220223</t>
-        </is>
-      </c>
+          <t>3Y8RTMTK_LTN1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1368.23</v>
+        <v>12.86</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44830</v>
+        <v>44858</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44837</v>
+        <v>44858</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44957</v>
+        <v>44948</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -745,68 +733,80 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M6" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3Y8RTMTK_LTN1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>5HLRZJFT_LTN</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>USADILTN220230</t>
+        </is>
+      </c>
       <c r="C7" t="n">
-        <v>12.86</v>
+        <v>22354.9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44858</v>
+        <v>44862</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5HLRZJFT_LTN</t>
+          <t>1AUSABXK_LTR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USADILTN220230</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22354.9</v>
+        <v>14919.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -814,27 +814,23 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44865</v>
+        <v>44888</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -843,39 +839,35 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTR</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>2OVDJQPL_LTN1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>14919.7</v>
+        <v>13.18</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45008</v>
+        <v>44982</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -883,79 +875,87 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M9" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2OVDJQPL_LTN1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>3R3F8S5K_TPF</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>13.18</v>
+        <v>67421</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5ZCEAYSH_LTR</t>
+          <t>8S6G2SDR_GDY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USADILTR220217</t>
+          <t>USADIGDY220133</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14268.8</v>
+        <v>17122</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -963,27 +963,23 @@
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44856</v>
+        <v>44888</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44860</v>
+        <v>44890</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -992,94 +988,78 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3R3F8S5K_TPF</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>613WD55F_LTN1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>67421</v>
+        <v>43.5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44889</v>
+        <v>44858</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="M12" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8S6G2SDR_GDY</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>USADIGDY220133</t>
-        </is>
-      </c>
+          <t>8C2X1J7G_LTR1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>17122</v>
+        <v>76</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1087,51 +1067,55 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="M13" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>613WD55F_LTN1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>4GLARQRK_NTX</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>USADINTX220242</t>
+        </is>
+      </c>
       <c r="C14" t="n">
-        <v>43.5</v>
+        <v>17589.3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44858</v>
+        <v>44896</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>KRUN20619SH022</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1141,21 +1125,21 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8C2X1J7G_LTR1</t>
+          <t>323S6WET_LTR1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>76</v>
+        <v>44.32</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1163,13 +1147,13 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44948</v>
+        <v>44931</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1184,25 +1168,25 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4GLARQRK_NTX</t>
+          <t>4VF7D99P_GDY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USADINTX220242</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17589.3</v>
+        <v>39564</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1210,17 +1194,17 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44893</v>
+        <v>44862</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44896</v>
+        <v>44867</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45013</v>
+        <v>44987</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>KRUN20619SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1228,75 +1212,91 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="M16" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>323S6WET_LTR1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>8R3O7CPI_NTX</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>USADINTX220217</t>
+        </is>
+      </c>
       <c r="C17" t="n">
-        <v>44.32</v>
+        <v>12800.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44841</v>
+        <v>44886</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44841</v>
+        <v>44886</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4VF7D99P_GDY</t>
+          <t>1411ZR8P_GDY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADIGDY220134</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>39564</v>
+        <v>8729.98</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1304,27 +1304,23 @@
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44862</v>
+        <v>44887</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44867</v>
+        <v>44890</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1333,80 +1329,68 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="M18" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8R3O7CPI_NTX</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>USADINTX220217</t>
-        </is>
-      </c>
+          <t>1PE1AZJP_LTN1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>12800.3</v>
+        <v>2.59</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44886</v>
+        <v>44892</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="M19" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1411ZR8P_GDY</t>
+          <t>1BZKS31V_LTN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USADIGDY220134</t>
+          <t>USADILTN220236</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8729.98</v>
+        <v>25344.3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1414,23 +1398,27 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>44890</v>
-      </c>
       <c r="G20" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1439,21 +1427,25 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M20" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1PE1AZJP_LTN1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>4C14JWQL_ROG1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>USADIROG210055</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>2.59</v>
+        <v>7.15</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1461,13 +1453,13 @@
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44892</v>
+        <v>44833</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44893</v>
+        <v>44834</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44982</v>
+        <v>44923</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -1475,32 +1467,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M21" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4N9685MB_LTR</t>
+          <t>6BTNVXLF_LTR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADILTR220212</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13744</v>
+        <v>718</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1508,17 +1504,17 @@
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44855</v>
+        <v>44876</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44860</v>
+        <v>44876</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44980</v>
+        <v>44996</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1528,7 +1524,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1537,25 +1533,25 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="M22" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1BZKS31V_LTN</t>
+          <t>6BTNVXLF_LTR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>USADILTN220236</t>
+          <t>USADILTR220237</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25344.3</v>
+        <v>718</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1563,17 +1559,17 @@
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44893</v>
+        <v>44876</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44887</v>
+        <v>44876</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45013</v>
+        <v>44996</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1581,60 +1577,60 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="M23" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4C14JWQL_ROG1</t>
+          <t>8VWKPALG_ROG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>USADIROG210055</t>
+          <t>USADIROG220081</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.15</v>
+        <v>29.74</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44833</v>
+        <v>44879</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44834</v>
+        <v>44879</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN46193SH022</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1643,25 +1639,21 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6BTNVXLF_LTR</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>USADILTR220212</t>
-        </is>
-      </c>
+          <t>2YT17WGL_LTR1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>718</v>
+        <v>26.62</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1669,54 +1661,46 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44876</v>
+        <v>44897</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44876</v>
+        <v>44900</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M25" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6BTNVXLF_LTR</t>
+          <t>6YV3GFKP_GDY</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>USADILTR220237</t>
+          <t>USADIGDY220136</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>718</v>
+        <v>41125.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1724,101 +1708,93 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44876</v>
+        <v>44888</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44876</v>
+        <v>44890</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M26" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8VWKPALG_ROG</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>USADIROG220081</t>
-        </is>
-      </c>
+          <t>2GRMROMU_LTN1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>29.74</v>
+        <v>13.36</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44879</v>
+        <v>44892</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44879</v>
+        <v>44893</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M27" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTR1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>3G3OXYWS_LTR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>USADILTR220216</t>
+        </is>
+      </c>
       <c r="C28" t="n">
-        <v>26.62</v>
+        <v>35167.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1826,60 +1802,64 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44897</v>
+        <v>44865</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44900</v>
+        <v>44867</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>AMZN45873SH022</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>AMZN45873SH022</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M28" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6YV3GFKP_GDY</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>USADIGDY220136</t>
-        </is>
-      </c>
+          <t>7JN9DTJG_NTX1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>41125.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44888</v>
+        <v>44894</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45008</v>
+        <v>44984</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -1887,61 +1867,69 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="M29" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2GRMROMU_LTN1</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>86KYVG4W_LTN</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>USADILTN220235</t>
+        </is>
+      </c>
       <c r="C30" t="n">
-        <v>13.36</v>
+        <v>26778.1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44892</v>
+        <v>44862</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44893</v>
+        <v>44862</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>44982</v>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>AMZN27007NB022</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M30" t="n">
         <v>80</v>
@@ -1950,16 +1938,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3G3OXYWS_LTR</t>
+          <t>2IKTHOPR_GDY1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>USADILTR220216</t>
+          <t>USADIGDY220128</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>35167.6</v>
+        <v>28004.4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1967,17 +1955,17 @@
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44865</v>
+        <v>44862</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44867</v>
+        <v>44871</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AMZN45873SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1987,7 +1975,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>AMZN45873SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1996,21 +1984,21 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M31" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7JN9DTJG_NTX1</t>
+          <t>2YT17WGL_LTN1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>9.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2018,13 +2006,13 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44894</v>
+        <v>44892</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -2039,7 +2027,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M32" t="n">
         <v>80</v>
@@ -2048,16 +2036,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>86KYVG4W_LTN</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>USADILTN220235</t>
-        </is>
-      </c>
+          <t>3BTYRGGT_LTN1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>26778.1</v>
+        <v>14.57</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2065,54 +2049,46 @@
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44862</v>
+        <v>44860</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44862</v>
+        <v>44861</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="M33" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2IKTHOPR_GDY1</t>
+          <t>4TACGJRN_TPF</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>USADIGDY220128</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>28004.4</v>
+        <v>54503</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2120,17 +2096,17 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44862</v>
+        <v>44893</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44871</v>
+        <v>44889</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44991</v>
+        <v>45013</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2140,7 +2116,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2149,35 +2125,39 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="M34" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>6U3SDR7C_LTR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>USADILTR220230</t>
+        </is>
+      </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>14621.9</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44982</v>
+        <v>45008</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -2185,42 +2165,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
+          <t>3DEIS4NJ_LTN1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>14.57</v>
+        <v>70</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44861</v>
+        <v>44858</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44950</v>
+        <v>44948</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -2235,25 +2219,25 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M36" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
+          <t>8QO31QHQ_LTN</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>54503</v>
+        <v>37975.7</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2261,17 +2245,17 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44889</v>
+        <v>44886</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45013</v>
+        <v>45008</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2281,7 +2265,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2290,25 +2274,25 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M37" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
+          <t>1WAWRZ1C_NTX</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>USADILTR220230</t>
+          <t>USADINTX220215</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>14621.9</v>
+        <v>958.4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2316,23 +2300,27 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44888</v>
+        <v>44886</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2341,7 +2329,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M38" t="n">
         <v>105</v>
@@ -2350,169 +2338,157 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>66BPSMWF_LTR</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>USADILTR220210</t>
-        </is>
-      </c>
+          <t>6HLPWWEQ_LTN2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>13946.3</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44855</v>
+        <v>44892</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44859</v>
+        <v>44893</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M39" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>6XLW9F1T_GDY</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>USADIGDY220128</t>
+        </is>
+      </c>
       <c r="C40" t="n">
-        <v>70</v>
+        <v>19634.4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44858</v>
+        <v>44862</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44858</v>
+        <v>44867</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="M40" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTN</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>USADILTN220231</t>
-        </is>
-      </c>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>37975.7</v>
+        <v>33</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44888</v>
+        <v>44899</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44886</v>
+        <v>44900</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44989</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="M41" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_NTX</t>
+          <t>8QO31QHQ_LTR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>958.4</v>
+        <v>16134.8</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2520,27 +2496,23 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2549,7 +2521,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M42" t="n">
         <v>105</v>
@@ -2558,26 +2530,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>8ZWV2ARN_LTR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C43" t="n">
-        <v>87.95999999999999</v>
+        <v>17871.2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44982</v>
+        <v>45008</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -2585,32 +2561,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="M43" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6XLW9F1T_GDY</t>
+          <t>2JV42YWJ_ROG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>USADIGDY220128</t>
+          <t>USADIROG220080</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>19634.4</v>
+        <v>223.05</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2618,17 +2598,17 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44862</v>
+        <v>44876</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44867</v>
+        <v>44870</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44987</v>
+        <v>44996</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2638,7 +2618,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2647,35 +2627,35 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M44" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13V4JTZA_LTR1</t>
+          <t>28NZCWFH_LTN1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>33</v>
+        <v>67.34</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44899</v>
+        <v>44860</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44900</v>
+        <v>44861</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44989</v>
+        <v>44950</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -2690,25 +2670,25 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="M45" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
+          <t>1XWGSMFB_LTN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTN220242</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16134.8</v>
+        <v>828.48</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2716,23 +2696,27 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44888</v>
+        <v>44863</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44890</v>
+        <v>44862</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
+        <v>44983</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>KRUN20090SH022</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>KRUN20090SH022</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2741,25 +2725,25 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M46" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
+          <t>4GLARQRK_LTN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTN220255</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17871.2</v>
+        <v>11051.2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2767,23 +2751,27 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44888</v>
+        <v>44896</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
+        <v>45016</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>KRUN20618SH022</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2792,25 +2780,21 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M47" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2JV42YWJ_ROG</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>USADIROG220080</t>
-        </is>
-      </c>
+          <t>8OFVYIYG_JSN1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>223.05</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2818,64 +2802,56 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44876</v>
+        <v>44897</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44870</v>
+        <v>44900</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M48" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
+          <t>613WD55F_LTR1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>67.34</v>
+        <v>13</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44860</v>
+        <v>44897</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44861</v>
+        <v>44900</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44950</v>
+        <v>44987</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -2890,25 +2866,25 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M49" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1XWGSMFB_LTN</t>
+          <t>4TL4LC8Q_TPF</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>USADILTN220242</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>828.48</v>
+        <v>51556</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2916,17 +2892,17 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44863</v>
+        <v>44893</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44862</v>
+        <v>44889</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44983</v>
+        <v>45013</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>KRUN20090SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2936,7 +2912,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>KRUN20090SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2945,25 +2921,25 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="M50" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
+          <t>1AUSTKGK_GDY</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>USADILTN220255</t>
+          <t>USADIGDY220131</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>11051.2</v>
+        <v>15295.1</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2971,17 +2947,17 @@
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44896</v>
+        <v>44865</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44894</v>
+        <v>44867</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>KRUN20618SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2991,7 +2967,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>KRUN20618SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3000,21 +2976,25 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="M51" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8OFVYIYG_JSN1</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>6YV3GFKP_NTX</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>USADINTX220221</t>
+        </is>
+      </c>
       <c r="C52" t="n">
-        <v>81.90000000000001</v>
+        <v>33008.8</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3022,46 +3002,54 @@
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44897</v>
+        <v>44886</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44900</v>
+        <v>44886</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="M52" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4PPH3TEW_LTR</t>
+          <t>2JV42YWJ_LTR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADILTR220215</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10659.6</v>
+        <v>17850.4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3069,17 +3057,17 @@
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44855</v>
+        <v>44876</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44860</v>
+        <v>44876</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44980</v>
+        <v>44996</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3089,7 +3077,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3098,21 +3086,21 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="M53" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>613WD55F_LTR1</t>
+          <t>6V626OPP_LTN1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3120,13 +3108,13 @@
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44987</v>
+        <v>44948</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -3141,80 +3129,68 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M54" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>51556</v>
+        <v>68</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F55" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F55" s="2" t="n">
-        <v>44889</v>
-      </c>
       <c r="G55" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="M55" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1AUSTKGK_GDY</t>
+          <t>8S6G2SDR_LTN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>USADIGDY220131</t>
+          <t>USADILTN220233</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15295.1</v>
+        <v>11024.6</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3222,17 +3198,17 @@
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44865</v>
+        <v>44886</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44867</v>
+        <v>44886</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44985</v>
+        <v>45006</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3242,7 +3218,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3251,80 +3227,68 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="M56" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6YV3GFKP_NTX</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>USADINTX220221</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_NTX1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>33008.8</v>
+        <v>21.66</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44886</v>
+        <v>44854</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44886</v>
+        <v>44854</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>44944</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="M57" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2JV42YWJ_LTR</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>USADILTR220215</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17850.4</v>
+        <v>17593.7</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3332,27 +3296,23 @@
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44876</v>
+        <v>44888</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44876</v>
+        <v>44890</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3361,35 +3321,39 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="M58" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>1411ZR8P_LTR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>USADILTR220225</t>
+        </is>
+      </c>
       <c r="C59" t="n">
-        <v>42</v>
+        <v>28902.8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44948</v>
+        <v>45007</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3397,140 +3361,148 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="M59" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>2APC43NH_NTX</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>USADINTX220239</t>
+        </is>
+      </c>
       <c r="C60" t="n">
-        <v>68</v>
+        <v>14504.8</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44892</v>
+        <v>44886</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>KRUN20549SH022</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>KRUN20549SH022</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M60" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTN</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>USADILTN220233</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>11024.6</v>
+        <v>15</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44886</v>
+        <v>44840</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44886</v>
+        <v>44841</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+        <v>44930</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="M61" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>8VWKPALG_LTR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C62" t="n">
-        <v>21.66</v>
+        <v>5319.56</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44854</v>
+        <v>44888</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44854</v>
+        <v>44890</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44944</v>
+        <v>45008</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -3538,32 +3510,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="M62" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>USADILTR220229</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17593.7</v>
+        <v>3683.64</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3571,13 +3547,13 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44890</v>
+        <v>44887</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45008</v>
+        <v>45010</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3585,18 +3561,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M63" t="n">
         <v>105</v>
@@ -3605,16 +3577,16 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
+          <t>4N9685MB_GDY</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USADILTR220225</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>28902.8</v>
+        <v>33712.6</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3622,23 +3594,27 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44887</v>
+        <v>44862</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44890</v>
+        <v>44867</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3647,25 +3623,25 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="M64" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2APC43NH_NTX</t>
+          <t>4PPH3TEW_GDY</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADINTX220239</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14504.8</v>
+        <v>5735.8</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3673,17 +3649,17 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44886</v>
+        <v>44862</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44889</v>
+        <v>44867</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45006</v>
+        <v>44987</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>KRUN20549SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3693,7 +3669,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>KRUN20549SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3702,68 +3678,80 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="M65" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
+          <t>6U3SDR7C_NTX</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>USADINTX220222</t>
+        </is>
+      </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>4642.9</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44840</v>
+        <v>44886</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44841</v>
+        <v>44886</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44930</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="M66" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
+          <t>89NLLCYP_LTR</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTR220247</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5319.56</v>
+        <v>684</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3771,13 +3759,13 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44888</v>
+        <v>44897</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45008</v>
+        <v>45017</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -3787,7 +3775,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>KRUN20622SH022</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3796,25 +3784,25 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M67" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
+          <t>8R3O7CPI_LTR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>USADIJSN220727</t>
+          <t>USADILTR220224</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3683.64</v>
+        <v>6684.9</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3822,46 +3810,54 @@
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44890</v>
+        <v>44879</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M68" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2IKTHOPR_LTR</t>
+          <t>4GLARQRK_LTR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADILTR220246</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3881.7</v>
+        <v>16644</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3869,27 +3865,23 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44855</v>
+        <v>44897</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44859</v>
+        <v>44900</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>KRUN20621SH022</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3898,25 +3890,25 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M69" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4N9685MB_GDY</t>
+          <t>6YV3GFKP_JSN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADIJSN220726</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>33712.6</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3924,72 +3916,64 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44867</v>
+        <v>44887</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="M70" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4PPH3TEW_GDY</t>
+          <t>4B1AYW5I_GDY1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADIGDY210047</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5735.8</v>
+        <v>24.55</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44862</v>
+        <v>44841</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44867</v>
+        <v>44841</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44987</v>
+        <v>44931</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3999,7 +3983,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4008,25 +3992,25 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="M71" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6U3SDR7C_NTX</t>
+          <t>8VWKPALG_LTN</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USADINTX220222</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4642.9</v>
+        <v>61309.3</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4034,17 +4018,17 @@
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4054,7 +4038,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4063,7 +4047,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M72" t="n">
         <v>105</v>
@@ -4072,30 +4056,26 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>USADILTR220247</t>
-        </is>
-      </c>
+          <t>265AQW8L_LTN1</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>684</v>
+        <v>14.57</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44897</v>
+        <v>44892</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45017</v>
+        <v>44982</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -4103,91 +4083,71 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>KRUN20622SH022</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="M73" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTR</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>USADILTR220224</t>
-        </is>
-      </c>
+          <t>6NYVMFBS_LTN1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>6684.9</v>
+        <v>22.6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44879</v>
+        <v>44892</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44882</v>
+        <v>44893</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M74" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>USADILTR220246</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>16644</v>
+        <v>78.08</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4195,13 +4155,13 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45017</v>
+        <v>44948</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -4209,36 +4169,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>KRUN20621SH022</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="M75" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>1BZKS31V_GDY</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADIGDY220135</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9286.879999999999</v>
+        <v>4599</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4246,13 +4202,13 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44887</v>
+        <v>44895</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4260,14 +4216,18 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M76" t="n">
         <v>110</v>
@@ -4276,99 +4236,87 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>1VVPTEPB_JSN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADIJSN220728</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24.55</v>
+        <v>4209</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>AMZN39056SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>AMZN39056SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M77" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTN</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>61309.3</v>
+        <v>176.4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44888</v>
+        <v>44833</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44886</v>
+        <v>44834</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN21334NB022</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4377,35 +4325,39 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="M78" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
+          <t>3AONIT1Q_JSN</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>USADIJSN210500</t>
+        </is>
+      </c>
       <c r="C79" t="n">
-        <v>14.57</v>
+        <v>227.7</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4420,25 +4372,25 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="M79" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2XOOGD1K_LTR</t>
+          <t>32JYGMFX_LTR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>USADILTR220210</t>
+          <t>USADILTR220213</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10308.9</v>
+        <v>24371.5</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4446,17 +4398,17 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44855</v>
+        <v>44876</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44859</v>
+        <v>44876</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44979</v>
+        <v>44996</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4466,7 +4418,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>AMZN45581SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4475,64 +4427,80 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="M80" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>1411ZR8P_LTN</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>USADILTN220234</t>
+        </is>
+      </c>
       <c r="C81" t="n">
-        <v>22.6</v>
+        <v>58964.3</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44892</v>
+        <v>44887</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H81" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>AMZN46372SH022</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>AMZN46372SH022</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="M81" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>5LM3CJLA_LTR</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>USADILTR220218</t>
+        </is>
+      </c>
       <c r="C82" t="n">
-        <v>78.08</v>
+        <v>21336.6</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4540,46 +4508,54 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44858</v>
+        <v>44867</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H82" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="M82" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5Z1M67CE_LTR</t>
+          <t>1411ZR8P_NTX</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>USADILTR220217</t>
+          <t>USADINTX220218</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>22850.7</v>
+        <v>9308.780000000001</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4587,17 +4563,17 @@
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44856</v>
+        <v>44887</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44860</v>
+        <v>44886</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44980</v>
+        <v>45007</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4607,7 +4583,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4616,25 +4592,25 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="M83" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
+          <t>1AUSABXK_LTN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>USADIGDY220135</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4599</v>
+        <v>7770.36</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4642,23 +4618,27 @@
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44895</v>
+        <v>44886</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H84" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4667,25 +4647,25 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M84" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
+          <t>866DPTVE_NTX</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>USADIJSN220728</t>
+          <t>USADINTX220216</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4209</v>
+        <v>1156</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4693,46 +4673,50 @@
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44890</v>
+        <v>44887</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44887</v>
+        <v>44886</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H85" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M85" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>USADIROG210057</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTR1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>176.4</v>
+        <v>323.82</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4740,13 +4724,13 @@
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44923</v>
+        <v>44931</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -4754,36 +4738,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>AMZN21334NB022</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M86" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3K3ZAZ3Z_LTR</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>USADILTR220217</t>
-        </is>
-      </c>
+          <t>4MHD24HN_LTN1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>12242.3</v>
+        <v>7</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4791,101 +4767,101 @@
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44856</v>
+        <v>44858</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="M87" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
+          <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>USADIJSN210500</t>
+          <t>USADINTX220096</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>227.7</v>
+        <v>67.14</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44858</v>
+        <v>44713</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44858</v>
+        <v>44834</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H88" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M88" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>32JYGMFX_LTR</t>
+          <t>1AUSTKGK_LTR</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>USADILTR220213</t>
+          <t>USADILTR220214</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>24371.5</v>
+        <v>12145.2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4922,7 +4898,7 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M89" t="n">
         <v>95</v>
@@ -4931,16 +4907,16 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTN</t>
+          <t>1VVPTEPB_LTN</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>USADILTN220234</t>
+          <t>USADILTN220239</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>58964.3</v>
+        <v>6488.3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4948,17 +4924,17 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="F90" s="2" t="n">
         <v>44887</v>
       </c>
-      <c r="F90" s="2" t="n">
-        <v>44886</v>
-      </c>
       <c r="G90" s="2" t="n">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4968,7 +4944,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -4977,25 +4953,25 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M90" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTR</t>
+          <t>2YG3RNPQ_EFS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>USADILTR220218</t>
+          <t>USABREFS220006</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>21336.6</v>
+        <v>2736</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5003,17 +4979,17 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44865</v>
+        <v>44886</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44867</v>
+        <v>44886</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44985</v>
+        <v>45006</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>KRUN01677VN022</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5021,36 +4997,32 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="M91" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1411ZR8P_NTX</t>
+          <t>1BZKS31V_NTX</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>USADINTX220218</t>
+          <t>USADINTX220220</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9308.780000000001</v>
+        <v>6666.82</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5058,17 +5030,17 @@
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5078,7 +5050,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5087,80 +5059,68 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M92" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTN</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>USADILTN220231</t>
-        </is>
-      </c>
+          <t>7EDOJ3SU_LTR1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>7770.36</v>
+        <v>37.7</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44888</v>
+        <v>44841</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44886</v>
+        <v>44841</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="M93" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>866DPTVE_NTX</t>
+          <t>866DPTVE_LTN</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>USADINTX220216</t>
+          <t>USADILTN220232</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1156</v>
+        <v>32154.9</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5178,7 +5138,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5188,7 +5148,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5197,7 +5157,7 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M94" t="n">
         <v>105</v>
@@ -5206,55 +5166,71 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
+          <t>6BTNVXLF_ROG</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>USADIROG220079</t>
+        </is>
+      </c>
       <c r="C95" t="n">
-        <v>323.82</v>
+        <v>1561.35</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44841</v>
+        <v>44876</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44841</v>
+        <v>44870</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H95" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="M95" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
+          <t>8VWKPALG_NTX</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>USADINTX220215</t>
+        </is>
+      </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5262,46 +5238,54 @@
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H96" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M96" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1XWGSMFB_LTR</t>
+          <t>8ZWV2ARN_NTX</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>USADILTR220226</t>
+          <t>USADINTX220215</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5928</v>
+        <v>389</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5309,17 +5293,17 @@
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44859</v>
+        <v>44886</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44860</v>
+        <v>44886</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44979</v>
+        <v>45006</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>KRUN20224SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5329,7 +5313,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>KRUN20224SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5338,25 +5322,21 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="M97" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>USADINTX220096</t>
-        </is>
-      </c>
+          <t>3GAXBNII_LTN1</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>67.14</v>
+        <v>25.8</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5364,54 +5344,46 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44713</v>
+        <v>44892</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44834</v>
+        <v>44893</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M98" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>32JYGMFX_GDY</t>
+          <t>1VVPTEPB_GDY</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>USADIGDY220130</t>
+          <t>USADIGDY220138</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>11167.6</v>
+        <v>23683.3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -5419,27 +5391,23 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44855</v>
+        <v>44893</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44860</v>
+        <v>44895</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>AMZN45848SH022</t>
-        </is>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5448,43 +5416,43 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="M99" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTR</t>
+          <t>5QEJNSVA_NTX1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>USADILTR220214</t>
+          <t>USADINTX220085</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12145.2</v>
+        <v>5.1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44876</v>
+        <v>44718</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44876</v>
+        <v>44834</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44996</v>
+        <v>44924</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN41741SH022</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5494,7 +5462,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN41741SH022</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5503,103 +5471,83 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="M100" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>USADILTN220239</t>
-        </is>
-      </c>
+          <t>6KSMLQ5R_NTX1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>6488.3</v>
+        <v>24.18</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44887</v>
+        <v>44894</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44984</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M101" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2YG3RNPQ_EFS</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>USABREFS220006</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTR1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>2736</v>
+        <v>27.52</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44886</v>
+        <v>44897</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44886</v>
+        <v>44900</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>KRUN01677VN022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5609,25 +5557,21 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="M102" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>USADINTX220220</t>
-        </is>
-      </c>
+          <t>7GDOS76Y_LTN1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>6666.82</v>
+        <v>61.5</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5635,207 +5579,183 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="M103" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
+          <t>8S6G2SDR_LTR</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>USADILTR220224</t>
+        </is>
+      </c>
       <c r="C104" t="n">
-        <v>37.7</v>
+        <v>40689.7</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44841</v>
+        <v>44879</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44841</v>
+        <v>44882</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H104" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M104" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>866DPTVE_LTN</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>USADILTN220232</t>
-        </is>
-      </c>
+          <t>2MBWL17N_LTR1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>32154.9</v>
+        <v>6.88</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44886</v>
+        <v>44900</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="M105" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6BTNVXLF_ROG</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>USADIROG220079</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTR1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>1561.35</v>
+        <v>21.26</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44876</v>
+        <v>44858</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44870</v>
+        <v>44858</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="M106" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>8VWKPALG_NTX</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>USADINTX220215</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>96.90000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -5843,54 +5763,46 @@
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44886</v>
+        <v>44892</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="M107" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_NTX</t>
+          <t>1VVPTEPB_LTR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADILTR220231</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>389</v>
+        <v>10924</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5898,27 +5810,23 @@
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44886</v>
+        <v>44895</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>AMZN46282SH022</t>
-        </is>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -5927,68 +5835,80 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M108" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t>8R3O7CPI_LTN</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>USADILTN220233</t>
+        </is>
+      </c>
       <c r="C109" t="n">
-        <v>25.8</v>
+        <v>87111.10000000001</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44892</v>
+        <v>44886</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M109" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4VF7D99P_LTR</t>
+          <t>5G88ZBBH_LTN</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>USADILTR220209</t>
+          <t>USADILTN220230</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>31600.8</v>
+        <v>25044.8</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5996,17 +5916,17 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44855</v>
+        <v>44865</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN45924SH022</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6016,7 +5936,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>AMZN45827SH022</t>
+          <t>AMZN45924SH022</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6025,7 +5945,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M110" t="n">
         <v>80</v>
@@ -6034,30 +5954,26 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>USADIGDY220138</t>
-        </is>
-      </c>
+          <t>3MUSVYHM_NTX1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>23683.3</v>
+        <v>18.8</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44893</v>
+        <v>44854</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44895</v>
+        <v>44854</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45013</v>
+        <v>44944</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -6065,87 +5981,75 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M111" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>6YV3GFKP_LTN</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USADILTN220237</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5.1</v>
+        <v>10848.3</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44718</v>
+        <v>44890</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="M112" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
+          <t>3FACOSDK_LTN1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>24.18</v>
+        <v>33</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6153,13 +6057,13 @@
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44894</v>
+        <v>44858</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44894</v>
+        <v>44858</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44984</v>
+        <v>44948</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
@@ -6174,21 +6078,21 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="M113" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
+          <t>66LW139X_LTR1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>27.52</v>
+        <v>66</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -6217,7 +6121,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M114" t="n">
         <v>85</v>
@@ -6226,26 +6130,30 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
+          <t>6FIO1MDJ_ROG1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>USADIROG210054</t>
+        </is>
+      </c>
       <c r="C115" t="n">
-        <v>61.5</v>
+        <v>100.1</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44858</v>
+        <v>44833</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44858</v>
+        <v>44834</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44948</v>
+        <v>44923</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
@@ -6253,32 +6161,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M115" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTR</t>
+          <t>866DPTVE_LTR</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>USADILTR220224</t>
+          <t>USADILTR220220</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>40689.7</v>
+        <v>23638.2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -6286,27 +6198,23 @@
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44879</v>
+        <v>44887</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44882</v>
+        <v>44890</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -6315,21 +6223,21 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M116" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
+          <t>1ZAW8MMM_LTN1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>6.88</v>
+        <v>18.38</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -6337,13 +6245,13 @@
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>44897</v>
+        <v>44892</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>44987</v>
+        <v>45012</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
@@ -6358,80 +6266,68 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="M117" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>86KYVG4W_LTR</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>USADILTR220223</t>
-        </is>
-      </c>
+          <t>2VVHQCXN_LTN1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>11935.4</v>
+        <v>19.52</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="M118" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
+          <t>2ZKZXKNR_LTN1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>21.26</v>
+        <v>72</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E119" s="2" t="n">
@@ -6456,7 +6352,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M119" t="n">
         <v>45</v>
@@ -6465,12 +6361,16 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
+          <t>1YF7U3EW_LTR</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>USADILTR220209</t>
+        </is>
+      </c>
       <c r="C120" t="n">
-        <v>27.6</v>
+        <v>49417.6</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -6478,46 +6378,54 @@
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44892</v>
+        <v>44855</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44893</v>
+        <v>44860</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H120" t="inlineStr"/>
+        <v>44980</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>AMZN45827SH022</t>
+        </is>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M120" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
+          <t>1VVPTEPB_NTX</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>USADILTR220231</t>
+          <t>USADINTX220223</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10924</v>
+        <v>18102.8</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -6525,23 +6433,27 @@
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44895</v>
+        <v>44886</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H121" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6550,25 +6462,25 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M121" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTN</t>
+          <t>1WAWRZ1C_LTN</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>USADILTN220233</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>87111.10000000001</v>
+        <v>16725.5</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -6576,17 +6488,17 @@
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="F122" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6596,7 +6508,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -6605,7 +6517,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M122" t="n">
         <v>105</v>
@@ -6614,16 +6526,16 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTN</t>
+          <t>8ZWV2ARN_LTN</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>USADILTN220230</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>25044.8</v>
+        <v>11016</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -6631,17 +6543,17 @@
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44865</v>
+        <v>44888</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44862</v>
+        <v>44886</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44985</v>
+        <v>45008</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6651,7 +6563,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -6660,35 +6572,39 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="M123" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
+          <t>6U3SDR7C_GDY</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>USADIGDY220137</t>
+        </is>
+      </c>
       <c r="C124" t="n">
-        <v>18.8</v>
+        <v>23176.5</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44854</v>
+        <v>44888</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44854</v>
+        <v>44890</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44944</v>
+        <v>45008</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
@@ -6696,46 +6612,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="M124" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>USADILTN220237</t>
-        </is>
-      </c>
+          <t>42QQW8OE_LTR1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>10848.3</v>
+        <v>98.98</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44887</v>
+        <v>44900</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>45010</v>
+        <v>44987</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
@@ -6750,64 +6666,76 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="M125" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t>7F2B37ZD_NTX</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>USADINTX220247</t>
+        </is>
+      </c>
       <c r="C126" t="n">
-        <v>33</v>
+        <v>11866</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44858</v>
+        <v>44889</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H126" t="inlineStr"/>
+        <v>45009</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>KRUN20623SH022</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>KRUN20623SH022</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="M126" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
+          <t>5E5SJTOV_LTN1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>66</v>
+        <v>114.45</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -6815,13 +6743,13 @@
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44897</v>
+        <v>44892</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44987</v>
+        <v>44982</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
@@ -6836,25 +6764,21 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M127" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>USADIROG210054</t>
-        </is>
-      </c>
+          <t>3AKTKLAV_LTR1</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>100.1</v>
+        <v>51.44</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -6862,13 +6786,13 @@
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44923</v>
+        <v>44931</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
@@ -6876,50 +6800,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M128" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>USADILTR220220</t>
-        </is>
-      </c>
+          <t>4GBIBVRV_LTN1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>23638.2</v>
+        <v>19.64</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45007</v>
+        <v>44948</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -6927,118 +6843,142 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="M129" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
+          <t>5G88ZBBH_LTR</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>USADILTR220218</t>
+        </is>
+      </c>
       <c r="C130" t="n">
-        <v>18.38</v>
+        <v>8740.26</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44892</v>
+        <v>44865</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44893</v>
+        <v>44867</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="H130" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>AMZN45925SH022</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="M130" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
+          <t>5LM3CJLA_LTN</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>USADILTN220230</t>
+        </is>
+      </c>
       <c r="C131" t="n">
-        <v>19.52</v>
+        <v>29155.7</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44858</v>
+        <v>44862</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H131" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="M131" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
+          <t>6U3SDR7C_LTN</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>USADILTN220238</t>
+        </is>
+      </c>
       <c r="C132" t="n">
-        <v>72</v>
+        <v>28549.9</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -7046,101 +6986,97 @@
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H132" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M132" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1YF7U3EW_LTR</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>USADILTR220209</t>
-        </is>
-      </c>
+          <t>6L1E3PVD_LTR1</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>49417.6</v>
+        <v>31</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="M133" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1VVPTEPB_NTX</t>
+          <t>1WAWRZ1C_LTR</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>USADINTX220223</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>18102.8</v>
+        <v>7936.33</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -7148,27 +7084,23 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -7186,71 +7118,59 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTN</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>USADILTN220231</t>
-        </is>
-      </c>
+          <t>3OWOSLEI_LTR1</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>16725.5</v>
+        <v>14.6</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44888</v>
+        <v>44841</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44886</v>
+        <v>44841</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="M135" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>587NBAYT_LTR</t>
+          <t>1AUSTKGK_LTN</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>USADILTR220217</t>
+          <t>USADILTN220225</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>12728.9</v>
+        <v>42605.7</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -7258,17 +7178,17 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>44856</v>
+        <v>44865</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44860</v>
+        <v>44862</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN45924SH022</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7278,7 +7198,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>AMZN45848SH022</t>
+          <t>AMZN45924SH022</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -7287,7 +7207,7 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M136" t="n">
         <v>80</v>
@@ -7296,16 +7216,16 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTN</t>
+          <t>5HLRZJFT_LTR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>11016</v>
+        <v>9620.639999999999</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -7313,17 +7233,17 @@
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>44888</v>
+        <v>44865</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>45008</v>
+        <v>44985</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7333,7 +7253,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -7342,25 +7262,25 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="M137" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
+          <t>4CUW4DHC_JSN</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>USADIGDY220137</t>
+          <t>USADIJSN220722</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>23176.5</v>
+        <v>9451.68</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -7368,13 +7288,13 @@
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>44888</v>
+        <v>44830</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44890</v>
+        <v>44838</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>45008</v>
+        <v>44958</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
@@ -7382,61 +7302,69 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="M138" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTR1</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
+          <t>4OBX3LAK_GDY</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>USADIGDY220127</t>
+        </is>
+      </c>
       <c r="C139" t="n">
-        <v>98.98</v>
+        <v>105906</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>44897</v>
+        <v>44862</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44900</v>
+        <v>44867</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>44987</v>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M139" t="n">
         <v>85</v>
@@ -7445,16 +7373,16 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7F2B37ZD_NTX</t>
+          <t>1BZKS31V_JSN</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>USADINTX220247</t>
+          <t>USADIJSN220725</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>11866</v>
+        <v>2696.08</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -7462,32 +7390,24 @@
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>44890</v>
+        <v>44887</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45009</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>KRUN20623SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>KRUN20623SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -7500,26 +7420,30 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
+          <t>6YI2KAXQ_LTN</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>USADILTN220244</t>
+        </is>
+      </c>
       <c r="C141" t="n">
-        <v>114.45</v>
+        <v>29427.72</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>44892</v>
+        <v>44904</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>44893</v>
+        <v>44901</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44982</v>
+        <v>45024</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
@@ -7534,35 +7458,39 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M141" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t>88A48CIL_LTN</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>USADILTN220245</t>
+        </is>
+      </c>
       <c r="C142" t="n">
-        <v>51.44</v>
+        <v>24646.04</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>44841</v>
+        <v>44904</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44841</v>
+        <v>44901</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>44931</v>
+        <v>45024</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
@@ -7577,35 +7505,39 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="M142" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
+          <t>8JYISG4F_TPF</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>USADITPF220009</t>
+        </is>
+      </c>
       <c r="C143" t="n">
-        <v>19.64</v>
+        <v>50593</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E143" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>44858</v>
+        <v>44903</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>44948</v>
+        <v>45027</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
@@ -7620,720 +7552,10 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="M143" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>5G88ZBBH_LTR</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>8740.26</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="F144" s="2" t="n">
-        <v>44867</v>
-      </c>
-      <c r="G144" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>83</v>
-      </c>
-      <c r="M144" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>5LM3CJLA_LTN</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>USADILTN220230</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>29155.7</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="F145" s="2" t="n">
-        <v>44862</v>
-      </c>
-      <c r="G145" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>83</v>
-      </c>
-      <c r="M145" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>6U3SDR7C_LTN</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>USADILTN220238</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>28549.9</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E146" s="2" t="n">
-        <v>44886</v>
-      </c>
-      <c r="F146" s="2" t="n">
-        <v>44886</v>
-      </c>
-      <c r="G146" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>104</v>
-      </c>
-      <c r="M146" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>6L1E3PVD_LTR1</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="n">
-        <v>31</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Queued for payment</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="n">
-        <v>44858</v>
-      </c>
-      <c r="F147" s="2" t="n">
-        <v>44858</v>
-      </c>
-      <c r="G147" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>46</v>
-      </c>
-      <c r="M147" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>1WAWRZ1C_LTR</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>7936.33</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E148" s="2" t="n">
-        <v>44888</v>
-      </c>
-      <c r="F148" s="2" t="n">
-        <v>44890</v>
-      </c>
-      <c r="G148" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>106</v>
-      </c>
-      <c r="M148" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>3OWOSLEI_LTR1</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Queued for payment</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="n">
-        <v>44841</v>
-      </c>
-      <c r="F149" s="2" t="n">
-        <v>44841</v>
-      </c>
-      <c r="G149" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>29</v>
-      </c>
-      <c r="M149" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>1AUSTKGK_LTN</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>USADILTN220225</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>42605.7</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="F150" s="2" t="n">
-        <v>44862</v>
-      </c>
-      <c r="G150" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>83</v>
-      </c>
-      <c r="M150" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>5HLRZJFT_LTR</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>9620.639999999999</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="F151" s="2" t="n">
-        <v>44867</v>
-      </c>
-      <c r="G151" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>83</v>
-      </c>
-      <c r="M151" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>4CUW4DHC_JSN</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>USADIJSN220722</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>9451.68</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="n">
-        <v>44830</v>
-      </c>
-      <c r="F152" s="2" t="n">
-        <v>44838</v>
-      </c>
-      <c r="G152" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>56</v>
-      </c>
-      <c r="M152" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>6XLW9F1T_LTR</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>USADILTR220210</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>17542.1</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="n">
-        <v>44855</v>
-      </c>
-      <c r="F153" s="2" t="n">
-        <v>44859</v>
-      </c>
-      <c r="G153" s="2" t="n">
-        <v>44979</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>AMZN45581SH022</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>77</v>
-      </c>
-      <c r="M153" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>4OBX3LAK_GDY</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>USADIGDY220127</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>105906</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="n">
-        <v>44862</v>
-      </c>
-      <c r="F154" s="2" t="n">
-        <v>44867</v>
-      </c>
-      <c r="G154" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>85</v>
-      </c>
-      <c r="M154" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>1BZKS31V_JSN</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>USADIJSN220725</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>2696.08</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="n">
-        <v>44890</v>
-      </c>
-      <c r="F155" s="2" t="n">
-        <v>44887</v>
-      </c>
-      <c r="G155" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>108</v>
-      </c>
-      <c r="M155" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>6YI2KAXQ_LTN</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>USADILTN220244</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>29427.72</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="n">
-        <v>44904</v>
-      </c>
-      <c r="F156" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="G156" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>121</v>
-      </c>
-      <c r="M156" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>88A48CIL_LTN</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>USADILTN220245</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>24646.04</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Submitted</t>
-        </is>
-      </c>
-      <c r="E157" s="2" t="n">
-        <v>44904</v>
-      </c>
-      <c r="F157" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="G157" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>121</v>
-      </c>
-      <c r="M157" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M2" t="n">
         <v>110</v>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" t="n">
         <v>110</v>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" t="n">
         <v>55</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" t="n">
         <v>45</v>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
         <v>80</v>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>105</v>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M9" t="n">
         <v>80</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>105</v>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" t="n">
         <v>105</v>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M12" t="n">
         <v>45</v>
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" t="n">
         <v>45</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M14" t="n">
         <v>110</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" t="n">
         <v>85</v>
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M17" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M18" t="n">
         <v>105</v>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" t="n">
         <v>80</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M20" t="n">
         <v>110</v>
@@ -1436,30 +1436,30 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4C14JWQL_ROG1</t>
+          <t>88A48CIL_LTN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>USADIROG210055</t>
+          <t>USADILTN220245</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.15</v>
+        <v>24646</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44833</v>
+        <v>44904</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44834</v>
+        <v>44901</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44923</v>
+        <v>45024</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -1467,64 +1467,56 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6BTNVXLF_LTR</t>
+          <t>4C14JWQL_ROG1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USADILTR220212</t>
+          <t>USADIROG210055</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>718</v>
+        <v>7.15</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44876</v>
+        <v>44833</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44876</v>
+        <v>44834</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN21189NB022</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1533,10 +1525,10 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M22" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -1547,7 +1539,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>USADILTR220237</t>
+          <t>USADILTR220212</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1577,32 +1569,36 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M23" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8VWKPALG_ROG</t>
+          <t>6BTNVXLF_LTR</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>USADIROG220081</t>
+          <t>USADILTR220237</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29.74</v>
+        <v>718</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1610,17 +1606,17 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44879</v>
+        <v>44876</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44879</v>
+        <v>44876</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44999</v>
+        <v>44996</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1628,32 +1624,32 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTR1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>8VWKPALG_ROG</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>USADIROG220081</t>
+        </is>
+      </c>
       <c r="C25" t="n">
-        <v>26.62</v>
+        <v>29.74</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1661,46 +1657,50 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44897</v>
+        <v>44879</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44900</v>
+        <v>44879</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M25" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6YV3GFKP_GDY</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>USADIGDY220136</t>
-        </is>
-      </c>
+          <t>2YT17WGL_LTR1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>41125.8</v>
+        <v>26.62</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1708,13 +1708,13 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44888</v>
+        <v>44897</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45008</v>
+        <v>44987</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1722,46 +1722,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="M26" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2GRMROMU_LTN1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>6YV3GFKP_GDY</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>USADIGDY220136</t>
+        </is>
+      </c>
       <c r="C27" t="n">
-        <v>13.36</v>
+        <v>41125.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44982</v>
+        <v>45008</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1769,69 +1769,61 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="M27" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3G3OXYWS_LTR</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>USADILTR220216</t>
-        </is>
-      </c>
+          <t>2GRMROMU_LTN1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>35167.6</v>
+        <v>13.36</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44865</v>
+        <v>44892</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44867</v>
+        <v>44893</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>AMZN45873SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>AMZN45873SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M28" t="n">
         <v>80</v>
@@ -1840,37 +1832,49 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7JN9DTJG_NTX1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>3G3OXYWS_LTR</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>USADILTR220216</t>
+        </is>
+      </c>
       <c r="C29" t="n">
-        <v>9.199999999999999</v>
+        <v>35167.6</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44894</v>
+        <v>44865</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44894</v>
+        <v>44867</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AMZN45873SH022</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>AMZN45873SH022</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1883,53 +1887,41 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>86KYVG4W_LTN</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>USADILTN220235</t>
-        </is>
-      </c>
+          <t>7JN9DTJG_NTX1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>26778.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44862</v>
+        <v>44894</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44862</v>
+        <v>44894</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+        <v>44984</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>AMZN27007NB022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M30" t="n">
         <v>80</v>
@@ -1938,16 +1930,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2IKTHOPR_GDY1</t>
+          <t>86KYVG4W_LTN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>USADIGDY220128</t>
+          <t>USADILTN220235</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>28004.4</v>
+        <v>26778.1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1958,14 +1950,14 @@
         <v>44862</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44871</v>
+        <v>44862</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44991</v>
+        <v>44982</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN27007NB022</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1975,7 +1967,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN27007NB022</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1984,78 +1976,90 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M31" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>2IKTHOPR_GDY1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>USADIGDY220128</t>
+        </is>
+      </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>28004.4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44892</v>
+        <v>44862</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44893</v>
+        <v>44871</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>44991</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M32" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
+          <t>2YT17WGL_LTN1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>14.57</v>
+        <v>17</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44860</v>
+        <v>44892</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44861</v>
+        <v>44893</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44950</v>
+        <v>44982</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -2070,25 +2074,21 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="M33" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>3BTYRGGT_LTN1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>54503</v>
+        <v>14.57</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2096,54 +2096,46 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44893</v>
+        <v>44860</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44889</v>
+        <v>44861</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="M34" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
+          <t>4TACGJRN_TPF</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>USADILTR220230</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>14621.9</v>
+        <v>54503</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2151,23 +2143,27 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2176,35 +2172,39 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M35" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>6U3SDR7C_LTR</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>USADILTR220230</t>
+        </is>
+      </c>
       <c r="C36" t="n">
-        <v>70</v>
+        <v>14621.9</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -2212,87 +2212,79 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="M36" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTN</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>USADILTN220231</t>
-        </is>
-      </c>
+          <t>3DEIS4NJ_LTN1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>37975.7</v>
+        <v>70</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="M37" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_NTX</t>
+          <t>8QO31QHQ_LTN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>958.4</v>
+        <v>37975.7</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2300,17 +2292,17 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44886</v>
+        <v>44888</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2320,7 +2312,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2329,7 +2321,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M38" t="n">
         <v>105</v>
@@ -2338,139 +2330,151 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>1WAWRZ1C_NTX</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>USADINTX220215</t>
+        </is>
+      </c>
       <c r="C39" t="n">
-        <v>87.95999999999999</v>
+        <v>958.4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44892</v>
+        <v>44886</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="M39" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6XLW9F1T_GDY</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>USADIGDY220128</t>
-        </is>
-      </c>
+          <t>6HLPWWEQ_LTN2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>19634.4</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44862</v>
+        <v>44892</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44867</v>
+        <v>44893</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M40" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>13V4JTZA_LTR1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>6XLW9F1T_GDY</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>USADIGDY220128</t>
+        </is>
+      </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>19634.4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44899</v>
+        <v>44862</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44900</v>
+        <v>44867</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M41" t="n">
         <v>85</v>
@@ -2479,30 +2483,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>16134.8</v>
+        <v>33</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44888</v>
+        <v>44899</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45008</v>
+        <v>44989</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2510,27 +2510,23 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="M42" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
+          <t>8QO31QHQ_LTR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2539,7 +2535,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17871.2</v>
+        <v>16134.8</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2572,7 +2568,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M43" t="n">
         <v>105</v>
@@ -2581,16 +2577,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2JV42YWJ_ROG</t>
+          <t>8ZWV2ARN_LTR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>USADIROG220080</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>223.05</v>
+        <v>17871.2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2598,27 +2594,23 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44876</v>
+        <v>44888</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44870</v>
+        <v>44890</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2627,21 +2619,25 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M44" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>2JV42YWJ_ROG</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USADIROG220080</t>
+        </is>
+      </c>
       <c r="C45" t="n">
-        <v>67.34</v>
+        <v>223.05</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2649,46 +2645,50 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44860</v>
+        <v>44876</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44861</v>
+        <v>44870</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44950</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="M45" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1XWGSMFB_LTN</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>USADILTN220242</t>
-        </is>
-      </c>
+          <t>28NZCWFH_LTN1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>828.48</v>
+        <v>67.34</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2696,54 +2696,46 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44863</v>
+        <v>44860</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44862</v>
+        <v>44861</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44983</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>KRUN20090SH022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>KRUN20090SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
+          <t>1XWGSMFB_LTN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>USADILTN220255</t>
+          <t>USADILTN220242</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>11051.2</v>
+        <v>828.48</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2751,17 +2743,17 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44896</v>
+        <v>44863</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44894</v>
+        <v>44862</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45016</v>
+        <v>44983</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>KRUN20618SH022</t>
+          <t>KRUN20090SH022</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2771,7 +2763,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>KRUN20618SH022</t>
+          <t>KRUN20090SH022</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2780,21 +2772,25 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="M47" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8OFVYIYG_JSN1</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>4GLARQRK_LTN</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>USADILTN220255</t>
+        </is>
+      </c>
       <c r="C48" t="n">
-        <v>81.90000000000001</v>
+        <v>11051.2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2802,46 +2798,54 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44897</v>
+        <v>44896</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44900</v>
+        <v>44894</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
+        <v>45016</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="M48" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>613WD55F_LTR1</t>
+          <t>8OFVYIYG_JSN1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>13</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
@@ -2866,7 +2870,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M49" t="n">
         <v>85</v>
@@ -2875,71 +2879,59 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>613WD55F_LTR1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>51556</v>
+        <v>13</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44893</v>
+        <v>44897</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44889</v>
+        <v>44900</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="M50" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1AUSTKGK_GDY</t>
+          <t>4TL4LC8Q_TPF</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>USADIGDY220131</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15295.1</v>
+        <v>51556</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2947,17 +2939,17 @@
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44865</v>
+        <v>44893</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44867</v>
+        <v>44889</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44985</v>
+        <v>45013</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2967,7 +2959,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2976,25 +2968,25 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M51" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6YV3GFKP_NTX</t>
+          <t>1AUSTKGK_GDY</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>USADINTX220221</t>
+          <t>USADIGDY220131</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33008.8</v>
+        <v>15295.1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3002,17 +2994,17 @@
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44886</v>
+        <v>44865</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45006</v>
+        <v>44985</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3022,7 +3014,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3031,25 +3023,25 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M52" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2JV42YWJ_LTR</t>
+          <t>6YV3GFKP_NTX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>USADILTR220215</t>
+          <t>USADINTX220221</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17850.4</v>
+        <v>33008.8</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3057,17 +3049,17 @@
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44876</v>
+        <v>44886</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44876</v>
+        <v>44886</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44996</v>
+        <v>45006</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3077,7 +3069,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3086,64 +3078,76 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M53" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>2JV42YWJ_LTR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>USADILTR220215</t>
+        </is>
+      </c>
       <c r="C54" t="n">
-        <v>42</v>
+        <v>17850.4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44858</v>
+        <v>44876</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44858</v>
+        <v>44876</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
+        <v>44996</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M54" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
+          <t>6V626OPP_LTN1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3151,13 +3155,13 @@
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3172,137 +3176,133 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="M55" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTN</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>USADILTN220233</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>11024.6</v>
+        <v>68</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44886</v>
+        <v>44892</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="M56" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>8S6G2SDR_LTN</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>USADILTN220233</t>
+        </is>
+      </c>
       <c r="C57" t="n">
-        <v>21.66</v>
+        <v>11024.6</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44854</v>
+        <v>44886</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44854</v>
+        <v>44886</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H57" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="M57" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>USADILTR220229</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_NTX1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>17593.7</v>
+        <v>21.66</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44888</v>
+        <v>44854</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44890</v>
+        <v>44854</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45008</v>
+        <v>44944</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
@@ -3310,36 +3310,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M58" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>USADILTR220225</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>28902.8</v>
+        <v>17593.7</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3347,13 +3343,13 @@
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3363,7 +3359,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3381,16 +3377,16 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2APC43NH_NTX</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>USADINTX220239</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14504.8</v>
+        <v>28902.8</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3398,27 +3394,23 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>KRUN20549SH022</t>
-        </is>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>KRUN20549SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3436,73 +3428,81 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>2APC43NH_NTX</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>USADINTX220239</t>
+        </is>
+      </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>14504.8</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44840</v>
+        <v>44886</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44841</v>
+        <v>44889</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44930</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>KRUN20549SH022</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>KRUN20549SH022</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M61" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>5319.56</v>
+        <v>15</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44888</v>
+        <v>44840</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45008</v>
+        <v>44930</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -3510,36 +3510,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M62" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
+          <t>8VWKPALG_LTR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>USADIJSN220727</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3683.64</v>
+        <v>5319.56</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3547,13 +3543,13 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="F63" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="F63" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G63" s="2" t="n">
-        <v>45010</v>
+        <v>45008</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3561,14 +3557,18 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M63" t="n">
         <v>105</v>
@@ -3577,16 +3577,16 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4N9685MB_GDY</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>33712.6</v>
+        <v>3683.64</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3594,45 +3594,37 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44867</v>
+        <v>44887</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M64" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4PPH3TEW_GDY</t>
+          <t>4N9685MB_GDY</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3641,7 +3633,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5735.8</v>
+        <v>33712.6</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3678,7 +3670,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M65" t="n">
         <v>85</v>
@@ -3687,16 +3679,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6U3SDR7C_NTX</t>
+          <t>4PPH3TEW_GDY</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USADINTX220222</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4642.9</v>
+        <v>5735.8</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3704,17 +3696,17 @@
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44886</v>
+        <v>44862</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45006</v>
+        <v>44987</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3724,7 +3716,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3733,25 +3725,25 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="M66" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
+          <t>6U3SDR7C_NTX</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USADILTR220247</t>
+          <t>USADINTX220222</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>684</v>
+        <v>4642.9</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3759,23 +3751,27 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44897</v>
+        <v>44886</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44900</v>
+        <v>44886</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="H67" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>KRUN20622SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3784,25 +3780,25 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M67" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTR</t>
+          <t>89NLLCYP_LTR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>USADILTR220224</t>
+          <t>USADILTR220247</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6684.9</v>
+        <v>684</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3810,27 +3806,23 @@
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44879</v>
+        <v>44897</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44882</v>
+        <v>44900</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>KRUN20622SH022</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3839,25 +3831,25 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M68" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
+          <t>8R3O7CPI_LTR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USADILTR220246</t>
+          <t>USADILTR220224</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>16644</v>
+        <v>6684.9</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3865,23 +3857,27 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44897</v>
+        <v>44879</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44900</v>
+        <v>44882</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="H69" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>KRUN20621SH022</t>
+          <t>AMZN46193SH022</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3890,25 +3886,25 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="M69" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>4GLARQRK_LTR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADILTR220246</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9286.879999999999</v>
+        <v>16644</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3916,13 +3912,13 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44887</v>
+        <v>44900</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -3930,105 +3926,101 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M70" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>6YV3GFKP_JSN</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADIJSN220726</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>24.55</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>AMZN39056SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>AMZN39056SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="M71" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTN</t>
+          <t>4B1AYW5I_GDY1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADIGDY210047</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>61309.3</v>
+        <v>24.55</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44888</v>
+        <v>44841</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44886</v>
+        <v>44841</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45008</v>
+        <v>44931</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4038,7 +4030,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4047,64 +4039,76 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="M72" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
+          <t>8VWKPALG_LTN</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>USADILTN220231</t>
+        </is>
+      </c>
       <c r="C73" t="n">
-        <v>14.57</v>
+        <v>61309.3</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="M73" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
+          <t>265AQW8L_LTN1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>22.6</v>
+        <v>14.57</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4133,7 +4137,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M74" t="n">
         <v>80</v>
@@ -4142,26 +4146,26 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
+          <t>6NYVMFBS_LTN1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>78.08</v>
+        <v>22.6</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44948</v>
+        <v>44982</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -4176,25 +4180,21 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="M75" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>USADIGDY220135</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>4599</v>
+        <v>78.08</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4202,13 +4202,13 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44895</v>
+        <v>44858</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45013</v>
+        <v>44948</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4216,36 +4216,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M76" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
+          <t>1BZKS31V_GDY</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADIJSN220728</t>
+          <t>USADIGDY220135</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4209</v>
+        <v>4599</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4253,13 +4249,13 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44887</v>
+        <v>44895</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -4267,46 +4263,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M77" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
+          <t>1VVPTEPB_JSN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>USADIROG210057</t>
+          <t>USADIJSN220728</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>176.4</v>
+        <v>4209</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44833</v>
+        <v>44890</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44923</v>
+        <v>45010</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -4314,50 +4314,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>AMZN21334NB022</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="M78" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>USADIJSN210500</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>227.7</v>
+        <v>176.4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44858</v>
+        <v>44833</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44858</v>
+        <v>44834</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44948</v>
+        <v>44923</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4365,32 +4361,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>AMZN21334NB022</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M79" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>32JYGMFX_LTR</t>
+          <t>3AONIT1Q_JSN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>USADILTR220213</t>
+          <t>USADIJSN210500</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>24371.5</v>
+        <v>227.7</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4398,54 +4398,46 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44876</v>
+        <v>44858</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44876</v>
+        <v>44858</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="M80" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTN</t>
+          <t>32JYGMFX_LTR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>USADILTN220234</t>
+          <t>USADILTR220213</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>58964.3</v>
+        <v>24371.5</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4453,17 +4445,17 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44887</v>
+        <v>44876</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45007</v>
+        <v>44996</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4473,7 +4465,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4482,25 +4474,25 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M81" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTR</t>
+          <t>1411ZR8P_LTN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>USADILTR220218</t>
+          <t>USADILTN220234</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>21336.6</v>
+        <v>58964.3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4508,17 +4500,17 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44865</v>
+        <v>44887</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44867</v>
+        <v>44886</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44985</v>
+        <v>45007</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4528,7 +4520,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4537,25 +4529,25 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="M82" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1411ZR8P_NTX</t>
+          <t>5LM3CJLA_LTR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>USADINTX220218</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9308.780000000001</v>
+        <v>21336.6</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4563,17 +4555,17 @@
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44887</v>
+        <v>44865</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45007</v>
+        <v>44985</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4583,7 +4575,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4592,25 +4584,25 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="M83" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTN</t>
+          <t>1411ZR8P_NTX</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADINTX220218</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7770.36</v>
+        <v>9308.780000000001</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4618,17 +4610,17 @@
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4638,7 +4630,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4647,7 +4639,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M84" t="n">
         <v>105</v>
@@ -4656,16 +4648,16 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>866DPTVE_NTX</t>
+          <t>1AUSABXK_LTN</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>USADINTX220216</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1156</v>
+        <v>7770.36</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4673,17 +4665,17 @@
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4693,7 +4685,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4711,69 +4703,81 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
+          <t>866DPTVE_NTX</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>USADINTX220216</t>
+        </is>
+      </c>
       <c r="C86" t="n">
-        <v>323.82</v>
+        <v>1156</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44841</v>
+        <v>44886</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H86" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="M86" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
+          <t>3FACOSDK_LTR1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>323.82</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44948</v>
+        <v>44931</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -4788,98 +4792,86 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M87" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>USADINTX220096</t>
-        </is>
-      </c>
+          <t>4MHD24HN_LTN1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>67.14</v>
+        <v>7</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44713</v>
+        <v>44858</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44834</v>
+        <v>44858</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M88" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTR</t>
+          <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>USADILTR220214</t>
+          <t>USADINTX220096</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>12145.2</v>
+        <v>67.14</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44876</v>
+        <v>44713</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44876</v>
+        <v>44834</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44996</v>
+        <v>44924</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4889,7 +4881,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -4898,25 +4890,25 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="M89" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
+          <t>1AUSTKGK_LTR</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>USADILTN220239</t>
+          <t>USADILTR220214</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6488.3</v>
+        <v>12145.2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4924,17 +4916,17 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44893</v>
+        <v>44876</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44887</v>
+        <v>44876</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45013</v>
+        <v>44996</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4944,7 +4936,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -4953,25 +4945,25 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="M90" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2YG3RNPQ_EFS</t>
+          <t>1VVPTEPB_LTN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>USABREFS220006</t>
+          <t>USADILTN220239</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2736</v>
+        <v>6488.3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4979,17 +4971,17 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45006</v>
+        <v>45013</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>KRUN01677VN022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4997,32 +4989,36 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M91" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
+          <t>2YG3RNPQ_EFS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>USADINTX220220</t>
+          <t>USABREFS220006</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6666.82</v>
+        <v>2736</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5030,17 +5026,17 @@
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>KRUN01677VN022</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5048,134 +5044,130 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M92" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
+          <t>1BZKS31V_NTX</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>USADINTX220220</t>
+        </is>
+      </c>
       <c r="C93" t="n">
-        <v>37.7</v>
+        <v>6666.82</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H93" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M93" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>866DPTVE_LTN</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>USADILTN220232</t>
-        </is>
-      </c>
+          <t>7EDOJ3SU_LTR1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>32154.9</v>
+        <v>37.7</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44887</v>
+        <v>44841</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44886</v>
+        <v>44841</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="M94" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6BTNVXLF_ROG</t>
+          <t>866DPTVE_LTN</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>USADIROG220079</t>
+          <t>USADILTN220232</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1561.35</v>
+        <v>32154.9</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5183,17 +5175,17 @@
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44876</v>
+        <v>44887</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44870</v>
+        <v>44886</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44996</v>
+        <v>45007</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5203,7 +5195,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5212,25 +5204,25 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M95" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8VWKPALG_NTX</t>
+          <t>6BTNVXLF_ROG</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADIROG220079</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>96.90000000000001</v>
+        <v>1561.35</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5238,17 +5230,17 @@
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44886</v>
+        <v>44870</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45006</v>
+        <v>44996</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5258,7 +5250,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5267,16 +5259,16 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M96" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_NTX</t>
+          <t>8VWKPALG_NTX</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5285,7 +5277,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>389</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5322,82 +5314,90 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M97" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
+          <t>8ZWV2ARN_NTX</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>USADINTX220215</t>
+        </is>
+      </c>
       <c r="C98" t="n">
-        <v>25.8</v>
+        <v>389</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44892</v>
+        <v>44886</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H98" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="M98" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>USADIGDY220138</t>
-        </is>
-      </c>
+          <t>3GAXBNII_LTN1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>23683.3</v>
+        <v>25.8</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F99" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F99" s="2" t="n">
-        <v>44895</v>
-      </c>
       <c r="G99" s="2" t="n">
-        <v>45013</v>
+        <v>44982</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -5405,64 +5405,56 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="M99" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>1VVPTEPB_GDY</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USADIGDY220138</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5.1</v>
+        <v>23683.3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44718</v>
+        <v>44893</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44834</v>
+        <v>44895</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5471,21 +5463,25 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="M100" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>5QEJNSVA_NTX1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>USADINTX220085</t>
+        </is>
+      </c>
       <c r="C101" t="n">
-        <v>24.18</v>
+        <v>5.1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5493,42 +5489,50 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44894</v>
+        <v>44718</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44894</v>
+        <v>44834</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="H101" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="M101" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
+          <t>6KSMLQ5R_NTX1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>27.52</v>
+        <v>24.18</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5536,13 +5540,13 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44900</v>
+        <v>44894</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44987</v>
+        <v>44984</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
@@ -5557,35 +5561,35 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M102" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
+          <t>6V626OPP_LTR1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>61.5</v>
+        <v>27.52</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44948</v>
+        <v>44987</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
@@ -5600,25 +5604,21 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="M103" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTR</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>USADILTR220224</t>
-        </is>
-      </c>
+          <t>7GDOS76Y_LTN1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>40689.7</v>
+        <v>61.5</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -5626,93 +5626,97 @@
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44879</v>
+        <v>44858</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44882</v>
+        <v>44858</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="M104" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
+          <t>8S6G2SDR_LTR</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>USADILTR220224</t>
+        </is>
+      </c>
       <c r="C105" t="n">
-        <v>6.88</v>
+        <v>40689.7</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44897</v>
+        <v>44879</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44900</v>
+        <v>44882</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H105" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M105" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
+          <t>2MBWL17N_LTR1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>21.26</v>
+        <v>6.88</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -5720,13 +5724,13 @@
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44948</v>
+        <v>44987</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
@@ -5741,35 +5745,35 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="M106" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
+          <t>2ZKZXKNR_LTR1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>27.6</v>
+        <v>21.26</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
@@ -5784,25 +5788,21 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="M107" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>USADILTR220231</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>10924</v>
+        <v>27.6</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5810,13 +5810,13 @@
         </is>
       </c>
       <c r="E108" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F108" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F108" s="2" t="n">
-        <v>44895</v>
-      </c>
       <c r="G108" s="2" t="n">
-        <v>45013</v>
+        <v>44982</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
@@ -5824,36 +5824,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="M108" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTN</t>
+          <t>1VVPTEPB_LTR</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>USADILTN220233</t>
+          <t>USADILTR220231</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>87111.10000000001</v>
+        <v>10924</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -5861,27 +5857,23 @@
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44886</v>
+        <v>44895</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -5890,25 +5882,25 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M109" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTN</t>
+          <t>8R3O7CPI_LTN</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>USADILTN220230</t>
+          <t>USADILTN220233</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>25044.8</v>
+        <v>87111.10000000001</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5916,17 +5908,17 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44865</v>
+        <v>44886</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44862</v>
+        <v>44886</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44985</v>
+        <v>45006</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5936,7 +5928,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -5945,82 +5937,90 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="M110" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>5G88ZBBH_LTN</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>USADILTN220230</t>
+        </is>
+      </c>
       <c r="C111" t="n">
-        <v>18.8</v>
+        <v>25044.8</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44854</v>
+        <v>44865</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44854</v>
+        <v>44862</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H111" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="M111" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>USADILTN220237</t>
-        </is>
-      </c>
+          <t>3MUSVYHM_NTX1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>10848.3</v>
+        <v>18.8</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44890</v>
+        <v>44854</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44887</v>
+        <v>44854</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45010</v>
+        <v>44944</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
@@ -6035,35 +6035,39 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="M112" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t>6YV3GFKP_LTN</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>USADILTN220237</t>
+        </is>
+      </c>
       <c r="C113" t="n">
-        <v>33</v>
+        <v>10848.3</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44948</v>
+        <v>45010</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
@@ -6078,21 +6082,21 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M113" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
+          <t>3FACOSDK_LTN1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -6100,13 +6104,13 @@
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44987</v>
+        <v>44948</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
@@ -6121,25 +6125,21 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M114" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>USADIROG210054</t>
-        </is>
-      </c>
+          <t>66LW139X_LTR1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>100.1</v>
+        <v>66</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44833</v>
+        <v>44897</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44834</v>
+        <v>44900</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44923</v>
+        <v>44987</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
@@ -6161,50 +6161,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="M115" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
+          <t>6FIO1MDJ_ROG1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>USADILTR220220</t>
+          <t>USADIROG210054</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>23638.2</v>
+        <v>100.1</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44887</v>
+        <v>44833</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44890</v>
+        <v>44834</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>45007</v>
+        <v>44923</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
@@ -6214,7 +6210,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN21189NB022</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -6223,35 +6219,39 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="M116" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr"/>
+          <t>866DPTVE_LTR</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>USADILTR220220</t>
+        </is>
+      </c>
       <c r="C117" t="n">
-        <v>18.38</v>
+        <v>23638.2</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>44892</v>
+        <v>44887</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45012</v>
+        <v>45007</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
@@ -6259,28 +6259,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M117" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
+          <t>1ZAW8MMM_LTN1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>19.52</v>
+        <v>18.38</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -6288,13 +6292,13 @@
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44948</v>
+        <v>45012</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
@@ -6309,25 +6313,25 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M118" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
+          <t>2VVHQCXN_LTN1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>72</v>
+        <v>19.52</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E119" s="2" t="n">
@@ -6352,7 +6356,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M119" t="n">
         <v>45</v>
@@ -6361,16 +6365,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1YF7U3EW_LTR</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>USADILTR220209</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTN1</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>49417.6</v>
+        <v>72</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -6378,54 +6378,46 @@
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="M120" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1VVPTEPB_NTX</t>
+          <t>1YF7U3EW_LTR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>USADINTX220223</t>
+          <t>USADILTR220209</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>18102.8</v>
+        <v>49417.6</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -6433,17 +6425,17 @@
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44887</v>
+        <v>44855</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45007</v>
+        <v>44980</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6453,7 +6445,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6462,25 +6454,25 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="M121" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTN</t>
+          <t>1VVPTEPB_NTX</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADINTX220223</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>16725.5</v>
+        <v>18102.8</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -6488,17 +6480,17 @@
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="F122" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6508,7 +6500,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -6517,7 +6509,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M122" t="n">
         <v>105</v>
@@ -6526,7 +6518,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTN</t>
+          <t>1WAWRZ1C_LTN</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6535,7 +6527,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>11016</v>
+        <v>16725.5</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -6572,7 +6564,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M123" t="n">
         <v>105</v>
@@ -6581,16 +6573,16 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
+          <t>8ZWV2ARN_LTN</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>USADIGDY220137</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>23176.5</v>
+        <v>11016</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -6601,20 +6593,24 @@
         <v>44888</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>AMZN46469SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -6623,7 +6619,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M124" t="n">
         <v>105</v>
@@ -6632,26 +6628,30 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTR1</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
+          <t>6U3SDR7C_GDY</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>USADIGDY220137</t>
+        </is>
+      </c>
       <c r="C125" t="n">
-        <v>98.98</v>
+        <v>23176.5</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44987</v>
+        <v>45008</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
@@ -6659,97 +6659,93 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="M125" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>7F2B37ZD_NTX</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>USADINTX220247</t>
-        </is>
-      </c>
+          <t>42QQW8OE_LTR1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>11866</v>
+        <v>98.98</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45009</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>KRUN20623SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>KRUN20623SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="M126" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>6YI2KAXQ_LTN</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>USADILTN220244</t>
+        </is>
+      </c>
       <c r="C127" t="n">
-        <v>114.45</v>
+        <v>29427.7</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44892</v>
+        <v>44904</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44893</v>
+        <v>44901</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>44982</v>
+        <v>45024</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
@@ -6764,64 +6760,76 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="M127" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>7F2B37ZD_NTX</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>USADINTX220247</t>
+        </is>
+      </c>
       <c r="C128" t="n">
-        <v>51.44</v>
+        <v>11866</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44841</v>
+        <v>44889</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H128" t="inlineStr"/>
+        <v>45009</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>KRUN20623SH022</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>KRUN20623SH022</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="M128" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
+          <t>5E5SJTOV_LTN1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>19.64</v>
+        <v>114.45</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -6829,13 +6837,13 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44948</v>
+        <v>44982</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -6850,135 +6858,111 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="M129" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTR</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
+          <t>3AKTKLAV_LTR1</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>8740.26</v>
+        <v>51.44</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44865</v>
+        <v>44841</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44867</v>
+        <v>44841</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="M130" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTN</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>USADILTN220230</t>
-        </is>
-      </c>
+          <t>4GBIBVRV_LTN1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>29155.7</v>
+        <v>19.64</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44865</v>
+        <v>44858</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44862</v>
+        <v>44858</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L131" t="n">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="M131" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTN</t>
+          <t>5G88ZBBH_LTR</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>USADILTN220238</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>28549.9</v>
+        <v>8740.26</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -6986,17 +6970,17 @@
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>44886</v>
+        <v>44865</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45006</v>
+        <v>44985</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7006,7 +6990,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -7015,68 +6999,80 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M132" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
+          <t>5LM3CJLA_LTN</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>USADILTN220230</t>
+        </is>
+      </c>
       <c r="C133" t="n">
-        <v>31</v>
+        <v>29155.7</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44858</v>
+        <v>44862</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H133" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M133" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
+          <t>6U3SDR7C_LTN</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTN220238</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7936.33</v>
+        <v>28549.9</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -7084,23 +7080,27 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44888</v>
+        <v>44886</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H134" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -7109,21 +7109,21 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M134" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
+          <t>6L1E3PVD_LTR1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>14.6</v>
+        <v>31</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
@@ -7152,25 +7152,25 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M135" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTN</t>
+          <t>1WAWRZ1C_LTR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>USADILTN220225</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>42605.7</v>
+        <v>7936.33</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -7178,27 +7178,23 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>44865</v>
+        <v>44888</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -7207,80 +7203,68 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="M136" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5HLRZJFT_LTR</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
+          <t>3OWOSLEI_LTR1</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>9620.639999999999</v>
+        <v>14.6</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>44865</v>
+        <v>44841</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44867</v>
+        <v>44841</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="M137" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
+          <t>1AUSTKGK_LTN</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>USADIJSN220722</t>
+          <t>USADILTN220225</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9451.68</v>
+        <v>42605.7</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -7288,46 +7272,54 @@
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>44830</v>
+        <v>44865</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44838</v>
+        <v>44862</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="H138" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="M138" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>4OBX3LAK_GDY</t>
+          <t>5HLRZJFT_LTR</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>105906</v>
+        <v>9620.639999999999</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -7335,17 +7327,17 @@
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="F139" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44987</v>
+        <v>44985</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7355,7 +7347,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -7364,25 +7356,25 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M139" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
+          <t>4CUW4DHC_JSN</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>USADIJSN220725</t>
+          <t>USADIJSN220722</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2696.08</v>
+        <v>9451.68</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -7390,13 +7382,13 @@
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>44890</v>
+        <v>44830</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>44887</v>
+        <v>44838</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45010</v>
+        <v>44958</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
@@ -7411,25 +7403,25 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M140" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTN</t>
+          <t>4OBX3LAK_GDY</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>USADILTN220244</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>29427.72</v>
+        <v>105906</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -7437,46 +7429,54 @@
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>44904</v>
+        <v>44862</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>44901</v>
+        <v>44867</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H141" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="M141" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>88A48CIL_LTN</t>
+          <t>1BZKS31V_JSN</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>USADILTN220245</t>
+          <t>USADIJSN220725</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>24646.04</v>
+        <v>2696.08</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -7484,13 +7484,13 @@
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>44904</v>
+        <v>44890</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>45024</v>
+        <v>45010</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="M142" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143">
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M143" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M2" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M3" t="n">
         <v>25</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M4" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M7" t="n">
         <v>80</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M11" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M14" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M15" t="n">
         <v>25</v>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M17" t="n">
         <v>100</v>
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M18" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M20" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -1467,17 +1467,21 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
@@ -1525,10 +1529,10 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1580,7 +1584,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M23" t="n">
         <v>90</v>
@@ -1631,7 +1635,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M24" t="n">
         <v>90</v>
@@ -1686,10 +1690,10 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M25" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -1729,10 +1733,10 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M26" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -1780,10 +1784,10 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M27" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1823,10 +1827,10 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -1878,7 +1882,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M29" t="n">
         <v>80</v>
@@ -1921,10 +1925,10 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -1976,10 +1980,10 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -2031,7 +2035,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M32" t="n">
         <v>85</v>
@@ -2074,10 +2078,10 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M33" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -2117,7 +2121,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M34" t="n">
         <v>45</v>
@@ -2172,10 +2176,10 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M35" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -2223,10 +2227,10 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M36" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -2266,10 +2270,10 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -2321,10 +2325,10 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M38" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -2376,7 +2380,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M39" t="n">
         <v>100</v>
@@ -2419,10 +2423,10 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M40" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
@@ -2474,10 +2478,10 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M41" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -2517,10 +2521,10 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M42" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -2568,10 +2572,10 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M43" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -2619,10 +2623,10 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M44" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -2674,7 +2678,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M45" t="n">
         <v>90</v>
@@ -2717,7 +2721,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M46" t="n">
         <v>45</v>
@@ -2772,10 +2776,10 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -2827,7 +2831,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M48" t="n">
         <v>110</v>
@@ -2870,10 +2874,10 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M49" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -2913,10 +2917,10 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M50" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -2968,10 +2972,10 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M51" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
@@ -3023,7 +3027,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M52" t="n">
         <v>80</v>
@@ -3078,7 +3082,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M53" t="n">
         <v>100</v>
@@ -3133,7 +3137,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M54" t="n">
         <v>90</v>
@@ -3142,26 +3146,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
+          <t>1DHMIY4Z_LTR1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>42</v>
+        <v>14580.4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44858</v>
+        <v>44811</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44858</v>
+        <v>44903</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44948</v>
+        <v>44993</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3176,21 +3180,21 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M55" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
+          <t>6V626OPP_LTN1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3198,13 +3202,13 @@
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
@@ -3219,137 +3223,133 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="M56" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTN</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>USADILTN220233</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>11024.6</v>
+        <v>68</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44886</v>
+        <v>44892</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>8S6G2SDR_LTN</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>USADILTN220233</t>
+        </is>
+      </c>
       <c r="C58" t="n">
-        <v>21.66</v>
+        <v>11024.6</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44854</v>
+        <v>44886</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44854</v>
+        <v>44886</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M58" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>USADILTR220229</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_NTX1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>17593.7</v>
+        <v>21.66</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44888</v>
+        <v>44854</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44890</v>
+        <v>44854</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45008</v>
+        <v>44944</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3357,36 +3357,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="M59" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>USADILTR220225</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>28902.8</v>
+        <v>17593.7</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3394,13 +3390,13 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -3410,7 +3406,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3419,25 +3415,25 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M60" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2APC43NH_NTX</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>USADINTX220239</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>14504.8</v>
+        <v>28902.8</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3445,27 +3441,23 @@
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>KRUN20549SH022</t>
-        </is>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>KRUN20549SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3474,7 +3466,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M61" t="n">
         <v>100</v>
@@ -3483,73 +3475,81 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>2APC43NH_NTX</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>USADINTX220239</t>
+        </is>
+      </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>14504.8</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44840</v>
+        <v>44886</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44841</v>
+        <v>44889</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44930</v>
-      </c>
-      <c r="H62" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>KRUN20549SH022</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>KRUN20549SH022</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="M62" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>5319.56</v>
+        <v>15</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44888</v>
+        <v>44840</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45008</v>
+        <v>44930</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3557,36 +3557,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="M63" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
+          <t>8VWKPALG_LTR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USADIJSN220727</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3683.64</v>
+        <v>5319.56</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3594,13 +3590,13 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="F64" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="F64" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G64" s="2" t="n">
-        <v>45010</v>
+        <v>45008</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -3608,32 +3604,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M64" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4N9685MB_GDY</t>
+          <t>8JYISG4F_TPF</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADITPF220009</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>33712.6</v>
+        <v>50593</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3641,27 +3641,23 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44862</v>
+        <v>44907</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44867</v>
+        <v>44903</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>45027</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN10058VN022</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3670,25 +3666,25 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="M65" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4PPH3TEW_GDY</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5735.8</v>
+        <v>3683.64</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3696,54 +3692,46 @@
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44867</v>
+        <v>44887</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>AMZN45772SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="M66" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6U3SDR7C_NTX</t>
+          <t>4N9685MB_GDY</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USADINTX220222</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4642.9</v>
+        <v>33712.6</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3751,17 +3739,17 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44886</v>
+        <v>44862</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45006</v>
+        <v>44987</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3771,7 +3759,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3780,25 +3768,25 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="M67" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
+          <t>4PPH3TEW_GDY</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>USADILTR220247</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>684</v>
+        <v>5735.8</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3806,23 +3794,27 @@
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44897</v>
+        <v>44862</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44900</v>
+        <v>44867</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>KRUN20622SH022</t>
+          <t>AMZN45772SH022</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3831,25 +3823,25 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="M68" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTR</t>
+          <t>6U3SDR7C_NTX</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USADILTR220224</t>
+          <t>USADINTX220222</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6684.9</v>
+        <v>4642.9</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3857,17 +3849,17 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44879</v>
+        <v>44886</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44882</v>
+        <v>44886</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44999</v>
+        <v>45006</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3877,7 +3869,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>AMZN46193SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3886,25 +3878,25 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M69" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
+          <t>89NLLCYP_LTR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>USADILTR220246</t>
+          <t>USADILTR220247</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>16644</v>
+        <v>684</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3928,7 +3920,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>KRUN20621SH022</t>
+          <t>KRUN20622SH022</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3937,25 +3929,25 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M70" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>8R3O7CPI_LTR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADILTR220224</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9286.879999999999</v>
+        <v>6684.9</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3963,74 +3955,78 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44890</v>
+        <v>44879</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H71" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="M71" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>4GLARQRK_LTR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADILTR220246</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>24.55</v>
+        <v>16644</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44841</v>
+        <v>44897</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44841</v>
+        <v>44900</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>AMZN39056SH022</t>
-        </is>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>KRUN20621SH022</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4039,25 +4035,25 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="M72" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTN</t>
+          <t>6YV3GFKP_JSN</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADIJSN220726</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>61309.3</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4065,36 +4061,28 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>AMZN46375SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M73" t="n">
         <v>105</v>
@@ -4103,12 +4091,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
+          <t>4B1AYW5I_GDY1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>USADIGDY210047</t>
+        </is>
+      </c>
       <c r="C74" t="n">
-        <v>14.57</v>
+        <v>24.55</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4116,99 +4108,119 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44892</v>
+        <v>44841</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H74" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M74" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
+          <t>8VWKPALG_LTN</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>USADILTN220231</t>
+        </is>
+      </c>
       <c r="C75" t="n">
-        <v>22.6</v>
+        <v>61309.3</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H75" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="M75" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
+          <t>265AQW8L_LTN1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>78.08</v>
+        <v>14.57</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44948</v>
+        <v>44982</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4223,39 +4235,35 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M76" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>USADIGDY220135</t>
-        </is>
-      </c>
+          <t>6NYVMFBS_LTN1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>4599</v>
+        <v>22.6</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F77" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F77" s="2" t="n">
-        <v>44895</v>
-      </c>
       <c r="G77" s="2" t="n">
-        <v>45013</v>
+        <v>44982</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -4263,36 +4271,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="M77" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>USADIJSN220728</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>4209</v>
+        <v>78.08</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4300,13 +4300,13 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45010</v>
+        <v>44948</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -4321,39 +4321,39 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="M78" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
+          <t>1BZKS31V_GDY</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>USADIROG210057</t>
+          <t>USADIGDY220135</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>176.4</v>
+        <v>4599</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44833</v>
+        <v>44893</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44834</v>
+        <v>44895</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44923</v>
+        <v>45013</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>AMZN21334NB022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4372,25 +4372,25 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="M79" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
+          <t>1VVPTEPB_JSN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>USADIJSN210500</t>
+          <t>USADIJSN220728</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>227.7</v>
+        <v>4209</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4398,13 +4398,13 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44948</v>
+        <v>45010</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -4419,53 +4419,49 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="M80" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>32JYGMFX_LTR</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>USADILTR220213</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>24371.5</v>
+        <v>176.4</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44876</v>
+        <v>44833</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44876</v>
+        <v>44834</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>AMZN46091SH022</t>
+          <t>AMZN21334NB022</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4474,25 +4470,25 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="M81" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTN</t>
+          <t>3AONIT1Q_JSN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>USADILTN220234</t>
+          <t>USADIJSN210500</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>58964.3</v>
+        <v>227.7</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4500,54 +4496,46 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>AMZN46372SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="M82" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTR</t>
+          <t>32JYGMFX_LTR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>USADILTR220218</t>
+          <t>USADILTR220213</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>21336.6</v>
+        <v>24371.5</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4555,17 +4543,17 @@
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44865</v>
+        <v>44876</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44867</v>
+        <v>44876</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44985</v>
+        <v>44996</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4575,7 +4563,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>AMZN45925SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4584,25 +4572,25 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M83" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1411ZR8P_NTX</t>
+          <t>1411ZR8P_LTN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>USADINTX220218</t>
+          <t>USADILTN220234</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>9308.780000000001</v>
+        <v>58964.3</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4620,7 +4608,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4630,7 +4618,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>AMZN46376SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4639,25 +4627,25 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M84" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTN</t>
+          <t>5LM3CJLA_LTR</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7770.36</v>
+        <v>21336.6</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4665,17 +4653,17 @@
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44888</v>
+        <v>44865</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45008</v>
+        <v>44985</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4685,7 +4673,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4694,25 +4682,25 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="M85" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>866DPTVE_NTX</t>
+          <t>1411ZR8P_NTX</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>USADINTX220216</t>
+          <t>USADINTX220218</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1156</v>
+        <v>9308.780000000001</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4749,64 +4737,80 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M86" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
+          <t>1AUSABXK_LTN</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>USADILTN220231</t>
+        </is>
+      </c>
       <c r="C87" t="n">
-        <v>323.82</v>
+        <v>7770.36</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44841</v>
+        <v>44888</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44841</v>
+        <v>44886</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H87" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="M87" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>866DPTVE_NTX</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>USADINTX220216</t>
+        </is>
+      </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>1156</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4814,46 +4818,50 @@
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44858</v>
+        <v>44886</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H88" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>AMZN46376SH022</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>USADINTX220096</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTR1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>67.14</v>
+        <v>323.82</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4861,54 +4869,42 @@
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44713</v>
+        <v>44841</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M89" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTR</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>USADILTR220214</t>
-        </is>
-      </c>
+          <t>4MHD24HN_LTN1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>12145.2</v>
+        <v>7</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4916,72 +4912,64 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44876</v>
+        <v>44858</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44876</v>
+        <v>44858</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="M90" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
+          <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>USADILTN220239</t>
+          <t>USADINTX220096</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6488.3</v>
+        <v>67.14</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44893</v>
+        <v>44713</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44887</v>
+        <v>44834</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45013</v>
+        <v>44924</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4991,7 +4979,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5000,25 +4988,25 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M91" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2YG3RNPQ_EFS</t>
+          <t>1AUSTKGK_LTR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>USABREFS220006</t>
+          <t>USADILTR220214</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2736</v>
+        <v>12145.2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5026,17 +5014,17 @@
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45006</v>
+        <v>44996</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>KRUN01677VN022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5044,32 +5032,36 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>AMZN46091SH022</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M92" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
+          <t>1VVPTEPB_LTN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>USADINTX220220</t>
+          <t>USADILTN220239</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6666.82</v>
+        <v>6488.3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5080,7 +5072,7 @@
         <v>44893</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44890</v>
+        <v>44887</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>45013</v>
@@ -5106,40 +5098,48 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M93" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>2YG3RNPQ_EFS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>USABREFS220006</t>
+        </is>
+      </c>
       <c r="C94" t="n">
-        <v>37.7</v>
+        <v>2736</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44841</v>
+        <v>44886</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44841</v>
+        <v>44886</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H94" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>KRUN01677VN022</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -5149,25 +5149,25 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="M94" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>866DPTVE_LTN</t>
+          <t>1BZKS31V_NTX</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>USADILTN220232</t>
+          <t>USADINTX220220</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>32154.9</v>
+        <v>6666.82</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5175,17 +5175,17 @@
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44886</v>
+        <v>44890</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>AMZN46372SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M95" t="n">
         <v>105</v>
@@ -5213,71 +5213,59 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6BTNVXLF_ROG</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>USADIROG220079</t>
-        </is>
-      </c>
+          <t>7EDOJ3SU_LTR1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>1561.35</v>
+        <v>37.7</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44876</v>
+        <v>44841</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44870</v>
+        <v>44841</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>AMZN46091SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="M96" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8VWKPALG_NTX</t>
+          <t>866DPTVE_LTN</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADILTN220232</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>96.90000000000001</v>
+        <v>32154.9</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5285,17 +5273,17 @@
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5305,7 +5293,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46372SH022</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5314,7 +5302,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M97" t="n">
         <v>100</v>
@@ -5323,16 +5311,16 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_NTX</t>
+          <t>6BTNVXLF_ROG</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>USADINTX220215</t>
+          <t>USADIROG220079</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>389</v>
+        <v>1561.35</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5340,17 +5328,17 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44886</v>
+        <v>44876</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44886</v>
+        <v>44870</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45006</v>
+        <v>44996</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5360,7 +5348,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>AMZN46282SH022</t>
+          <t>AMZN46091SH022</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5369,68 +5357,80 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M98" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
+          <t>8VWKPALG_NTX</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>USADINTX220215</t>
+        </is>
+      </c>
       <c r="C99" t="n">
-        <v>25.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44892</v>
+        <v>44886</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H99" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="M99" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
+          <t>8ZWV2ARN_NTX</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>USADIGDY220138</t>
+          <t>USADINTX220215</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>23683.3</v>
+        <v>389</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -5438,23 +5438,27 @@
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44893</v>
+        <v>44886</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44895</v>
+        <v>44886</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H100" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>AMZN46282SH022</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46282SH022</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5463,25 +5467,21 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M100" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>USADINTX220085</t>
-        </is>
-      </c>
+          <t>3GAXBNII_LTN1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>5.1</v>
+        <v>25.8</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5489,64 +5489,60 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44718</v>
+        <v>44892</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44834</v>
+        <v>44893</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M101" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>1VVPTEPB_GDY</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>USADIGDY220138</t>
+        </is>
+      </c>
       <c r="C102" t="n">
-        <v>24.18</v>
+        <v>23683.3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44984</v>
+        <v>45013</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
@@ -5554,28 +5550,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="M102" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>5QEJNSVA_NTX1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>USADINTX220085</t>
+        </is>
+      </c>
       <c r="C103" t="n">
-        <v>27.52</v>
+        <v>5.1</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5583,56 +5587,64 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44897</v>
+        <v>44718</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44900</v>
+        <v>44834</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="M103" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
+          <t>6KSMLQ5R_NTX1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>61.5</v>
+        <v>24.18</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44858</v>
+        <v>44894</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44858</v>
+        <v>44894</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44948</v>
+        <v>44984</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -5647,90 +5659,78 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M104" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>8S6G2SDR_LTR</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>USADILTR220224</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTR1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>40689.7</v>
+        <v>27.52</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44879</v>
+        <v>44897</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44882</v>
+        <v>44900</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44999</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>AMZN46193SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M105" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
+          <t>7GDOS76Y_LTN1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>6.88</v>
+        <v>61.5</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44987</v>
+        <v>44948</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
@@ -5745,78 +5745,90 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M106" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
+          <t>8S6G2SDR_LTR</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>USADILTR220224</t>
+        </is>
+      </c>
       <c r="C107" t="n">
-        <v>21.26</v>
+        <v>40689.7</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44858</v>
+        <v>44879</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44858</v>
+        <v>44882</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H107" t="inlineStr"/>
+        <v>44999</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>AMZN46193SH022</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="M107" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
+          <t>2MBWL17N_LTR1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>27.6</v>
+        <v>6.88</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
@@ -5831,7 +5843,7 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M108" t="n">
         <v>80</v>
@@ -5840,30 +5852,26 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>USADILTR220231</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTR1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>10924</v>
+        <v>21.26</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44895</v>
+        <v>44858</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45013</v>
+        <v>44948</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
@@ -5871,36 +5879,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="M109" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>8R3O7CPI_LTN</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>USADILTN220233</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>87111.10000000001</v>
+        <v>27.6</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5908,54 +5908,46 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44886</v>
+        <v>44892</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>AMZN46285SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="M110" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTN</t>
+          <t>1VVPTEPB_LTR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>USADILTN220230</t>
+          <t>USADILTR220231</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>25044.8</v>
+        <v>10924</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -5963,27 +5955,23 @@
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44865</v>
+        <v>44893</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44862</v>
+        <v>44895</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -5992,68 +5980,80 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="M111" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>8R3O7CPI_LTN</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>USADILTN220233</t>
+        </is>
+      </c>
       <c r="C112" t="n">
-        <v>18.8</v>
+        <v>87111.10000000001</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44854</v>
+        <v>44886</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44854</v>
+        <v>44886</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H112" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M112" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
+          <t>5G88ZBBH_LTN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>USADILTN220237</t>
+          <t>USADILTN220230</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>10848.3</v>
+        <v>25044.8</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -6061,42 +6061,50 @@
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44890</v>
+        <v>44865</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44887</v>
+        <v>44862</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H113" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="M113" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
+          <t>3MUSVYHM_NTX1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>33</v>
+        <v>18.8</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -6104,13 +6112,13 @@
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44858</v>
+        <v>44854</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44858</v>
+        <v>44854</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>44948</v>
+        <v>44944</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
@@ -6125,35 +6133,39 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M114" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
+          <t>6YV3GFKP_LTN</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>USADILTN220237</t>
+        </is>
+      </c>
       <c r="C115" t="n">
-        <v>66</v>
+        <v>10848.3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44897</v>
+        <v>44890</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44900</v>
+        <v>44887</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44987</v>
+        <v>45010</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
@@ -6168,25 +6180,21 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="M115" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>USADIROG210054</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTN1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>100.1</v>
+        <v>33</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -6194,13 +6202,13 @@
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44833</v>
+        <v>44858</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44834</v>
+        <v>44858</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44923</v>
+        <v>44948</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
@@ -6208,50 +6216,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M116" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>USADILTR220220</t>
-        </is>
-      </c>
+          <t>66LW139X_LTR1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>23638.2</v>
+        <v>66</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45007</v>
+        <v>44987</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
@@ -6259,32 +6259,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M117" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
+          <t>6FIO1MDJ_ROG1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>USADIROG210054</t>
+        </is>
+      </c>
       <c r="C118" t="n">
-        <v>18.38</v>
+        <v>100.1</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -6292,13 +6292,13 @@
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44892</v>
+        <v>44833</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44893</v>
+        <v>44834</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45012</v>
+        <v>44923</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
@@ -6306,42 +6306,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="M118" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
+          <t>866DPTVE_LTR</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>USADILTR220220</t>
+        </is>
+      </c>
       <c r="C119" t="n">
-        <v>19.52</v>
+        <v>23638.2</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44948</v>
+        <v>45007</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
@@ -6349,42 +6357,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="M119" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
+          <t>1ZAW8MMM_LTN1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>72</v>
+        <v>18.38</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44948</v>
+        <v>45012</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
@@ -6399,80 +6411,64 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M120" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1YF7U3EW_LTR</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>USADILTR220209</t>
-        </is>
-      </c>
+          <t>2VVHQCXN_LTN1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>49417.6</v>
+        <v>19.52</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>AMZN45827SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="M121" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1VVPTEPB_NTX</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>USADINTX220223</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTN1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>18102.8</v>
+        <v>72</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -6480,54 +6476,46 @@
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44886</v>
+        <v>44858</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>AMZN46376SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="M122" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTN</t>
+          <t>1YF7U3EW_LTR</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADILTR220209</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>16725.5</v>
+        <v>49417.6</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -6535,17 +6523,17 @@
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44888</v>
+        <v>44855</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44886</v>
+        <v>44860</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>45008</v>
+        <v>44980</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6555,7 +6543,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN45827SH022</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -6564,25 +6552,25 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="M123" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTN</t>
+          <t>1VVPTEPB_NTX</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>USADILTN220231</t>
+          <t>USADINTX220223</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>11016</v>
+        <v>18102.8</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -6590,17 +6578,17 @@
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="F124" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6610,7 +6598,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>AMZN46375SH022</t>
+          <t>AMZN46376SH022</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -6619,25 +6607,25 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M124" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
+          <t>1WAWRZ1C_LTN</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>USADIGDY220137</t>
+          <t>USADILTN220231</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>23176.5</v>
+        <v>16725.5</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -6648,20 +6636,24 @@
         <v>44888</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>AMZN46469SH022</t>
+          <t>AMZN46375SH022</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -6670,68 +6662,80 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M125" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTR1</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t>8ZWV2ARN_LTN</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>USADILTN220231</t>
+        </is>
+      </c>
       <c r="C126" t="n">
-        <v>98.98</v>
+        <v>11016</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44900</v>
+        <v>44886</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H126" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>AMZN46375SH022</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="M126" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTN</t>
+          <t>6U3SDR7C_GDY</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>USADILTN220244</t>
+          <t>USADIGDY220137</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>29427.7</v>
+        <v>23176.5</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -6739,13 +6743,13 @@
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44904</v>
+        <v>44888</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44901</v>
+        <v>44890</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45024</v>
+        <v>45008</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
@@ -6753,97 +6757,93 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="M127" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7F2B37ZD_NTX</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>USADINTX220247</t>
-        </is>
-      </c>
+          <t>42QQW8OE_LTR1</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>11866</v>
+        <v>98.98</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44889</v>
+        <v>44897</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45009</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>KRUN20623SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>KRUN20623SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="M128" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
+          <t>6YI2KAXQ_LTN</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>USADILTN220244</t>
+        </is>
+      </c>
       <c r="C129" t="n">
-        <v>114.45</v>
+        <v>29427.7</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44892</v>
+        <v>44904</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44893</v>
+        <v>44901</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>44982</v>
+        <v>45024</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -6851,71 +6851,87 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="M129" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
+          <t>7F2B37ZD_NTX</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>USADINTX220247</t>
+        </is>
+      </c>
       <c r="C130" t="n">
-        <v>51.44</v>
+        <v>11866</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44841</v>
+        <v>44889</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H130" t="inlineStr"/>
+        <v>45009</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>KRUN20623SH022</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>KRUN20623SH022</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M130" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
+          <t>5E5SJTOV_LTN1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>19.64</v>
+        <v>114.45</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -6923,13 +6939,13 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>44948</v>
+        <v>44982</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
@@ -6944,135 +6960,111 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M131" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>5G88ZBBH_LTR</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
+          <t>3AKTKLAV_LTR1</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>8740.26</v>
+        <v>51.44</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>44865</v>
+        <v>44841</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>44867</v>
+        <v>44841</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="M132" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>5LM3CJLA_LTN</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>USADILTN220230</t>
-        </is>
-      </c>
+          <t>4GBIBVRV_LTN1</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>29155.7</v>
+        <v>19.64</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44865</v>
+        <v>44858</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44862</v>
+        <v>44858</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="M133" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTN</t>
+          <t>5G88ZBBH_LTR</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>USADILTN220238</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>28549.9</v>
+        <v>8740.26</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -7080,17 +7072,17 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44886</v>
+        <v>44865</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44886</v>
+        <v>44867</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45006</v>
+        <v>44985</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7100,7 +7092,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>AMZN46285SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -7109,68 +7101,80 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="M134" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
+          <t>5LM3CJLA_LTN</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>USADILTN220230</t>
+        </is>
+      </c>
       <c r="C135" t="n">
-        <v>31</v>
+        <v>29155.7</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44858</v>
+        <v>44865</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44858</v>
+        <v>44862</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H135" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M135" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
+          <t>6U3SDR7C_LTN</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTN220238</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7936.33</v>
+        <v>28549.9</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -7178,23 +7182,27 @@
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>44888</v>
+        <v>44886</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>44890</v>
+        <v>44886</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H136" t="inlineStr"/>
+        <v>45006</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>AMZN46285SH022</t>
+        </is>
+      </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46285SH022</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -7203,21 +7211,21 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M136" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
+          <t>6L1E3PVD_LTR1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>14.6</v>
+        <v>31</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -7225,13 +7233,13 @@
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
@@ -7246,25 +7254,25 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M137" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1AUSTKGK_LTN</t>
+          <t>1WAWRZ1C_LTR</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>USADILTN220225</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>42605.7</v>
+        <v>7936.33</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -7272,27 +7280,23 @@
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>44865</v>
+        <v>44888</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>44862</v>
+        <v>44890</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>AMZN45924SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>AMZN45924SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -7301,80 +7305,68 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="M138" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>5HLRZJFT_LTR</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>USADILTR220218</t>
-        </is>
-      </c>
+          <t>3OWOSLEI_LTR1</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>9620.639999999999</v>
+        <v>14.6</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>44865</v>
+        <v>44841</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>44867</v>
+        <v>44841</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>AMZN45925SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="M139" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
+          <t>1AUSTKGK_LTN</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>USADIJSN220722</t>
+          <t>USADILTN220225</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>9451.68</v>
+        <v>42605.7</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -7382,46 +7374,54 @@
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>44830</v>
+        <v>44865</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>44838</v>
+        <v>44862</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="H140" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>AMZN45924SH022</t>
+        </is>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="M140" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>4OBX3LAK_GDY</t>
+          <t>5HLRZJFT_LTR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>USADIGDY220127</t>
+          <t>USADILTR220218</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>105906</v>
+        <v>9620.639999999999</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -7429,17 +7429,17 @@
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="F141" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>44987</v>
+        <v>44985</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>AMZN45772SH022</t>
+          <t>AMZN45925SH022</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -7458,25 +7458,25 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M141" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
+          <t>4CUW4DHC_JSN</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>USADIJSN220725</t>
+          <t>USADIJSN220722</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2696.08</v>
+        <v>9451.68</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -7484,13 +7484,13 @@
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>44890</v>
+        <v>44830</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>44887</v>
+        <v>44838</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>45010</v>
+        <v>44958</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
@@ -7505,25 +7505,25 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="M142" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>8JYISG4F_TPF</t>
+          <t>4OBX3LAK_GDY</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>USADITPF220009</t>
+          <t>USADIGDY220127</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>50593</v>
+        <v>105906</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -7531,31 +7531,86 @@
         </is>
       </c>
       <c r="E143" s="2" t="n">
-        <v>44907</v>
+        <v>44862</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>44903</v>
+        <v>44867</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H143" t="inlineStr"/>
+        <v>44987</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>AMZN45772SH022</t>
+        </is>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>80</v>
+      </c>
+      <c r="M143" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1BZKS31V_JSN</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>USADIJSN220725</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2696.08</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>122</v>
-      </c>
-      <c r="M143" t="n">
-        <v>120</v>
+      <c r="L144" t="n">
+        <v>103</v>
+      </c>
+      <c r="M144" t="n">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,10 +1461,14 @@
       <c r="G21" s="2" t="n">
         <v>45024</v>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3649,10 +3653,14 @@
       <c r="G65" s="2" t="n">
         <v>45027</v>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>AMZN10058VN022</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -6845,10 +6853,14 @@
       <c r="G129" s="2" t="n">
         <v>45024</v>
       </c>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7611,6 +7623,108 @@
       </c>
       <c r="M144" t="n">
         <v>105</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2RQH5YIV_ROG</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>USADIROG220082</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>817.85</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>122</v>
+      </c>
+      <c r="M145" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>6YI2KAXQ_ROG</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>USADIROG220083</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>44.61</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>122</v>
+      </c>
+      <c r="M146" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" t="n">
         <v>105</v>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4" t="n">
         <v>105</v>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" t="n">
         <v>50</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" t="n">
         <v>40</v>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>100</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" t="n">
         <v>75</v>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>100</v>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="n">
         <v>40</v>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="n">
         <v>40</v>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M12" t="n">
         <v>105</v>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M14" t="n">
         <v>100</v>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M15" t="n">
         <v>75</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M16" t="n">
         <v>105</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M17" t="n">
         <v>115</v>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M19" t="n">
         <v>80</v>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M20" t="n">
         <v>100</v>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M21" t="n">
         <v>75</v>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M22" t="n">
         <v>75</v>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M23" t="n">
         <v>75</v>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M24" t="n">
         <v>40</v>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M25" t="n">
         <v>105</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M26" t="n">
         <v>100</v>
@@ -1694,26 +1694,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>2RQH5YIV_LTN</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>USADILTN220243</t>
+        </is>
+      </c>
       <c r="C27" t="n">
-        <v>70</v>
+        <v>14834.1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44858</v>
+        <v>44906</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44948</v>
+        <v>45026</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1721,42 +1725,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="M27" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>88A48CIL_LTR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>USADILTR220235</t>
+        </is>
+      </c>
       <c r="C28" t="n">
-        <v>87.95999999999999</v>
+        <v>33500.9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44892</v>
+        <v>44907</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44982</v>
+        <v>45027</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1764,28 +1776,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>AMZN46669SH022</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="M28" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>13V4JTZA_LTR1</t>
+          <t>3DEIS4NJ_LTN1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1793,13 +1809,13 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44899</v>
+        <v>44858</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44989</v>
+        <v>44948</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -1814,39 +1830,35 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>6HLPWWEQ_LTN2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>16134.8</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45008</v>
+        <v>44982</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -1854,50 +1866,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>17871.2</v>
+        <v>33</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44888</v>
+        <v>44899</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45008</v>
+        <v>44989</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -1905,32 +1909,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>8S699O7R_LTN</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>USADILTN220246</t>
+        </is>
+      </c>
       <c r="C32" t="n">
-        <v>67.34</v>
+        <v>48930.9</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1938,13 +1942,13 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44860</v>
+        <v>44906</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44861</v>
+        <v>44907</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44950</v>
+        <v>45026</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -1952,32 +1956,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="M32" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
+          <t>8QO31QHQ_LTR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>USADILTN220255</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11051.2</v>
+        <v>16134.8</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1985,27 +1993,23 @@
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44896</v>
+        <v>44888</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>KRUN20618SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2014,21 +2018,25 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M33" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8OFVYIYG_JSN1</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>8ZWV2ARN_LTR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C34" t="n">
-        <v>81.90000000000001</v>
+        <v>17871.2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2036,13 +2044,13 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44987</v>
+        <v>45008</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -2050,42 +2058,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="M34" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>613WD55F_LTR1</t>
+          <t>28NZCWFH_LTN1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>67.34</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44897</v>
+        <v>44860</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44900</v>
+        <v>44861</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44987</v>
+        <v>44950</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -2100,25 +2112,25 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="M35" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
+          <t>4GLARQRK_LTN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADILTN220255</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>51556</v>
+        <v>11051.2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2126,17 +2138,17 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44893</v>
+        <v>44896</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44889</v>
+        <v>44894</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>KRUN20618SH022</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2146,7 +2158,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>KRUN20618SH022</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2155,7 +2167,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M36" t="n">
         <v>105</v>
@@ -2164,12 +2176,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1DHMIY4Z_LTR1</t>
+          <t>8OFVYIYG_JSN1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>14580.4</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2177,13 +2189,13 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44811</v>
+        <v>44897</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44903</v>
+        <v>44900</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44993</v>
+        <v>44987</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -2198,21 +2210,21 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M37" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
+          <t>613WD55F_LTR1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2220,13 +2232,13 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44948</v>
+        <v>44987</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2241,78 +2253,90 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="M38" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>4TL4LC8Q_TPF</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C39" t="n">
-        <v>68</v>
+        <v>51556</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="M39" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
+          <t>1DHMIY4Z_LTR1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>21.66</v>
+        <v>14580.4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44854</v>
+        <v>44811</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44854</v>
+        <v>44903</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44944</v>
+        <v>44993</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2327,39 +2351,35 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>USADILTR220229</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTN1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>17593.7</v>
+        <v>42</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2367,50 +2387,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="M41" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>USADILTR220225</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>28902.8</v>
+        <v>68</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44887</v>
+        <v>44892</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45007</v>
+        <v>44982</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2418,32 +2430,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="M42" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
+          <t>55J7Z6TQ_NTX1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>21.66</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2451,13 +2459,13 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44840</v>
+        <v>44854</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44841</v>
+        <v>44854</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44930</v>
+        <v>44944</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -2472,25 +2480,25 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5319.56</v>
+        <v>17593.7</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2514,7 +2522,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2523,7 +2531,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M44" t="n">
         <v>100</v>
@@ -2532,16 +2540,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8JYISG4F_TPF</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>USADITPF220009</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>50593</v>
+        <v>28902.8</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2549,27 +2557,23 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44907</v>
+        <v>44887</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44903</v>
+        <v>44890</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>AMZN10058VN022</t>
-        </is>
-      </c>
+        <v>45007</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>AMZN10058VN022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2578,39 +2582,35 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>USADIJSN220727</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>3683.64</v>
+        <v>15</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44890</v>
+        <v>44840</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44887</v>
+        <v>44841</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45010</v>
+        <v>44930</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -2625,25 +2625,25 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
+          <t>8VWKPALG_LTR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>USADILTR220247</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>684</v>
+        <v>5319.56</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45017</v>
+        <v>45008</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>KRUN20622SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2676,25 +2676,25 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M47" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
+          <t>8JYISG4F_TPF</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>USADILTR220246</t>
+          <t>USADITPF220009</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>16644</v>
+        <v>50593</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2702,23 +2702,27 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44897</v>
+        <v>44907</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44900</v>
+        <v>44903</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
+        <v>45027</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>AMZN10058VN022</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>KRUN20621SH022</t>
+          <t>AMZN10058VN022</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2727,25 +2731,25 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M48" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9286.879999999999</v>
+        <v>3683.64</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2774,7 +2778,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M49" t="n">
         <v>100</v>
@@ -2783,44 +2787,40 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>89NLLCYP_LTR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADILTR220247</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>24.55</v>
+        <v>684</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44841</v>
+        <v>44897</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44841</v>
+        <v>44900</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>AMZN39056SH022</t>
-        </is>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>KRUN20622SH022</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2829,35 +2829,39 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="M50" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>4GLARQRK_LTR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>USADILTR220246</t>
+        </is>
+      </c>
       <c r="C51" t="n">
-        <v>14.57</v>
+        <v>16644</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44982</v>
+        <v>45017</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -2865,42 +2869,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="M51" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>6YV3GFKP_JSN</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>USADIJSN220726</t>
+        </is>
+      </c>
       <c r="C52" t="n">
-        <v>22.6</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44982</v>
+        <v>45010</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -2915,82 +2927,90 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="M52" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>4B1AYW5I_GDY1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>USADIGDY210047</t>
+        </is>
+      </c>
       <c r="C53" t="n">
-        <v>78.08</v>
+        <v>24.55</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M53" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>USADIGDY220135</t>
-        </is>
-      </c>
+          <t>265AQW8L_LTN1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>4599</v>
+        <v>14.57</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F54" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F54" s="2" t="n">
-        <v>44895</v>
-      </c>
       <c r="G54" s="2" t="n">
-        <v>45013</v>
+        <v>44982</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -2998,50 +3018,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="M54" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>USADIJSN220728</t>
-        </is>
-      </c>
+          <t>6NYVMFBS_LTN1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>4209</v>
+        <v>22.6</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45010</v>
+        <v>44982</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3056,39 +3068,35 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>USADIROG210057</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>176.4</v>
+        <v>78.08</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44833</v>
+        <v>44858</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44834</v>
+        <v>44858</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44923</v>
+        <v>44948</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
@@ -3096,36 +3104,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>AMZN21334NB022</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M56" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
+          <t>1BZKS31V_GDY</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>USADIJSN210500</t>
+          <t>USADIGDY220135</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>227.7</v>
+        <v>4599</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3133,13 +3137,13 @@
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44858</v>
+        <v>44895</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44948</v>
+        <v>45013</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -3147,42 +3151,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="M57" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>88A48CIL_GDY</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>USADIGDY220139</t>
+        </is>
+      </c>
       <c r="C58" t="n">
-        <v>323.82</v>
+        <v>9314.15</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44841</v>
+        <v>44905</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44841</v>
+        <v>44907</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44931</v>
+        <v>45025</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
@@ -3190,28 +3202,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>AMZN46669SH022</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="M58" t="n">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>1VVPTEPB_JSN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>USADIJSN220728</t>
+        </is>
+      </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>4209</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3219,13 +3239,13 @@
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44948</v>
+        <v>45010</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3240,25 +3260,25 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="M59" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>USADINTX220096</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>67.14</v>
+        <v>176.4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3266,27 +3286,23 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44713</v>
+        <v>44833</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>44834</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>AMZN41531SH022</t>
+          <t>AMZN21334NB022</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3295,7 +3311,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M60" t="n">
         <v>15</v>
@@ -3304,16 +3320,16 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
+          <t>3AONIT1Q_JSN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>USADILTN220239</t>
+          <t>USADIJSN210500</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6488.3</v>
+        <v>227.7</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3321,119 +3337,99 @@
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="M61" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>USADINTX220220</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTR1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>6666.82</v>
+        <v>323.82</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="M62" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
+          <t>4MHD24HN_LTN1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>37.7</v>
+        <v>7</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3448,21 +3444,25 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M63" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>7N1V3UQY_NTX1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>USADINTX220096</t>
+        </is>
+      </c>
       <c r="C64" t="n">
-        <v>25.8</v>
+        <v>67.14</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3470,46 +3470,54 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44892</v>
+        <v>44713</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44893</v>
+        <v>44834</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="M64" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
+          <t>1VVPTEPB_LTN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADIGDY220138</t>
+          <t>USADILTN220239</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>23683.3</v>
+        <v>6488.3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3520,20 +3528,24 @@
         <v>44893</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44895</v>
+        <v>44887</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>45013</v>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3542,7 +3554,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M65" t="n">
         <v>105</v>
@@ -3551,34 +3563,34 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>1BZKS31V_NTX</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USADINTX220220</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5.1</v>
+        <v>6666.82</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44718</v>
+        <v>44893</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44834</v>
+        <v>44890</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44924</v>
+        <v>45013</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3588,7 +3600,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3597,21 +3609,21 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="M66" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
+          <t>7EDOJ3SU_LTR1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>24.18</v>
+        <v>37.7</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3619,13 +3631,13 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44894</v>
+        <v>44841</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44894</v>
+        <v>44841</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44984</v>
+        <v>44931</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -3640,21 +3652,21 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="M67" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
+          <t>3GAXBNII_LTN1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>27.52</v>
+        <v>25.8</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3662,13 +3674,13 @@
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44897</v>
+        <v>44892</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44987</v>
+        <v>44982</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -3683,21 +3695,25 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M68" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>1VVPTEPB_GDY</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>USADIGDY220138</t>
+        </is>
+      </c>
       <c r="C69" t="n">
-        <v>61.5</v>
+        <v>23683.3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3705,13 +3721,13 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44858</v>
+        <v>44895</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44948</v>
+        <v>45013</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -3719,28 +3735,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="M69" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>5QEJNSVA_NTX1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>USADINTX220085</t>
+        </is>
+      </c>
       <c r="C70" t="n">
-        <v>6.88</v>
+        <v>5.1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3748,42 +3772,50 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44897</v>
+        <v>44718</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44900</v>
+        <v>44834</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H70" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="M70" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
+          <t>6KSMLQ5R_NTX1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>21.26</v>
+        <v>24.18</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3791,13 +3823,13 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44858</v>
+        <v>44894</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44858</v>
+        <v>44894</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44948</v>
+        <v>44984</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
@@ -3812,35 +3844,35 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M71" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
+          <t>6V626OPP_LTR1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>27.6</v>
+        <v>27.52</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
@@ -3855,25 +3887,21 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M72" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>USADILTR220231</t>
-        </is>
-      </c>
+          <t>7GDOS76Y_LTN1</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>10924</v>
+        <v>61.5</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3881,13 +3909,13 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44895</v>
+        <v>44858</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45013</v>
+        <v>44948</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -3895,32 +3923,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="M73" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
+          <t>2MBWL17N_LTR1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>18.8</v>
+        <v>6.88</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3928,13 +3952,13 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44854</v>
+        <v>44897</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44854</v>
+        <v>44900</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44944</v>
+        <v>44987</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
@@ -3949,39 +3973,35 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="M74" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>USADILTN220237</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTR1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>10848.3</v>
+        <v>21.26</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45010</v>
+        <v>44948</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -3996,35 +4016,35 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
+          <t>85SPQK1O_LTN1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>33</v>
+        <v>27.6</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44948</v>
+        <v>44982</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4039,35 +4059,39 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="M76" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
+          <t>1VVPTEPB_LTR</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>USADILTR220231</t>
+        </is>
+      </c>
       <c r="C77" t="n">
-        <v>66</v>
+        <v>10924</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44897</v>
+        <v>44893</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44900</v>
+        <v>44895</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44987</v>
+        <v>45013</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -4075,46 +4099,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="M77" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
+          <t>3D9C9KYB_LTN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>USADIROG210054</t>
+          <t>USADILTN220243</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>100.1</v>
+        <v>33819.8</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44833</v>
+        <v>44906</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44834</v>
+        <v>44907</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44923</v>
+        <v>45026</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -4124,7 +4152,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN46749SH022</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4133,39 +4161,35 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="M78" t="n">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>USADILTR220220</t>
-        </is>
-      </c>
+          <t>3MUSVYHM_NTX1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>23638.2</v>
+        <v>18.8</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44887</v>
+        <v>44854</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44890</v>
+        <v>44854</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45007</v>
+        <v>44944</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4173,46 +4197,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="M79" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
+          <t>6YV3GFKP_LTN</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>USADILTN220237</t>
+        </is>
+      </c>
       <c r="C80" t="n">
-        <v>18.38</v>
+        <v>10848.3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45012</v>
+        <v>45010</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -4227,21 +4251,21 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M80" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
+          <t>3FACOSDK_LTN1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>19.52</v>
+        <v>33</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4270,7 +4294,7 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M81" t="n">
         <v>40</v>
@@ -4279,26 +4303,26 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
+          <t>66LW139X_LTR1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44948</v>
+        <v>44987</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
@@ -4313,39 +4337,39 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="M82" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
+          <t>6FIO1MDJ_ROG1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>USADIGDY220137</t>
+          <t>USADIROG210054</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>23176.5</v>
+        <v>100.1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44888</v>
+        <v>44833</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44890</v>
+        <v>44834</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45008</v>
+        <v>44923</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
@@ -4355,7 +4379,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>AMZN46469SH022</t>
+          <t>AMZN21189NB022</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4364,35 +4388,39 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTR1</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
+          <t>866DPTVE_LTR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>USADILTR220220</t>
+        </is>
+      </c>
       <c r="C84" t="n">
-        <v>98.98</v>
+        <v>23638.2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44897</v>
+        <v>44887</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44987</v>
+        <v>45007</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -4400,83 +4428,75 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="M84" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTN</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>USADILTN220244</t>
-        </is>
-      </c>
+          <t>1ZAW8MMM_LTN1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>29427.7</v>
+        <v>18.38</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44904</v>
+        <v>44892</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44901</v>
+        <v>44893</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+        <v>45012</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M85" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
+          <t>2VVHQCXN_LTN1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>114.45</v>
+        <v>19.52</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4484,13 +4504,13 @@
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -4505,35 +4525,35 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="M86" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
+          <t>2ZKZXKNR_LTN1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>51.44</v>
+        <v>72</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -4548,35 +4568,39 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M87" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>6U3SDR7C_GDY</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>USADIGDY220137</t>
+        </is>
+      </c>
       <c r="C88" t="n">
-        <v>19.64</v>
+        <v>23176.5</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -4584,28 +4608,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M88" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
+          <t>42QQW8OE_LTR1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>31</v>
+        <v>98.98</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4613,13 +4641,13 @@
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44948</v>
+        <v>44987</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -4634,25 +4662,25 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="M89" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
+          <t>6YI2KAXQ_LTN</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTN220244</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7936.33</v>
+        <v>29427.7</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4660,23 +4688,27 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44888</v>
+        <v>44904</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44890</v>
+        <v>44901</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H90" t="inlineStr"/>
+        <v>45024</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46670SH022</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -4685,21 +4717,21 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M90" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
+          <t>5E5SJTOV_LTN1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>14.6</v>
+        <v>114.45</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4707,13 +4739,13 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44841</v>
+        <v>44892</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44931</v>
+        <v>44982</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
@@ -4728,39 +4760,35 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="M91" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>USADIJSN220722</t>
-        </is>
-      </c>
+          <t>3AKTKLAV_LTR1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>9451.68</v>
+        <v>51.44</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44830</v>
+        <v>44841</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44838</v>
+        <v>44841</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44958</v>
+        <v>44931</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -4775,39 +4803,35 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M92" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>USADIJSN220725</t>
-        </is>
-      </c>
+          <t>4GBIBVRV_LTN1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>2696.08</v>
+        <v>19.64</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45010</v>
+        <v>44948</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
@@ -4822,39 +4846,35 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2RQH5YIV_ROG</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>USADIROG220082</t>
-        </is>
-      </c>
+          <t>6L1E3PVD_LTR1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>817.85</v>
+        <v>31</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44910</v>
+        <v>44858</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45030</v>
+        <v>44948</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -4862,36 +4882,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="M94" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_ROG</t>
+          <t>1WAWRZ1C_LTR</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>USADIROG220083</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>44.61</v>
+        <v>7936.33</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4899,13 +4915,13 @@
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44910</v>
+        <v>44888</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44907</v>
+        <v>44890</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45030</v>
+        <v>45008</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -4915,7 +4931,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -4924,39 +4940,35 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="M95" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2RQH5YIV_LTN</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>USADILTN220243</t>
-        </is>
-      </c>
+          <t>3OWOSLEI_LTR1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>14834.11</v>
+        <v>14.6</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44906</v>
+        <v>44841</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44907</v>
+        <v>44841</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45026</v>
+        <v>44931</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -4964,36 +4976,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="M96" t="n">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3D9C9KYB_LTN</t>
+          <t>4CUW4DHC_JSN</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>USADILTN220243</t>
+          <t>USADIJSN220722</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>33819.76</v>
+        <v>9451.68</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5001,13 +5009,13 @@
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44906</v>
+        <v>44830</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44907</v>
+        <v>44838</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45026</v>
+        <v>44958</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -5015,36 +5023,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="M97" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8S699O7R_LTN</t>
+          <t>1BZKS31V_JSN</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>USADILTN220246</t>
+          <t>USADIJSN220725</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>48930.9</v>
+        <v>2696.08</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5052,13 +5056,13 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44906</v>
+        <v>44890</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44907</v>
+        <v>44887</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45026</v>
+        <v>45010</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -5066,36 +5070,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="M98" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>88A48CIL_LTR</t>
+          <t>2RQH5YIV_ROG</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>USADILTR220235</t>
+          <t>USADIROG220082</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>33500.86</v>
+        <v>817.85</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -5103,13 +5103,13 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="F99" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>AMZN46669SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M99" t="n">
         <v>120</v>
@@ -5137,16 +5137,16 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>88A48CIL_GDY</t>
+          <t>6YI2KAXQ_ROG</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>USADIGDY220139</t>
+          <t>USADIROG220083</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9314.15</v>
+        <v>44.61</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="F100" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45025</v>
+        <v>45030</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>AMZN46669SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5179,10 +5179,577 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M100" t="n">
-        <v>115</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>89C1ZUNN_LTN1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>87</v>
+      </c>
+      <c r="M101" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>57IQV2GT_LTN1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>14</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>87</v>
+      </c>
+      <c r="M102" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>85SPQK1O_LTN2</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>87</v>
+      </c>
+      <c r="M103" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3XG7XCRG_LTN1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>87</v>
+      </c>
+      <c r="M104" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>42QQW8OE_LTN1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>87</v>
+      </c>
+      <c r="M105" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>6SA3TZ1A_LTN1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>87</v>
+      </c>
+      <c r="M106" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>5MMXZNPR_LTN1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>87</v>
+      </c>
+      <c r="M107" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>5UJTVWPR_LTN2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>20</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>87</v>
+      </c>
+      <c r="M108" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>8TT9AXJS_LTN1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>87</v>
+      </c>
+      <c r="M109" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1KZUX51O_LTN1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>87</v>
+      </c>
+      <c r="M110" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>81PTLV4B_LTN2</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>87</v>
+      </c>
+      <c r="M111" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6I6888XF_LTN</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>USADILTN220247</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>26356.28</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>124</v>
+      </c>
+      <c r="M112" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>6LJYAO7G_LTN</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>USADILTN220248</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>22860.29</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>124</v>
+      </c>
+      <c r="M113" t="n">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5752,6 +5752,100 @@
         <v>125</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>6I6888XF_ROG</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>USADIROG220084</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1040.9</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>124</v>
+      </c>
+      <c r="M114" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>6LJYAO7G_ROG</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>USADIROG220085</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>124</v>
+      </c>
+      <c r="M115" t="n">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M2" t="n">
         <v>105</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" t="n">
         <v>20</v>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M4" t="n">
         <v>105</v>
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
         <v>40</v>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>100</v>
@@ -827,39 +827,35 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8S6G2SDR_GDY</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>USADIGDY220133</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>17122</v>
+        <v>34.35</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44888</v>
+        <v>44907</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45008</v>
+        <v>44997</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -867,46 +863,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>613WD55F_LTN1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>8S6G2SDR_GDY</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>USADIGDY220133</t>
+        </is>
+      </c>
       <c r="C10" t="n">
-        <v>43.5</v>
+        <v>17122</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -914,28 +910,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8C2X1J7G_LTR1</t>
+          <t>613WD55F_LTN1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>43.5</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
         <v>40</v>
@@ -973,39 +973,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4GLARQRK_NTX</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>USADINTX220242</t>
-        </is>
-      </c>
+          <t>8C2X1J7G_LTR1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>17589.3</v>
+        <v>76</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44896</v>
+        <v>44858</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>KRUN20619SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1015,40 +1007,48 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="M12" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>323S6WET_LTR1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>4GLARQRK_NTX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>USADINTX220242</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>44.32</v>
+        <v>17589.3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44841</v>
+        <v>44896</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>KRUN20619SH022</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1058,39 +1058,35 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1411ZR8P_GDY</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>USADIGDY220134</t>
-        </is>
-      </c>
+          <t>323S6WET_LTR1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>8729.98</v>
+        <v>44.32</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44887</v>
+        <v>44841</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45007</v>
+        <v>44931</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1098,46 +1094,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1PE1AZJP_LTN1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>1411ZR8P_GDY</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>USADIGDY220134</t>
+        </is>
+      </c>
       <c r="C15" t="n">
-        <v>2.59</v>
+        <v>8729.98</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44892</v>
+        <v>44887</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44982</v>
+        <v>45007</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1145,166 +1141,150 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="M15" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1BZKS31V_LTN</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>USADILTN220236</t>
-        </is>
-      </c>
+          <t>1PE1AZJP_LTN1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>25344.3</v>
+        <v>2.59</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G16" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="M16" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>88A48CIL_LTN</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>USADILTN220245</t>
-        </is>
-      </c>
+          <t>81PTLV4B_LTN2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>24646</v>
+        <v>7.08</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44901</v>
+        <v>44908</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="M17" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4C14JWQL_ROG1</t>
+          <t>1BZKS31V_LTN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>USADIROG210055</t>
+          <t>USADILTN220236</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.15</v>
+        <v>25344.3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44833</v>
+        <v>44893</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1313,21 +1293,25 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTR1</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>88A48CIL_LTN</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>USADILTN220245</t>
+        </is>
+      </c>
       <c r="C19" t="n">
-        <v>26.62</v>
+        <v>24646</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1335,60 +1319,68 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+        <v>45024</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6YV3GFKP_GDY</t>
+          <t>4C14JWQL_ROG1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USADIGDY220136</t>
+          <t>USADIROG210055</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>41125.8</v>
+        <v>7.15</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44888</v>
+        <v>44833</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44890</v>
+        <v>44834</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45008</v>
+        <v>44923</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -1398,7 +1390,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN21189NB022</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1407,35 +1399,35 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2GRMROMU_LTN1</t>
+          <t>2YT17WGL_LTR1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>13.36</v>
+        <v>26.62</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -1450,7 +1442,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M21" t="n">
         <v>75</v>
@@ -1459,26 +1451,30 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7JN9DTJG_NTX1</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>6YV3GFKP_GDY</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>USADIGDY220136</t>
+        </is>
+      </c>
       <c r="C22" t="n">
-        <v>9.199999999999999</v>
+        <v>41125.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44894</v>
+        <v>44888</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44984</v>
+        <v>45008</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -1486,28 +1482,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="M22" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
+          <t>2GRMROMU_LTN1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>13.36</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1536,35 +1536,35 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
+          <t>7JN9DTJG_NTX1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>14.57</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44860</v>
+        <v>44894</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44861</v>
+        <v>44894</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44950</v>
+        <v>44984</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1579,94 +1579,78 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>5MMXZNPR_LTN1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>54503</v>
+        <v>14.57</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44889</v>
+        <v>44908</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="M25" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>USADILTR220230</t>
-        </is>
-      </c>
+          <t>2YT17WGL_LTN1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>14621.9</v>
+        <v>17</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45008</v>
+        <v>44982</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1674,50 +1658,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="M26" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2RQH5YIV_LTN</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>USADILTN220243</t>
-        </is>
-      </c>
+          <t>5UJTVWPR_LTN2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>14834.1</v>
+        <v>20</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1725,14 +1701,10 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1745,16 +1717,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>88A48CIL_LTR</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>USADILTR220235</t>
-        </is>
-      </c>
+          <t>3BTYRGGT_LTN1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>33500.9</v>
+        <v>14.57</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1762,13 +1730,13 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44907</v>
+        <v>44860</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44907</v>
+        <v>44861</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45027</v>
+        <v>44950</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1776,89 +1744,101 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>AMZN46669SH022</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>4TACGJRN_TPF</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C29" t="n">
-        <v>70</v>
+        <v>54503</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44858</v>
+        <v>44889</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>6U3SDR7C_LTR</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>USADILTR220230</t>
+        </is>
+      </c>
       <c r="C30" t="n">
-        <v>87.95999999999999</v>
+        <v>14621.9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44982</v>
+        <v>45008</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -1866,42 +1846,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="M30" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>13V4JTZA_LTR1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>2RQH5YIV_LTN</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>USADILTN220243</t>
+        </is>
+      </c>
       <c r="C31" t="n">
-        <v>33</v>
+        <v>14834.1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44899</v>
+        <v>44906</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44989</v>
+        <v>45026</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -1909,32 +1897,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="M31" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8S699O7R_LTN</t>
+          <t>88A48CIL_LTR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>USADILTN220246</t>
+          <t>USADILTR220235</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>48930.9</v>
+        <v>33500.9</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1942,13 +1934,13 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -1958,7 +1950,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>AMZN46749SH022</t>
+          <t>AMZN46669SH022</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1976,30 +1968,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>3DEIS4NJ_LTN1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>16134.8</v>
+        <v>70</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -2007,50 +1995,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>42QQW8OE_LTN1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>17871.2</v>
+        <v>5.18</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44888</v>
+        <v>44907</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45008</v>
+        <v>44997</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -2058,46 +2038,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M34" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
+          <t>6HLPWWEQ_LTN2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>67.34</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44860</v>
+        <v>44892</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44861</v>
+        <v>44893</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44950</v>
+        <v>44982</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -2112,76 +2088,68 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="M35" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>USADILTN220255</t>
-        </is>
-      </c>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>11051.2</v>
+        <v>33</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44896</v>
+        <v>44899</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44894</v>
+        <v>44900</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+        <v>44989</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="M36" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8OFVYIYG_JSN1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>8S699O7R_LTN</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>USADILTN220246</t>
+        </is>
+      </c>
       <c r="C37" t="n">
-        <v>81.90000000000001</v>
+        <v>48930.9</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2189,13 +2157,13 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44897</v>
+        <v>44906</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44987</v>
+        <v>45026</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -2203,42 +2171,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="M37" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>613WD55F_LTR1</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>8QO31QHQ_LTR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>16134.8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44987</v>
+        <v>45008</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2246,32 +2222,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="M38" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
+          <t>8ZWV2ARN_LTR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>51556</v>
+        <v>17871.2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2279,27 +2259,23 @@
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44893</v>
+        <v>44888</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2308,21 +2284,21 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M39" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1DHMIY4Z_LTR1</t>
+          <t>28NZCWFH_LTN1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>14580.4</v>
+        <v>67.34</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2330,13 +2306,13 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44811</v>
+        <v>44860</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44903</v>
+        <v>44861</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44993</v>
+        <v>44950</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2351,78 +2327,90 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="M40" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>4GLARQRK_LTN</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>USADILTN220255</t>
+        </is>
+      </c>
       <c r="C41" t="n">
-        <v>42</v>
+        <v>11051.2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44858</v>
+        <v>44896</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44858</v>
+        <v>44894</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
+        <v>45016</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
+          <t>8OFVYIYG_JSN1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>68</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2437,7 +2425,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M42" t="n">
         <v>75</v>
@@ -2446,12 +2434,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
+          <t>613WD55F_LTR1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>21.66</v>
+        <v>13</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2459,13 +2447,13 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44854</v>
+        <v>44897</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44854</v>
+        <v>44900</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44944</v>
+        <v>44987</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -2480,25 +2468,25 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="M43" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
+          <t>4TL4LC8Q_TPF</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>USADILTR220229</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17593.7</v>
+        <v>51556</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2506,23 +2494,27 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>AMZN46469SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2531,25 +2523,21 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>USADILTR220225</t>
-        </is>
-      </c>
+          <t>1DHMIY4Z_LTR1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>28902.8</v>
+        <v>14580.4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2557,13 +2545,13 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44887</v>
+        <v>44811</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44890</v>
+        <v>44903</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45007</v>
+        <v>44993</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -2571,32 +2559,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
+          <t>6V626OPP_LTN1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2604,13 +2588,13 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44840</v>
+        <v>44858</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44930</v>
+        <v>44948</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -2625,39 +2609,35 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M46" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>5319.56</v>
+        <v>68</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45008</v>
+        <v>44982</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -2665,91 +2645,75 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8JYISG4F_TPF</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>USADITPF220009</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_NTX1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>50593</v>
+        <v>21.66</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44907</v>
+        <v>44854</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44903</v>
+        <v>44854</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>AMZN10058VN022</t>
-        </is>
-      </c>
+        <v>44944</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>AMZN10058VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="M48" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>USADIJSN220727</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3683.64</v>
+        <v>17593.7</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2757,13 +2721,13 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="F49" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="F49" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G49" s="2" t="n">
-        <v>45010</v>
+        <v>45008</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -2771,14 +2735,18 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M49" t="n">
         <v>100</v>
@@ -2787,16 +2755,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>USADILTR220247</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>684</v>
+        <v>28902.8</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2804,13 +2772,13 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44897</v>
+        <v>44887</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45017</v>
+        <v>45007</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -2820,7 +2788,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>KRUN20622SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2829,39 +2797,35 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M50" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>USADILTR220246</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>16644</v>
+        <v>15</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44897</v>
+        <v>44840</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44900</v>
+        <v>44841</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45017</v>
+        <v>44930</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -2869,36 +2833,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>KRUN20621SH022</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M51" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>8VWKPALG_LTR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9286.879999999999</v>
+        <v>5319.56</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2906,13 +2866,13 @@
         </is>
       </c>
       <c r="E52" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="F52" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="F52" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G52" s="2" t="n">
-        <v>45010</v>
+        <v>45008</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -2920,14 +2880,18 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M52" t="n">
         <v>100</v>
@@ -2936,34 +2900,34 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>8JYISG4F_TPF</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADITPF220009</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>24.55</v>
+        <v>50593</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44841</v>
+        <v>44907</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44841</v>
+        <v>44903</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44931</v>
+        <v>45027</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN10058VN022</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2973,7 +2937,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN10058VN022</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2982,35 +2946,39 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="M53" t="n">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>6U3SDR7C_JSN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>USADIJSN220727</t>
+        </is>
+      </c>
       <c r="C54" t="n">
-        <v>14.57</v>
+        <v>3683.64</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44982</v>
+        <v>45010</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -3025,35 +2993,39 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="M54" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>89NLLCYP_LTR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>USADILTR220247</t>
+        </is>
+      </c>
       <c r="C55" t="n">
-        <v>22.6</v>
+        <v>684</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44982</v>
+        <v>45017</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3061,28 +3033,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>KRUN20622SH022</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="M55" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>4GLARQRK_LTR</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>USADILTR220246</t>
+        </is>
+      </c>
       <c r="C56" t="n">
-        <v>78.08</v>
+        <v>16644</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3090,13 +3070,13 @@
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44948</v>
+        <v>45017</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
@@ -3104,32 +3084,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="M56" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
+          <t>6YV3GFKP_JSN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>USADIGDY220135</t>
+          <t>USADIJSN220726</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4599</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3137,13 +3121,13 @@
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44895</v>
+        <v>44887</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45013</v>
+        <v>45010</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -3151,60 +3135,60 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M57" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>88A48CIL_GDY</t>
+          <t>4B1AYW5I_GDY1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>USADIGDY220139</t>
+          <t>USADIGDY210047</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9314.15</v>
+        <v>24.55</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44905</v>
+        <v>44841</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44907</v>
+        <v>44841</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45025</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>AMZN46669SH022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3213,39 +3197,35 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="M58" t="n">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>USADIJSN220728</t>
-        </is>
-      </c>
+          <t>265AQW8L_LTN1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>4209</v>
+        <v>14.57</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45010</v>
+        <v>44982</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3260,25 +3240,21 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="M59" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>USADIROG210057</t>
-        </is>
-      </c>
+          <t>6NYVMFBS_LTN1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>176.4</v>
+        <v>22.6</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3286,13 +3262,13 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44833</v>
+        <v>44892</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44834</v>
+        <v>44893</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44923</v>
+        <v>44982</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
@@ -3300,36 +3276,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>AMZN21334NB022</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M60" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>USADIJSN210500</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>227.7</v>
+        <v>78.08</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3358,7 +3326,7 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M61" t="n">
         <v>40</v>
@@ -3367,26 +3335,30 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>1BZKS31V_GDY</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>USADIGDY220135</t>
+        </is>
+      </c>
       <c r="C62" t="n">
-        <v>323.82</v>
+        <v>4599</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44841</v>
+        <v>44895</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44931</v>
+        <v>45013</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -3394,28 +3366,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="M62" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>88A48CIL_GDY</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>USADIGDY220139</t>
+        </is>
+      </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>9314.15</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3423,13 +3403,13 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44858</v>
+        <v>44905</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44948</v>
+        <v>45025</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3437,115 +3417,107 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>AMZN46669SH022</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="M63" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
+          <t>1VVPTEPB_JSN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USADINTX220096</t>
+          <t>USADIJSN220728</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>67.14</v>
+        <v>4209</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44713</v>
+        <v>44890</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M64" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADILTN220239</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6488.3</v>
+        <v>176.4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44893</v>
+        <v>44833</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44887</v>
+        <v>44834</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN21334NB022</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3554,25 +3526,25 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M65" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
+          <t>3AONIT1Q_JSN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USADINTX220220</t>
+          <t>USADIJSN210500</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6666.82</v>
+        <v>227.7</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3580,50 +3552,42 @@
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="M66" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
+          <t>3FACOSDK_LTR1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>37.7</v>
+        <v>323.82</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3652,7 +3616,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M67" t="n">
         <v>20</v>
@@ -3661,26 +3625,26 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
+          <t>4MHD24HN_LTN1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>25.8</v>
+        <v>7</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -3695,49 +3659,53 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="M68" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
+          <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USADIGDY220138</t>
+          <t>USADINTX220096</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>23683.3</v>
+        <v>67.14</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44893</v>
+        <v>44713</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44895</v>
+        <v>44834</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H69" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3746,43 +3714,43 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="M69" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>1VVPTEPB_LTN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USADILTN220239</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5.1</v>
+        <v>6488.3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44718</v>
+        <v>44893</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44924</v>
+        <v>45013</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3792,7 +3760,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3801,21 +3769,21 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="M70" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
+          <t>8TT9AXJS_LTN1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>24.18</v>
+        <v>49.47</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3823,13 +3791,13 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44894</v>
+        <v>44907</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44984</v>
+        <v>44997</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
@@ -3844,78 +3812,90 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M71" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
+          <t>1BZKS31V_NTX</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>USADINTX220220</t>
+        </is>
+      </c>
       <c r="C72" t="n">
-        <v>27.52</v>
+        <v>6666.82</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44897</v>
+        <v>44893</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H72" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="M72" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
+          <t>7EDOJ3SU_LTR1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>61.5</v>
+        <v>37.7</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44948</v>
+        <v>44931</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -3930,21 +3910,21 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M73" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
+          <t>3GAXBNII_LTN1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>6.88</v>
+        <v>25.8</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3952,13 +3932,13 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44897</v>
+        <v>44892</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44987</v>
+        <v>44982</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
@@ -3973,21 +3953,21 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M74" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
+          <t>89C1ZUNN_LTN1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>21.26</v>
+        <v>38.7</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3995,13 +3975,13 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44858</v>
+        <v>44908</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44948</v>
+        <v>44997</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -4016,21 +3996,25 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="M75" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>1VVPTEPB_GDY</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>USADIGDY220138</t>
+        </is>
+      </c>
       <c r="C76" t="n">
-        <v>27.6</v>
+        <v>23683.3</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4038,13 +4022,13 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44982</v>
+        <v>45013</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4052,56 +4036,64 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="M76" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
+          <t>5QEJNSVA_NTX1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADILTR220231</t>
+          <t>USADINTX220085</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>10924</v>
+        <v>5.1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44893</v>
+        <v>44718</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44895</v>
+        <v>44834</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H77" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN41741SH022</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4110,39 +4102,35 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="M77" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3D9C9KYB_LTN</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>USADILTN220243</t>
-        </is>
-      </c>
+          <t>6KSMLQ5R_NTX1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>33819.8</v>
+        <v>24.18</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44906</v>
+        <v>44894</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44907</v>
+        <v>44894</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45026</v>
+        <v>44984</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -4150,32 +4138,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="M78" t="n">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
+          <t>6V626OPP_LTR1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>18.8</v>
+        <v>27.52</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -4183,13 +4167,13 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44854</v>
+        <v>44897</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44854</v>
+        <v>44900</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44944</v>
+        <v>44987</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4204,25 +4188,21 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="M79" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>USADILTN220237</t>
-        </is>
-      </c>
+          <t>7GDOS76Y_LTN1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>10848.3</v>
+        <v>61.5</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4230,13 +4210,13 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45010</v>
+        <v>44948</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -4251,21 +4231,21 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="M80" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
+          <t>2MBWL17N_LTR1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>33</v>
+        <v>6.88</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4273,13 +4253,13 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44948</v>
+        <v>44987</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
@@ -4294,21 +4274,21 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="M81" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
+          <t>2ZKZXKNR_LTR1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>66</v>
+        <v>21.26</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4316,13 +4296,13 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44987</v>
+        <v>44948</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
@@ -4337,39 +4317,35 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="M82" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>USADIROG210054</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>100.1</v>
+        <v>27.6</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44833</v>
+        <v>44892</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44834</v>
+        <v>44893</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44923</v>
+        <v>44982</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
@@ -4377,36 +4353,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M83" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
+          <t>1VVPTEPB_LTR</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>USADILTR220220</t>
+          <t>USADILTR220231</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>23638.2</v>
+        <v>10924</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4414,13 +4386,13 @@
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44890</v>
+        <v>44895</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -4430,7 +4402,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4439,21 +4411,21 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M84" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
+          <t>1KZUX51O_LTN1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>18.38</v>
+        <v>14.57</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4461,13 +4433,13 @@
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44892</v>
+        <v>44907</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44893</v>
+        <v>44908</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45012</v>
+        <v>44997</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
@@ -4482,35 +4454,39 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M85" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
+          <t>3D9C9KYB_LTN</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>USADILTN220243</t>
+        </is>
+      </c>
       <c r="C86" t="n">
-        <v>19.52</v>
+        <v>33819.8</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44858</v>
+        <v>44906</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44948</v>
+        <v>45026</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -4518,42 +4494,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="M86" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
+          <t>3MUSVYHM_NTX1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>72</v>
+        <v>18.8</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44858</v>
+        <v>44854</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44858</v>
+        <v>44854</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44948</v>
+        <v>44944</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -4568,25 +4548,25 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M87" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
+          <t>6YV3GFKP_LTN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>USADIGDY220137</t>
+          <t>USADILTN220237</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>23176.5</v>
+        <v>10848.3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4594,13 +4574,13 @@
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44888</v>
+        <v>44890</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44890</v>
+        <v>44887</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45008</v>
+        <v>45010</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -4608,18 +4588,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M88" t="n">
         <v>100</v>
@@ -4628,12 +4604,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTR1</t>
+          <t>3FACOSDK_LTN1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>98.98</v>
+        <v>33</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4641,13 +4617,13 @@
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44987</v>
+        <v>44948</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -4662,76 +4638,68 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="M89" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTN</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>USADILTN220244</t>
-        </is>
-      </c>
+          <t>66LW139X_LTR1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>29427.7</v>
+        <v>66</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44904</v>
+        <v>44897</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44901</v>
+        <v>44900</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="M90" t="n">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
+          <t>6FIO1MDJ_ROG1</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>USADIROG210054</t>
+        </is>
+      </c>
       <c r="C91" t="n">
-        <v>114.45</v>
+        <v>100.1</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4739,13 +4707,13 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44892</v>
+        <v>44833</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44893</v>
+        <v>44834</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44982</v>
+        <v>44923</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
@@ -4753,42 +4721,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M91" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>866DPTVE_LTR</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>USADILTR220220</t>
+        </is>
+      </c>
       <c r="C92" t="n">
-        <v>51.44</v>
+        <v>23638.2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44931</v>
+        <v>45007</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -4796,28 +4772,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M92" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
+          <t>1ZAW8MMM_LTN1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>19.64</v>
+        <v>18.38</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4825,13 +4805,13 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44948</v>
+        <v>45012</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
@@ -4846,21 +4826,21 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="M93" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
+          <t>2VVHQCXN_LTN1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>31</v>
+        <v>19.52</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4889,7 +4869,7 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M94" t="n">
         <v>40</v>
@@ -4898,30 +4878,26 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>3XG7XCRG_LTN1</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>7936.33</v>
+        <v>30.69</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44888</v>
+        <v>44907</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45008</v>
+        <v>45027</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -4929,46 +4905,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="M95" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
+          <t>2ZKZXKNR_LTN1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>14.6</v>
+        <v>72</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -4983,39 +4955,35 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M96" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>USADIJSN220722</t>
-        </is>
-      </c>
+          <t>6SA3TZ1A_LTN1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>9451.68</v>
+        <v>16.49</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44830</v>
+        <v>44907</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44838</v>
+        <v>44908</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44958</v>
+        <v>44997</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -5030,25 +4998,25 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="M97" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
+          <t>6YI2KAXQ_ROG</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>USADIJSN220725</t>
+          <t>USADIROG220083</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2696.08</v>
+        <v>44.61</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5056,13 +5024,13 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44890</v>
+        <v>44910</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44887</v>
+        <v>44907</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45010</v>
+        <v>45030</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -5070,46 +5038,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M98" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2RQH5YIV_ROG</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>USADIROG220082</t>
-        </is>
-      </c>
+          <t>57IQV2GT_LTN1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>817.85</v>
+        <v>14</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45030</v>
+        <v>44997</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -5117,36 +5085,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="M99" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_ROG</t>
+          <t>6U3SDR7C_GDY</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>USADIROG220083</t>
+          <t>USADIGDY220137</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>44.61</v>
+        <v>23176.5</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -5154,13 +5118,13 @@
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44910</v>
+        <v>44888</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44907</v>
+        <v>44890</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45030</v>
+        <v>45008</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
@@ -5170,7 +5134,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5179,35 +5143,35 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="M100" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>89C1ZUNN_LTN1</t>
+          <t>42QQW8OE_LTR1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>38.7</v>
+        <v>98.98</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44907</v>
+        <v>44897</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44908</v>
+        <v>44900</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44997</v>
+        <v>44987</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
@@ -5222,21 +5186,25 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M101" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>57IQV2GT_LTN1</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>6YI2KAXQ_LTN</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>USADILTN220244</t>
+        </is>
+      </c>
       <c r="C102" t="n">
-        <v>14</v>
+        <v>29427.7</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5244,42 +5212,54 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44907</v>
+        <v>44904</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H102" t="inlineStr"/>
+        <v>45024</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="M102" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN2</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>2RQH5YIV_ROG</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>USADIROG220082</t>
+        </is>
+      </c>
       <c r="C103" t="n">
-        <v>34.35</v>
+        <v>817.85</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5287,13 +5267,13 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F103" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="F103" s="2" t="n">
-        <v>44908</v>
-      </c>
       <c r="G103" s="2" t="n">
-        <v>44997</v>
+        <v>45030</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
@@ -5301,42 +5281,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="M103" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3XG7XCRG_LTN1</t>
+          <t>5E5SJTOV_LTN1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>30.69</v>
+        <v>114.45</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44907</v>
+        <v>44892</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44908</v>
+        <v>44893</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44997</v>
+        <v>44982</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -5351,35 +5335,35 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M104" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTN1</t>
+          <t>3AKTKLAV_LTR1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>5.18</v>
+        <v>51.44</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44907</v>
+        <v>44841</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44908</v>
+        <v>44841</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44997</v>
+        <v>44931</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
@@ -5394,35 +5378,35 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="M105" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6SA3TZ1A_LTN1</t>
+          <t>4GBIBVRV_LTN1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>16.49</v>
+        <v>19.64</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44908</v>
+        <v>44858</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44997</v>
+        <v>44948</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
@@ -5437,35 +5421,35 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="M106" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>5MMXZNPR_LTN1</t>
+          <t>6L1E3PVD_LTR1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>14.57</v>
+        <v>31</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44908</v>
+        <v>44858</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44997</v>
+        <v>44948</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
@@ -5480,21 +5464,25 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="M107" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>5UJTVWPR_LTN2</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>1WAWRZ1C_LTR</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C108" t="n">
-        <v>20</v>
+        <v>7936.33</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5502,13 +5490,13 @@
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44907</v>
+        <v>44888</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44908</v>
+        <v>44890</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44997</v>
+        <v>45008</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
@@ -5516,42 +5504,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M108" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>8TT9AXJS_LTN1</t>
+          <t>3OWOSLEI_LTR1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>49.47</v>
+        <v>14.6</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44907</v>
+        <v>44841</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44908</v>
+        <v>44841</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44997</v>
+        <v>44931</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
@@ -5566,21 +5558,25 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="M109" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1KZUX51O_LTN1</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
+          <t>4CUW4DHC_JSN</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>USADIJSN220722</t>
+        </is>
+      </c>
       <c r="C110" t="n">
-        <v>14.57</v>
+        <v>9451.68</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5588,13 +5584,13 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44907</v>
+        <v>44830</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44908</v>
+        <v>44838</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44997</v>
+        <v>44958</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -5609,21 +5605,25 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M110" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>81PTLV4B_LTN2</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>1BZKS31V_JSN</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>USADIJSN220725</t>
+        </is>
+      </c>
       <c r="C111" t="n">
-        <v>7.08</v>
+        <v>2696.08</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -5631,13 +5631,13 @@
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44907</v>
+        <v>44890</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44908</v>
+        <v>44887</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44997</v>
+        <v>45010</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="M111" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M112" t="n">
         <v>125</v>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M113" t="n">
         <v>125</v>
@@ -5793,7 +5793,7 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M114" t="n">
         <v>125</v>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M115" t="n">
         <v>125</v>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M2" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" t="n">
         <v>20</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M4" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" t="n">
         <v>45</v>
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M9" t="n">
         <v>85</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M13" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14" t="n">
         <v>20</v>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M15" t="n">
         <v>95</v>
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" t="n">
         <v>85</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M18" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M19" t="n">
         <v>115</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M21" t="n">
         <v>75</v>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M24" t="n">
         <v>75</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M25" t="n">
         <v>85</v>
@@ -1631,12 +1631,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
+          <t>44HMPFED_NTX1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>21.66</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44892</v>
+        <v>44910</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44893</v>
+        <v>44910</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44982</v>
+        <v>45000</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1665,21 +1665,21 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5UJTVWPR_LTN2</t>
+          <t>2YT17WGL_LTN1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44907</v>
+        <v>44892</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44908</v>
+        <v>44893</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45027</v>
+        <v>44982</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1708,35 +1708,35 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="M27" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
+          <t>5UJTVWPR_LTN2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>14.57</v>
+        <v>20</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44860</v>
+        <v>44907</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44861</v>
+        <v>44908</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44950</v>
+        <v>45027</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1751,25 +1751,21 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="M28" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>3BTYRGGT_LTN1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>54503</v>
+        <v>14.57</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1777,54 +1773,46 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44893</v>
+        <v>44860</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44889</v>
+        <v>44861</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="M29" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
+          <t>4TACGJRN_TPF</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>USADILTR220230</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>14621.9</v>
+        <v>54503</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1832,23 +1820,27 @@
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1857,7 +1849,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M30" t="n">
         <v>100</v>
@@ -1866,16 +1858,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2RQH5YIV_LTN</t>
+          <t>6U3SDR7C_LTR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>USADILTN220243</t>
+          <t>USADILTR220230</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>14834.1</v>
+        <v>14621.9</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1883,13 +1875,13 @@
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44906</v>
+        <v>44888</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44907</v>
+        <v>44890</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45026</v>
+        <v>45008</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -1899,7 +1891,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>AMZN46749SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1908,25 +1900,25 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="M31" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>88A48CIL_LTR</t>
+          <t>2RQH5YIV_LTN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>USADILTR220235</t>
+          <t>USADILTN220243</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>33500.9</v>
+        <v>14834.1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1934,13 +1926,13 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44907</v>
+        <v>44906</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45027</v>
+        <v>45026</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -1950,7 +1942,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>AMZN46669SH022</t>
+          <t>AMZN46749SH022</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1959,7 +1951,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M32" t="n">
         <v>115</v>
@@ -1968,26 +1960,30 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>88A48CIL_LTR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>USADILTR220235</t>
+        </is>
+      </c>
       <c r="C33" t="n">
-        <v>70</v>
+        <v>33500.9</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44948</v>
+        <v>45027</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -1995,28 +1991,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>AMZN46669SH022</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTN1</t>
+          <t>3DEIS4NJ_LTN1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>5.18</v>
+        <v>70</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44908</v>
+        <v>44858</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44997</v>
+        <v>44948</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="M34" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
+          <t>42QQW8OE_LTN1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>87.95999999999999</v>
+        <v>5.18</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44892</v>
+        <v>44907</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44893</v>
+        <v>44908</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44982</v>
+        <v>44997</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -2088,21 +2088,21 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>13V4JTZA_LTR1</t>
+          <t>6HLPWWEQ_LTN2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>33</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44899</v>
+        <v>44892</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44989</v>
+        <v>44982</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -2131,39 +2131,35 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M36" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8S699O7R_LTN</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>USADILTN220246</t>
-        </is>
-      </c>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>48930.9</v>
+        <v>33</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44906</v>
+        <v>44899</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44907</v>
+        <v>44900</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45026</v>
+        <v>44989</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -2171,36 +2167,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M37" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
+          <t>8S699O7R_LTN</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTN220246</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>16134.8</v>
+        <v>48930.9</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2208,13 +2200,13 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44888</v>
+        <v>44906</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44890</v>
+        <v>44907</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45008</v>
+        <v>45026</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2224,7 +2216,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46749SH022</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2233,16 +2225,16 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
+          <t>8QO31QHQ_LTR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2251,7 +2243,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17871.2</v>
+        <v>16134.8</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2284,21 +2276,25 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M39" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>8ZWV2ARN_LTR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C40" t="n">
-        <v>67.34</v>
+        <v>17871.2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2306,13 +2302,13 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44860</v>
+        <v>44888</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44861</v>
+        <v>44890</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44950</v>
+        <v>45008</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2320,32 +2316,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="M40" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>USADILTN220255</t>
-        </is>
-      </c>
+          <t>28NZCWFH_LTN1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>11051.2</v>
+        <v>67.34</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2353,50 +2349,46 @@
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44896</v>
+        <v>44860</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44894</v>
+        <v>44861</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+        <v>44950</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="M41" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8OFVYIYG_JSN1</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>4GLARQRK_LTN</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>USADILTN220255</t>
+        </is>
+      </c>
       <c r="C42" t="n">
-        <v>81.90000000000001</v>
+        <v>11051.2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2404,46 +2396,54 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44897</v>
+        <v>44896</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44900</v>
+        <v>44894</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+        <v>45016</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="M42" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>613WD55F_LTR1</t>
+          <t>8OFVYIYG_JSN1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M43" t="n">
         <v>75</v>
@@ -2477,67 +2477,59 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>613WD55F_LTR1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>51556</v>
+        <v>13</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44893</v>
+        <v>44897</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44889</v>
+        <v>44900</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="M44" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1DHMIY4Z_LTR1</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>4TL4LC8Q_TPF</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C45" t="n">
-        <v>14580.4</v>
+        <v>51556</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2545,56 +2537,64 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44811</v>
+        <v>44893</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44903</v>
+        <v>44889</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44993</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="M45" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
+          <t>1DHMIY4Z_LTR1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>14580.4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44858</v>
+        <v>44811</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44858</v>
+        <v>44903</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44948</v>
+        <v>44993</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -2609,21 +2609,21 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="M46" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
+          <t>6V626OPP_LTN1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -2652,21 +2652,21 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
+          <t>7GKXJ87A_LTN1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>21.66</v>
+        <v>68</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2674,13 +2674,13 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44854</v>
+        <v>44892</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44854</v>
+        <v>44893</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44944</v>
+        <v>44982</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -2695,39 +2695,35 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="M48" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>USADILTR220229</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_NTX1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>17593.7</v>
+        <v>21.66</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44888</v>
+        <v>44854</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44890</v>
+        <v>44854</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45008</v>
+        <v>44944</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -2735,36 +2731,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>USADILTR220225</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>28902.8</v>
+        <v>17593.7</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2772,13 +2764,13 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -2788,7 +2780,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -2806,26 +2798,30 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>1411ZR8P_LTR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>USADILTR220225</t>
+        </is>
+      </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>28902.8</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44840</v>
+        <v>44887</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44930</v>
+        <v>45007</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -2833,46 +2829,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M51" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>5319.56</v>
+        <v>15</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44888</v>
+        <v>44840</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45008</v>
+        <v>44930</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -2880,36 +2876,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8JYISG4F_TPF</t>
+          <t>8VWKPALG_LTR</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>USADITPF220009</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>50593</v>
+        <v>5319.56</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2917,27 +2909,23 @@
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44907</v>
+        <v>44888</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44903</v>
+        <v>44890</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>AMZN10058VN022</t>
-        </is>
-      </c>
+        <v>45008</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>AMZN10058VN022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2946,25 +2934,25 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="M53" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
+          <t>8JYISG4F_TPF</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>USADIJSN220727</t>
+          <t>USADITPF220009</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3683.64</v>
+        <v>50593</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2972,46 +2960,54 @@
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44890</v>
+        <v>44907</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44887</v>
+        <v>44903</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
+        <v>45027</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AMZN10058VN022</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>AMZN10058VN022</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="M54" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>USADILTR220247</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>684</v>
+        <v>3683.64</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3019,13 +3015,13 @@
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44897</v>
+        <v>44890</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44900</v>
+        <v>44887</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45017</v>
+        <v>45010</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3033,36 +3029,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>KRUN20622SH022</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M55" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
+          <t>89NLLCYP_LTR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>USADILTR220246</t>
+          <t>USADILTR220247</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16644</v>
+        <v>684</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3086,7 +3078,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>KRUN20621SH022</t>
+          <t>KRUN20622SH022</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3095,7 +3087,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M56" t="n">
         <v>105</v>
@@ -3104,16 +3096,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>4GLARQRK_LTR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADILTR220246</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9286.879999999999</v>
+        <v>16644</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3121,13 +3113,13 @@
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44887</v>
+        <v>44900</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45010</v>
+        <v>45017</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -3135,83 +3127,83 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M57" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>6YV3GFKP_JSN</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADIJSN220726</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.55</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>AMZN39056SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>AMZN39056SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M58" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>4B1AYW5I_GDY1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>USADIGDY210047</t>
+        </is>
+      </c>
       <c r="C59" t="n">
-        <v>14.57</v>
+        <v>24.55</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3219,42 +3211,50 @@
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44892</v>
+        <v>44841</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H59" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
+          <t>265AQW8L_LTN1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>22.6</v>
+        <v>14.57</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -3292,26 +3292,26 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
+          <t>6NYVMFBS_LTN1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>78.08</v>
+        <v>22.6</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44948</v>
+        <v>44982</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -3326,25 +3326,21 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="M61" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>USADIGDY220135</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>4599</v>
+        <v>78.08</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3352,13 +3348,13 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44895</v>
+        <v>44858</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45013</v>
+        <v>44948</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -3366,36 +3362,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="M62" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>88A48CIL_GDY</t>
+          <t>1BZKS31V_GDY</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>USADIGDY220139</t>
+          <t>USADIGDY220135</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9314.15</v>
+        <v>4599</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3403,13 +3395,13 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44905</v>
+        <v>44893</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44907</v>
+        <v>44895</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45025</v>
+        <v>45013</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -3419,7 +3411,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>AMZN46669SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3428,25 +3420,25 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="M63" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
+          <t>88A48CIL_GDY</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USADIJSN220728</t>
+          <t>USADIGDY220139</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4209</v>
+        <v>9314.15</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3454,13 +3446,13 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44890</v>
+        <v>44905</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44887</v>
+        <v>44907</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45010</v>
+        <v>45025</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -3468,46 +3460,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>AMZN46669SH022</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
+          <t>1VVPTEPB_JSN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADIROG210057</t>
+          <t>USADIJSN220728</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>176.4</v>
+        <v>4209</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44833</v>
+        <v>44890</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44923</v>
+        <v>45010</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
@@ -3515,50 +3511,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>AMZN21334NB022</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M65" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USADIJSN210500</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>227.7</v>
+        <v>176.4</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44858</v>
+        <v>44833</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44858</v>
+        <v>44834</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44948</v>
+        <v>44923</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
@@ -3566,42 +3558,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>AMZN21334NB022</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="M66" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>3AONIT1Q_JSN</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>USADIJSN210500</t>
+        </is>
+      </c>
       <c r="C67" t="n">
-        <v>323.82</v>
+        <v>227.7</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -3616,35 +3616,35 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M67" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
+          <t>3FACOSDK_LTR1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>323.82</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44948</v>
+        <v>44931</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -3659,98 +3659,86 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M68" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>USADINTX220096</t>
-        </is>
-      </c>
+          <t>4MHD24HN_LTN1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>67.14</v>
+        <v>7</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44713</v>
+        <v>44858</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44834</v>
+        <v>44858</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M69" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
+          <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>USADILTN220239</t>
+          <t>USADINTX220096</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6488.3</v>
+        <v>67.14</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44893</v>
+        <v>44713</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44887</v>
+        <v>44834</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45013</v>
+        <v>44924</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3760,7 +3748,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3769,162 +3757,174 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M70" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8TT9AXJS_LTN1</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>1VVPTEPB_LTN</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>USADILTN220239</t>
+        </is>
+      </c>
       <c r="C71" t="n">
-        <v>49.47</v>
+        <v>6488.3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44907</v>
+        <v>44893</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44908</v>
+        <v>44887</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H71" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M71" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>USADINTX220220</t>
-        </is>
-      </c>
+          <t>8TT9AXJS_LTN1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>6666.82</v>
+        <v>49.47</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M72" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
+          <t>1BZKS31V_NTX</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>USADINTX220220</t>
+        </is>
+      </c>
       <c r="C73" t="n">
-        <v>37.7</v>
+        <v>6666.82</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="M73" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
+          <t>7EDOJ3SU_LTR1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>25.8</v>
+        <v>37.7</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44892</v>
+        <v>44841</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44982</v>
+        <v>44931</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
@@ -3953,21 +3953,21 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>89C1ZUNN_LTN1</t>
+          <t>3GAXBNII_LTN1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>38.7</v>
+        <v>25.8</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3975,13 +3975,13 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44907</v>
+        <v>44892</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44908</v>
+        <v>44893</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44997</v>
+        <v>44982</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -3996,39 +3996,35 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="M75" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>USADIGDY220138</t>
-        </is>
-      </c>
+          <t>89C1ZUNN_LTN1</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>23683.3</v>
+        <v>38.7</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44895</v>
+        <v>44908</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45013</v>
+        <v>44997</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4036,64 +4032,56 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M76" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>1VVPTEPB_GDY</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USADIGDY220138</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5.1</v>
+        <v>23683.3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44718</v>
+        <v>44893</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44834</v>
+        <v>44895</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+        <v>45013</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4102,21 +4090,25 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="M77" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
+          <t>5QEJNSVA_NTX1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>USADINTX220085</t>
+        </is>
+      </c>
       <c r="C78" t="n">
-        <v>24.18</v>
+        <v>5.1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4124,42 +4116,50 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44894</v>
+        <v>44718</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44894</v>
+        <v>44834</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M78" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
+          <t>6KSMLQ5R_NTX1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>27.52</v>
+        <v>24.18</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44900</v>
+        <v>44894</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44987</v>
+        <v>44984</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M79" t="n">
         <v>75</v>
@@ -4197,26 +4197,26 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
+          <t>6V626OPP_LTR1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>61.5</v>
+        <v>27.52</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44948</v>
+        <v>44987</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -4231,35 +4231,35 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="M80" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
+          <t>7GDOS76Y_LTN1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>6.88</v>
+        <v>61.5</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44987</v>
+        <v>44948</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
@@ -4274,21 +4274,21 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="M81" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
+          <t>2MBWL17N_LTR1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>21.26</v>
+        <v>6.88</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4296,13 +4296,13 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44948</v>
+        <v>44987</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
@@ -4317,35 +4317,35 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="M82" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
+          <t>2ZKZXKNR_LTR1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>27.6</v>
+        <v>21.26</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44892</v>
+        <v>44858</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44982</v>
+        <v>44948</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
@@ -4360,25 +4360,21 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>USADILTR220231</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>10924</v>
+        <v>27.6</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4386,13 +4382,13 @@
         </is>
       </c>
       <c r="E84" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F84" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F84" s="2" t="n">
-        <v>44895</v>
-      </c>
       <c r="G84" s="2" t="n">
-        <v>45013</v>
+        <v>44982</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -4400,46 +4396,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="M84" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1KZUX51O_LTN1</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
+          <t>1VVPTEPB_LTR</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>USADILTR220231</t>
+        </is>
+      </c>
       <c r="C85" t="n">
-        <v>14.57</v>
+        <v>10924</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44907</v>
+        <v>44893</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44908</v>
+        <v>44895</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44997</v>
+        <v>45013</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
@@ -4447,46 +4443,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M85" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3D9C9KYB_LTN</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>USADILTN220243</t>
-        </is>
-      </c>
+          <t>1KZUX51O_LTN1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>33819.8</v>
+        <v>14.57</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45026</v>
+        <v>44997</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -4494,46 +4490,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="M86" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
+          <t>3D9C9KYB_LTN</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>USADILTN220243</t>
+        </is>
+      </c>
       <c r="C87" t="n">
-        <v>18.8</v>
+        <v>33819.8</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44854</v>
+        <v>44906</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44854</v>
+        <v>44907</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44944</v>
+        <v>45026</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -4541,46 +4537,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M87" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>USADILTN220237</t>
-        </is>
-      </c>
+          <t>3MUSVYHM_NTX1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>10848.3</v>
+        <v>18.8</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44890</v>
+        <v>44854</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44887</v>
+        <v>44854</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45010</v>
+        <v>44944</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
@@ -4595,35 +4591,39 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>6YV3GFKP_LTN</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>USADILTN220237</t>
+        </is>
+      </c>
       <c r="C89" t="n">
-        <v>33</v>
+        <v>10848.3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44948</v>
+        <v>45010</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -4638,21 +4638,21 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="M89" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
+          <t>3FACOSDK_LTN1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4660,13 +4660,13 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44987</v>
+        <v>44948</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
@@ -4681,25 +4681,21 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="M90" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>USADIROG210054</t>
-        </is>
-      </c>
+          <t>66LW139X_LTR1</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>100.1</v>
+        <v>66</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4707,13 +4703,13 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44833</v>
+        <v>44897</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44834</v>
+        <v>44900</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44923</v>
+        <v>44987</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
@@ -4721,50 +4717,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M91" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
+          <t>6FIO1MDJ_ROG1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>USADILTR220220</t>
+          <t>USADIROG210054</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>23638.2</v>
+        <v>100.1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44887</v>
+        <v>44833</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44890</v>
+        <v>44834</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45007</v>
+        <v>44923</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -4774,7 +4766,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN21189NB022</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -4783,35 +4775,39 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="M92" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
+          <t>866DPTVE_LTR</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>USADILTR220220</t>
+        </is>
+      </c>
       <c r="C93" t="n">
-        <v>18.38</v>
+        <v>23638.2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44892</v>
+        <v>44887</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45012</v>
+        <v>45007</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
@@ -4819,28 +4815,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
+          <t>1ZAW8MMM_LTN1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>19.52</v>
+        <v>18.38</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4848,13 +4848,13 @@
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44948</v>
+        <v>45012</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -4869,21 +4869,21 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="M94" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3XG7XCRG_LTN1</t>
+          <t>2VVHQCXN_LTN1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>30.69</v>
+        <v>19.52</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4891,13 +4891,13 @@
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44908</v>
+        <v>44858</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45027</v>
+        <v>44948</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
@@ -4912,35 +4912,35 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="M95" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
+          <t>3XG7XCRG_LTN1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>72</v>
+        <v>30.69</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44858</v>
+        <v>44908</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44948</v>
+        <v>45027</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -4955,35 +4955,35 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="M96" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6SA3TZ1A_LTN1</t>
+          <t>2ZKZXKNR_LTN1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>16.49</v>
+        <v>72</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44908</v>
+        <v>44858</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44997</v>
+        <v>44948</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
@@ -4998,39 +4998,35 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="M97" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_ROG</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>USADIROG220083</t>
-        </is>
-      </c>
+          <t>6SA3TZ1A_LTN1</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>44.61</v>
+        <v>16.49</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45030</v>
+        <v>44997</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -5038,46 +5034,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="M98" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>57IQV2GT_LTN1</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
+          <t>6YI2KAXQ_ROG</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>USADIROG220083</t>
+        </is>
+      </c>
       <c r="C99" t="n">
-        <v>14</v>
+        <v>44.61</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F99" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="F99" s="2" t="n">
-        <v>44908</v>
-      </c>
       <c r="G99" s="2" t="n">
-        <v>44997</v>
+        <v>45030</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
@@ -5085,46 +5081,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="M99" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>USADIGDY220137</t>
-        </is>
-      </c>
+          <t>57IQV2GT_LTN1</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>23176.5</v>
+        <v>14</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44888</v>
+        <v>44907</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45008</v>
+        <v>44997</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
@@ -5132,46 +5128,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M100" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTR1</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>6U3SDR7C_GDY</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>USADIGDY220137</t>
+        </is>
+      </c>
       <c r="C101" t="n">
-        <v>98.98</v>
+        <v>23176.5</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44987</v>
+        <v>45008</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
@@ -5179,87 +5175,79 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="M101" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTN</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>USADILTN220244</t>
-        </is>
-      </c>
+          <t>42QQW8OE_LTR1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>29427.7</v>
+        <v>98.98</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44904</v>
+        <v>44897</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44901</v>
+        <v>44900</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="M102" t="n">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2RQH5YIV_ROG</t>
+          <t>6YI2KAXQ_LTN</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>USADIROG220082</t>
+          <t>USADILTN220244</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>817.85</v>
+        <v>29427.7</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5267,23 +5255,27 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44910</v>
+        <v>44904</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44907</v>
+        <v>44901</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
+        <v>45024</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46670SH022</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -5292,35 +5284,39 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M103" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
+          <t>2RQH5YIV_ROG</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>USADIROG220082</t>
+        </is>
+      </c>
       <c r="C104" t="n">
-        <v>114.45</v>
+        <v>817.85</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44892</v>
+        <v>44910</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44982</v>
+        <v>45030</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -5328,28 +5324,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="M104" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
+          <t>5E5SJTOV_LTN1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>51.44</v>
+        <v>114.45</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44841</v>
+        <v>44892</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44931</v>
+        <v>44982</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
@@ -5378,21 +5378,21 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="M105" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
+          <t>3AKTKLAV_LTR1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>19.64</v>
+        <v>51.44</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -5400,13 +5400,13 @@
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44948</v>
+        <v>44931</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
@@ -5421,21 +5421,21 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M106" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
+          <t>4GBIBVRV_LTN1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>31</v>
+        <v>19.64</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -5464,39 +5464,35 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M107" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>6L1E3PVD_LTR1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>7936.33</v>
+        <v>31</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
@@ -5504,46 +5500,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="M108" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t>1WAWRZ1C_LTR</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C109" t="n">
-        <v>14.6</v>
+        <v>7936.33</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44841</v>
+        <v>44888</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44931</v>
+        <v>45008</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
@@ -5551,46 +5547,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="M109" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>USADIJSN220722</t>
-        </is>
-      </c>
+          <t>3OWOSLEI_LTR1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>9451.68</v>
+        <v>14.6</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44830</v>
+        <v>44841</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44838</v>
+        <v>44841</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44958</v>
+        <v>44931</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -5605,25 +5601,25 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M110" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
+          <t>4CUW4DHC_JSN</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>USADIJSN220725</t>
+          <t>USADIJSN220722</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2696.08</v>
+        <v>9451.68</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -5631,13 +5627,13 @@
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44890</v>
+        <v>44830</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44887</v>
+        <v>44838</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45010</v>
+        <v>44958</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
@@ -5652,25 +5648,25 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="M111" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6I6888XF_LTN</t>
+          <t>1BZKS31V_JSN</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>USADILTN220247</t>
+          <t>USADIJSN220725</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>26356.28</v>
+        <v>2696.08</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -5678,13 +5674,13 @@
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44914</v>
+        <v>44890</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44909</v>
+        <v>44887</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45034</v>
+        <v>45010</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
@@ -5699,25 +5695,25 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="M112" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6LJYAO7G_LTN</t>
+          <t>6I6888XF_LTN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>USADILTN220248</t>
+          <t>USADILTN220247</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>22860.29</v>
+        <v>26356.28</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -5739,32 +5735,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>AMZN46843SH022</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M113" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6I6888XF_ROG</t>
+          <t>6LJYAO7G_LTN</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>USADIROG220084</t>
+          <t>USADILTN220248</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1040.9</v>
+        <v>22860.29</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -5786,32 +5786,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>AMZN46843SH022</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M114" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6LJYAO7G_ROG</t>
+          <t>6I6888XF_ROG</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>USADIROG220085</t>
+          <t>USADIROG220084</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>371.75</v>
+        <v>1040.9</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -5833,17 +5837,72 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M115" t="n">
-        <v>125</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>6LJYAO7G_ROG</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>USADIROG220085</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>122</v>
+      </c>
+      <c r="M116" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,14 @@
       <c r="G2" s="2" t="n">
         <v>45013</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -767,10 +771,14 @@
       <c r="G7" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -904,10 +912,14 @@
       <c r="G10" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -951,10 +963,14 @@
       <c r="G11" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AMZN43022SH022</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -994,10 +1010,14 @@
       <c r="G12" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>AMZN42468SH022</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1088,10 +1108,14 @@
       <c r="G14" s="2" t="n">
         <v>44931</v>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>AMZN42858SH022</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1135,10 +1159,14 @@
       <c r="G15" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1476,10 +1504,14 @@
       <c r="G22" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1781,10 +1813,14 @@
       <c r="G29" s="2" t="n">
         <v>44950</v>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AMZN41831SH022</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1883,10 +1919,14 @@
       <c r="G31" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2032,10 +2072,14 @@
       <c r="G34" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>AMZN24029NB022</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2259,10 +2303,14 @@
       <c r="G39" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2310,10 +2358,14 @@
       <c r="G40" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2357,10 +2409,14 @@
       <c r="G41" s="2" t="n">
         <v>44950</v>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>AMZN41260SH022</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2639,10 +2695,14 @@
       <c r="G47" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>AMZN43764SH022</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2772,10 +2832,14 @@
       <c r="G50" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2823,10 +2887,14 @@
       <c r="G51" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2917,10 +2985,14 @@
       <c r="G53" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3070,10 +3142,14 @@
       <c r="G56" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>KRUN20622SH022</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3121,10 +3197,14 @@
       <c r="G57" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3356,10 +3436,14 @@
       <c r="G62" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>AMZN42426SH022</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3403,10 +3487,14 @@
       <c r="G63" s="2" t="n">
         <v>45013</v>
       </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3646,10 +3734,14 @@
       <c r="G68" s="2" t="n">
         <v>44931</v>
       </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>AMZN42112SH022</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -4073,10 +4165,14 @@
       <c r="G77" s="2" t="n">
         <v>45013</v>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4261,10 +4357,14 @@
       <c r="G81" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>AMZN23551NB022</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -4347,10 +4447,14 @@
       <c r="G83" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>AMZN42996SH022</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -4437,10 +4541,14 @@
       <c r="G85" s="2" t="n">
         <v>45013</v>
       </c>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4578,10 +4686,14 @@
       <c r="G88" s="2" t="n">
         <v>44944</v>
       </c>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>AMZN24356NB022</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4668,10 +4780,14 @@
       <c r="G90" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>AMZN42113SH022</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4809,10 +4925,14 @@
       <c r="G93" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4899,10 +5019,14 @@
       <c r="G95" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>AMZN42426SH022</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4985,10 +5109,14 @@
       <c r="G97" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>AMZN42426SH022</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -5075,10 +5203,14 @@
       <c r="G99" s="2" t="n">
         <v>45030</v>
       </c>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5169,10 +5301,14 @@
       <c r="G101" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5318,10 +5454,14 @@
       <c r="G104" s="2" t="n">
         <v>45030</v>
       </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5408,10 +5548,14 @@
       <c r="G106" s="2" t="n">
         <v>44931</v>
       </c>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>AMZN41901SH022</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5451,10 +5595,14 @@
       <c r="G107" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>AMZN41831SH022</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5494,10 +5642,14 @@
       <c r="G108" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>AMZN43765SH022</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5541,10 +5693,14 @@
       <c r="G109" s="2" t="n">
         <v>45008</v>
       </c>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5588,10 +5744,14 @@
       <c r="G110" s="2" t="n">
         <v>44931</v>
       </c>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>AMZN41901SH022</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5831,10 +5991,14 @@
       <c r="G115" s="2" t="n">
         <v>45034</v>
       </c>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5882,10 +6046,14 @@
       <c r="G116" s="2" t="n">
         <v>45034</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5902,6 +6070,731 @@
         <v>122</v>
       </c>
       <c r="M116" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4I5WE9CE_LTR</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>USADILTR220256</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1312.08</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>119</v>
+      </c>
+      <c r="M117" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2RQH5YIV_LTR</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>USADILTR220232</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>4922.3</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>118</v>
+      </c>
+      <c r="M118" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3D9C9KYB_LTR</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>USADILTR220232</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>3724.27</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>118</v>
+      </c>
+      <c r="M119" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>6YI2KAXQ_LTR</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>USADILTR220233</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>6120.36</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>118</v>
+      </c>
+      <c r="M120" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>8S699O7R_LTR</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>USADILTR220236</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>22697.32</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>118</v>
+      </c>
+      <c r="M121" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>8S699O7R_GDY</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>USADIGDY220140</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>20477.65</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>45030</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>118</v>
+      </c>
+      <c r="M122" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>6I6888XF_LTR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>USADILTR220238</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>6810.83</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>119</v>
+      </c>
+      <c r="M123" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>6LJYAO7G_LTR</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>USADILTR220239</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>4447.93</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>119</v>
+      </c>
+      <c r="M124" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4DNNIS5P_LTR</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>USADILTR220248</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>21082.74</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>119</v>
+      </c>
+      <c r="M125" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>28FQ3FPY_LTR2</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>89</v>
+      </c>
+      <c r="M126" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>1ADIKK2O_LTR1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>119</v>
+      </c>
+      <c r="M127" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1YMCF3XG_LTR1</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>89</v>
+      </c>
+      <c r="M128" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>85D7RUAD_LTR1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>19</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>119</v>
+      </c>
+      <c r="M129" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>134Q2B4B_GDY1</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>119</v>
+      </c>
+      <c r="M130" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>61EHLQ4E_TPF</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>USADITPF220010</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>50950</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>121</v>
+      </c>
+      <c r="M131" t="n">
         <v>120</v>
       </c>
     </row>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M2" t="n">
         <v>100</v>
@@ -596,48 +596,40 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>89NLLCYP_NTX</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>USADINTX220243</t>
-        </is>
-      </c>
+          <t>85D7RUAD_LTR1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>367.9</v>
+        <v>19</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44893</v>
+        <v>44911</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44896</v>
+        <v>44911</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>KRUN20620SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -647,25 +639,25 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6X2NPZ5N_LTN1</t>
+          <t>89NLLCYP_NTX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USADILTN220223</t>
+          <t>USADINTX220243</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1368.23</v>
+        <v>367.9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -673,18 +665,22 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44830</v>
+        <v>44893</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44837</v>
+        <v>44896</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>KRUN20620SH022</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -694,35 +690,39 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3Y8RTMTK_LTN1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>6X2NPZ5N_LTN1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>USADILTN220223</t>
+        </is>
+      </c>
       <c r="C6" t="n">
-        <v>12.86</v>
+        <v>1368.23</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44858</v>
+        <v>44830</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44858</v>
+        <v>44837</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44948</v>
+        <v>44957</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -737,119 +737,119 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>3Y8RTMTK_LTN1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>14919.7</v>
+        <v>12.86</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="M7" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2OVDJQPL_LTN1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>1AUSABXK_LTR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C8" t="n">
-        <v>13.18</v>
+        <v>14919.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN2</t>
+          <t>2OVDJQPL_LTN1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>34.35</v>
+        <v>13.18</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44907</v>
+        <v>44892</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44908</v>
+        <v>44893</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44997</v>
+        <v>44982</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -878,25 +878,25 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8S6G2SDR_GDY</t>
+          <t>6LJYAO7G_LTN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USADIGDY220133</t>
+          <t>USADILTN220248</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17122</v>
+        <v>22860.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -904,27 +904,23 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44888</v>
+        <v>44914</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44890</v>
+        <v>44909</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>45034</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46843SH022</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -933,21 +929,21 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>613WD55F_LTN1</t>
+          <t>85SPQK1O_LTN2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>43.5</v>
+        <v>34.35</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -955,22 +951,18 @@
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44858</v>
+        <v>44908</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>AMZN43022SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -980,39 +972,43 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M11" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8C2X1J7G_LTR1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>8S6G2SDR_GDY</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>USADIGDY220133</t>
+        </is>
+      </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>17122</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>AMZN42468SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1020,50 +1016,50 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="M12" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4GLARQRK_NTX</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>USADINTX220242</t>
-        </is>
-      </c>
+          <t>613WD55F_LTN1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>17589.3</v>
+        <v>43.5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44896</v>
+        <v>44858</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45013</v>
+        <v>44948</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>KRUN20619SH022</t>
+          <t>AMZN43022SH022</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1078,21 +1074,21 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>323S6WET_LTR1</t>
+          <t>8C2X1J7G_LTR1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>44.32</v>
+        <v>76</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1100,17 +1096,17 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>AMZN42858SH022</t>
+          <t>AMZN42468SH022</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1125,25 +1121,25 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1411ZR8P_GDY</t>
+          <t>4GLARQRK_NTX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USADIGDY220134</t>
+          <t>USADINTX220242</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8729.98</v>
+        <v>17589.3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1151,17 +1147,17 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44890</v>
+        <v>44896</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>KRUN20619SH022</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1169,32 +1165,28 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1PE1AZJP_LTN1</t>
+          <t>323S6WET_LTR1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>2.59</v>
+        <v>44.32</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1202,18 +1194,22 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44892</v>
+        <v>44841</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>AMZN42858SH022</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1223,202 +1219,194 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>81PTLV4B_LTN2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>1411ZR8P_GDY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>USADIGDY220134</t>
+        </is>
+      </c>
       <c r="C17" t="n">
-        <v>7.08</v>
+        <v>8729.98</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44907</v>
+        <v>44887</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44908</v>
+        <v>44890</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M17" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1BZKS31V_LTN</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>USADILTN220236</t>
-        </is>
-      </c>
+          <t>1PE1AZJP_LTN1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>25344.3</v>
+        <v>2.59</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G18" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>88A48CIL_LTN</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>USADILTN220245</t>
-        </is>
-      </c>
+          <t>81PTLV4B_LTN2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>24646</v>
+        <v>7.08</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44901</v>
+        <v>44908</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="M19" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4C14JWQL_ROG1</t>
+          <t>1BZKS31V_LTN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USADIROG210055</t>
+          <t>USADILTN220236</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.15</v>
+        <v>25344.3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44833</v>
+        <v>44893</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1427,21 +1415,25 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTR1</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>88A48CIL_LTN</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>USADILTN220245</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>26.62</v>
+        <v>24646</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1449,74 +1441,78 @@
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+        <v>45024</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="M21" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6YV3GFKP_GDY</t>
+          <t>4C14JWQL_ROG1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USADIGDY220136</t>
+          <t>USADIROG210055</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>41125.8</v>
+        <v>7.15</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44888</v>
+        <v>44833</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44890</v>
+        <v>44834</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN21189NB022</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1525,35 +1521,35 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2GRMROMU_LTN1</t>
+          <t>2YT17WGL_LTR1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>13.36</v>
+        <v>26.62</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -1568,64 +1564,76 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7JN9DTJG_NTX1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>6YV3GFKP_GDY</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>USADIGDY220136</t>
+        </is>
+      </c>
       <c r="C24" t="n">
-        <v>9.199999999999999</v>
+        <v>41125.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44894</v>
+        <v>44888</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="M24" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5MMXZNPR_LTN1</t>
+          <t>2GRMROMU_LTN1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>14.57</v>
+        <v>13.36</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1633,13 +1641,13 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44907</v>
+        <v>44892</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44908</v>
+        <v>44893</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44997</v>
+        <v>44982</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -1654,21 +1662,21 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="M25" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>44HMPFED_NTX1</t>
+          <t>1YMCF3XG_LTR1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>21.66</v>
+        <v>172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1676,13 +1684,13 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1697,21 +1705,21 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
+          <t>7JN9DTJG_NTX1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1719,13 +1727,13 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44892</v>
+        <v>44894</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44982</v>
+        <v>44984</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1740,7 +1748,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -1749,12 +1757,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5UJTVWPR_LTN2</t>
+          <t>5MMXZNPR_LTN1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>14.57</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1768,7 +1776,7 @@
         <v>44908</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45027</v>
+        <v>44997</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -1783,44 +1791,40 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="M28" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
+          <t>44HMPFED_NTX1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>14.57</v>
+        <v>21.66</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44860</v>
+        <v>44910</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44861</v>
+        <v>44910</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44950</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>AMZN41831SH022</t>
-        </is>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1830,135 +1834,107 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="M29" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>2YT17WGL_LTN1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>54503</v>
+        <v>17</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>44889</v>
-      </c>
       <c r="G30" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="M30" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>USADILTR220230</t>
-        </is>
-      </c>
+          <t>5UJTVWPR_LTN2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>14621.9</v>
+        <v>20</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44888</v>
+        <v>44907</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+        <v>45027</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="M31" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2RQH5YIV_LTN</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>USADILTN220243</t>
-        </is>
-      </c>
+          <t>3BTYRGGT_LTN1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>14834.1</v>
+        <v>14.57</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1966,50 +1942,50 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44906</v>
+        <v>44860</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44907</v>
+        <v>44861</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>44950</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>AMZN41831SH022</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="M32" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>88A48CIL_LTR</t>
+          <t>4TACGJRN_TPF</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>USADILTR220235</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>33500.9</v>
+        <v>54503</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2017,23 +1993,27 @@
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44907</v>
+        <v>44893</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44907</v>
+        <v>44889</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>AMZN46669SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2042,39 +2022,43 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="M33" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>6U3SDR7C_LTR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>USADILTR220230</t>
+        </is>
+      </c>
       <c r="C34" t="n">
-        <v>70</v>
+        <v>14621.9</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>AMZN24029NB022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2082,42 +2066,50 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTN1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>2RQH5YIV_LTN</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>USADILTN220243</t>
+        </is>
+      </c>
       <c r="C35" t="n">
-        <v>5.18</v>
+        <v>14834.1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
+        <v>44906</v>
+      </c>
+      <c r="F35" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="F35" s="2" t="n">
-        <v>44908</v>
-      </c>
       <c r="G35" s="2" t="n">
-        <v>44997</v>
+        <v>45026</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -2125,42 +2117,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="M35" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>88A48CIL_LTR</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>USADILTR220235</t>
+        </is>
+      </c>
       <c r="C36" t="n">
-        <v>87.95999999999999</v>
+        <v>33500.9</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44892</v>
+        <v>44907</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44982</v>
+        <v>45027</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -2168,28 +2168,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>AMZN46669SH022</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13V4JTZA_LTR1</t>
+          <t>3DEIS4NJ_LTN1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2197,18 +2201,22 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44899</v>
+        <v>44858</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>AMZN24029NB022</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2218,39 +2226,35 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="M37" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8S699O7R_LTN</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>USADILTN220246</t>
-        </is>
-      </c>
+          <t>42QQW8OE_LTN1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>48930.9</v>
+        <v>5.18</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45026</v>
+        <v>44997</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2258,142 +2262,118 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="M38" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>6HLPWWEQ_LTN2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>16134.8</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="M39" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>17871.2</v>
+        <v>33</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44888</v>
+        <v>44899</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44989</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="M40" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>8S699O7R_LTN</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>USADILTN220246</t>
+        </is>
+      </c>
       <c r="C41" t="n">
-        <v>67.34</v>
+        <v>48930.9</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2401,50 +2381,50 @@
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44860</v>
+        <v>44906</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44861</v>
+        <v>44907</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>44950</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>AMZN41260SH022</t>
-        </is>
-      </c>
+        <v>45026</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="M41" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
+          <t>8QO31QHQ_LTR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>USADILTN220255</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>11051.2</v>
+        <v>16134.8</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2452,17 +2432,17 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44896</v>
+        <v>44888</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45016</v>
+        <v>45008</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>KRUN20618SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2472,7 +2452,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>KRUN20618SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2481,21 +2461,25 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M42" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8OFVYIYG_JSN1</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>8ZWV2ARN_LTR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C43" t="n">
-        <v>81.90000000000001</v>
+        <v>17871.2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2503,56 +2487,68 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="M43" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>613WD55F_LTR1</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>4DNNIS5P_LTR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>USADILTR220248</t>
+        </is>
+      </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>21082.7</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44897</v>
+        <v>44911</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44900</v>
+        <v>44911</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44987</v>
+        <v>45031</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -2560,32 +2556,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>AMZN27664NB022</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="M44" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
+          <t>6I6888XF_LTN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADILTN220247</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>51556</v>
+        <v>26356.3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2593,27 +2593,23 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44889</v>
+        <v>44909</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>45034</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN46843SH022</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2622,21 +2618,21 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="M45" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1DHMIY4Z_LTR1</t>
+          <t>28NZCWFH_LTN1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>14580.4</v>
+        <v>67.34</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2644,18 +2640,22 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44811</v>
+        <v>44860</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44903</v>
+        <v>44861</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44993</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
+        <v>44950</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>AMZN41260SH022</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2665,39 +2665,43 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="M46" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>8S699O7R_LTR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>USADILTR220236</t>
+        </is>
+      </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>22697.3</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44858</v>
+        <v>44910</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44858</v>
+        <v>44911</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44948</v>
+        <v>45030</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>AMZN43764SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2705,42 +2709,50 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="M47" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>6LJYAO7G_LTR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>USADILTR220239</t>
+        </is>
+      </c>
       <c r="C48" t="n">
-        <v>68</v>
+        <v>4447.93</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44892</v>
+        <v>44911</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44893</v>
+        <v>44911</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>44982</v>
+        <v>45031</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -2755,68 +2767,76 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>4GLARQRK_LTN</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>USADILTN220255</t>
+        </is>
+      </c>
       <c r="C49" t="n">
-        <v>21.66</v>
+        <v>11051.2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44854</v>
+        <v>44896</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44854</v>
+        <v>44894</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
+        <v>45016</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="M49" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>USADILTR220229</t>
-        </is>
-      </c>
+          <t>8OFVYIYG_JSN1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>17593.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2824,54 +2844,46 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44888</v>
+        <v>44897</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M50" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
+          <t>4I5WE9CE_LTR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>USADILTR220225</t>
+          <t>USADILTR220256</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>28902.8</v>
+        <v>1312.08</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2879,27 +2891,23 @@
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44887</v>
+        <v>44907</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44890</v>
+        <v>44911</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>KRUN20788SH022</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2908,21 +2916,21 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="M51" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
+          <t>613WD55F_LTR1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2930,13 +2938,13 @@
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44840</v>
+        <v>44897</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44841</v>
+        <v>44900</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44930</v>
+        <v>44987</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -2951,25 +2959,25 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M52" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
+          <t>4TL4LC8Q_TPF</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5319.56</v>
+        <v>51556</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2977,17 +2985,17 @@
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44888</v>
+        <v>44893</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44890</v>
+        <v>44889</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45008</v>
+        <v>45013</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2997,7 +3005,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3006,25 +3014,21 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M53" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8JYISG4F_TPF</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>USADITPF220009</t>
-        </is>
-      </c>
+          <t>1DHMIY4Z_LTR1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>50593</v>
+        <v>14580.4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3032,73 +3036,65 @@
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44907</v>
+        <v>44811</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>44903</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>AMZN10058VN022</t>
-        </is>
-      </c>
+        <v>44993</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>AMZN10058VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="M54" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>USADIJSN220727</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTN1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>3683.64</v>
+        <v>42</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>AMZN43764SH022</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -3108,135 +3104,111 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="M55" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>USADILTR220247</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>684</v>
+        <v>68</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44897</v>
+        <v>44892</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44900</v>
+        <v>44893</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>KRUN20622SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>KRUN20622SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="M56" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>USADILTR220246</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_NTX1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>16644</v>
+        <v>21.66</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44897</v>
+        <v>44854</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44900</v>
+        <v>44854</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>KRUN20621SH022</t>
-        </is>
-      </c>
+        <v>44944</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>KRUN20621SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="M57" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9286.879999999999</v>
+        <v>17593.7</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3244,64 +3216,72 @@
         </is>
       </c>
       <c r="E58" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="F58" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="F58" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G58" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M58" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24.55</v>
+        <v>28902.8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44931</v>
+        <v>45007</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3311,7 +3291,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3320,64 +3300,76 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="M59" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>3D9C9KYB_LTR</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>USADILTR220232</t>
+        </is>
+      </c>
       <c r="C60" t="n">
-        <v>14.57</v>
+        <v>3724.27</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44892</v>
+        <v>44910</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44893</v>
+        <v>44911</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
+          <t>5A3AFC7T_LTN1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>22.6</v>
+        <v>15</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3385,13 +3377,13 @@
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44892</v>
+        <v>44840</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44982</v>
+        <v>44930</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -3406,21 +3398,25 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>8VWKPALG_LTR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C62" t="n">
-        <v>78.08</v>
+        <v>5319.56</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3428,17 +3424,17 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>AMZN42426SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3446,32 +3442,36 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="M62" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
+          <t>8JYISG4F_TPF</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>USADIGDY220135</t>
+          <t>USADITPF220009</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4599</v>
+        <v>50593</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3479,17 +3479,17 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44895</v>
+        <v>44903</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN10058VN022</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN10058VN022</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3508,25 +3508,25 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M63" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>88A48CIL_GDY</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>USADIGDY220139</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9314.15</v>
+        <v>3683.64</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44905</v>
+        <v>44890</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44907</v>
+        <v>44887</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45025</v>
+        <v>45010</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -3548,36 +3548,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>AMZN46669SH022</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="M64" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
+          <t>89NLLCYP_LTR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADIJSN220728</t>
+          <t>USADILTR220247</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4209</v>
+        <v>684</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3585,70 +3581,82 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44887</v>
+        <v>44900</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H65" t="inlineStr"/>
+        <v>45017</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>KRUN20622SH022</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>KRUN20622SH022</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
+          <t>4GLARQRK_LTR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USADIROG210057</t>
+          <t>USADILTR220246</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>176.4</v>
+        <v>16644</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44833</v>
+        <v>44897</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44834</v>
+        <v>44900</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>45017</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>AMZN21334NB022</t>
+          <t>KRUN20621SH022</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3657,25 +3665,25 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="M66" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
+          <t>6YV3GFKP_JSN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USADIJSN210500</t>
+          <t>USADIJSN220726</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>227.7</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3683,13 +3691,13 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44948</v>
+        <v>45010</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -3704,21 +3712,25 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="M67" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>4B1AYW5I_GDY1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>USADIGDY210047</t>
+        </is>
+      </c>
       <c r="C68" t="n">
-        <v>323.82</v>
+        <v>24.55</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3736,7 +3748,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>AMZN42112SH022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3744,42 +3756,46 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M68" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
+          <t>265AQW8L_LTN1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>14.57</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44948</v>
+        <v>44982</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -3794,25 +3810,21 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="M69" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>USADINTX220096</t>
-        </is>
-      </c>
+          <t>6NYVMFBS_LTN1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>67.14</v>
+        <v>22.6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3820,54 +3832,42 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44713</v>
+        <v>44892</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44834</v>
+        <v>44893</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M70" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>USADILTN220239</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>6488.3</v>
+        <v>78.08</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3875,17 +3875,17 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45013</v>
+        <v>44948</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN42426SH022</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3893,79 +3893,87 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="M71" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>8TT9AXJS_LTN1</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
+          <t>1BZKS31V_GDY</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>USADIGDY220135</t>
+        </is>
+      </c>
       <c r="C72" t="n">
-        <v>49.47</v>
+        <v>4599</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44907</v>
+        <v>44893</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44908</v>
+        <v>44895</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H72" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M72" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
+          <t>88A48CIL_GDY</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>USADINTX220220</t>
+          <t>USADIGDY220139</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6666.82</v>
+        <v>9314.15</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3973,27 +3981,23 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44893</v>
+        <v>44905</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44890</v>
+        <v>44907</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>45025</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN46669SH022</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4002,35 +4006,39 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M73" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
+          <t>1VVPTEPB_JSN</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>USADIJSN220728</t>
+        </is>
+      </c>
       <c r="C74" t="n">
-        <v>37.7</v>
+        <v>4209</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44931</v>
+        <v>45010</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
@@ -4045,21 +4053,25 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M74" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
+          <t>3VDOM9XP_ROG1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>USADIROG210057</t>
+        </is>
+      </c>
       <c r="C75" t="n">
-        <v>25.8</v>
+        <v>176.4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4067,13 +4079,13 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44892</v>
+        <v>44833</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44893</v>
+        <v>44834</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44982</v>
+        <v>44923</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
@@ -4081,42 +4093,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>AMZN21334NB022</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="M75" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>89C1ZUNN_LTN1</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>3AONIT1Q_JSN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>USADIJSN210500</t>
+        </is>
+      </c>
       <c r="C76" t="n">
-        <v>38.7</v>
+        <v>227.7</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44908</v>
+        <v>44858</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44997</v>
+        <v>44948</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4131,25 +4151,25 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M76" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
+          <t>2RQH5YIV_LTR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADIGDY220138</t>
+          <t>USADILTR220232</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>23683.3</v>
+        <v>4922.3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4157,17 +4177,17 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44893</v>
+        <v>44910</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44895</v>
+        <v>44911</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45013</v>
+        <v>45030</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4177,7 +4197,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4186,25 +4206,21 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M77" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>USADINTX220085</t>
-        </is>
-      </c>
+          <t>134Q2B4B_GDY1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>5.1</v>
+        <v>21.66</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4212,50 +4228,42 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44718</v>
+        <v>44911</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44834</v>
+        <v>44911</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M78" t="n">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
+          <t>3FACOSDK_LTR1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>24.18</v>
+        <v>323.82</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -4263,18 +4271,22 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44894</v>
+        <v>44841</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44894</v>
+        <v>44841</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="H79" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>AMZN42112SH022</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4284,35 +4296,35 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M79" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
+          <t>4MHD24HN_LTN1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>27.52</v>
+        <v>7</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44897</v>
+        <v>44858</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44987</v>
+        <v>44948</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -4327,21 +4339,25 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="M80" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>6LJYAO7G_ROG</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>USADIROG220085</t>
+        </is>
+      </c>
       <c r="C81" t="n">
-        <v>61.5</v>
+        <v>371.75</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4349,17 +4365,17 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44858</v>
+        <v>44914</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44858</v>
+        <v>44909</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44948</v>
+        <v>45034</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>AMZN23551NB022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4367,28 +4383,36 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="M81" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>7N1V3UQY_NTX1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>USADINTX220096</t>
+        </is>
+      </c>
       <c r="C82" t="n">
-        <v>6.88</v>
+        <v>67.14</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4396,60 +4420,72 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44897</v>
+        <v>44713</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44900</v>
+        <v>44834</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H82" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>AMZN41531SH022</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="M82" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
+          <t>1VVPTEPB_LTN</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>USADILTN220239</t>
+        </is>
+      </c>
       <c r="C83" t="n">
-        <v>21.26</v>
+        <v>6488.3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44948</v>
+        <v>45013</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>AMZN42996SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4457,42 +4493,46 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="M83" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
+          <t>8TT9AXJS_LTN1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>27.6</v>
+        <v>49.47</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44892</v>
+        <v>44907</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44893</v>
+        <v>44908</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44982</v>
+        <v>44997</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -4507,25 +4547,25 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
+          <t>1BZKS31V_NTX</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>USADILTR220231</t>
+          <t>USADINTX220220</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>10924</v>
+        <v>6666.82</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4536,14 +4576,14 @@
         <v>44893</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44895</v>
+        <v>44890</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>45013</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4553,7 +4593,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4562,7 +4602,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M85" t="n">
         <v>100</v>
@@ -4571,12 +4611,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1KZUX51O_LTN1</t>
+          <t>7EDOJ3SU_LTR1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>14.57</v>
+        <v>37.7</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4584,13 +4624,13 @@
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44907</v>
+        <v>44841</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44908</v>
+        <v>44841</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44997</v>
+        <v>44931</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
@@ -4605,25 +4645,21 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="M86" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3D9C9KYB_LTN</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>USADILTN220243</t>
-        </is>
-      </c>
+          <t>28FQ3FPY_LTR2</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>33819.8</v>
+        <v>8.49</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4631,13 +4667,13 @@
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44906</v>
+        <v>44911</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44907</v>
+        <v>44911</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45026</v>
+        <v>45001</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -4645,50 +4681,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="M87" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>8S699O7R_GDY</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>USADIGDY220140</t>
+        </is>
+      </c>
       <c r="C88" t="n">
-        <v>18.8</v>
+        <v>20477.7</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44854</v>
+        <v>44910</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44854</v>
+        <v>44911</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44944</v>
+        <v>45030</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>AMZN24356NB022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4696,46 +4732,46 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="M88" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>USADILTN220237</t>
-        </is>
-      </c>
+          <t>3GAXBNII_LTN1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>10848.3</v>
+        <v>25.8</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45010</v>
+        <v>44982</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -4750,21 +4786,21 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="M89" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
+          <t>89C1ZUNN_LTN1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>33</v>
+        <v>38.7</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4772,22 +4808,18 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44858</v>
+        <v>44908</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>AMZN42113SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4797,35 +4829,39 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M90" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
+          <t>61EHLQ4E_TPF</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>USADITPF220010</t>
+        </is>
+      </c>
       <c r="C91" t="n">
-        <v>66</v>
+        <v>50950</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44897</v>
+        <v>44913</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>44900</v>
+        <v>44911</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44987</v>
+        <v>45033</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
@@ -4833,56 +4869,64 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>AMZN10121VN022</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="M91" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
+          <t>6YI2KAXQ_LTR</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>USADIROG210054</t>
+          <t>USADILTR220233</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>100.1</v>
+        <v>6120.36</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44833</v>
+        <v>44910</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44834</v>
+        <v>44911</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H92" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -4891,25 +4935,25 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="M92" t="n">
-        <v>10</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
+          <t>1VVPTEPB_GDY</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>USADILTR220220</t>
+          <t>USADIGDY220138</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>23638.2</v>
+        <v>23683.3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4917,17 +4961,17 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44890</v>
+        <v>44895</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4937,7 +4981,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -4946,21 +4990,25 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M93" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>5QEJNSVA_NTX1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>USADINTX220085</t>
+        </is>
+      </c>
       <c r="C94" t="n">
-        <v>18.38</v>
+        <v>5.1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4968,42 +5016,50 @@
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44892</v>
+        <v>44718</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44893</v>
+        <v>44834</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="H94" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="M94" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
+          <t>6KSMLQ5R_NTX1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>19.52</v>
+        <v>24.18</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5011,22 +5067,18 @@
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44858</v>
+        <v>44894</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44858</v>
+        <v>44894</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>AMZN42426SH022</t>
-        </is>
-      </c>
+        <v>44984</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -5036,21 +5088,21 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M95" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3XG7XCRG_LTN1</t>
+          <t>6V626OPP_LTR1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>30.69</v>
+        <v>27.52</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5058,13 +5110,13 @@
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44907</v>
+        <v>44897</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44908</v>
+        <v>44900</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45027</v>
+        <v>44987</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -5079,21 +5131,21 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="M96" t="n">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
+          <t>7GDOS76Y_LTN1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>72</v>
+        <v>61.5</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5111,7 +5163,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>AMZN42426SH022</t>
+          <t>AMZN23551NB022</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5126,7 +5178,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M97" t="n">
         <v>35</v>
@@ -5135,12 +5187,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6SA3TZ1A_LTN1</t>
+          <t>2MBWL17N_LTR1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>16.49</v>
+        <v>6.88</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5148,13 +5200,13 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44907</v>
+        <v>44897</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44908</v>
+        <v>44900</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44997</v>
+        <v>44987</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -5169,25 +5221,25 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="M98" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_ROG</t>
+          <t>6I6888XF_ROG</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>USADIROG220083</t>
+          <t>USADIROG220084</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>44.61</v>
+        <v>1040.9</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -5195,17 +5247,17 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5215,7 +5267,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5224,7 +5276,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M99" t="n">
         <v>120</v>
@@ -5233,12 +5285,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>57IQV2GT_LTN1</t>
+          <t>2ZKZXKNR_LTR1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>14</v>
+        <v>21.26</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -5246,18 +5298,22 @@
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44908</v>
+        <v>44858</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H100" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>AMZN42996SH022</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -5267,25 +5323,21 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M100" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>USADIGDY220137</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>23176.5</v>
+        <v>27.6</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5293,97 +5345,101 @@
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="M101" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTR1</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>1VVPTEPB_LTR</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>USADILTR220231</t>
+        </is>
+      </c>
       <c r="C102" t="n">
-        <v>98.98</v>
+        <v>10924</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44897</v>
+        <v>44893</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44900</v>
+        <v>44895</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H102" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="M102" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTN</t>
+          <t>6I6888XF_LTR</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>USADILTN220244</t>
+          <t>USADILTR220238</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>29427.7</v>
+        <v>6810.83</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5391,36 +5447,28 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44901</v>
+        <v>44911</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M103" t="n">
         <v>115</v>
@@ -5429,81 +5477,73 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2RQH5YIV_ROG</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>USADIROG220082</t>
-        </is>
-      </c>
+          <t>1KZUX51O_LTN1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>817.85</v>
+        <v>14.57</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="M104" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
+          <t>3D9C9KYB_LTN</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>USADILTN220243</t>
+        </is>
+      </c>
       <c r="C105" t="n">
-        <v>114.45</v>
+        <v>33819.8</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44892</v>
+        <v>44906</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44982</v>
+        <v>45026</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
@@ -5511,28 +5551,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="M105" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
+          <t>3MUSVYHM_NTX1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>51.44</v>
+        <v>18.8</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -5540,17 +5584,17 @@
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44841</v>
+        <v>44854</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44841</v>
+        <v>44854</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44931</v>
+        <v>44944</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>AMZN41901SH022</t>
+          <t>AMZN24356NB022</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5565,44 +5609,44 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M106" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
+          <t>6YV3GFKP_LTN</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>USADILTN220237</t>
+        </is>
+      </c>
       <c r="C107" t="n">
-        <v>19.64</v>
+        <v>10848.3</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>AMZN41831SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5612,21 +5656,21 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="M107" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
+          <t>3FACOSDK_LTN1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5644,7 +5688,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>AMZN43765SH022</t>
+          <t>AMZN42113SH022</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5659,7 +5703,7 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M108" t="n">
         <v>35</v>
@@ -5668,67 +5712,59 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>66LW139X_LTR1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>7936.33</v>
+        <v>66</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44888</v>
+        <v>44897</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M109" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
+          <t>6FIO1MDJ_ROG1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>USADIROG210054</t>
+        </is>
+      </c>
       <c r="C110" t="n">
-        <v>14.6</v>
+        <v>100.1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5736,50 +5772,50 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44841</v>
+        <v>44833</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44841</v>
+        <v>44834</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>AMZN41901SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M110" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
+          <t>866DPTVE_LTR</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>USADIJSN220722</t>
+          <t>USADILTR220220</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9451.68</v>
+        <v>23638.2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -5787,60 +5823,64 @@
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44830</v>
+        <v>44887</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44838</v>
+        <v>44890</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="H111" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="M111" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>USADIJSN220725</t>
-        </is>
-      </c>
+          <t>1ZAW8MMM_LTN1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>2696.08</v>
+        <v>18.38</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45010</v>
+        <v>45012</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
@@ -5855,7 +5895,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M112" t="n">
         <v>100</v>
@@ -5864,81 +5904,73 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6I6888XF_LTN</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>USADILTN220247</t>
-        </is>
-      </c>
+          <t>2VVHQCXN_LTN1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>26356.28</v>
+        <v>19.52</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44914</v>
+        <v>44858</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44909</v>
+        <v>44858</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="H113" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>AMZN42426SH022</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>AMZN46843SH022</t>
-        </is>
-      </c>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="M113" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6LJYAO7G_LTN</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>USADILTN220248</t>
-        </is>
-      </c>
+          <t>3XG7XCRG_LTN1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>22860.29</v>
+        <v>30.69</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44914</v>
+        <v>44907</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44909</v>
+        <v>44908</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
@@ -5946,36 +5978,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>AMZN46843SH022</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M114" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6I6888XF_ROG</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>USADIROG220084</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTN1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>1040.9</v>
+        <v>72</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -5983,17 +6007,17 @@
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44914</v>
+        <v>44858</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44909</v>
+        <v>44858</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45034</v>
+        <v>44948</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>AMZN46846SH022</t>
+          <t>AMZN42426SH022</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6001,91 +6025,75 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="M115" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6LJYAO7G_ROG</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>USADIROG220085</t>
-        </is>
-      </c>
+          <t>6SA3TZ1A_LTN1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>371.75</v>
+        <v>16.49</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44914</v>
+        <v>44907</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44909</v>
+        <v>44908</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="M116" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>4I5WE9CE_LTR</t>
+          <t>6YI2KAXQ_ROG</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>USADILTR220256</t>
+          <t>USADIROG220083</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1312.08</v>
+        <v>44.61</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -6093,101 +6101,97 @@
         </is>
       </c>
       <c r="E117" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="F117" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="F117" s="2" t="n">
-        <v>44911</v>
-      </c>
       <c r="G117" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="H117" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M117" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2RQH5YIV_LTR</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>USADILTR220232</t>
-        </is>
-      </c>
+          <t>57IQV2GT_LTN1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>4922.3</v>
+        <v>14</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44911</v>
+        <v>44908</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="M118" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3D9C9KYB_LTR</t>
+          <t>6U3SDR7C_GDY</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>USADILTR220232</t>
+          <t>USADIGDY220137</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3724.27</v>
+        <v>23176.5</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -6195,17 +6199,17 @@
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>44910</v>
+        <v>44888</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44911</v>
+        <v>44890</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45030</v>
+        <v>45008</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6215,7 +6219,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -6224,80 +6228,68 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="M119" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTR</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>USADILTR220233</t>
-        </is>
-      </c>
+          <t>42QQW8OE_LTR1</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>6120.36</v>
+        <v>98.98</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44910</v>
+        <v>44897</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44911</v>
+        <v>44900</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="M120" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>8S699O7R_LTR</t>
+          <t>6YI2KAXQ_LTN</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>USADILTR220236</t>
+          <t>USADILTN220244</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22697.32</v>
+        <v>29427.7</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -6305,17 +6297,17 @@
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44910</v>
+        <v>44904</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44911</v>
+        <v>44901</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45030</v>
+        <v>45024</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46670SH022</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6325,7 +6317,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46670SH022</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6334,25 +6326,25 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M121" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>8S699O7R_GDY</t>
+          <t>2RQH5YIV_ROG</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>USADIGDY220140</t>
+          <t>USADIROG220082</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>20477.65</v>
+        <v>817.85</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -6363,7 +6355,7 @@
         <v>44910</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44911</v>
+        <v>44907</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>45030</v>
@@ -6389,39 +6381,35 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M122" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6I6888XF_LTR</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>USADILTR220238</t>
-        </is>
-      </c>
+          <t>5E5SJTOV_LTN1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>6810.83</v>
+        <v>114.45</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44911</v>
+        <v>44892</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44911</v>
+        <v>44893</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>45031</v>
+        <v>44982</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
@@ -6436,44 +6424,44 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="M123" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6LJYAO7G_LTR</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>USADILTR220239</t>
-        </is>
-      </c>
+          <t>3AKTKLAV_LTR1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>4447.93</v>
+        <v>51.44</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44911</v>
+        <v>44841</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44911</v>
+        <v>44841</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="H124" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>AMZN41901SH022</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6483,44 +6471,44 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="M124" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>4DNNIS5P_LTR</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>USADILTR220248</t>
-        </is>
-      </c>
+          <t>4GBIBVRV_LTN1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>21082.74</v>
+        <v>19.64</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="H125" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>AMZN41831SH022</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6530,40 +6518,44 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="M125" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>28FQ3FPY_LTR2</t>
+          <t>6L1E3PVD_LTR1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>8.49</v>
+        <v>31</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45001</v>
-      </c>
-      <c r="H126" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>AMZN43765SH022</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6573,21 +6565,25 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="M126" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1ADIKK2O_LTR1</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>1WAWRZ1C_LTR</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C127" t="n">
-        <v>20.9</v>
+        <v>7936.33</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -6595,61 +6591,73 @@
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44911</v>
+        <v>44888</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44911</v>
+        <v>44890</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="H127" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="M127" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1YMCF3XG_LTR1</t>
+          <t>3OWOSLEI_LTR1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>21.5</v>
+        <v>14.6</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44911</v>
+        <v>44841</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44911</v>
+        <v>44841</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45001</v>
-      </c>
-      <c r="H128" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>AMZN41901SH022</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -6659,25 +6667,25 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="M128" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>85D7RUAD_LTR1</t>
+          <t>1ADIKK2O_LTR1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>19</v>
+        <v>62.7</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E129" s="2" t="n">
@@ -6702,21 +6710,25 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M129" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>134Q2B4B_GDY1</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
+          <t>4CUW4DHC_JSN</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>USADIJSN220722</t>
+        </is>
+      </c>
       <c r="C130" t="n">
-        <v>10.83</v>
+        <v>9451.68</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -6724,13 +6736,13 @@
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44911</v>
+        <v>44830</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44911</v>
+        <v>44838</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45031</v>
+        <v>44958</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
@@ -6745,25 +6757,25 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="M130" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>61EHLQ4E_TPF</t>
+          <t>1BZKS31V_JSN</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>USADITPF220010</t>
+          <t>USADIJSN220725</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>50950</v>
+        <v>2696.08</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -6771,13 +6783,13 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44913</v>
+        <v>44890</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44911</v>
+        <v>44887</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45033</v>
+        <v>45010</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
@@ -6792,10 +6804,10 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="M131" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6810,6 +6810,277 @@
         <v>95</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2RQH5YIV_NTX</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>USADINTX220227</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>119</v>
+      </c>
+      <c r="M132" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3D9C9KYB_NTX</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>USADINTX220227</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>21004.23</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>119</v>
+      </c>
+      <c r="M133" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>8S699O7R_NTX</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>USADINTX220230</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>6029</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>119</v>
+      </c>
+      <c r="M134" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>6I6888XF_NTX</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>USADINTX220232</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>13221.8</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>119</v>
+      </c>
+      <c r="M135" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4DNNIS5P_NTX</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>USADINTX220246</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>30365.53</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Submitted</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44918</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>45038</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>AMZN27664NB022</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>123</v>
+      </c>
+      <c r="M136" t="n">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M2" t="n">
         <v>100</v>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" t="n">
         <v>15</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M4" t="n">
         <v>115</v>
@@ -648,16 +648,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>89NLLCYP_NTX</t>
+          <t>8S699O7R_NTX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USADINTX220243</t>
+          <t>USADINTX220230</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>367.9</v>
+        <v>6029</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -665,17 +665,17 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44896</v>
+        <v>44914</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45013</v>
+        <v>45034</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>KRUN20620SH022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -683,32 +683,36 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6X2NPZ5N_LTN1</t>
+          <t>89NLLCYP_NTX</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USADILTN220223</t>
+          <t>USADINTX220243</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1368.23</v>
+        <v>367.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -716,18 +720,22 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44830</v>
+        <v>44893</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44837</v>
+        <v>44896</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KRUN20620SH022</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -737,35 +745,39 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3Y8RTMTK_LTN1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>6X2NPZ5N_LTN1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>USADILTN220223</t>
+        </is>
+      </c>
       <c r="C7" t="n">
-        <v>12.86</v>
+        <v>1368.23</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44858</v>
+        <v>44830</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44858</v>
+        <v>44837</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44948</v>
+        <v>44957</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -780,137 +792,133 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1AUSABXK_LTR</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>3Y8RTMTK_LTN1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>14919.7</v>
+        <v>12.86</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="M8" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2OVDJQPL_LTN1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>1AUSABXK_LTR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C9" t="n">
-        <v>13.18</v>
+        <v>14919.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6LJYAO7G_LTN</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>USADILTN220248</t>
-        </is>
-      </c>
+          <t>2OVDJQPL_LTN1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>22860.3</v>
+        <v>13.18</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44914</v>
+        <v>44892</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44909</v>
+        <v>44893</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45034</v>
+        <v>44982</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -918,46 +926,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>AMZN46843SH022</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>6LJYAO7G_LTN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>USADILTN220248</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>34.35</v>
+        <v>22860.3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44907</v>
+        <v>44914</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44997</v>
+        <v>45034</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -965,101 +973,97 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>AMZN46843SH022</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8S6G2SDR_GDY</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>USADIGDY220133</t>
-        </is>
-      </c>
+          <t>85SPQK1O_LTN2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>17122</v>
+        <v>34.35</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44888</v>
+        <v>44907</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M12" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>613WD55F_LTN1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>8S6G2SDR_GDY</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>USADIGDY220133</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>43.5</v>
+        <v>17122</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44858</v>
+        <v>44888</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44948</v>
+        <v>45008</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AMZN43022SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1067,28 +1071,32 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="M13" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8C2X1J7G_LTR1</t>
+          <t>613WD55F_LTN1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>76</v>
+        <v>43.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1106,7 +1114,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>AMZN42468SH022</t>
+          <t>AMZN43022SH022</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1121,7 +1129,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" t="n">
         <v>35</v>
@@ -1130,34 +1138,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4GLARQRK_NTX</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>USADINTX220242</t>
-        </is>
-      </c>
+          <t>8C2X1J7G_LTR1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>17589.3</v>
+        <v>76</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44896</v>
+        <v>44858</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45013</v>
+        <v>44948</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>KRUN20619SH022</t>
+          <t>AMZN42468SH022</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1172,39 +1176,43 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>323S6WET_LTR1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>4GLARQRK_NTX</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>USADINTX220242</t>
+        </is>
+      </c>
       <c r="C16" t="n">
-        <v>44.32</v>
+        <v>17589.3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44841</v>
+        <v>44896</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44931</v>
+        <v>45013</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>AMZN42858SH022</t>
+          <t>KRUN20619SH022</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1219,43 +1227,39 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1411ZR8P_GDY</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>USADIGDY220134</t>
-        </is>
-      </c>
+          <t>323S6WET_LTR1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>8729.98</v>
+        <v>44.32</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44887</v>
+        <v>44841</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45007</v>
+        <v>44931</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN42858SH022</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1263,75 +1267,83 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="M17" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1PE1AZJP_LTN1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>1411ZR8P_GDY</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>USADIGDY220134</t>
+        </is>
+      </c>
       <c r="C18" t="n">
-        <v>2.59</v>
+        <v>8729.98</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44892</v>
+        <v>44887</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>81PTLV4B_LTN2</t>
+          <t>1PE1AZJP_LTN1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>7.08</v>
+        <v>2.59</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1339,13 +1351,13 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44907</v>
+        <v>44892</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44908</v>
+        <v>44893</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44997</v>
+        <v>44982</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -1360,80 +1372,68 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="M19" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1BZKS31V_LTN</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>USADILTN220236</t>
-        </is>
-      </c>
+          <t>81PTLV4B_LTN2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>25344.3</v>
+        <v>7.08</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>88A48CIL_LTN</t>
+          <t>1BZKS31V_LTN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>USADILTN220245</t>
+          <t>USADILTN220236</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24646</v>
+        <v>25344.3</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1441,17 +1441,17 @@
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44904</v>
+        <v>44893</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45024</v>
+        <v>45013</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AMZN46670SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>AMZN46670SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1470,49 +1470,53 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4C14JWQL_ROG1</t>
+          <t>88A48CIL_LTN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>USADIROG210055</t>
+          <t>USADILTN220245</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.15</v>
+        <v>24646</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44833</v>
+        <v>44904</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44834</v>
+        <v>44901</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>45024</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN46670SH022</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1521,35 +1525,39 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTR1</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>4C14JWQL_ROG1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>USADIROG210055</t>
+        </is>
+      </c>
       <c r="C23" t="n">
-        <v>26.62</v>
+        <v>7.15</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44897</v>
+        <v>44833</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44900</v>
+        <v>44834</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44987</v>
+        <v>44923</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -1557,32 +1565,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="M23" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6YV3GFKP_GDY</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>USADIGDY220136</t>
-        </is>
-      </c>
+          <t>2YT17WGL_LTR1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>41125.8</v>
+        <v>26.62</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1590,93 +1598,97 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44888</v>
+        <v>44897</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="M24" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2GRMROMU_LTN1</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>6YV3GFKP_GDY</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>USADIGDY220136</t>
+        </is>
+      </c>
       <c r="C25" t="n">
-        <v>13.36</v>
+        <v>41125.8</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1YMCF3XG_LTR1</t>
+          <t>2GRMROMU_LTN1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>172</v>
+        <v>13.36</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1684,13 +1696,13 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44911</v>
+        <v>44892</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44911</v>
+        <v>44893</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45001</v>
+        <v>44982</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1705,21 +1717,21 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="M26" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7JN9DTJG_NTX1</t>
+          <t>1YMCF3XG_LTR1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>9.199999999999999</v>
+        <v>172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1727,13 +1739,13 @@
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44894</v>
+        <v>44911</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44894</v>
+        <v>44911</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>44984</v>
+        <v>45001</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1748,64 +1760,76 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5MMXZNPR_LTN1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>6I6888XF_NTX</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>USADINTX220232</t>
+        </is>
+      </c>
       <c r="C28" t="n">
-        <v>14.57</v>
+        <v>13221.8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44907</v>
+        <v>44914</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44908</v>
+        <v>44914</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>45034</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M28" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>44HMPFED_NTX1</t>
+          <t>7JN9DTJG_NTX1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>21.66</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1813,13 +1837,13 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44910</v>
+        <v>44894</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44910</v>
+        <v>44894</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45000</v>
+        <v>44984</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -1834,21 +1858,21 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M29" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
+          <t>5MMXZNPR_LTN1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>14.57</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1856,13 +1880,13 @@
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44892</v>
+        <v>44907</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44893</v>
+        <v>44908</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44982</v>
+        <v>44997</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -1877,21 +1901,21 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5UJTVWPR_LTN2</t>
+          <t>44HMPFED_NTX1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>21.66</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1899,13 +1923,13 @@
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45027</v>
+        <v>45000</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -1920,44 +1944,40 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="M31" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
+          <t>2YT17WGL_LTN1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>14.57</v>
+        <v>17</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44860</v>
+        <v>44892</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44861</v>
+        <v>44893</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44950</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>AMZN41831SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1967,80 +1987,64 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M32" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>5UJTVWPR_LTN2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>54503</v>
+        <v>20</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44889</v>
+        <v>44908</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>45027</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>USADILTR220230</t>
-        </is>
-      </c>
+          <t>3BTYRGGT_LTN1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>14621.9</v>
+        <v>14.57</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2048,17 +2052,17 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44888</v>
+        <v>44860</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44890</v>
+        <v>44861</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45008</v>
+        <v>44950</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN41831SH022</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2066,36 +2070,32 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="M34" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2RQH5YIV_LTN</t>
+          <t>4TACGJRN_TPF</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>USADILTN220243</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>14834.1</v>
+        <v>54503</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2103,23 +2103,27 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44906</v>
+        <v>44893</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44907</v>
+        <v>44889</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>AMZN46749SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2128,25 +2132,25 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M35" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>88A48CIL_LTR</t>
+          <t>6U3SDR7C_LTR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>USADILTR220235</t>
+          <t>USADILTR220230</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>33500.9</v>
+        <v>14621.9</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2154,23 +2158,27 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44907</v>
+        <v>44888</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44907</v>
+        <v>44890</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>AMZN46471SH022</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>AMZN46669SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2179,82 +2187,90 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="M36" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>2RQH5YIV_LTN</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>USADILTN220243</t>
+        </is>
+      </c>
       <c r="C37" t="n">
-        <v>70</v>
+        <v>14834.1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44858</v>
+        <v>44906</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>AMZN24029NB022</t>
-        </is>
-      </c>
+        <v>45026</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M37" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTN1</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>88A48CIL_LTR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>USADILTR220235</t>
+        </is>
+      </c>
       <c r="C38" t="n">
-        <v>5.18</v>
+        <v>33500.9</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44908</v>
+        <v>44907</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44997</v>
+        <v>45027</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2262,71 +2278,87 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>AMZN46669SH022</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="M38" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>3D9C9KYB_NTX</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>USADINTX220227</t>
+        </is>
+      </c>
       <c r="C39" t="n">
-        <v>87.95999999999999</v>
+        <v>21004.2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44892</v>
+        <v>44914</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>45034</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>13V4JTZA_LTR1</t>
+          <t>3DEIS4NJ_LTN1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2334,18 +2366,22 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44899</v>
+        <v>44858</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44900</v>
+        <v>44858</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>AMZN24029NB022</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2355,39 +2391,35 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M40" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8S699O7R_LTN</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>USADILTN220246</t>
-        </is>
-      </c>
+          <t>42QQW8OE_LTN1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>48930.9</v>
+        <v>5.18</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45026</v>
+        <v>44997</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2395,146 +2427,118 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="M41" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>6HLPWWEQ_LTN2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>16134.8</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M42" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>17871.2</v>
+        <v>33</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44888</v>
+        <v>44899</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44989</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="M43" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4DNNIS5P_LTR</t>
+          <t>8S699O7R_LTN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>USADILTR220248</t>
+          <t>USADILTN220246</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21082.7</v>
+        <v>48930.9</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2542,13 +2546,13 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44911</v>
+        <v>44906</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44911</v>
+        <v>44907</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45031</v>
+        <v>45026</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -2558,7 +2562,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>AMZN27664NB022</t>
+          <t>AMZN46749SH022</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2567,25 +2571,25 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M44" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6I6888XF_LTN</t>
+          <t>8QO31QHQ_LTR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>USADILTN220247</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>26356.3</v>
+        <v>16134.8</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2593,23 +2597,27 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44914</v>
+        <v>44888</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44909</v>
+        <v>44890</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>AMZN46843SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2618,21 +2626,25 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="M45" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>8ZWV2ARN_LTR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C46" t="n">
-        <v>67.34</v>
+        <v>17871.2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2640,17 +2652,17 @@
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44860</v>
+        <v>44888</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44861</v>
+        <v>44890</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44950</v>
+        <v>45008</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>AMZN41260SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2658,32 +2670,36 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="M46" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8S699O7R_LTR</t>
+          <t>4DNNIS5P_LTR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>USADILTR220236</t>
+          <t>USADILTR220248</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>22697.3</v>
+        <v>21082.7</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2691,27 +2707,23 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>44911</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN27664NB022</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2729,16 +2741,16 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6LJYAO7G_LTR</t>
+          <t>6I6888XF_LTN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>USADILTR220239</t>
+          <t>USADILTN220247</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4447.93</v>
+        <v>26356.3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2746,13 +2758,13 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44911</v>
+        <v>44914</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44911</v>
+        <v>44909</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45031</v>
+        <v>45034</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -2760,32 +2772,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>AMZN46843SH022</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M48" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>USADILTN220255</t>
-        </is>
-      </c>
+          <t>28NZCWFH_LTN1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>11051.2</v>
+        <v>67.34</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2793,17 +2805,17 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44896</v>
+        <v>44860</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44894</v>
+        <v>44861</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45016</v>
+        <v>44950</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>KRUN20618SH022</t>
+          <t>AMZN41260SH022</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2811,32 +2823,32 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="M49" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8OFVYIYG_JSN1</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>8S699O7R_LTR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>USADILTR220236</t>
+        </is>
+      </c>
       <c r="C50" t="n">
-        <v>81.90000000000001</v>
+        <v>22697.3</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2844,46 +2856,54 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44897</v>
+        <v>44910</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44900</v>
+        <v>44911</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="M50" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4I5WE9CE_LTR</t>
+          <t>6LJYAO7G_LTR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>USADILTR220256</t>
+          <t>USADILTR220239</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1312.08</v>
+        <v>4447.93</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2891,7 +2911,7 @@
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44907</v>
+        <v>44911</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>44911</v>
@@ -2905,18 +2925,14 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>KRUN20788SH022</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M51" t="n">
         <v>115</v>
@@ -2925,59 +2941,67 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>613WD55F_LTR1</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>4GLARQRK_LTN</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>USADILTN220255</t>
+        </is>
+      </c>
       <c r="C52" t="n">
-        <v>13</v>
+        <v>11051.2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44897</v>
+        <v>44896</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44900</v>
+        <v>44894</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+        <v>45016</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="M52" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>8OFVYIYG_JSN1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>51556</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2985,50 +3009,46 @@
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44893</v>
+        <v>44897</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44889</v>
+        <v>44900</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1DHMIY4Z_LTR1</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>4I5WE9CE_LTR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>USADILTR220256</t>
+        </is>
+      </c>
       <c r="C54" t="n">
-        <v>14580.4</v>
+        <v>1312.08</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3036,13 +3056,13 @@
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44811</v>
+        <v>44907</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44903</v>
+        <v>44911</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44993</v>
+        <v>45031</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -3050,28 +3070,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>KRUN20788SH022</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="M54" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
+          <t>613WD55F_LTR1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3079,22 +3103,18 @@
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44858</v>
+        <v>44897</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44858</v>
+        <v>44900</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>AMZN43764SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -3104,78 +3124,90 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="M55" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>4TL4LC8Q_TPF</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C56" t="n">
-        <v>68</v>
+        <v>51556</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
+          <t>1DHMIY4Z_LTR1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>21.66</v>
+        <v>14580.4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44854</v>
+        <v>44811</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44854</v>
+        <v>44903</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44944</v>
+        <v>44993</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -3190,43 +3222,39 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="M57" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>USADILTR220229</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTN1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>17593.7</v>
+        <v>42</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>AMZN46469SH022</t>
+          <t>AMZN43764SH022</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3234,189 +3262,173 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="M58" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>USADILTR220225</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>28902.8</v>
+        <v>68</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44887</v>
+        <v>44892</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="M59" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3D9C9KYB_LTR</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>USADILTR220232</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_NTX1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>3724.27</v>
+        <v>21.66</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44910</v>
+        <v>44854</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44911</v>
+        <v>44854</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>44944</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="M60" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>6YV3GFKP_LTR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>USADILTR220229</t>
+        </is>
+      </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>17593.7</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44840</v>
+        <v>44888</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44841</v>
+        <v>44890</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44930</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>AMZN46469SH022</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="M61" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>USADILTR220219</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5319.56</v>
+        <v>28902.8</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3424,17 +3436,17 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3444,7 +3456,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN46374SH022</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3453,25 +3465,25 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M62" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8JYISG4F_TPF</t>
+          <t>3D9C9KYB_LTR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>USADITPF220009</t>
+          <t>USADILTR220232</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>50593</v>
+        <v>3724.27</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3479,17 +3491,17 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44907</v>
+        <v>44910</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44903</v>
+        <v>44911</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>AMZN10058VN022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3499,7 +3511,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>AMZN10058VN022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3508,7 +3520,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M63" t="n">
         <v>115</v>
@@ -3517,30 +3529,26 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>USADIJSN220727</t>
-        </is>
-      </c>
+          <t>5A3AFC7T_LTN1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>3683.64</v>
+        <v>15</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44890</v>
+        <v>44840</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44887</v>
+        <v>44841</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45010</v>
+        <v>44930</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
@@ -3555,25 +3563,25 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M64" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
+          <t>8VWKPALG_LTR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>USADILTR220247</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>684</v>
+        <v>5319.56</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3581,17 +3589,17 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45017</v>
+        <v>45008</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>KRUN20622SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3601,7 +3609,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>KRUN20622SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3610,25 +3618,25 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M65" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
+          <t>8JYISG4F_TPF</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>USADILTR220246</t>
+          <t>USADITPF220009</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>16644</v>
+        <v>50593</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3636,17 +3644,17 @@
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44897</v>
+        <v>44907</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44900</v>
+        <v>44903</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45017</v>
+        <v>45027</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>KRUN20621SH022</t>
+          <t>AMZN10058VN022</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3656,7 +3664,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>KRUN20621SH022</t>
+          <t>AMZN10058VN022</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3665,25 +3673,25 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M66" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9286.879999999999</v>
+        <v>3683.64</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3712,7 +3720,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M67" t="n">
         <v>95</v>
@@ -3721,34 +3729,34 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>89NLLCYP_LTR</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADILTR220247</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>24.55</v>
+        <v>684</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44841</v>
+        <v>44897</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44841</v>
+        <v>44900</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44931</v>
+        <v>45017</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>KRUN20622SH022</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3758,7 +3766,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>KRUN20622SH022</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3767,78 +3775,94 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="M68" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>4GLARQRK_LTR</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>USADILTR220246</t>
+        </is>
+      </c>
       <c r="C69" t="n">
-        <v>14.57</v>
+        <v>16644</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H69" t="inlineStr"/>
+        <v>45017</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>6YV3GFKP_JSN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>USADIJSN220726</t>
+        </is>
+      </c>
       <c r="C70" t="n">
-        <v>22.6</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44982</v>
+        <v>45010</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
@@ -3853,39 +3877,43 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>4B1AYW5I_GDY1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>USADIGDY210047</t>
+        </is>
+      </c>
       <c r="C71" t="n">
-        <v>78.08</v>
+        <v>24.55</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44948</v>
+        <v>44931</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>AMZN42426SH022</t>
+          <t>AMZN39056SH022</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3893,101 +3921,89 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M71" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>USADIGDY220135</t>
-        </is>
-      </c>
+          <t>265AQW8L_LTN1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>4599</v>
+        <v>14.57</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F72" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F72" s="2" t="n">
-        <v>44895</v>
-      </c>
       <c r="G72" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="M72" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>88A48CIL_GDY</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>USADIGDY220139</t>
-        </is>
-      </c>
+          <t>6NYVMFBS_LTN1</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>9314.15</v>
+        <v>22.6</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44905</v>
+        <v>44892</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44907</v>
+        <v>44893</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45025</v>
+        <v>44982</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
@@ -3995,36 +4011,28 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>AMZN46669SH022</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="M73" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>USADIJSN220728</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>4209</v>
+        <v>78.08</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4032,18 +4040,22 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H74" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>AMZN42426SH022</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -4053,49 +4065,53 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="M74" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
+          <t>1BZKS31V_GDY</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>USADIROG210057</t>
+          <t>USADIGDY220135</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>176.4</v>
+        <v>4599</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44833</v>
+        <v>44893</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44834</v>
+        <v>44895</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H75" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>AMZN21334NB022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4104,25 +4120,25 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="M75" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
+          <t>88A48CIL_GDY</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>USADIJSN210500</t>
+          <t>USADIGDY220139</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>227.7</v>
+        <v>9314.15</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4130,13 +4146,13 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44858</v>
+        <v>44905</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44948</v>
+        <v>45025</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
@@ -4144,32 +4160,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>AMZN46669SH022</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="M76" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2RQH5YIV_LTR</t>
+          <t>1VVPTEPB_JSN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADILTR220232</t>
+          <t>USADIJSN220728</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4922.3</v>
+        <v>4209</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4177,50 +4197,46 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44910</v>
+        <v>44890</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44911</v>
+        <v>44887</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="M77" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>134Q2B4B_GDY1</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
+          <t>3VDOM9XP_ROG1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>USADIROG210057</t>
+        </is>
+      </c>
       <c r="C78" t="n">
-        <v>21.66</v>
+        <v>176.4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4228,13 +4244,13 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44911</v>
+        <v>44833</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44911</v>
+        <v>44834</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45031</v>
+        <v>44923</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -4242,51 +4258,55 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>AMZN21334NB022</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="M78" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
+          <t>3AONIT1Q_JSN</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>USADIJSN210500</t>
+        </is>
+      </c>
       <c r="C79" t="n">
-        <v>323.82</v>
+        <v>227.7</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>AMZN42112SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -4296,21 +4316,25 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M79" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
+          <t>2RQH5YIV_LTR</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>USADILTR220232</t>
+        </is>
+      </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>4922.3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4318,101 +4342,93 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44858</v>
+        <v>44910</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44858</v>
+        <v>44911</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H80" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M80" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6LJYAO7G_ROG</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>USADIROG220085</t>
-        </is>
-      </c>
+          <t>134Q2B4B_GDY1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>371.75</v>
+        <v>21.66</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44914</v>
+        <v>44911</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M81" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>USADINTX220096</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTR1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>67.14</v>
+        <v>323.82</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4420,17 +4436,17 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44713</v>
+        <v>44841</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44924</v>
+        <v>44931</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>AMZN41531SH022</t>
+          <t>AMZN42112SH022</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4438,36 +4454,28 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>AMZN41531SH022</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M82" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>USADILTN220239</t>
-        </is>
-      </c>
+          <t>4MHD24HN_LTN1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>6488.3</v>
+        <v>7</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4475,115 +4483,119 @@
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44948</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="M83" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8TT9AXJS_LTN1</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
+          <t>6LJYAO7G_ROG</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>USADIROG220085</t>
+        </is>
+      </c>
       <c r="C84" t="n">
-        <v>49.47</v>
+        <v>371.75</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44907</v>
+        <v>44914</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H84" t="inlineStr"/>
+        <v>45034</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M84" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
+          <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>USADINTX220220</t>
+          <t>USADINTX220096</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6666.82</v>
+        <v>67.14</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44893</v>
+        <v>44713</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44890</v>
+        <v>44834</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45013</v>
+        <v>44924</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4593,7 +4605,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4602,78 +4614,90 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="M85" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
+          <t>1VVPTEPB_LTN</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>USADILTN220239</t>
+        </is>
+      </c>
       <c r="C86" t="n">
-        <v>37.7</v>
+        <v>6488.3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44841</v>
+        <v>44887</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H86" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="M86" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>28FQ3FPY_LTR2</t>
+          <t>8TT9AXJS_LTN1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>8.49</v>
+        <v>49.47</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44911</v>
+        <v>44907</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44911</v>
+        <v>44908</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45001</v>
+        <v>44997</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -4688,25 +4712,25 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M87" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8S699O7R_GDY</t>
+          <t>1BZKS31V_NTX</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>USADIGDY220140</t>
+          <t>USADINTX220220</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>20477.7</v>
+        <v>6666.82</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4714,17 +4738,17 @@
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44910</v>
+        <v>44893</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44911</v>
+        <v>44890</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45030</v>
+        <v>45013</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4734,7 +4758,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -4743,21 +4767,21 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="M88" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
+          <t>7EDOJ3SU_LTR1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>25.8</v>
+        <v>37.7</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4765,13 +4789,13 @@
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44892</v>
+        <v>44841</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44982</v>
+        <v>44931</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
@@ -4786,35 +4810,35 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="M89" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>89C1ZUNN_LTN1</t>
+          <t>28FQ3FPY_LTR2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>38.7</v>
+        <v>8.49</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44907</v>
+        <v>44911</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44908</v>
+        <v>44911</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>44997</v>
+        <v>45001</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
@@ -4829,7 +4853,7 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M90" t="n">
         <v>85</v>
@@ -4838,16 +4862,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>61EHLQ4E_TPF</t>
+          <t>8S699O7R_GDY</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>USADITPF220010</t>
+          <t>USADIGDY220140</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>50950</v>
+        <v>20477.7</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4855,23 +4879,27 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44913</v>
+        <v>44910</v>
       </c>
       <c r="F91" s="2" t="n">
         <v>44911</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="H91" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>AMZN10121VN022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -4880,163 +4908,135 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M91" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTR</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>USADILTR220233</t>
-        </is>
-      </c>
+          <t>3GAXBNII_LTN1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>6120.36</v>
+        <v>25.8</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44910</v>
+        <v>44892</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44911</v>
+        <v>44893</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="M92" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>USADIGDY220138</t>
-        </is>
-      </c>
+          <t>89C1ZUNN_LTN1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>23683.3</v>
+        <v>38.7</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44895</v>
+        <v>44908</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="M93" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>61EHLQ4E_TPF</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USADITPF220010</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5.1</v>
+        <v>50950</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44718</v>
+        <v>44913</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44834</v>
+        <v>44911</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>AMZN41741SH022</t>
-        </is>
-      </c>
+        <v>45033</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN10121VN022</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5045,125 +5045,153 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="M94" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
+          <t>6YI2KAXQ_LTR</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>USADILTR220233</t>
+        </is>
+      </c>
       <c r="C95" t="n">
-        <v>24.18</v>
+        <v>6120.36</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44894</v>
+        <v>44910</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44894</v>
+        <v>44911</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="H95" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="M95" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
+          <t>1VVPTEPB_GDY</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>USADIGDY220138</t>
+        </is>
+      </c>
       <c r="C96" t="n">
-        <v>27.52</v>
+        <v>23683.3</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44897</v>
+        <v>44893</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44900</v>
+        <v>44895</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H96" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="M96" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
+          <t>5QEJNSVA_NTX1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>USADINTX220085</t>
+        </is>
+      </c>
       <c r="C97" t="n">
-        <v>61.5</v>
+        <v>5.1</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44858</v>
+        <v>44718</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44858</v>
+        <v>44834</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44948</v>
+        <v>44924</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>AMZN23551NB022</t>
+          <t>AMZN41741SH022</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5171,28 +5199,32 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="M97" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
+          <t>6KSMLQ5R_NTX1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>6.88</v>
+        <v>24.18</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5200,13 +5232,13 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44900</v>
+        <v>44894</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44987</v>
+        <v>44984</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -5221,80 +5253,68 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M98" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6I6888XF_ROG</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>USADIROG220084</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTR1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>1040.9</v>
+        <v>27.52</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44914</v>
+        <v>44897</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44909</v>
+        <v>44900</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="M99" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
+          <t>7GDOS76Y_LTN1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>21.26</v>
+        <v>61.5</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
@@ -5308,7 +5328,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>AMZN42996SH022</t>
+          <t>AMZN23551NB022</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5323,7 +5343,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M100" t="n">
         <v>35</v>
@@ -5332,26 +5352,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
+          <t>2MBWL17N_LTR1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>27.6</v>
+        <v>6.88</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
@@ -5366,7 +5386,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M101" t="n">
         <v>70</v>
@@ -5375,16 +5395,16 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
+          <t>6I6888XF_ROG</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>USADILTR220231</t>
+          <t>USADIROG220084</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>10924</v>
+        <v>1040.9</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5392,17 +5412,17 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44895</v>
+        <v>44909</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45013</v>
+        <v>45034</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5412,7 +5432,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -5421,44 +5441,44 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="M102" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>6I6888XF_LTR</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>USADILTR220238</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTR1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>6810.83</v>
+        <v>21.26</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>AMZN42996SH022</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5468,35 +5488,35 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="M103" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1KZUX51O_LTN1</t>
+          <t>85SPQK1O_LTN1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>14.57</v>
+        <v>27.6</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44907</v>
+        <v>44892</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44908</v>
+        <v>44893</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44997</v>
+        <v>44982</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -5511,25 +5531,25 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="M104" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3D9C9KYB_LTN</t>
+          <t>1VVPTEPB_LTR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>USADILTN220243</t>
+          <t>USADILTR220231</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>33819.8</v>
+        <v>10924</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -5537,23 +5557,27 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44906</v>
+        <v>44893</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44907</v>
+        <v>44895</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="H105" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>AMZN46749SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5562,44 +5586,44 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M105" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
+          <t>6I6888XF_LTR</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>USADILTR220238</t>
+        </is>
+      </c>
       <c r="C106" t="n">
-        <v>18.8</v>
+        <v>6810.83</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44854</v>
+        <v>44911</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44854</v>
+        <v>44911</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>AMZN24356NB022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5609,39 +5633,35 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="M106" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>USADILTN220237</t>
-        </is>
-      </c>
+          <t>1KZUX51O_LTN1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>10848.3</v>
+        <v>14.57</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44890</v>
+        <v>44907</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44887</v>
+        <v>44908</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>45010</v>
+        <v>44997</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
@@ -5656,68 +5676,72 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="M107" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>3D9C9KYB_LTN</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>USADILTN220243</t>
+        </is>
+      </c>
       <c r="C108" t="n">
-        <v>33</v>
+        <v>33819.8</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44858</v>
+        <v>44906</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>AMZN42113SH022</t>
-        </is>
-      </c>
+        <v>45026</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M108" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
+          <t>3MUSVYHM_NTX1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>66</v>
+        <v>18.8</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -5725,18 +5749,22 @@
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44897</v>
+        <v>44854</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44900</v>
+        <v>44854</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
+        <v>44944</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>AMZN24356NB022</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5746,39 +5774,39 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="M109" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
+          <t>6YV3GFKP_LTN</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>USADIROG210054</t>
+          <t>USADILTN220237</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>100.1</v>
+        <v>10848.3</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44833</v>
+        <v>44890</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>44923</v>
+        <v>45010</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -5786,54 +5814,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>AMZN21189NB022</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="M110" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>USADILTR220220</t>
-        </is>
-      </c>
+          <t>3FACOSDK_LTN1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>23638.2</v>
+        <v>33</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45007</v>
+        <v>44948</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN42113SH022</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5841,32 +5861,28 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="M111" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
+          <t>66LW139X_LTR1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>18.38</v>
+        <v>66</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -5874,13 +5890,13 @@
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45012</v>
+        <v>44987</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
@@ -5895,21 +5911,25 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="M112" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t>6FIO1MDJ_ROG1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>USADIROG210054</t>
+        </is>
+      </c>
       <c r="C113" t="n">
-        <v>19.52</v>
+        <v>100.1</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -5917,112 +5937,120 @@
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44858</v>
+        <v>44833</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44858</v>
+        <v>44834</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>AMZN42426SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="M113" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3XG7XCRG_LTN1</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
+          <t>866DPTVE_LTR</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>USADILTR220220</t>
+        </is>
+      </c>
       <c r="C114" t="n">
-        <v>30.69</v>
+        <v>23638.2</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44907</v>
+        <v>44887</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44908</v>
+        <v>44890</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="M114" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTN1</t>
+          <t>1ZAW8MMM_LTN1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>72</v>
+        <v>18.38</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>AMZN42426SH022</t>
-        </is>
-      </c>
+        <v>45012</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -6032,21 +6060,21 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="M115" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6SA3TZ1A_LTN1</t>
+          <t>2VVHQCXN_LTN1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>16.49</v>
+        <v>19.52</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -6054,18 +6082,22 @@
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44908</v>
+        <v>44858</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>AMZN42426SH022</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -6075,95 +6107,87 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="M116" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_ROG</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>USADIROG220083</t>
-        </is>
-      </c>
+          <t>3XG7XCRG_LTN1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>44.61</v>
+        <v>30.69</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>45027</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M117" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>57IQV2GT_LTN1</t>
+          <t>2ZKZXKNR_LTN1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>44908</v>
+        <v>44858</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H118" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>AMZN42426SH022</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -6173,178 +6197,166 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="M118" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6U3SDR7C_GDY</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>USADIGDY220137</t>
-        </is>
-      </c>
+          <t>6SA3TZ1A_LTN1</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>23176.5</v>
+        <v>16.49</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>44888</v>
+        <v>44907</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M119" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTR1</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
+          <t>6YI2KAXQ_ROG</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>USADIROG220083</t>
+        </is>
+      </c>
       <c r="C120" t="n">
-        <v>98.98</v>
+        <v>44.61</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44897</v>
+        <v>44910</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H120" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="M120" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTN</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>USADILTN220244</t>
-        </is>
-      </c>
+          <t>57IQV2GT_LTN1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>29427.7</v>
+        <v>14</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>44901</v>
+        <v>44908</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="M121" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2RQH5YIV_ROG</t>
+          <t>6U3SDR7C_GDY</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>USADIROG220082</t>
+          <t>USADIGDY220137</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>817.85</v>
+        <v>23176.5</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -6352,17 +6364,17 @@
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44910</v>
+        <v>44888</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>44907</v>
+        <v>44890</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>45030</v>
+        <v>45008</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6372,7 +6384,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -6381,21 +6393,21 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="M122" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>5E5SJTOV_LTN1</t>
+          <t>42QQW8OE_LTR1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>114.45</v>
+        <v>98.98</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -6403,13 +6415,13 @@
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44892</v>
+        <v>44897</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
@@ -6424,7 +6436,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M123" t="n">
         <v>70</v>
@@ -6433,30 +6445,34 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3AKTKLAV_LTR1</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
+          <t>6YI2KAXQ_LTN</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>USADILTN220244</t>
+        </is>
+      </c>
       <c r="C124" t="n">
-        <v>51.44</v>
+        <v>29427.7</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44841</v>
+        <v>44904</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>44841</v>
+        <v>44901</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>44931</v>
+        <v>45024</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>AMZN41901SH022</t>
+          <t>AMZN46670SH022</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6464,46 +6480,54 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M124" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>4GBIBVRV_LTN1</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
+          <t>2RQH5YIV_ROG</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>USADIROG220082</t>
+        </is>
+      </c>
       <c r="C125" t="n">
-        <v>19.64</v>
+        <v>817.85</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>44858</v>
+        <v>44910</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>44948</v>
+        <v>45030</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>AMZN41831SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6511,28 +6535,32 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M125" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6L1E3PVD_LTR1</t>
+          <t>5E5SJTOV_LTN1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>31</v>
+        <v>114.45</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -6540,22 +6568,18 @@
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>AMZN43765SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6565,43 +6589,39 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="M126" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1WAWRZ1C_LTR</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>3AKTKLAV_LTR1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>7936.33</v>
+        <v>51.44</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44888</v>
+        <v>44841</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45008</v>
+        <v>44931</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN41901SH022</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6609,32 +6629,28 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="M127" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3OWOSLEI_LTR1</t>
+          <t>4GBIBVRV_LTN1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>14.6</v>
+        <v>19.64</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -6642,17 +6658,17 @@
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>44841</v>
+        <v>44858</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>44931</v>
+        <v>44948</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>AMZN41901SH022</t>
+          <t>AMZN41831SH022</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6667,21 +6683,21 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M128" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1ADIKK2O_LTR1</t>
+          <t>6L1E3PVD_LTR1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>62.7</v>
+        <v>31</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -6689,18 +6705,22 @@
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="H129" t="inlineStr"/>
+        <v>44948</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>AMZN43765SH022</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6710,25 +6730,25 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="M129" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>4CUW4DHC_JSN</t>
+          <t>1WAWRZ1C_LTR</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>USADIJSN220722</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>9451.68</v>
+        <v>7936.33</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -6736,65 +6756,73 @@
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44830</v>
+        <v>44888</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>44838</v>
+        <v>44890</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="H130" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="M130" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1BZKS31V_JSN</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>USADIJSN220725</t>
-        </is>
-      </c>
+          <t>3OWOSLEI_LTR1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>2696.08</v>
+        <v>14.6</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>44887</v>
+        <v>44841</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H131" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>AMZN41901SH022</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6804,10 +6832,10 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="M131" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
@@ -6868,71 +6896,59 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3D9C9KYB_NTX</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>USADINTX220227</t>
-        </is>
-      </c>
+          <t>1ADIKK2O_LTR1</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>21004.23</v>
+        <v>62.7</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44914</v>
+        <v>44911</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>44914</v>
+        <v>44911</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M133" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>8S699O7R_NTX</t>
+          <t>4CUW4DHC_JSN</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>USADINTX220230</t>
+          <t>USADIJSN220722</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6029</v>
+        <v>9451.68</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -6940,54 +6956,46 @@
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44914</v>
+        <v>44830</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>44914</v>
+        <v>44838</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="M134" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>6I6888XF_NTX</t>
+          <t>1BZKS31V_JSN</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>USADINTX220232</t>
+          <t>USADIJSN220725</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>13221.8</v>
+        <v>2696.08</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -6995,39 +7003,31 @@
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44914</v>
+        <v>44890</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>44914</v>
+        <v>44887</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="M135" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M136" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/master_usa.xlsx
+++ b/master_usa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M3" t="n">
         <v>15</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4" t="n">
         <v>115</v>
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" t="n">
         <v>40</v>
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M9" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M10" t="n">
         <v>65</v>
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M12" t="n">
         <v>80</v>
@@ -1082,21 +1082,21 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M13" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>613WD55F_LTN1</t>
+          <t>57IQV2GT_LTN2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>43.5</v>
+        <v>13.36</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1104,22 +1104,18 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44858</v>
+        <v>44914</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44858</v>
+        <v>44915</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>AMZN43022SH022</t>
-        </is>
-      </c>
+        <v>45004</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1129,21 +1125,21 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="M14" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8C2X1J7G_LTR1</t>
+          <t>613WD55F_LTN1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>76</v>
+        <v>43.5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1161,7 +1157,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AMZN42468SH022</t>
+          <t>AMZN43022SH022</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1176,43 +1172,39 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M15" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4GLARQRK_NTX</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>USADINTX220242</t>
-        </is>
-      </c>
+          <t>8C2X1J7G_LTR1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>17589.3</v>
+        <v>76</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44896</v>
+        <v>44858</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45013</v>
+        <v>44948</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>KRUN20619SH022</t>
+          <t>AMZN42468SH022</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1227,39 +1219,43 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>323S6WET_LTR1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>4GLARQRK_NTX</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>USADINTX220242</t>
+        </is>
+      </c>
       <c r="C17" t="n">
-        <v>44.32</v>
+        <v>17589.3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44841</v>
+        <v>44896</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44931</v>
+        <v>45013</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>AMZN42858SH022</t>
+          <t>KRUN20619SH022</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1274,43 +1270,39 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1411ZR8P_GDY</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>USADIGDY220134</t>
-        </is>
-      </c>
+          <t>323S6WET_LTR1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>8729.98</v>
+        <v>44.32</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44887</v>
+        <v>44841</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44890</v>
+        <v>44841</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45007</v>
+        <v>44931</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN42858SH022</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1318,32 +1310,28 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="M18" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1PE1AZJP_LTN1</t>
+          <t>1VSGIBCB_LTN2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>2.59</v>
+        <v>40.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1351,13 +1339,13 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44892</v>
+        <v>44914</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44893</v>
+        <v>44915</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44982</v>
+        <v>45034</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -1372,202 +1360,194 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="M19" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>81PTLV4B_LTN2</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>1411ZR8P_GDY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>USADIGDY220134</t>
+        </is>
+      </c>
       <c r="C20" t="n">
-        <v>7.08</v>
+        <v>8729.98</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44907</v>
+        <v>44887</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44908</v>
+        <v>44890</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1BZKS31V_LTN</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>USADILTN220236</t>
-        </is>
-      </c>
+          <t>1PE1AZJP_LTN1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>25344.3</v>
+        <v>2.59</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G21" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>88A48CIL_LTN</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>USADILTN220245</t>
-        </is>
-      </c>
+          <t>81PTLV4B_LTN2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>24646</v>
+        <v>7.08</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44901</v>
+        <v>44908</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45024</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>AMZN46670SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="M22" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4C14JWQL_ROG1</t>
+          <t>1BZKS31V_LTN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>USADIROG210055</t>
+          <t>USADILTN220236</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.15</v>
+        <v>25344.3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44833</v>
+        <v>44893</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1576,21 +1556,25 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="M23" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTR1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>88A48CIL_LTN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>USADILTN220245</t>
+        </is>
+      </c>
       <c r="C24" t="n">
-        <v>26.62</v>
+        <v>24646</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1598,46 +1582,54 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>45024</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>AMZN46670SH022</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6YV3GFKP_GDY</t>
+          <t>3D9C9KYB_JSN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USADIGDY220136</t>
+          <t>USADIJSN220731</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>41125.8</v>
+        <v>4983.92</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1645,17 +1637,17 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44888</v>
+        <v>44914</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44890</v>
+        <v>44915</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45008</v>
+        <v>45034</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1665,7 +1657,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>AMZN46471SH022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1674,21 +1666,25 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="M25" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2GRMROMU_LTN1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>4C14JWQL_ROG1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>USADIROG210055</t>
+        </is>
+      </c>
       <c r="C26" t="n">
-        <v>13.36</v>
+        <v>7.15</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1696,13 +1692,13 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44892</v>
+        <v>44833</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44893</v>
+        <v>44834</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44982</v>
+        <v>44923</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1710,42 +1706,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>AMZN21189NB022</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1YMCF3XG_LTR1</t>
+          <t>2YT17WGL_LTR1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>172</v>
+        <v>26.62</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44911</v>
+        <v>44897</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44911</v>
+        <v>44900</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45001</v>
+        <v>44987</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1760,25 +1760,25 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M27" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6I6888XF_NTX</t>
+          <t>6YV3GFKP_GDY</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>USADINTX220232</t>
+          <t>USADIGDY220136</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>13221.8</v>
+        <v>41125.8</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1786,17 +1786,17 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44914</v>
+        <v>44888</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44914</v>
+        <v>44890</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45034</v>
+        <v>45008</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AMZN46846SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>AMZN46846SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1815,21 +1815,21 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="M28" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7JN9DTJG_NTX1</t>
+          <t>2GRMROMU_LTN1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>9.199999999999999</v>
+        <v>13.36</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44894</v>
+        <v>44892</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -1858,21 +1858,21 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5MMXZNPR_LTN1</t>
+          <t>1YMCF3XG_LTR1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>14.57</v>
+        <v>172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1880,13 +1880,13 @@
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44907</v>
+        <v>44911</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44908</v>
+        <v>44911</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44997</v>
+        <v>45001</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -1901,64 +1901,76 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M30" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>44HMPFED_NTX1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>6I6888XF_NTX</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>USADINTX220232</t>
+        </is>
+      </c>
       <c r="C31" t="n">
-        <v>21.66</v>
+        <v>13221.8</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45000</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
+        <v>45034</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="M31" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2YT17WGL_LTN1</t>
+          <t>7JN9DTJG_NTX1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1966,13 +1978,13 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44892</v>
+        <v>44894</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44982</v>
+        <v>44984</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -1996,12 +2008,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5UJTVWPR_LTN2</t>
+          <t>5MMXZNPR_LTN1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>14.57</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2015,7 +2027,7 @@
         <v>44908</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45027</v>
+        <v>44997</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -2030,44 +2042,40 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M33" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3BTYRGGT_LTN1</t>
+          <t>44HMPFED_NTX1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>14.57</v>
+        <v>21.66</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44860</v>
+        <v>44910</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44861</v>
+        <v>44910</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44950</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>AMZN41831SH022</t>
-        </is>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2077,135 +2085,107 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="M34" t="n">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4TACGJRN_TPF</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>USADITPF220008</t>
-        </is>
-      </c>
+          <t>2YT17WGL_LTN1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>54503</v>
+        <v>17</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="F35" s="2" t="n">
         <v>44893</v>
       </c>
-      <c r="F35" s="2" t="n">
-        <v>44889</v>
-      </c>
       <c r="G35" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6U3SDR7C_LTR</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>USADILTR220230</t>
-        </is>
-      </c>
+          <t>5UJTVWPR_LTN2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>14621.9</v>
+        <v>20</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44888</v>
+        <v>44907</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+        <v>45027</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>AMZN46471SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="M36" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2RQH5YIV_LTN</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>USADILTN220243</t>
-        </is>
-      </c>
+          <t>3BTYRGGT_LTN1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>14834.1</v>
+        <v>14.57</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2213,50 +2193,50 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44906</v>
+        <v>44860</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44907</v>
+        <v>44861</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>44950</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>AMZN41831SH022</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="M37" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>88A48CIL_LTR</t>
+          <t>4TACGJRN_TPF</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>USADILTR220235</t>
+          <t>USADITPF220008</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33500.9</v>
+        <v>54503</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2264,23 +2244,27 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44907</v>
+        <v>44893</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44907</v>
+        <v>44889</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>AMZN46669SH022</t>
+          <t>AMZN09874VN022</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2289,25 +2273,25 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M38" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3D9C9KYB_NTX</t>
+          <t>6U3SDR7C_LTR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>USADINTX220227</t>
+          <t>USADILTR220230</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>21004.2</v>
+        <v>14621.9</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2315,17 +2299,17 @@
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44914</v>
+        <v>44888</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44914</v>
+        <v>44890</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45034</v>
+        <v>45008</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>AMZN46846SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2335,7 +2319,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>AMZN46846SH022</t>
+          <t>AMZN46471SH022</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2344,21 +2328,21 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="M39" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3DEIS4NJ_LTN1</t>
+          <t>85D7RUAD_LTR2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2366,22 +2350,18 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44858</v>
+        <v>44915</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44858</v>
+        <v>44915</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>AMZN24029NB022</t>
-        </is>
-      </c>
+        <v>45035</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2391,35 +2371,39 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="M40" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>42QQW8OE_LTN1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>2RQH5YIV_LTN</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>USADILTN220243</t>
+        </is>
+      </c>
       <c r="C41" t="n">
-        <v>5.18</v>
+        <v>14834.1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
+        <v>44906</v>
+      </c>
+      <c r="F41" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="F41" s="2" t="n">
-        <v>44908</v>
-      </c>
       <c r="G41" s="2" t="n">
-        <v>44997</v>
+        <v>45026</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2427,42 +2411,50 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="M41" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6HLPWWEQ_LTN2</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>88A48CIL_LTR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>USADILTR220235</t>
+        </is>
+      </c>
       <c r="C42" t="n">
-        <v>87.95999999999999</v>
+        <v>33500.9</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44892</v>
+        <v>44907</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44982</v>
+        <v>45027</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2470,75 +2462,91 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>AMZN46669SH022</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>13V4JTZA_LTR1</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>3D9C9KYB_NTX</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>USADINTX220227</t>
+        </is>
+      </c>
       <c r="C43" t="n">
-        <v>33</v>
+        <v>21004.2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44899</v>
+        <v>44914</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44900</v>
+        <v>44914</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44989</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>45034</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="M43" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8S699O7R_LTN</t>
+          <t>6I6888XF_JSN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>USADILTN220246</t>
+          <t>USADIJSN220733</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>48930.9</v>
+        <v>3283.86</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2546,13 +2554,13 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44906</v>
+        <v>44912</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44907</v>
+        <v>44915</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45026</v>
+        <v>45032</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -2560,54 +2568,46 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>AMZN46749SH022</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M44" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8QO31QHQ_LTR</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>3DEIS4NJ_LTN1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>16134.8</v>
+        <v>70</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44888</v>
+        <v>44858</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45008</v>
+        <v>44948</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>AMZN46377SH022</t>
+          <t>AMZN24029NB022</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2615,105 +2615,85 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="M45" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8ZWV2ARN_LTR</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>42QQW8OE_LTN1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>17871.2</v>
+        <v>5.18</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44888</v>
+        <v>44907</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44890</v>
+        <v>44908</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44997</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M46" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4DNNIS5P_LTR</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>USADILTR220248</t>
-        </is>
-      </c>
+          <t>8K8FMYOV_LTN1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>21082.7</v>
+        <v>33.33</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44911</v>
+        <v>44914</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45031</v>
+        <v>45004</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -2721,50 +2701,42 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>AMZN27664NB022</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="M47" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6I6888XF_LTN</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>USADILTN220247</t>
-        </is>
-      </c>
+          <t>3C3NKRUD_LTN4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>26356.3</v>
+        <v>43.5</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
         <v>44914</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44909</v>
+        <v>44915</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45034</v>
+        <v>45004</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -2772,55 +2744,47 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>AMZN46843SH022</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="M48" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>28NZCWFH_LTN1</t>
+          <t>6HLPWWEQ_LTN2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>67.34</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44860</v>
+        <v>44892</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44861</v>
+        <v>44893</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44950</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>AMZN41260SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2830,80 +2794,68 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M49" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8S699O7R_LTR</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>USADILTR220236</t>
-        </is>
-      </c>
+          <t>13V4JTZA_LTR1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>22697.3</v>
+        <v>33</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44910</v>
+        <v>44899</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44911</v>
+        <v>44900</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>44989</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="M50" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6LJYAO7G_LTR</t>
+          <t>8S699O7R_LTN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>USADILTR220239</t>
+          <t>USADILTN220246</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4447.93</v>
+        <v>48930.9</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2911,13 +2863,13 @@
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44911</v>
+        <v>44906</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44911</v>
+        <v>44907</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45031</v>
+        <v>45026</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -2925,83 +2877,79 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>AMZN46749SH022</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M51" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTN</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>USADILTN220255</t>
-        </is>
-      </c>
+          <t>8C2X1J7G_LTN1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>11051.2</v>
+        <v>117.91</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44896</v>
+        <v>44914</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44894</v>
+        <v>44915</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+        <v>45004</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>KRUN20618SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="M52" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8OFVYIYG_JSN1</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>8QO31QHQ_LTR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C53" t="n">
-        <v>81.90000000000001</v>
+        <v>16134.8</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3009,46 +2957,54 @@
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4I5WE9CE_LTR</t>
+          <t>8ZWV2ARN_LTR</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>USADILTR220256</t>
+          <t>USADILTR220219</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1312.08</v>
+        <v>17871.2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3056,23 +3012,27 @@
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44907</v>
+        <v>44888</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44911</v>
+        <v>44890</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>KRUN20788SH022</t>
+          <t>AMZN46377SH022</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3081,35 +3041,39 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="M54" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>613WD55F_LTR1</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>4DNNIS5P_LTR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>USADILTR220248</t>
+        </is>
+      </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>21082.7</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44897</v>
+        <v>44911</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44900</v>
+        <v>44911</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44987</v>
+        <v>45031</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -3117,32 +3081,36 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>AMZN27664NB022</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4TL4LC8Q_TPF</t>
+          <t>6I6888XF_LTN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>USADITPF220008</t>
+          <t>USADILTN220247</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>51556</v>
+        <v>26356.3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3150,27 +3118,23 @@
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44893</v>
+        <v>44914</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44889</v>
+        <v>44909</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>AMZN09874VN022</t>
-        </is>
-      </c>
+        <v>45034</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>AMZN09874VN022</t>
+          <t>AMZN46843SH022</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3179,21 +3143,21 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M56" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1DHMIY4Z_LTR1</t>
+          <t>28NZCWFH_LTN1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>14580.4</v>
+        <v>67.34</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3201,18 +3165,22 @@
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44811</v>
+        <v>44860</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44903</v>
+        <v>44861</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44993</v>
-      </c>
-      <c r="H57" t="inlineStr"/>
+        <v>44950</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>AMZN41260SH022</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3222,39 +3190,43 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="M57" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6V626OPP_LTN1</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>8S699O7R_LTR</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>USADILTR220236</t>
+        </is>
+      </c>
       <c r="C58" t="n">
-        <v>42</v>
+        <v>22697.3</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44858</v>
+        <v>44910</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44858</v>
+        <v>44911</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44948</v>
+        <v>45030</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>AMZN43764SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3262,42 +3234,50 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="M58" t="n">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7GKXJ87A_LTN1</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>6LJYAO7G_LTR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>USADILTR220239</t>
+        </is>
+      </c>
       <c r="C59" t="n">
-        <v>68</v>
+        <v>4447.93</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44892</v>
+        <v>44911</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44893</v>
+        <v>44911</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44982</v>
+        <v>45031</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3312,68 +3292,76 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="M59" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>55J7Z6TQ_NTX1</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>4GLARQRK_LTN</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>USADILTN220255</t>
+        </is>
+      </c>
       <c r="C60" t="n">
-        <v>21.66</v>
+        <v>11051.2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44854</v>
+        <v>44896</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44854</v>
+        <v>44894</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
+        <v>45016</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>KRUN20618SH022</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="M60" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTR</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>USADILTR220229</t>
-        </is>
-      </c>
+          <t>8OFVYIYG_JSN1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>17593.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3381,54 +3369,46 @@
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44888</v>
+        <v>44897</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44890</v>
+        <v>44900</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>AMZN46469SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M61" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1411ZR8P_LTR</t>
+          <t>4I5WE9CE_LTR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>USADILTR220225</t>
+          <t>USADILTR220256</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>28902.8</v>
+        <v>1312.08</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3436,27 +3416,23 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44887</v>
+        <v>44907</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44890</v>
+        <v>44911</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+        <v>45031</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>KRUN20788SH022</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3465,123 +3441,119 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="M62" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3D9C9KYB_LTR</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>USADILTR220232</t>
-        </is>
-      </c>
+          <t>613WD55F_LTR1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>3724.27</v>
+        <v>13</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44910</v>
+        <v>44897</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44911</v>
+        <v>44900</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>44987</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="M63" t="n">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5A3AFC7T_LTN1</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>4TL4LC8Q_TPF</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>USADITPF220008</t>
+        </is>
+      </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>51556</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44840</v>
+        <v>44893</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44841</v>
+        <v>44889</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44930</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>AMZN09874VN022</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="M64" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>8VWKPALG_LTR</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>USADILTR220219</t>
-        </is>
-      </c>
+          <t>1DHMIY4Z_LTR1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>5319.56</v>
+        <v>14580.4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3589,72 +3561,60 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44888</v>
+        <v>44811</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44890</v>
+        <v>44903</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45008</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+        <v>44993</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>AMZN46377SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M65" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>8JYISG4F_TPF</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>USADITPF220009</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTN1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>50593</v>
+        <v>42</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44907</v>
+        <v>44858</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44903</v>
+        <v>44858</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45027</v>
+        <v>44948</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>AMZN10058VN022</t>
+          <t>AMZN43764SH022</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3662,50 +3622,42 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>AMZN10058VN022</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="M66" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6U3SDR7C_JSN</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>USADIJSN220727</t>
-        </is>
-      </c>
+          <t>7GKXJ87A_LTN1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>3683.64</v>
+        <v>68</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45010</v>
+        <v>44982</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
@@ -3720,80 +3672,68 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="M67" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>89NLLCYP_LTR</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>USADILTR220247</t>
-        </is>
-      </c>
+          <t>55J7Z6TQ_NTX1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>684</v>
+        <v>21.66</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44897</v>
+        <v>44854</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44900</v>
+        <v>44854</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>KRUN20622SH022</t>
-        </is>
-      </c>
+        <v>44944</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>KRUN20622SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="M68" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4GLARQRK_LTR</t>
+          <t>6YV3GFKP_LTR</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USADILTR220246</t>
+          <t>USADILTR220229</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>16644</v>
+        <v>17593.7</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3801,17 +3741,17 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44897</v>
+        <v>44888</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45017</v>
+        <v>45008</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>KRUN20621SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3821,7 +3761,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>KRUN20621SH022</t>
+          <t>AMZN46469SH022</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -3830,25 +3770,25 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M69" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6YV3GFKP_JSN</t>
+          <t>1411ZR8P_LTR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>USADIJSN220726</t>
+          <t>USADILTR220225</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9286.879999999999</v>
+        <v>28902.8</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3856,64 +3796,72 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="F70" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="F70" s="2" t="n">
-        <v>44887</v>
-      </c>
       <c r="G70" s="2" t="n">
-        <v>45010</v>
-      </c>
-      <c r="H70" t="inlineStr"/>
+        <v>45007</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>AMZN46374SH022</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M70" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4B1AYW5I_GDY1</t>
+          <t>3D9C9KYB_LTR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>USADIGDY210047</t>
+          <t>USADILTR220232</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>24.55</v>
+        <v>3724.27</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44841</v>
+        <v>44910</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44841</v>
+        <v>44911</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44931</v>
+        <v>45030</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3923,7 +3871,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>AMZN39056SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3932,21 +3880,21 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="M71" t="n">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>265AQW8L_LTN1</t>
+          <t>5A3AFC7T_LTN1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>14.57</v>
+        <v>15</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3954,13 +3902,13 @@
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44892</v>
+        <v>44840</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44893</v>
+        <v>44841</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44982</v>
+        <v>44930</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
@@ -3975,64 +3923,80 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M72" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6NYVMFBS_LTN1</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
+          <t>8VWKPALG_LTR</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>USADILTR220219</t>
+        </is>
+      </c>
       <c r="C73" t="n">
-        <v>22.6</v>
+        <v>5319.56</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44982</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
+        <v>45008</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>AMZN46377SH022</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="M73" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8CTSYSAP_LTN1</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
+          <t>8JYISG4F_TPF</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>USADITPF220009</t>
+        </is>
+      </c>
       <c r="C74" t="n">
-        <v>78.08</v>
+        <v>50593</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4040,17 +4004,17 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44858</v>
+        <v>44903</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44948</v>
+        <v>45027</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>AMZN42426SH022</t>
+          <t>AMZN10058VN022</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4058,32 +4022,36 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>AMZN10058VN022</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="M74" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1BZKS31V_GDY</t>
+          <t>6U3SDR7C_JSN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>USADIGDY220135</t>
+          <t>USADIJSN220727</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4599</v>
+        <v>3683.64</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4091,54 +4059,46 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44895</v>
+        <v>44887</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+        <v>45010</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M75" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>88A48CIL_GDY</t>
+          <t>89NLLCYP_LTR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>USADIGDY220139</t>
+          <t>USADILTR220247</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9314.15</v>
+        <v>684</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4146,23 +4106,27 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44905</v>
+        <v>44897</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44907</v>
+        <v>44900</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45025</v>
-      </c>
-      <c r="H76" t="inlineStr"/>
+        <v>45017</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>KRUN20622SH022</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>AMZN46669SH022</t>
+          <t>KRUN20622SH022</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4171,25 +4135,25 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M76" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1VVPTEPB_JSN</t>
+          <t>6LJYAO7G_JSN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USADIJSN220728</t>
+          <t>USADIJSN220734</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4209</v>
+        <v>4361.44</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4197,13 +4161,13 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44890</v>
+        <v>44912</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44887</v>
+        <v>44915</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45010</v>
+        <v>45032</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -4218,49 +4182,53 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="M77" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3VDOM9XP_ROG1</t>
+          <t>4GLARQRK_LTR</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>USADIROG210057</t>
+          <t>USADILTR220246</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>176.4</v>
+        <v>16644</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44833</v>
+        <v>44897</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44834</v>
+        <v>44900</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
+        <v>45017</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>KRUN20621SH022</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>AMZN21334NB022</t>
+          <t>KRUN20621SH022</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4269,25 +4237,25 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>3AONIT1Q_JSN</t>
+          <t>6YV3GFKP_JSN</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>USADIJSN210500</t>
+          <t>USADIJSN220726</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>227.7</v>
+        <v>9286.879999999999</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -4295,13 +4263,13 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44858</v>
+        <v>44890</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44858</v>
+        <v>44887</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44948</v>
+        <v>45010</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
@@ -4316,76 +4284,68 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="M79" t="n">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2RQH5YIV_LTR</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>USADILTR220232</t>
-        </is>
-      </c>
+          <t>3C3NKRUD_LTN3</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>4922.3</v>
+        <v>5.24</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45030</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+        <v>45004</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Collected</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>AMZN46748SH022</t>
-        </is>
-      </c>
+          <t>Not yet</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="M80" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>134Q2B4B_GDY1</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>4B1AYW5I_GDY1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>USADIGDY210047</t>
+        </is>
+      </c>
       <c r="C81" t="n">
-        <v>21.66</v>
+        <v>24.55</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4393,42 +4353,50 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44911</v>
+        <v>44841</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44911</v>
+        <v>44841</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="H81" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>AMZN39056SH022</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="M81" t="n">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTR1</t>
+          <t>265AQW8L_LTN1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>323.82</v>
+        <v>14.57</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4436,22 +4404,18 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44841</v>
+        <v>44892</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44841</v>
+        <v>44893</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>AMZN42112SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -4461,35 +4425,35 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="M82" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4MHD24HN_LTN1</t>
+          <t>6NYVMFBS_LTN1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>22.6</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44948</v>
+        <v>44982</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
@@ -4504,25 +4468,21 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M83" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6LJYAO7G_ROG</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>USADIROG220085</t>
-        </is>
-      </c>
+          <t>8CTSYSAP_LTN1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>371.75</v>
+        <v>78.08</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4530,17 +4490,17 @@
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44914</v>
+        <v>44858</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44909</v>
+        <v>44858</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45034</v>
+        <v>44948</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>AMZN46846SH022</t>
+          <t>AMZN42426SH022</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4548,54 +4508,50 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>AMZN46846SH022</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="M84" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7N1V3UQY_NTX1</t>
+          <t>1BZKS31V_GDY</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>USADINTX220096</t>
+          <t>USADIGDY220135</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>67.14</v>
+        <v>4599</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44713</v>
+        <v>44893</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44834</v>
+        <v>44895</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44924</v>
+        <v>45013</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>AMZN41531SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4605,7 +4561,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>AMZN41531SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4614,25 +4570,25 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="M85" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTN</t>
+          <t>88A48CIL_GDY</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>USADILTN220239</t>
+          <t>USADIGDY220139</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6488.3</v>
+        <v>9314.15</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4640,27 +4596,23 @@
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44893</v>
+        <v>44905</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44887</v>
+        <v>44907</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>45025</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN46669SH022</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4669,35 +4621,39 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M86" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>8TT9AXJS_LTN1</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
+          <t>1VVPTEPB_JSN</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>USADIJSN220728</t>
+        </is>
+      </c>
       <c r="C87" t="n">
-        <v>49.47</v>
+        <v>4209</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44907</v>
+        <v>44890</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44908</v>
+        <v>44887</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>44997</v>
+        <v>45010</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
@@ -4712,53 +4668,49 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="M87" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1BZKS31V_NTX</t>
+          <t>3VDOM9XP_ROG1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>USADINTX220220</t>
+          <t>USADIROG210057</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6666.82</v>
+        <v>176.4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44893</v>
+        <v>44833</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44890</v>
+        <v>44834</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>AMZN46496SH022</t>
-        </is>
-      </c>
+        <v>44923</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>AMZN46496SH022</t>
+          <t>AMZN21334NB022</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -4767,64 +4719,80 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="M88" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7EDOJ3SU_LTR1</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>6YI2KAXQ_JSN</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>USADIJSN220732</t>
+        </is>
+      </c>
       <c r="C89" t="n">
-        <v>37.7</v>
+        <v>1237.94</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44841</v>
+        <v>44914</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>44841</v>
+        <v>44915</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H89" t="inlineStr"/>
+        <v>45034</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="M89" t="n">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>28FQ3FPY_LTR2</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>3AONIT1Q_JSN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>USADIJSN210500</t>
+        </is>
+      </c>
       <c r="C90" t="n">
-        <v>8.49</v>
+        <v>227.7</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4832,13 +4800,13 @@
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45001</v>
+        <v>44948</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
@@ -4853,25 +4821,25 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="M90" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8S699O7R_GDY</t>
+          <t>2RQH5YIV_LTR</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>USADIGDY220140</t>
+          <t>USADILTR220232</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>20477.7</v>
+        <v>4922.3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4908,7 +4876,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M91" t="n">
         <v>115</v>
@@ -4917,12 +4885,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3GAXBNII_LTN1</t>
+          <t>134Q2B4B_GDY1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>25.8</v>
+        <v>21.66</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4930,13 +4898,13 @@
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44892</v>
+        <v>44911</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>44893</v>
+        <v>44911</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44982</v>
+        <v>45031</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
@@ -4951,21 +4919,21 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="M92" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>89C1ZUNN_LTN1</t>
+          <t>3FACOSDK_LTR1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>38.7</v>
+        <v>323.82</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4973,18 +4941,22 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44907</v>
+        <v>44841</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44908</v>
+        <v>44841</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H93" t="inlineStr"/>
+        <v>44931</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>AMZN42112SH022</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4994,25 +4966,21 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="M93" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>61EHLQ4E_TPF</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>USADITPF220010</t>
-        </is>
-      </c>
+          <t>4MHD24HN_LTN1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>50950</v>
+        <v>7</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5020,13 +4988,13 @@
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44913</v>
+        <v>44858</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>44911</v>
+        <v>44858</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45033</v>
+        <v>44948</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
@@ -5034,36 +5002,32 @@
           <t>Not yet</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>AMZN10121VN022</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="M94" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6YI2KAXQ_LTR</t>
+          <t>6LJYAO7G_ROG</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>USADILTR220233</t>
+          <t>USADIROG220085</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6120.36</v>
+        <v>371.75</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5071,17 +5035,17 @@
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>44911</v>
+        <v>44909</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5091,7 +5055,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>AMZN46748SH022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5100,7 +5064,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M95" t="n">
         <v>115</v>
@@ -5109,34 +5073,34 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1VVPTEPB_GDY</t>
+          <t>7N1V3UQY_NTX1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>USADIGDY220138</t>
+          <t>USADINTX220096</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>23683.3</v>
+        <v>67.14</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44893</v>
+        <v>44713</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>44895</v>
+        <v>44834</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45013</v>
+        <v>44924</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5146,7 +5110,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN41531SH022</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5155,43 +5119,43 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="M96" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>5QEJNSVA_NTX1</t>
+          <t>1VVPTEPB_LTN</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>USADINTX220085</t>
+          <t>USADILTN220239</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5.1</v>
+        <v>6488.3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44718</v>
+        <v>44893</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>44834</v>
+        <v>44887</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44924</v>
+        <v>45013</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5201,7 +5165,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>AMZN41741SH022</t>
+          <t>AMZN46496SH022</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5210,21 +5174,21 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="M97" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6KSMLQ5R_NTX1</t>
+          <t>8TT9AXJS_LTN1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>24.18</v>
+        <v>49.47</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5232,13 +5196,13 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44894</v>
+        <v>44907</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>44984</v>
+        <v>44997</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -5253,87 +5217,95 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M98" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6V626OPP_LTR1</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
+          <t>1BZKS31V_NTX</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>USADINTX220220</t>
+        </is>
+      </c>
       <c r="C99" t="n">
-        <v>27.52</v>
+        <v>6666.82</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44897</v>
+        <v>44893</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>44900</v>
+        <v>44890</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H99" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>AMZN46496SH022</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="M99" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7GDOS76Y_LTN1</t>
+          <t>7EDOJ3SU_LTR1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>61.5</v>
+        <v>37.7</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44858</v>
+        <v>44841</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>AMZN23551NB022</t>
-        </is>
-      </c>
+        <v>44931</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -5343,35 +5315,35 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M100" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2MBWL17N_LTR1</t>
+          <t>28FQ3FPY_LTR2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>6.88</v>
+        <v>8.49</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44897</v>
+        <v>44911</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>44900</v>
+        <v>44911</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44987</v>
+        <v>45001</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
@@ -5386,25 +5358,25 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M101" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6I6888XF_ROG</t>
+          <t>8S699O7R_GDY</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>USADIROG220084</t>
+          <t>USADIGDY220140</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1040.9</v>
+        <v>20477.7</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5412,17 +5384,17 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44914</v>
+        <v>44910</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45034</v>
+        <v>45030</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>AMZN46846SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5432,7 +5404,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>AMZN46846SH022</t>
+          <t>AMZN46748SH022</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -5441,21 +5413,21 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M102" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2ZKZXKNR_LTR1</t>
+          <t>3GAXBNII_LTN1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>21.26</v>
+        <v>25.8</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5463,22 +5435,18 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44858</v>
+        <v>44892</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>AMZN42996SH022</t>
-        </is>
-      </c>
+        <v>44982</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5488,35 +5456,35 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M103" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>85SPQK1O_LTN1</t>
+          <t>89C1ZUNN_LTN1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>27.6</v>
+        <v>38.7</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44892</v>
+        <v>44907</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>44893</v>
+        <v>44908</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44982</v>
+        <v>44997</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
@@ -5531,25 +5499,25 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M104" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1VVPTEPB_LTR</t>
+          <t>61EHLQ4E_TPF</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>USADILTR220231</t>
+          <t>USADITPF220010</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10924</v>
+        <v>50950</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -5557,27 +5525,23 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44893</v>
+        <v>44913</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>44895</v>
+        <v>44911</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45013</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>AMZN46495SH022</t>
-        </is>
-      </c>
+        <v>45033</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>AMZN46495SH022</t>
+          <t>AMZN10121VN022</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5586,25 +5550,25 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="M105" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6I6888XF_LTR</t>
+          <t>6YI2KAXQ_LTR</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>USADILTR220238</t>
+          <t>USADILTR220233</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6810.83</v>
+        <v>6120.36</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -5612,28 +5576,36 @@
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44911</v>
+        <v>44910</v>
       </c>
       <c r="F106" s="2" t="n">
         <v>44911</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>45031</v>
-      </c>
-      <c r="H106" t="inlineStr"/>
+        <v>45030</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>AMZN46748SH022</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M106" t="n">
         <v>115</v>
@@ -5642,83 +5614,99 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1KZUX51O_LTN1</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
+          <t>1VVPTEPB_GDY</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>USADIGDY220138</t>
+        </is>
+      </c>
       <c r="C107" t="n">
-        <v>14.57</v>
+        <v>23683.3</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44907</v>
+        <v>44893</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>44908</v>
+        <v>44895</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44997</v>
-      </c>
-      <c r="H107" t="inlineStr"/>
+        <v>45013</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Not yet</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr"/>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="M107" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3D9C9KYB_LTN</t>
+          <t>5QEJNSVA_NTX1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>USADILTN220243</t>
+          <t>USADINTX220085</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>33819.8</v>
+        <v>5.1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44906</v>
+        <v>44718</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>44907</v>
+        <v>44834</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="H108" t="inlineStr"/>
+        <v>44924</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>AMZN41741SH022</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>AMZN46749SH022</t>
+          <t>AMZN41741SH022</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -5727,21 +5715,21 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="M108" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3MUSVYHM_NTX1</t>
+          <t>6KSMLQ5R_NTX1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>18.8</v>
+        <v>24.18</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -5749,22 +5737,18 @@
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44854</v>
+        <v>44894</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>44854</v>
+        <v>44894</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>44944</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>AMZN24356NB022</t>
-        </is>
-      </c>
+        <v>44984</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Collected</t>
+          <t>Not yet</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5774,39 +5758,35 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="M109" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6YV3GFKP_LTN</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>USADILTN220237</t>
-        </is>
-      </c>
+          <t>6V626OPP_LTR1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>10848.3</v>
+        <v>27.52</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44887</v>
+        <v>44900</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45010</v>
+        <v>44987</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
@@ -5821,25 +5801,25 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="M110" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3FACOSDK_LTN1</t>
+          <t>7GDOS76Y_LTN1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>33</v>
+        <v>61.5</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E111" s="2" t="n">
@@ -5853,7 +5833,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>AMZN42113SH022</t>
+          <t>AMZN23551NB022</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5868,21 +5848,21 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M111" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>66LW139X_LTR1</t>
+          <t>2MBWL17N_LTR1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>66</v>
+        <v>6.88</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -5911,7 +5891,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M112" t="n">
         <v>70</v>
@@ -5920,40 +5900,44 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6FIO1MDJ_ROG1</t>
+          <t>6I6888XF_ROG</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>USADIROG210054</t>
+          <t>USADIROG220084</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>100.1</v>
+        <v>1040.9</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44833</v>
+        <v>44914</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>44834</v>
+        <v>44909</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="H113" t="inlineStr"/>
+        <v>45034</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>AMZN46846SH022</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Not yet</t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>AMZN21189NB022</t>
+          <t>AMZN46846SH022</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -5962,43 +5946,39 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="M113" t="n">
-        <v>10</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>866DPTVE_LTR</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>USADILTR220220</t>
-        </is>
-      </c>
+          <t>2ZKZXKNR_LTR1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>23638.2</v>
+        <v>21.26</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Submitted</t>
+          <t>Queued for payment</t>
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44887</v>
+        <v>44858</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>44890</v>
+        <v>44858</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45007</v>
+        <v>44948</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>AMZN46374SH022</t>
+          <t>AMZN42996SH022</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6006,36 +5986,32 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>AMZN46374SH022</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="M114" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1ZAW8MMM_LTN1</t>
+          <t>85SPQK1O_LTN1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>18.38</v>
+        <v>27.6</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E115" s="2" t="n">
@@ -6045,7 +6021,7 @@
         <v>44893</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45012</v>
+        <v>44982</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
@@ -6060,39 +6036,43 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="M115" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2VVHQCXN_LTN1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>1VVPTEPB_LTR</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>USADILTR220231</t>
+        </is>
+      </c>
       <c r="C116" t="n">
-        <v>19.52</v>
+        <v>10924</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Queued for payment</t>
+          <t>Submitted</t>
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44858</v>
+        <v>44893</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>44858</v>
+        <v>44895</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>44948</v>
+        <v>45013</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>AMZN42426SH022</t>
+          <t>AMZN46495SH022</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6100,42 +6080,50 @@
           <t>Collected</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>AMZN46495SH022</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="M116" t="n">
-        <v>35</v>
+        <v>95</v>